--- a/Batch/15/Curriculum/Day_4_Stats.xlsx
+++ b/Batch/15/Curriculum/Day_4_Stats.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28422"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Acciojob\Modules\Excel\Batch\14\Curriculum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Acciojob\Modules\Excel\Batch\15\Curriculum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A60A3E-C608-4E36-ADF2-27F19E72D331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBFB8A3-05FD-48D1-AFCC-6A87C679F7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="750" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Average" sheetId="1" r:id="rId1"/>
     <sheet name="Median()" sheetId="2" r:id="rId2"/>
     <sheet name="Mode()" sheetId="3" r:id="rId3"/>
-    <sheet name="Max()" sheetId="7" r:id="rId4"/>
-    <sheet name="Min()" sheetId="9" r:id="rId5"/>
+    <sheet name="Min()" sheetId="9" r:id="rId4"/>
+    <sheet name="Max()" sheetId="7" r:id="rId5"/>
     <sheet name="Small()" sheetId="6" r:id="rId6"/>
     <sheet name="Large()" sheetId="5" r:id="rId7"/>
     <sheet name="Percentile()" sheetId="4" r:id="rId8"/>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -269,7 +269,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{EAA59619-A17C-458E-A91F-23803A1C2413}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -369,8 +371,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>87099</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="11" name="Ink 10">
@@ -389,7 +391,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="11" name="Ink 10">
@@ -434,8 +436,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>114737</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="18" name="Ink 17">
@@ -454,7 +456,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="18" name="Ink 17">
@@ -499,8 +501,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>153416</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="25" name="Ink 24">
@@ -519,7 +521,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="25" name="Ink 24">
@@ -564,8 +566,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>113374</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="30" name="Ink 29">
@@ -584,7 +586,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="30" name="Ink 29">
@@ -629,8 +631,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>150531</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="34" name="Ink 33">
@@ -649,7 +651,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="34" name="Ink 33">
@@ -694,8 +696,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>78279</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="50" name="Ink 49">
@@ -714,7 +716,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="50" name="Ink 49">
@@ -759,8 +761,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>97282</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="65" name="Ink 64">
@@ -779,7 +781,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="65" name="Ink 64">
@@ -824,8 +826,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>112680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="69" name="Ink 68">
@@ -844,7 +846,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="69" name="Ink 68">
@@ -889,8 +891,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>151997</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="82" name="Ink 81">
@@ -909,7 +911,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="82" name="Ink 81">
@@ -993,8 +995,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>85166</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="3" name="Ink 2">
@@ -1013,7 +1015,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="3" name="Ink 2">
@@ -1058,8 +1060,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>159691</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="8" name="Ink 7">
@@ -1078,7 +1080,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="8" name="Ink 7">
@@ -1123,8 +1125,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>59297</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="15" name="Ink 14">
@@ -1143,7 +1145,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="15" name="Ink 14">
@@ -1188,8 +1190,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>161722</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="31" name="Ink 30">
@@ -1208,7 +1210,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="31" name="Ink 30">
@@ -1253,8 +1255,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>93708</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="32" name="Ink 31">
@@ -1273,7 +1275,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="32" name="Ink 31">
@@ -1318,8 +1320,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>133333</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="33" name="Ink 32">
@@ -1338,7 +1340,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="33" name="Ink 32">
@@ -1383,8 +1385,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>131281</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="47" name="Ink 46">
@@ -1403,7 +1405,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="47" name="Ink 46">
@@ -1448,8 +1450,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>151359</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="52" name="Ink 51">
@@ -1468,7 +1470,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="52" name="Ink 51">
@@ -1504,45 +1506,6 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2714625" cy="1562100"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image4.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1591,8 +1554,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>10646</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="9" name="Ink 8">
@@ -1611,7 +1574,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="9" name="Ink 8">
@@ -1656,8 +1619,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>29448</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="10" name="Ink 9">
@@ -1676,7 +1639,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="10" name="Ink 9">
@@ -1721,8 +1684,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>95991</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="11" name="Ink 10">
@@ -1741,7 +1704,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="11" name="Ink 10">
@@ -1786,8 +1749,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>174857</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="12" name="Ink 11">
@@ -1806,7 +1769,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="12" name="Ink 11">
@@ -1851,8 +1814,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>34308</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="17" name="Ink 16">
@@ -1871,7 +1834,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="17" name="Ink 16">
@@ -1916,8 +1879,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>161593</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="20" name="Ink 19">
@@ -1936,7 +1899,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="20" name="Ink 19">
@@ -1981,8 +1944,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>88431</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="21" name="Ink 20">
@@ -2001,7 +1964,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="21" name="Ink 20">
@@ -2046,8 +2009,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>3965</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="30" name="Ink 29">
@@ -2066,7 +2029,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="30" name="Ink 29">
@@ -2111,8 +2074,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>141819</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="38" name="Ink 37">
@@ -2131,7 +2094,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="38" name="Ink 37">
@@ -2176,8 +2139,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>130376</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="41" name="Ink 40">
@@ -2196,7 +2159,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="41" name="Ink 40">
@@ -2241,8 +2204,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>71336</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="45" name="Ink 44">
@@ -2261,7 +2224,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="45" name="Ink 44">
@@ -2306,8 +2269,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>53486</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="46" name="Ink 45">
@@ -2326,7 +2289,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="46" name="Ink 45">
@@ -2371,8 +2334,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>105737</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="54" name="Ink 53">
@@ -2391,7 +2354,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="54" name="Ink 53">
@@ -2436,8 +2399,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>142719</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="62" name="Ink 61">
@@ -2456,7 +2419,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="62" name="Ink 61">
@@ -2501,8 +2464,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>47957</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="68" name="Ink 67">
@@ -2521,7 +2484,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="68" name="Ink 67">
@@ -2566,8 +2529,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>7226</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="69" name="Ink 68">
@@ -2586,7 +2549,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="69" name="Ink 68">
@@ -2631,8 +2594,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>23328</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="72" name="Ink 71">
@@ -2651,7 +2614,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="72" name="Ink 71">
@@ -2696,8 +2659,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>99591</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="73" name="Ink 72">
@@ -2716,7 +2679,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="73" name="Ink 72">
@@ -2761,8 +2724,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>123737</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="74" name="Ink 73">
@@ -2781,7 +2744,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="74" name="Ink 73">
@@ -2826,8 +2789,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>61149</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId40">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="75" name="Ink 74">
@@ -2846,7 +2809,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="75" name="Ink 74">
@@ -2891,8 +2854,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>160920</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId42">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="79" name="Ink 78">
@@ -2911,7 +2874,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="79" name="Ink 78">
@@ -2956,8 +2919,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>39729</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId44">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="93" name="Ink 92">
@@ -2976,7 +2939,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="93" name="Ink 92">
@@ -3008,6 +2971,45 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2714625" cy="1562100"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image4.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3099,8 +3101,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>30704</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="15" name="Ink 14">
@@ -3119,7 +3121,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="15" name="Ink 14">
@@ -3164,8 +3166,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>163102</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="16" name="Ink 15">
@@ -3184,7 +3186,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="16" name="Ink 15">
@@ -3229,8 +3231,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>36982</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="27" name="Ink 26">
@@ -3249,7 +3251,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="27" name="Ink 26">
@@ -3294,8 +3296,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>59302</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="28" name="Ink 27">
@@ -3314,7 +3316,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="28" name="Ink 27">
@@ -3359,8 +3361,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>48929</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="29" name="Ink 28">
@@ -3379,7 +3381,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="29" name="Ink 28">
@@ -3424,8 +3426,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>169563</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="30" name="Ink 29">
@@ -3444,7 +3446,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="30" name="Ink 29">
@@ -3489,8 +3491,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>13399</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="31" name="Ink 30">
@@ -3509,7 +3511,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="31" name="Ink 30">
@@ -3554,8 +3556,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>49759</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="37" name="Ink 36">
@@ -3574,7 +3576,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="37" name="Ink 36">
@@ -3619,8 +3621,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>99521</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="44" name="Ink 43">
@@ -3639,7 +3641,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="44" name="Ink 43">
@@ -3712,136 +3714,6 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>293160</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>172723</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>2499</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66934</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="14" name="Ink 13">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B708390B-8A3F-0E73-E7F8-4AD1DC7CCB37}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="5398560" y="2148480"/>
-            <a:ext cx="972082" cy="253440"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="14" name="Ink 13">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B708390B-8A3F-0E73-E7F8-4AD1DC7CCB37}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5392442" y="2142360"/>
-              <a:ext cx="984319" cy="265680"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>478466</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>39991</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>97333</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>124282</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="15" name="Ink 14">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0693C53-ADA0-6FCD-B83A-BE0252D7DC54}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="3401280" y="2195362"/>
-            <a:ext cx="1170082" cy="443520"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="15" name="Ink 14">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0693C53-ADA0-6FCD-B83A-BE0252D7DC54}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3395158" y="2189237"/>
-              <a:ext cx="1182327" cy="455770"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>37188</xdr:colOff>
       <xdr:row>15</xdr:row>
@@ -3853,9 +3725,9 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>124611</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="19" name="Ink 18">
               <a:extLst>
@@ -3873,7 +3745,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="19" name="Ink 18">
@@ -3907,71 +3779,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>380906</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>132922</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>312377</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>46985</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="52" name="Ink 51">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7C540B4-D5BF-D377-2C5E-99BB419D3A1A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="3303720" y="2647522"/>
-            <a:ext cx="3376800" cy="632520"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="52" name="Ink 51">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7C540B4-D5BF-D377-2C5E-99BB419D3A1A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3297600" y="2641360"/>
-              <a:ext cx="3389040" cy="644844"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>598008</xdr:colOff>
       <xdr:row>11</xdr:row>
@@ -3983,9 +3790,9 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>8949</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="55" name="Ink 54">
               <a:extLst>
@@ -4003,7 +3810,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="55" name="Ink 54">
@@ -4048,8 +3855,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>28389</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="61" name="Ink 60">
@@ -4068,7 +3875,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="61" name="Ink 60">
@@ -4113,8 +3920,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>123043</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="62" name="Ink 61">
@@ -4133,7 +3940,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="62" name="Ink 61">
@@ -4178,8 +3985,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>125645</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="68" name="Ink 67">
@@ -4198,7 +4005,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="68" name="Ink 67">
@@ -4243,8 +4050,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="71" name="Ink 70">
@@ -4263,7 +4070,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="71" name="Ink 70">
@@ -4308,8 +4115,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>125722</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="75" name="Ink 74">
@@ -4328,7 +4135,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="75" name="Ink 74">
@@ -4373,8 +4180,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>15146</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="84" name="Ink 83">
@@ -4393,7 +4200,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="84" name="Ink 83">
@@ -4438,8 +4245,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>31500</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="85" name="Ink 84">
@@ -4458,7 +4265,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="85" name="Ink 84">
@@ -4503,8 +4310,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>178076</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="92" name="Ink 91">
@@ -4523,7 +4330,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="92" name="Ink 91">
@@ -4568,8 +4375,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>30369</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="97" name="Ink 96">
@@ -4588,7 +4395,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="97" name="Ink 96">
@@ -4633,8 +4440,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>28260</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="98" name="Ink 97">
@@ -4653,7 +4460,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="98" name="Ink 97">
@@ -4698,8 +4505,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>159022</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="104" name="Ink 103">
@@ -4718,7 +4525,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="104" name="Ink 103">
@@ -4763,8 +4570,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>115051</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="109" name="Ink 108">
@@ -4783,7 +4590,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="109" name="Ink 108">
@@ -4828,8 +4635,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>131996</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="114" name="Ink 113">
@@ -4848,7 +4655,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="114" name="Ink 113">
@@ -4893,8 +4700,8 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>160149</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="180" name="Ink 179">
@@ -4913,7 +4720,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="180" name="Ink 179">
@@ -4958,8 +4765,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>28779</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId40">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="185" name="Ink 184">
@@ -4978,7 +4785,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="185" name="Ink 184">
@@ -5023,8 +4830,8 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>11165</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId42">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="206" name="Ink 205">
@@ -5043,7 +4850,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="206" name="Ink 205">
@@ -5088,8 +4895,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>105197</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId44">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="215" name="Ink 214">
@@ -5108,7 +4915,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="215" name="Ink 214">
@@ -5153,8 +4960,8 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>162823</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId46">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="218" name="Ink 217">
@@ -5173,7 +4980,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="218" name="Ink 217">
@@ -5218,8 +5025,8 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>51305</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId48">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="221" name="Ink 220">
@@ -5238,7 +5045,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="221" name="Ink 220">
@@ -5283,8 +5090,8 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>67891</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId50">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="224" name="Ink 223">
@@ -5303,7 +5110,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="224" name="Ink 223">
@@ -5387,8 +5194,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>96829</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="3" name="Ink 2">
@@ -5407,7 +5214,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="3" name="Ink 2">
@@ -5452,8 +5259,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>87123</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="4" name="Ink 3">
@@ -5472,7 +5279,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="4" name="Ink 3">
@@ -5517,8 +5324,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>133409</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="9" name="Ink 8">
@@ -5537,7 +5344,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="9" name="Ink 8">
@@ -5582,8 +5389,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>45431</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="10" name="Ink 9">
@@ -5602,7 +5409,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="10" name="Ink 9">
@@ -5647,8 +5454,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>159795</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="11" name="Ink 10">
@@ -5667,7 +5474,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="11" name="Ink 10">
@@ -5712,8 +5519,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>30449</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="19" name="Ink 18">
@@ -5732,7 +5539,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="19" name="Ink 18">
@@ -5777,8 +5584,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>131898</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="29" name="Ink 28">
@@ -5797,7 +5604,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="29" name="Ink 28">
@@ -5842,8 +5649,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114896</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="30" name="Ink 29">
@@ -5862,7 +5669,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="30" name="Ink 29">
@@ -5907,8 +5714,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>19519</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="31" name="Ink 30">
@@ -5927,7 +5734,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="31" name="Ink 30">
@@ -5972,8 +5779,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>47748</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="35" name="Ink 34">
@@ -5992,7 +5799,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="35" name="Ink 34">
@@ -6037,8 +5844,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>36431</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="40" name="Ink 39">
@@ -6057,7 +5864,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="40" name="Ink 39">
@@ -6102,8 +5909,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>115169</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="41" name="Ink 40">
@@ -6122,7 +5929,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="41" name="Ink 40">
@@ -6167,8 +5974,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>9464</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="47" name="Ink 46">
@@ -6187,7 +5994,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="47" name="Ink 46">
@@ -6232,8 +6039,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>38965</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="55" name="Ink 54">
@@ -6252,7 +6059,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="55" name="Ink 54">
@@ -6297,8 +6104,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>49270</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="65" name="Ink 64">
@@ -6317,7 +6124,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="65" name="Ink 64">
@@ -6362,8 +6169,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>1016</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="66" name="Ink 65">
@@ -6382,7 +6189,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="66" name="Ink 65">
@@ -6427,8 +6234,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>45506</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="67" name="Ink 66">
@@ -6447,7 +6254,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="67" name="Ink 66">
@@ -6492,8 +6299,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>67664</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="70" name="Ink 69">
@@ -6512,7 +6319,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="70" name="Ink 69">
@@ -6557,8 +6364,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>173793</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="74" name="Ink 73">
@@ -6577,7 +6384,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="74" name="Ink 73">
@@ -6622,8 +6429,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>7819</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId40">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="75" name="Ink 74">
@@ -6642,7 +6449,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="75" name="Ink 74">
@@ -6702,7 +6509,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">130 185 6275,'0'0'6021,"-5"-3"-5327,0 0-362,4 2-185,0 0 1,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1-1,1-1 1,-1 1 0,1-1 0,-1 1 0,0 0 0,1-1-1,-1 1 1,-1 0 0,2 0 170,0 0-177,-2 0-74,2 0-86,1 41-1000,1-5 1061,-7 140-84,-11-96 15,17-79 267,0-31-258,-3-14-411,-2-1 0,-2 2 0,-13-47 0,7 49 344,9 28 53,0 0 1,1 0-1,0 0 1,-2-21-1,5 33 80,10 22-1037,27 22 1078,61 53 1,-56-57-75,-42-39-33,1 1 0,0 0 0,0-1-1,-1 1 1,1-1 0,0 1 0,0 0-1,0-1 1,-1 0 0,1 1 0,0-1-1,0 0 1,0 1 0,0-1 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0-1 0,0 1-1,-1 0 1,1-1 0,0 1-1,0-1 1,0 1 0,0-1 0,-1 1-1,1-1 1,0 0 0,0 1 0,-1-1-1,1 0 1,0 1 0,-1-1 0,1 0-1,-1 0 1,1 0 0,-1 0 0,0 1-1,1-1 1,-1 0 0,1-2 0,17-52 50,-17 49-69,7-21-35,-2-1 1,-1-1 0,3-53-1,-8 81 443,0 44-720,0 162 709,0-205-366,0 1 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1 0,0 0-1,0 0 1,0 0-1,0-1 1,0 1-1,1 0 1,-1 0-1,0 0 1,0-1-1,1 1 1,-1 0 0,1-1-1,-1 1 1,1 0-1,-1-1 1,1 1-1,-1 0 1,1-1-1,0 1 1,16-7-147,13-27 120,-16 9 112,-1 1 0,-1-1 1,15-45-1,0-2 88,-27 70-161,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 1,0-1-1,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 1,1-1-1,-1 1 0,0 0 0,1-1 0,-1 1 0,0 0 1,1-1-1,-1 1 0,1 0 0,-1-1 0,0 1 1,1 0-1,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 1,2 0-1,5 12-56,2 27 164,-9-36-12,6 60 862,-3 111 1,-3-104-795,2-66-371</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1281.88">111 223 4114,'0'0'7801,"0"-14"-5683,13 262-916,-3-64 2292,-10-543-4143,1 353 636,0 1-1,0-1 0,1 0 1,0 1-1,0-1 1,1 1-1,0 0 0,0 0 1,0 0-1,0 0 0,1 0 1,-1 1-1,1 0 1,1-1-1,-1 1 0,0 1 1,1-1-1,9-5 0,-12 8-1,0 1-1,1-1 1,-1 1-1,0-1 1,0 1-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 1 1,0-1-1,0 0 0,0 1 1,1 0-1,-1-1 1,0 1-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 1 1,0-1-1,0 0 1,-1 1-1,1-1 0,-1 1 1,1-1-1,1 4 1,4 3 33,0 0 1,-1 0 0,0 0-1,7 16 1,1 4 53,-6-14-11,0 0 0,-1 1 0,-1 0 0,0 0 0,-1 0 0,-1 1 0,4 29 0,-6-39 257,1-12 21,2-13-17,3-50-406,3 1-1,24-82 1,-29 131 40,5-21 45,-11 39-19,1 5-105,1 0 67,-1-1 1,1 1-1,-1 0 0,0 0 1,0-1-1,-1 1 0,1 0 1,-1 0-1,0 0 0,0 0 0,-1 4 1,2 4 40,68 549 1258,-68-547-1520,2 7 386,11-15-6547,-9-6 1009</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1281.87">111 223 4114,'0'0'7801,"0"-14"-5683,13 262-916,-3-64 2292,-10-543-4143,1 353 636,0 1-1,0-1 0,1 0 1,0 1-1,0-1 1,1 1-1,0 0 0,0 0 1,0 0-1,0 0 0,1 0 1,-1 1-1,1 0 1,1-1-1,-1 1 0,0 1 1,1-1-1,9-5 0,-12 8-1,0 1-1,1-1 1,-1 1-1,0-1 1,0 1-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 1 1,0-1-1,0 0 0,0 1 1,1 0-1,-1-1 1,0 1-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 1 1,0-1-1,0 0 1,-1 1-1,1-1 0,-1 1 1,1-1-1,1 4 1,4 3 33,0 0 1,-1 0 0,0 0-1,7 16 1,1 4 53,-6-14-11,0 0 0,-1 1 0,-1 0 0,0 0 0,-1 0 0,-1 1 0,4 29 0,-6-39 257,1-12 21,2-13-17,3-50-406,3 1-1,24-82 1,-29 131 40,5-21 45,-11 39-19,1 5-105,1 0 67,-1-1 1,1 1-1,-1 0 0,0 0 1,0-1-1,-1 1 0,1 0 1,-1 0-1,0 0 0,0 0 0,-1 4 1,2 4 40,68 549 1258,-68-547-1520,2 7 386,11-15-6547,-9-6 1009</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2287">611 493 5539,'0'0'6997,"18"-9"-5796,60-30-323,-70 35-725,-1 0 1,0 0 0,-1-1-1,1 0 1,-1 0-1,0-1 1,0 0 0,7-8-1,-10 10-69,-1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,0 0 1,0-1-1,0 1 1,0-1-1,0-6 0,-2 10-60,1 0 0,0 1 0,0-1-1,0 1 1,0-1 0,-1 1-1,1-1 1,0 1 0,-1 0-1,1-1 1,0 1 0,-1-1 0,1 1-1,0 0 1,-1-1 0,1 1-1,-1 0 1,1-1 0,-1 1 0,1 0-1,-1 0 1,1-1 0,-1 1-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1-1 0,-1 1 0,1 0-1,-1 0 1,1 0 0,-1 0-1,1 1 1,-1-1 0,1 0-1,-1 0 1,0 0 0,-24 9 212,18-3-228,0 1 0,0 0 0,1 0 0,0 0 0,0 1-1,0 0 1,1 0 0,1 1 0,0-1 0,0 1 0,0 0 0,1 0 0,0 1 0,1-1 0,0 0 0,1 1-1,-1 0 1,2-1 0,0 1 0,0 0 0,2 11 0,-2-20-36,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,3 1 0,35 0-1101,-29-1 774,2-1 55,0 0-1,0-1 1,-1 0-1,1-1 0,-1-1 1,1 1-1,-1-2 0,0 1 1,13-9-1,-2 0-384,0-1 0,-1-1 0,23-22 0,-42 35 704,1 0 0,-1-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 0-1,0 0 1,-1 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0-1 0,0 1-1,0-5 1,-2 7 70,1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 0,1 0 1,-1 0-1,1 0 1,0 1-1,-1-1 1,1 0-1,-1 0 0,0 0 1,1 1-1,-1-1 1,0 0-1,1 1 1,-1-1-1,0 1 0,0-1 1,0 1-1,0-1 1,-2 0 95,1 0 1,-1 0-1,1 1 0,-1-1 1,1 1-1,-1 0 1,0 0-1,1 0 1,-1 0-1,1 0 0,-1 1 1,-3 0-1,3 0-106,-1 1 0,1 0-1,0 0 1,-1 0 0,1 0-1,0 1 1,0-1 0,1 1-1,-1 0 1,1-1-1,-1 1 1,1 0 0,0 1-1,0-1 1,-3 6 0,-23 55 558,27-61-627,-1 1 0,1 0 0,0-1 0,1 1-1,-1 0 1,1 0 0,-1 0 0,1-1 0,0 1-1,2 7 1,-2-10-22,0 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1-1 0,-1 1-1,1 0 1,0 0 0,0 0 0,-1 0-1,1-1 1,0 1 0,0 0 0,0-1-1,0 1 1,0-1 0,0 1 0,0-1-1,0 1 1,0-1 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,1-1 0,-1 1-1,0 0 1,1-2 0,8-1 30,-2-1-1,1-1 1,0 1 0,-1-1 0,0-1 0,0 1-1,-1-1 1,1-1 0,-1 1 0,-1-1 0,1-1-1,7-10 1,4-7-43,-1-1-1,21-43 1,-30 53 52,-2 0 1,0-1 0,-1 0 0,0 0-1,-2-1 1,0 1 0,-1-1-1,0 1 1,-2-1 0,0 0 0,-1 0-1,-1 1 1,-4-22 0,6 37-12,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-3-2 0,3 12 53,-3 35 78,3 60 1,2-49-56,0-40-60,0-1 0,1 0 0,0 0 0,1 0 0,1 0 0,0 0 0,9 19 0,-9-26-29,-1 1 1,1-1-1,1 1 1,-1-1-1,1 0 1,0-1-1,1 1 1,-1-1-1,1 0 1,1-1-1,-1 1 0,1-1 1,0 0-1,8 4 1,-12-8-10,0 0 0,0 1-1,0-1 1,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1-1,0 0 1,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1-1,0 0 1,0 0 0,0 0 0,3-2 0,-2 1 14,0-1 0,0 0 0,-1 0-1,0 0 1,1-1 0,-1 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,3-8 0,0-4 19,0 0 0,-1-1 0,-1 1 0,-1-1 0,0 0 0,1-20 0,-3 21-17,0 9-8,0 0 0,0-1-1,-1 1 1,0 0 0,0 0-1,-1 0 1,1 0 0,-2 0 0,1 0-1,-4-9 1,5 15 3,0 1 0,-1-1 0,1 1 1,0 0-1,-1 0 0,1-1 0,-1 1 0,1 0 0,0-1 1,-1 1-1,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 1,-1 1-1,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 1,1-1-1,-1 0 0,1 0 0,0 0 0,-1 0 0,1 1 1,-1-1-1,1 0 0,0 0 0,-1 1 0,1-1 0,0 0 1,-1 1-1,1-1 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 1,-1 1-1,1-1 0,0 0 0,0 1 0,0-1 0,0 1 1,0-1-1,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 1,1 0-1,-8 29 58,5-16-26,-2 13 16,1 1 0,1-1 0,1 1 0,2-1 0,3 30 0,-3-54-86,-1-1 1,0 0-1,1 1 0,-1-1 0,1 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,0-1 0,-1 1 0,1 0 1,0-1-1,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 1,0-1-1,1 1 0,-1 0 0,0-1 0,1 1 1,-1-1-1,0 1 0,1-1 0,4-1 0,-2 1-306,0-1 0,0-1 0,0 1 0,-1-1 0,1 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,0-1 0,0 1 0,4-6 0,2-4-1588,-1-1-1,0 0 1,12-28-1,-3-3-967</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2423.39">1529 85 1969,'0'0'12934,"-76"-84"-12934,76 94-448,0 10-97,0 8-1936,0-2-976,4 10-3330</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3388.36">1720 289 6947,'0'0'7702,"-12"-13"-7075,-38-38-125,48 49-472,1 1 0,-1 0-1,1-1 1,-1 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0-1,0-1 1,0 1 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0-1,0 0 1,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1-1,-1 2 1,-1 3-8,-1 0 0,1 1 0,0-1 0,0 1 0,0 0-1,1 0 1,-3 9 0,2-4-21,1 0-1,0 0 1,1 1-1,0-1 1,1 1-1,0-1 1,1 1-1,0-1 1,4 21 0,-4-32-14,1 1 0,0 0 1,-1-1-1,1 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 0 0,1 1 1,-1-1-1,0 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1-1 0,1 1 1,0 0-1,-1-1 1,1 1-1,0-1 1,0 0-1,-1 1 1,1-1-1,0 0 0,0 0 1,-1 0-1,1 0 1,0-1-1,2 0 1,1 1-28,-1-1 0,1 0 0,-1 0 0,1-1 0,-1 0 0,1 1 0,-1-1 0,0-1-1,0 1 1,0-1 0,5-4 0,1-3-69,-1 0 0,-1-1 0,1-1-1,-2 1 1,1-1 0,-2-1 0,0 1-1,0-1 1,-1 0 0,5-20 0,-7 20 668,-1 0 0,0 0 0,0-21 1,-2 55-591,3 61 266,-3-76-218,2 1 1,-1 0-1,1-1 1,0 1-1,0-1 1,0 0-1,1 0 0,0 0 1,8 12-1,-10-17-21,-1 0 0,1 0 0,0-1-1,-1 1 1,1 0 0,0 0-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0 0,0-1-1,0 1 1,0-1 0,0 1 0,0-1-1,1 0 1,-1 1 0,0-1-1,0 0 1,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,0 0-1,0 0 1,1 0 0,0-1-1,1 0 20,0-1 0,-1 1 0,1-1-1,0 0 1,-1 0 0,0 0 0,1 0 0,-1 0-1,0-1 1,0 1 0,2-4 0,3-5 63,0 0-1,-1-1 1,0 0 0,6-17 0,-8 29-82,2 11-35,10 31-93,8 17 3,-23-58 114,0 1 0,-1-1 0,1 0-1,0 1 1,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0-1 0,1 1-1,-1 0 1,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,1 0-1,-1 0 1,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0 0-1,1-1 1,-1 1 0,1 0 0,-1-1 0,0 0 0,1 1 0,0-2 0,2-1-34,0 0 0,-1 0 0,0 0 0,0 0 1,0 0-1,0-1 0,0 1 0,-1-1 0,1 0 0,-1 0 1,0 0-1,2-5 0,14-70 289,26 139 456,-41-57-1132,1 0-1,-1-1 1,1 1-1,-1-1 1,1 0 0,0 0-1,0 0 1,0 0-1,0-1 1,1 0-1,-1 0 1,0 0-1,1 0 1,6 0-1,17 2-3402</inkml:trace>
@@ -6765,7 +6572,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">188 131 5747,'0'0'8099,"1"-14"-7418,-1 5-601,-1 6-69,1 0-1,0 1 1,-1-1-1,1 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,1 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 1-1,0-1 1,0 0-1,1 1 0,0-1 1,-1 1-1,1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,1 0-1,3-3 0,10-1 16,0 0-1,0 0 1,0 1-1,1 1 0,-1 1 1,1 0-1,0 2 0,0-1 1,30 3-1,-46 0-30,0-1-1,0 1 1,0-1-1,0 1 1,0-1 0,-1 1-1,1 0 1,0 0 0,0-1-1,0 1 1,-1 0-1,1 0 1,0 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0-1,0 0 1,0 0 0,-1 2-1,-3 35-123,0-26 126,0 0 1,-1 0-1,-1 0 1,0-1-1,0 0 0,-14 18 1,-58 61-122,24-29-305,38-38 383,15-22 45,1-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0-1,-1 0 1,1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,1 0-1,-1 1 1,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0-1,0 1 1,0-1 0,1 0 0,-1 0 0,0 0 0,5 1 27,-1-1 1,1 0-1,0-1 1,-1 1-1,1-1 1,-1 0-1,0 0 1,6-2-1,31-11 256,-30 9-358,0 1-1,0 1 1,1 0 0,-1 0-1,20-1 1,-27 6-2837,-3 9-1284</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="464.23">130 665 7652,'0'0'5639,"11"-16"-5129,-3 3-447,-4 5-32,0 0 1,1 0 0,0 1-1,0 0 1,1 0 0,0 1 0,0-1-1,0 1 1,1 0 0,0 1-1,0 0 1,13-7 0,-17 10-5,10-5 114,1 1 0,-1-1 0,1 2 0,1 0 0,-1 1 0,1 0 0,0 1 0,15-1 0,-29 12-234,-1 0 103,-1-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,0 0 0,-6 7-1,-13 16 157,-34 31 0,17-18-96,37-38-77,-1-1-1,1 1 1,0-1-1,0 1 1,0 0-1,0 1 1,1-1-1,0 0 1,0 1-1,0-1 1,0 1-1,1-1 1,-1 1-1,0 6 1,31-10-196,-15-2 242,0-1 1,0-1-1,-1 0 0,1 0 0,-1-2 1,1 1-1,-1-2 0,14-7 0,25-10 16,-51 23-249,15-3 371,-13 18-15175</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="464.22">130 665 7652,'0'0'5639,"11"-16"-5129,-3 3-447,-4 5-32,0 0 1,1 0 0,0 1-1,0 0 1,1 0 0,0 1 0,0-1-1,0 1 1,1 0 0,0 1-1,0 0 1,13-7 0,-17 10-5,10-5 114,1 1 0,-1-1 0,1 2 0,1 0 0,-1 1 0,1 0 0,0 1 0,15-1 0,-29 12-234,-1 0 103,-1-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,0 0 0,-6 7-1,-13 16 157,-34 31 0,17-18-96,37-38-77,-1-1-1,1 1 1,0-1-1,0 1 1,0 0-1,0 1 1,1-1-1,0 0 1,0 1-1,0-1 1,0 1-1,1-1 1,-1 1-1,0 6 1,31-10-196,-15-2 242,0-1 1,0-1-1,-1 0 0,1 0 0,-1-2 1,1 1-1,-1-2 0,14-7 0,25-10 16,-51 23-249,15-3 371,-13 18-15175</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1039.03">157 1152 8100,'0'0'6016,"11"-12"-5715,-4 3-172,1 1 0,0 0 0,0 1 0,1-1 0,0 1 0,0 1 0,1 0 1,0 0-1,0 1 0,20-7 0,-22 10 36,0-1 0,0 1 1,1 1-1,15-1 1,-23 2-166,-1 1 0,1 0 0,0 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 0,0 1 1,0-1-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,-1 2 0,1-1 12,-1 6 15,0-1 0,0 1 0,0-1 0,-1 0 0,0 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,-1-1 0,0 1 0,0-1 0,-1 0-1,0 0 1,0 0 0,-7 6 0,-27 36 89,38-47-135,0 1 0,0 0-1,0-1 1,0 1 0,0 0 0,0 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,0 4 0,1-6-4,0 1-1,0 0 1,1-1 0,-1 1 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,1 1 0,3 1-153,0-1-1,1 0 1,-1 0 0,1 0-1,0-1 1,10 0-1,6 1-78,-3 0 65,-12-1 112,-1 0 0,0 0 0,0 1 0,0 0 0,0 0 0,8 3 0,-13-4 70,-1 1 1,1-1-1,-1 1 0,1-1 1,0 1-1,-1-1 1,1 1-1,-1 0 1,1-1-1,-1 1 1,1-1-1,-1 1 1,0 0-1,1 0 1,-1-1-1,0 1 1,1 0-1,-1-1 1,0 1-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0 0 1,-1 0-1,1-1 1,0 1-1,-1 0 1,1-1-1,0 1 1,-1 0-1,1-1 1,-1 1-1,1 0 1,-1-1-1,1 1 1,-1-1-1,1 1 1,-1-1-1,0 1 1,-1 0-1,-28 25 304,-1-9 214,0-2-1,-2-1 0,0-2 0,-54 13 0,60-21-188,16-4-2586,3 0-2992</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1618.91">170 1725 7828,'0'0'8657,"4"-4"-8382,6-5-193,0 0-1,1 1 1,0 1 0,1 0 0,0 0 0,0 1 0,0 0 0,1 1 0,-1 1-1,1 0 1,0 1 0,1 0 0,-1 1 0,0 0 0,20 1 0,-31 1-84,-1 0 0,0 0 0,1 0-1,-1 1 1,0-1 0,1 0 0,-1 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,1 2 0,-1 0-4,1 1 0,-1 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,-1 0 0,1 4 0,-1 0 16,0 0 0,0 0 0,-1 0-1,0-1 1,0 1 0,0 0 0,-1-1-1,-5 12 1,0-7 39,-1-1 0,0 0-1,0-1 1,-1 0-1,-20 17 1,17-16-19,1 0 0,0 0-1,-16 23 1,26-33-57,0 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,-1-1-1,1 0 1,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,0 0-1,2 0 1,4 2-26,0 1-1,1-2 1,-1 1-1,1-1 0,9 1 1,0 1 19,-7-1 8,0 0 1,-1 0 0,0 1-1,0 0 1,17 10 0,-25-13 29,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 1,0 0-1,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0 1 1,0-1 25,0 0 0,-1 0 1,1 0-1,-1 0 0,0-1 1,0 1-1,1 0 0,-1 0 0,-1-1 1,1 1-1,0 0 0,0-1 1,0 1-1,-1-1 0,1 0 1,-1 1-1,1-1 0,-1 0 1,-2 1-1,-20 14 253,-1-1 0,0-2 0,-1 0 0,-53 17 0,-114 20-2042,162-45-840,7-4-2109</inkml:trace>
 </inkml:ink>
@@ -6858,11 +6665,11 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 298 2897,'0'0'5341,"0"-1"-5274,0 1-1,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,1 1 1,-1-1-1,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 1,1-1-1,-1 1 0,0-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 1,-1-1-1,1 1 0,0 0 0,5 8 142,-1 1 1,-1-1-1,1 1 1,-2 1-1,1-1 1,-1 0-1,-1 1 1,1 0-1,-2-1 0,2 13 1,-1 17-21,-2 49 0,-1-37-29,-4-16-178,2-25 558,2-24 1838,1-6-2302,-2-13-69,3-1-1,0 1 1,2 0 0,2-1-1,1 1 1,12-37 0,-14 58-19,0 0 1,2 0-1,-1 1 0,14-19 1,-18 28 10,0 1 0,0-1 1,0 1-1,0-1 1,0 1-1,1-1 1,-1 1-1,1 0 1,-1 0-1,1-1 0,-1 1 1,1 0-1,0 0 1,-1 1-1,1-1 1,0 0-1,0 1 0,-1-1 1,1 1-1,0-1 1,0 1-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 1,-1 0-1,1 1 1,0-1-1,0 1 0,0-1 1,0 1-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,-1 0 0,1 0 1,1 2-1,3 6 12,0 0 0,0 0 0,-1 1-1,0-1 1,0 1 0,-1 0 0,-1 1-1,0-1 1,0 0 0,1 14 0,5 10 16,-7-27-22,-1-1 17,0 0 0,1-1 0,0 1 1,0 0-1,0 0 0,1-1 0,0 0 0,4 8 0,-5-14-8,1 1 0,-1-1 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,3-2 0,25-40-31,-21 32 44,11-21 15,25-58 0,-21 41-67,-22 48 26,10-11 48,-10 13-49,-1 0 1,1 0-1,-1 1 1,1-1-1,-1 0 1,1 1-1,-1-1 1,0 0-1,1 1 1,-1-1-1,1 1 1,-1-1-1,0 0 1,0 1-1,1-1 0,-1 1 1,0-1-1,0 1 1,1-1-1,-1 1 1,0 0-1,0-1 1,0 1-1,0-1 1,0 1-1,0-1 1,0 1-1,0-1 1,0 1-1,0-1 1,0 2-1,2 25 56,-2-24-13,2 229 1655,0 7-2743,-2-237 804,0 0 1,1 0-1,-1 0 0,0 0 1,1 1-1,-1-1 1,1 0-1,-1-1 0,1 1 1,0 0-1,0 0 1,0 0-1,0 0 0,0-1 1,1 1-1,-1 0 1,0-1-1,1 1 0,-1-1 1,1 1-1,0-1 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 0,0-1 1,0 1-1,0-1 1,0 1-1,3-1 0,21 2-4637</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="348.61">647 435 2977,'0'0'10178,"-4"-5"-9094,4 5-1062,-1-1 0,0 0 0,1 0 1,-1 1-1,1-1 0,-1 0 0,0 1 1,1-1-1,-1 0 0,0 1 0,0-1 1,0 1-1,1-1 0,-1 1 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 1,0 0-1,0-1 0,1 1 0,-1 0 1,0 0-1,0 0 0,0 0 0,0 1 1,0-1-1,0 0 0,0 0 0,0 0 1,0 1-1,0-1 0,1 0 0,-1 1 1,0-1-1,0 1 0,0-1 0,1 1 1,-1 0-1,0-1 0,1 1 0,-2 1 1,-2 2 42,1 1 1,0-1 0,0 1 0,1-1 0,-1 1-1,1 0 1,0 0 0,-2 10 0,2-11-47,1 0-1,0 1 1,0-1-1,0 1 1,1 0 0,0-1-1,-1 1 1,2-1 0,-1 1-1,0 0 1,3 7-1,-2-11-19,0 1-1,0 0 0,0 0 1,0-1-1,0 1 0,0 0 1,1-1-1,-1 1 1,1-1-1,-1 0 0,1 1 1,-1-1-1,1 0 0,0 0 1,0 0-1,-1 0 0,1 0 1,0-1-1,0 1 0,0-1 1,0 1-1,0-1 0,0 1 1,0-1-1,0 0 0,4 0 1,2 0 24,1 0 1,-1-1-1,0 1 1,0-2-1,0 1 1,0-1-1,0 0 1,0-1-1,-1 0 1,1 0-1,-1-1 1,0 1-1,11-9 1,-14 9-4,-1 0 1,1 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,-1 0 0,1 0 0,-1 0-1,1 0 1,-1-1 0,0 1 0,-1 0 0,1-1 0,-1 0 0,0 1 0,0-1-1,0 0 1,-1 1 0,0-1 0,0 0 0,0 0 0,0 1 0,-2-8 0,1 9-17,0-1-1,0 1 1,-1 0 0,1 0 0,-1 0 0,1 0-1,-1 0 1,0 0 0,0 1 0,0-1 0,-1 1-1,1-1 1,-1 1 0,1 0 0,-1 0 0,0 0 0,0 0-1,0 0 1,0 1 0,-3-2 0,1 1-40,0 0 1,0 0 0,0 1 0,0-1-1,0 1 1,0 1 0,0-1-1,0 1 1,-1 0 0,1 0-1,0 0 1,-9 2 0,13-1-51,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 1,0 1-1,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,1 4 1,-1-2-224,1 0 0,-1 1 1,1-1-1,0 0 1,-1-1-1,1 1 0,1 0 1,-1 0-1,0 0 1,1 0-1,-1-1 0,1 1 1,0-1-1,0 1 1,0-1-1,0 0 0,4 3 1,31 9-2894,7-1 441</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="750.85">932 486 1361,'0'0'8393,"-11"0"-7286,5 0-1015,1 0 1,0 0-1,-1 1 0,1 0 1,0 0-1,0 0 0,0 1 1,0 0-1,0 0 0,0 0 1,0 0-1,1 1 0,-1 0 1,1 0-1,-1 0 0,1 0 1,0 1-1,0 0 0,1 0 1,-1 0-1,1 0 0,0 0 1,0 1-1,0-1 0,1 1 1,0 0-1,-4 9 0,5-10-59,-1 1-1,1 0 1,-1 0-1,1 0 1,0-1-1,1 1 1,-1 0-1,1 0 1,1 7 0,-1-11-25,0 1 0,0-1 1,1 0-1,-1 1 0,0-1 1,1 0-1,-1 1 1,1-1-1,-1 0 0,1 0 1,0 0-1,0 1 1,-1-1-1,1 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0-1-1,0 1 1,1 0-1,-1 0 0,0-1 1,0 1-1,0-1 1,1 1-1,-1-1 0,0 1 1,1-1-1,-1 0 1,0 1-1,1-1 0,-1 0 1,3 0-1,0 0 21,0 0-1,0-1 0,1 1 1,-1-1-1,0 0 1,0 0-1,0 0 1,0 0-1,0-1 1,0 0-1,0 1 0,0-1 1,0-1-1,-1 1 1,5-4-1,-3 0 6,1 0 0,-1 0 0,0-1-1,-1 1 1,1-1 0,-1 0 0,4-12 0,2-7-11,-2-1 0,0 0 0,-2 0-1,-1-1 1,2-49 0,-5-129 89,-3 155 92,0 188 1437,6 230-1091,-4-354-998,1 0 1,-1 0-1,6 16 1,-6-25-16,1 0-1,-1-1 1,1 1 0,0 0-1,0-1 1,0 1-1,0-1 1,0 1 0,1-1-1,0 0 1,0 0 0,0-1-1,0 1 1,5 3 0,18 5-5415</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1112.34">1186 458 6323,'0'0'7499,"1"-5"-7122,2-1-350,-1 1 1,1-1 0,0 1-1,1 0 1,-1 0 0,1 0-1,0 0 1,0 1 0,8-8 0,-7 9 2,-1-1 1,0 1-1,0-1 1,-1 0 0,1-1-1,-1 1 1,0 0 0,0-1-1,0 0 1,0 0-1,-1 0 1,0 0 0,0 0-1,-1 0 1,1-1 0,0-8-1,-1 11-22,-1 0-1,0 1 1,0-1-1,0 1 1,-1-1-1,1 1 0,-1-1 1,1 1-1,-1-1 1,0 1-1,0 0 1,0-1-1,0 1 1,0 0-1,-1 0 1,-1-3-1,2 4 24,-1 0-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 1 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 1-1,-1-1 1,1 0-1,0 1 1,0 0-1,-3 1 1,0 0 24,0 0 1,0 1 0,0 0-1,1 0 1,-1 0-1,1 0 1,0 1-1,0-1 1,0 1-1,0 0 1,1 1-1,-1-1 1,1 0-1,0 1 1,0 0 0,1 0-1,-4 8 1,2-1 81,-1-1 1,2 1-1,-1 0 1,2 0-1,0 0 1,0 1-1,0 12 1,2-11-102,1-1 0,-1 0 0,2 1 0,0-1 0,1 0 0,0 1 0,8 20 0,-8-28-130,1 1 0,-1-1-1,1 0 1,0-1 0,1 1-1,-1-1 1,1 0 0,0 0-1,1 0 1,-1 0-1,1-1 1,0 0 0,0 0-1,0-1 1,0 0 0,12 4-1,-5-3-1075,0 0-1,1-1 0,-1-1 1,25 1-1,7-2-4160</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="750.84">932 486 1361,'0'0'8393,"-11"0"-7286,5 0-1015,1 0 1,0 0-1,-1 1 0,1 0 1,0 0-1,0 0 0,0 1 1,0 0-1,0 0 0,0 0 1,0 0-1,1 1 0,-1 0 1,1 0-1,-1 0 0,1 0 1,0 1-1,0 0 0,1 0 1,-1 0-1,1 0 0,0 0 1,0 1-1,0-1 0,1 1 1,0 0-1,-4 9 0,5-10-59,-1 1-1,1 0 1,-1 0-1,1 0 1,0-1-1,1 1 1,-1 0-1,1 0 1,1 7 0,-1-11-25,0 1 0,0-1 1,1 0-1,-1 1 0,0-1 1,1 0-1,-1 1 1,1-1-1,-1 0 0,1 0 1,0 0-1,0 1 1,-1-1-1,1 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0-1-1,0 1 1,1 0-1,-1 0 0,0-1 1,0 1-1,0-1 1,1 1-1,-1-1 0,0 1 1,1-1-1,-1 0 1,0 1-1,1-1 0,-1 0 1,3 0-1,0 0 21,0 0-1,0-1 0,1 1 1,-1-1-1,0 0 1,0 0-1,0 0 1,0 0-1,0-1 1,0 0-1,0 1 0,0-1 1,0-1-1,-1 1 1,5-4-1,-3 0 6,1 0 0,-1 0 0,0-1-1,-1 1 1,1-1 0,-1 0 0,4-12 0,2-7-11,-2-1 0,0 0 0,-2 0-1,-1-1 1,2-49 0,-5-129 89,-3 155 92,0 188 1437,6 230-1091,-4-354-998,1 0 1,-1 0-1,6 16 1,-6-25-16,1 0-1,-1-1 1,1 1 0,0 0-1,0-1 1,0 1-1,0-1 1,0 1 0,1-1-1,0 0 1,0 0 0,0-1-1,0 1 1,5 3 0,18 5-5415</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1112.33">1186 458 6323,'0'0'7499,"1"-5"-7122,2-1-350,-1 1 1,1-1 0,0 1-1,1 0 1,-1 0 0,1 0-1,0 0 1,0 1 0,8-8 0,-7 9 2,-1-1 1,0 1-1,0-1 1,-1 0 0,1-1-1,-1 1 1,0 0 0,0-1-1,0 0 1,0 0-1,-1 0 1,0 0 0,0 0-1,-1 0 1,1-1 0,0-8-1,-1 11-22,-1 0-1,0 1 1,0-1-1,0 1 1,-1-1-1,1 1 0,-1-1 1,1 1-1,-1-1 1,0 1-1,0 0 1,0-1-1,0 1 1,0 0-1,-1 0 1,-1-3-1,2 4 24,-1 0-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 1 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 1-1,-1-1 1,1 0-1,0 1 1,0 0-1,-3 1 1,0 0 24,0 0 1,0 1 0,0 0-1,1 0 1,-1 0-1,1 0 1,0 1-1,0-1 1,0 1-1,0 0 1,1 1-1,-1-1 1,1 0-1,0 1 1,0 0 0,1 0-1,-4 8 1,2-1 81,-1-1 1,2 1-1,-1 0 1,2 0-1,0 0 1,0 1-1,0 12 1,2-11-102,1-1 0,-1 0 0,2 1 0,0-1 0,1 0 0,0 1 0,8 20 0,-8-28-130,1 1 0,-1-1-1,1 0 1,0-1 0,1 1-1,-1-1 1,1 0 0,0 0-1,1 0 1,-1 0-1,1-1 1,0 0 0,0 0-1,0-1 1,0 0 0,12 4-1,-5-3-1075,0 0-1,1-1 0,-1-1 1,25 1-1,7-2-4160</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1268.8">1582 499 4706,'0'0'13110,"-13"-87"-12678,13 85-304,0-1-128,18 3-5762,0 0 960</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1701.75">1996 71 5683,'0'0'10018,"-17"-11"-9250,-53-31-293,69 41-467,-1 0 0,1 1-1,0-1 1,-1 0 0,1 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,0-1-1,-1 1 1,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0-1,1 1 1,-1-1 0,1 1 0,0-1 0,-1 1 0,1 0 0,0 0 0,0-1 0,-1 1-1,1 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,-1 1 0,-1 2-1,0 0 1,1 1-1,0-1 0,0 1 1,0-1-1,-1 8 1,2-10 5,0 2-13,0 1 1,0-1-1,0 1 0,0-1 0,1 1 0,0-1 0,0 0 0,1 1 1,0-1-1,-1 1 0,2-1 0,-1 0 0,1 1 0,0-1 1,0 0-1,0 0 0,0 0 0,1-1 0,5 8 0,3 0-13,1 0-1,0-1 0,1 0 1,0-1-1,16 10 0,-22-15 27,10 6 8,28 21 19,-43-31-39,0 1 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0-1,-1 0 1,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 5 0,-1-6 9,0 1 1,-1-1-1,1 1 1,-1-1-1,1 0 1,-1 0-1,0 1 1,1-1-1,-1 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,-1-1 1,1 1-1,0 0 1,-1-1-1,-1 1 1,-38 12 288,33-11-219,-34 8 86,26-8-352,0 2 0,0 0 0,0 1 0,-22 11 1,58-21-11904</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2360.2">2099 127 800,'0'0'14607,"0"-5"-13280,0 5-1387,15 243 1492,-8-164-1340,-6-28-503,-1-51 363,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1-1 1,0 1-1,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 1,0 0-1,1-1 0,-1 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 1,4-21-480,0 0 1,-2-1 0,0 1 0,-2-31-1,-1 34 575,1 0 0,1-1 0,0 1-1,2 0 1,0-1 0,1 1 0,9-24 0,-13 42 11,1 0 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,-1 1 1,1-1-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0 1-1,0-1 1,0 1-1,0-1 1,1 1-1,-1 0 1,0-1-1,0 1 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 1 1,0-1-1,0 0 1,0 1-1,0-1 1,1 1-1,-1-1 1,1 2-1,2 0 71,0 0-1,0 1 1,0 0-1,-1 0 0,1 0 1,-1 0-1,0 0 1,5 7-1,9 17 359,-2 2 0,-2 0 0,17 47 0,2 8-3403,-32-83 2808,0-1 1,0 0 0,0 0-1,0 1 1,0-1 0,0 0-1,0 0 1,0 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0 0 0,1 0-1,-1 1 1,0-1-1,0 0 1,0 0 0,0 1-1,0-1 1,1 0 0,-1 0-1,0 0 1,0 1-1,0-1 1,1 0 0,-1 0-1,0 0 1,0 0 0,0 1-1,1-1 1,-1 0-1,0 0 1,0 0 0,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0-1,1 0 1,-1 0 0,0 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,1-1-1,-1 1 1,0 0 0,0 0-1,0 0 1,1 0 0,-1-1-1,0 1 1,0 0-1,0 0 1,1-1 0,5-18-2707,-1-16 990,0-52 0,-8-40 2055,1 23 4284,2 75 2293,3 35-5566,7 99 98,-10-79-1321,2-1 1,0 0-1,2 0 0,1 0 1,1 0-1,11 27 0,-16-49-338,1 1-1,0-1 1,0 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1-1 1,0 1-1,0-1 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,1-1 1,0 1-1,-1-1 1,1 0-1,0 0 1,-1-1-1,8 2 1,-5-2-102,-1 0 0,0 0 1,1 0-1,-1-1 0,0 1 1,0-1-1,0 0 0,1-1 0,-1 1 1,-1-1-1,1 0 0,0 0 0,0-1 1,-1 0-1,9-5 0,14-19-2101</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2360.19">2099 127 800,'0'0'14607,"0"-5"-13280,0 5-1387,15 243 1492,-8-164-1340,-6-28-503,-1-51 363,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1-1 1,0 1-1,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 1,0 0-1,1-1 0,-1 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 1,4-21-480,0 0 1,-2-1 0,0 1 0,-2-31-1,-1 34 575,1 0 0,1-1 0,0 1-1,2 0 1,0-1 0,1 1 0,9-24 0,-13 42 11,1 0 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,-1 1 1,1-1-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0 1-1,0-1 1,0 1-1,0-1 1,1 1-1,-1 0 1,0-1-1,0 1 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 1 1,0-1-1,0 0 1,0 1-1,0-1 1,1 1-1,-1-1 1,1 2-1,2 0 71,0 0-1,0 1 1,0 0-1,-1 0 0,1 0 1,-1 0-1,0 0 1,5 7-1,9 17 359,-2 2 0,-2 0 0,17 47 0,2 8-3403,-32-83 2808,0-1 1,0 0 0,0 0-1,0 1 1,0-1 0,0 0-1,0 0 1,0 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0 0 0,1 0-1,-1 1 1,0-1-1,0 0 1,0 0 0,0 1-1,0-1 1,1 0 0,-1 0-1,0 0 1,0 1-1,0-1 1,1 0 0,-1 0-1,0 0 1,0 0 0,0 1-1,1-1 1,-1 0-1,0 0 1,0 0 0,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0-1,1 0 1,-1 0 0,0 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,1-1-1,-1 1 1,0 0 0,0 0-1,0 0 1,1 0 0,-1-1-1,0 1 1,0 0-1,0 0 1,1-1 0,5-18-2707,-1-16 990,0-52 0,-8-40 2055,1 23 4284,2 75 2293,3 35-5566,7 99 98,-10-79-1321,2-1 1,0 0-1,2 0 0,1 0 1,1 0-1,11 27 0,-16-49-338,1 1-1,0-1 1,0 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1-1 1,0 1-1,0-1 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,1-1 1,0 1-1,-1-1 1,1 0-1,0 0 1,-1-1-1,8 2 1,-5-2-102,-1 0 0,0 0 1,1 0-1,-1-1 0,0 1 1,0-1-1,0 0 0,1-1 0,-1 1 1,-1-1-1,1 0 0,0 0 0,0-1 1,-1 0-1,9-5 0,14-19-2101</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2822.31">2683 237 288,'3'-15'1286,"18"-100"1855,-14 23 7863,-26 110-10190,11-3-743,-1 1 0,2-1 1,0 2-1,1-1 0,1 1 0,0 0 0,2 0 1,0 0-1,0 1 0,2-1 0,0 1 0,2 22 1,-1-37-62,0 1 0,1-1 0,-1 0 0,1 1 0,0-1-1,0 0 1,0 0 0,0 0 0,0 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,5 0-1,-7-1 0,0 1-1,1 0 1,-1-1-1,0 1 0,0-1 1,0 0-1,1 1 1,-1-1-1,0 0 0,0 0 1,0 1-1,0-1 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 1,-1-1-1,1 1 1,-1 0-1,1 0 0,-1 0 1,1-1-1,-1 1 1,0 0-1,1 0 0,-1-1 1,0 1-1,0 0 0,0-3 1,0-53 235,0 43-226,0 12-63,0 0-1,1 0 1,-1 1 0,1-1-1,-1 1 1,1-1-1,0 0 1,0 1-1,-1-1 1,1 1-1,0-1 1,1 1-1,-1 0 1,0 0-1,0-1 1,0 1 0,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 1 1,1-1-1,0 0 1,-1 1-1,1-1 1,0 1-1,-1-1 1,1 1-1,0 0 1,1 0 0,66-4-778,-57 4 827,-11 0-13,0 0-1,0 0 0,0 0 1,0 1-1,0-1 0,0 0 0,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,-1 1 0,1 0 0,0-1 1,0 1-1,0 0 0,-1-1 1,1 1-1,0 0 0,-1 0 0,1 0 1,-1-1-1,1 1 0,-1 0 1,1 1-1,7 34 164,-12 39 393,2-67-453,0 0 0,-1 0 0,0 0 0,-1 0 1,-7 13-1,-10 23-2316,15-14-5390</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3120.6">3026 0 7043,'0'0'5672,"5"13"-5293,1 9 142,-1 1 1,-1 1-1,-1-1 0,1 37 1,-5-32 102,0-14-451,1 0 0,0 1 0,1-1 0,4 24 1,-4-35-164,-1 0 0,1-1 1,0 1-1,0-1 0,0 1 0,0-1 1,0 0-1,0 0 0,1 1 1,-1-1-1,1 0 0,0 0 0,0 0 1,-1 0-1,1-1 0,0 1 1,1 0-1,-1-1 0,0 0 1,0 1-1,1-1 0,-1 0 0,0 0 1,1 0-1,0 0 0,-1-1 1,1 1-1,-1-1 0,1 0 0,-1 1 1,5-1-1,10-2-223,0 0-1,1-1 1,-1-1-1,-1 0 1,1-1-1,0-1 1,-1-1 0,25-14-1,-28 11-2606,-11 2-1843</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3422.63">3583 280 9124,'0'0'8708,"0"-15"-8612,22 10-80,5-3 192,13 0-208,-4 1 0,-5 2-16,0 2-624,-8 3-897,-10 0-784,-4 0-1360</inkml:trace>
@@ -6896,7 +6703,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">67 300 3490,'0'0'9572,"-10"-6"-8465,-46-28 491,56 34-1011,0-1-128,0 0-352,5-2-143,1 2 0,0-1 0,0 1 0,0 0 0,0 0 0,7 0 0,-6 0 24,74-9-381,1 4-1,108 5 1,-188 0 136,0 1 0,1 1-1,-1-1 1,0 0 0,0 1-1,1-1 1,-1 1 0,0-1-1,0 1 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 1 1,-1-1 0,1 0-1,0 1 1,-1 0 0,1-1-1,-1 1 1,1 0 0,-1 0-1,0-1 1,0 1 0,0 0-1,0 0 1,0 1 0,0-1-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 4 0,1 18-3604</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="271.98">139 524 3922,'0'0'6013,"-13"0"-5100,43 0-765,1-2 0,-1-2 1,0-1-1,50-14 0,-75 17-232,119-33 62,-42 16-5114,-71 16 1990</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="271.97">139 524 3922,'0'0'6013,"-13"0"-5100,43 0-765,1-2 0,-1-2 1,0-1-1,50-14 0,-75 17-232,119-33 62,-42 16-5114,-71 16 1990</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="869.88">348 100 3330,'0'0'7216,"-17"-11"-6253,-52-35-61,66 45-648,0-1 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,-2-4 0,4 6-208,-1-1 1,1 1 0,0 0 0,0-1 0,0 1 0,0 0-1,0-1 1,0 1 0,0-1 0,0 1 0,0 0 0,0-1-1,0 1 1,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1-1,0 1 1,0 0 0,1-1 0,-1 1 0,0 0 0,0-1-1,1 1 1,-1 0 0,0-1 0,0 1 0,1 0 0,-1-1-1,0 1 1,1 0 0,0-1 0,31-5 483,-16 8-525,0 1 0,-1 1 0,1 0 1,-1 1-1,0 1 0,0 0 0,0 1 0,-1 0 0,20 15 1,12 4 19,59 29-296,110 78 1,-214-132 258,0 0-1,0 0 1,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1-1-1,-1 1 1,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 3 0,-22 39-1,-155 196 436,-35 54-249,182-249-631,-24 40 1017,36-40-2873,12 3-3835,7-41 465</inkml:trace>
 </inkml:ink>
 </file>
@@ -6927,7 +6734,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">73 252 4322,'0'0'8588,"-4"-11"-7259,-18-53 773,12 93-120,6 3-1883,-22 193 330,24-178-388,0 0 314,1-84-73,-1-3-300,3 0-1,1 0 1,2 1 0,1-1-1,2 1 1,20-62 0,-26 99 13,-1 1 0,0-1-1,1 1 1,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1-1,0-1 1,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1-1,0 0 1,1 0 0,-1 1 0,0-1 0,0 0 0,1 0-1,-1 0 1,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1-1,-1 0 1,3-1 0,-1 2-4,-1 0 0,0 0 0,0-1 0,0 1 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1 0 0,0-1 0,0 1 0,2 3 0,5 12 12,-1 1-1,0-1 0,-2 1 0,0 0 0,3 20 0,14 46 9,-22-83-10,0-1 0,0 1 0,0 0 0,0-1 0,1 1-1,-1 0 1,0-1 0,1 1 0,-1 0 0,1-1 0,-1 1-1,0-1 1,1 1 0,-1 0 0,1-1 0,0 1 0,-1-1-1,1 0 1,-1 1 0,1-1 0,0 1 0,-1-1 0,1 0-1,0 0 1,-1 1 0,1-1 0,0 0 0,0 0 0,-1 0-1,1 0 1,1 0 0,0 0 4,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,1-3 0,40-47 87,-39 45-95,66-108 93,-29 43-105,-39 67 18,-2 3-2,0 0 1,1 1-1,-1-1 0,1 0 0,-1 0 0,0 0 1,1 1-1,0-1 0,-1 0 0,1 1 0,-1-1 1,1 0-1,0 1 0,-1-1 0,1 1 1,0-1-1,0 1 0,-1-1 0,1 1 0,0-1 1,0 1-1,0 0 0,1-1 0,0 7 3,0-1 0,-1 1 0,1-1 1,-1 1-1,-1 0 0,1 8 0,0-8 42,3 114 549,-5-95-689,1 1 0,2 0 1,0 0-1,1-1 0,2 0 0,9 31 1,-12-51-159,0 0 0,0-1 1,1 1-1,-1-1 0,1 0 1,0 1-1,1-1 0,-1 0 1,1-1-1,-1 1 0,8 5 1,-7-7-344,0 1 0,0-1 1,0 0-1,0-1 0,0 1 1,1-1-1,-1 1 0,8 0 1,23 0-5052</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="296.76">710 311 5491,'0'0'10935,"-12"10"-10300,3-3-507,4-5-88,1 1-1,0 0 1,0 0 0,0 0-1,0 1 1,1-1-1,-1 1 1,1 0-1,0 0 1,0 0 0,0 0-1,1 1 1,-1-1-1,1 1 1,0-1-1,1 1 1,-3 8 0,3-4 22,0 0 1,0 0 0,1 0 0,0 0-1,2 14 1,-1-21-61,-1 1-1,1-1 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,1 0-1,-1-1 1,0 1-1,1 0 1,-1 0-1,1-1 1,0 1-1,-1-1 1,1 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0-1 1,4 1-1,2 0 18,0 0 0,0-1 0,0 0 0,0-1 0,0 0 0,0 0 0,0-1 0,0 1 0,0-2 0,0 1 0,-1-1 0,1-1 0,-1 1 0,0-1 0,0 0 0,11-9-1,-14 10-2,0 0 0,0-1 0,-1 1 0,1-1-1,-1 0 1,0 0 0,0 0 0,0 0-1,-1 0 1,1-1 0,-1 1 0,0-1-1,0 0 1,-1 0 0,1 1 0,-1-1-1,0 0 1,0 0 0,-1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,-1-1-1,0 2 1,0-1 0,0 0 0,-2-6-1,0 6-57,1 0 0,-1 0 0,0 1 0,-1-1 0,1 1 0,-1 0 0,0 0-1,0 0 1,0 0 0,0 1 0,-1-1 0,0 1 0,1 0 0,-1 0-1,0 1 1,0 0 0,-1 0 0,1 0 0,0 0 0,-1 1 0,1 0 0,-1 0-1,-6 0 1,11 1-147,-1 0-1,1 1 0,-1-1 1,1 0-1,0 1 0,-1-1 1,1 1-1,-1 0 1,1-1-1,0 1 0,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0 1-1,0-1 0,1 0 1,-1 0-1,0 1 0,1-1 1,-1 1-1,1-1 0,-1 1 1,1-1-1,0 0 1,0 1-1,0-1 0,0 1 1,0-1-1,0 1 0,0 2 1,-1 16-5136</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1004.85">1160 362 6195,'0'0'6670,"-20"-3"-4774,3 0-1481,10 1-300,1 0 0,-1 1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 2 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 1 0,1 0 0,-1 0 0,1 0 0,-10 6 0,4-1 68,0 1 1,0 0-1,1 1 1,1 1-1,-1-1 1,-13 18-1,20-21-164,0-1 0,1 0 0,-1 1 0,1 0 0,1 0 0,-1 0 0,1 0 0,0 0-1,0 1 1,1-1 0,-1 1 0,2-1 0,-1 1 0,1-1 0,0 1 0,1 9 0,-1-15-18,1 1 0,0 0 0,0-1 1,-1 1-1,1-1 0,0 1 1,0-1-1,1 0 0,-1 1 0,0-1 1,0 0-1,0 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1-1 0,-1 1 0,1-1 1,0 1-1,-1-1 0,1 1 1,0-1-1,0 0 0,-1 0 0,1 0 1,0 0-1,1 0 0,3 0 26,1 0-1,-1-1 0,0 1 1,0-1-1,0 0 1,0 0-1,10-4 0,-6-1-30,-1 1-1,0-1 1,1-1-1,-2 0 1,1 0-1,-1-1 1,0 0 0,-1 0-1,0 0 1,0-1-1,-1-1 1,8-13-1,-3 1-115,-1 1 1,-1-2-1,0 1 1,8-43-1,-10 17-72,-2-1-1,-2-82 1,-4 100 259,-5 143 132,2-75-59,2-1 0,2 1-1,6 55 1,-6-86-134,1 0 1,0-1-1,1 1 0,-1 0 1,1-1-1,0 0 0,0 1 1,1-1-1,0 0 0,0 0 0,0-1 1,0 1-1,1 0 0,0-1 1,0 0-1,0 0 0,0 0 0,0-1 1,1 1-1,0-1 0,0 0 1,0 0-1,0-1 0,0 1 0,0-1 1,1 0-1,-1-1 0,1 1 1,0-1-1,-1 0 0,1-1 1,0 1-1,-1-1 0,1 0 0,10-2 1,-8 1-26,0 0 0,-1-1 0,1 0-1,-1-1 1,1 1 0,-1-1 0,0-1 0,0 1 0,0-1 0,0-1 0,-1 1 0,1-1 0,-1 0 0,0 0 0,-1-1-1,0 0 1,1 0 0,-2 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,-1 0 0,0-1 0,4-13 0,-5 8-16,0-1 0,-1 1 1,0-1-1,-1 1 0,-2-16 1,2 26 32,0 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,-3-3 0,3 5 11,1 0-1,-1 0 1,1 1-1,-1-1 1,1 0-1,-1 1 1,1 0-1,-1-1 1,0 1-1,1 0 1,-1-1-1,0 1 1,1 0 0,-1 0-1,0 1 1,1-1-1,-1 0 1,1 0-1,-1 1 1,0-1-1,1 1 1,-1 0-1,1-1 1,-1 1-1,1 0 1,-2 1-1,-2 1 29,0 1-1,1 0 0,0 0 1,0 0-1,0 0 0,0 1 1,1-1-1,0 1 0,0 0 1,0 0-1,0 0 0,1 0 1,0 1-1,-3 9 0,1-1 7,0 0-1,1 1 1,1-1 0,-2 28-1,4-36-62,1-1 0,-1 1 0,1 0 0,1-1 1,-1 1-1,1 0 0,0-1 0,0 0 0,0 1 0,1-1 0,0 0 0,0 0 0,0-1 0,7 9 1,-3-5-583,1-1 0,0 0 0,0 0 0,12 7 0,19 5-4875</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1004.84">1160 362 6195,'0'0'6670,"-20"-3"-4774,3 0-1481,10 1-300,1 0 0,-1 1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 2 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 1 0,1 0 0,-1 0 0,1 0 0,-10 6 0,4-1 68,0 1 1,0 0-1,1 1 1,1 1-1,-1-1 1,-13 18-1,20-21-164,0-1 0,1 0 0,-1 1 0,1 0 0,1 0 0,-1 0 0,1 0 0,0 0-1,0 1 1,1-1 0,-1 1 0,2-1 0,-1 1 0,1-1 0,0 1 0,1 9 0,-1-15-18,1 1 0,0 0 0,0-1 1,-1 1-1,1-1 0,0 1 1,0-1-1,1 0 0,-1 1 0,0-1 1,0 0-1,0 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1-1 0,-1 1 0,1-1 1,0 1-1,-1-1 0,1 1 1,0-1-1,0 0 0,-1 0 0,1 0 1,0 0-1,1 0 0,3 0 26,1 0-1,-1-1 0,0 1 1,0-1-1,0 0 1,0 0-1,10-4 0,-6-1-30,-1 1-1,0-1 1,1-1-1,-2 0 1,1 0-1,-1-1 1,0 0 0,-1 0-1,0 0 1,0-1-1,-1-1 1,8-13-1,-3 1-115,-1 1 1,-1-2-1,0 1 1,8-43-1,-10 17-72,-2-1-1,-2-82 1,-4 100 259,-5 143 132,2-75-59,2-1 0,2 1-1,6 55 1,-6-86-134,1 0 1,0-1-1,1 1 0,-1 0 1,1-1-1,0 0 0,0 1 1,1-1-1,0 0 0,0 0 0,0-1 1,0 1-1,1 0 0,0-1 1,0 0-1,0 0 0,0 0 0,0-1 1,1 1-1,0-1 0,0 0 1,0 0-1,0-1 0,0 1 0,0-1 1,1 0-1,-1-1 0,1 1 1,0-1-1,-1 0 0,1-1 1,0 1-1,-1-1 0,1 0 0,10-2 1,-8 1-26,0 0 0,-1-1 0,1 0-1,-1-1 1,1 1 0,-1-1 0,0-1 0,0 1 0,0-1 0,0-1 0,-1 1 0,1-1 0,-1 0 0,0 0 0,-1-1-1,0 0 1,1 0 0,-2 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,-1 0 0,0-1 0,4-13 0,-5 8-16,0-1 0,-1 1 1,0-1-1,-1 1 0,-2-16 1,2 26 32,0 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,-3-3 0,3 5 11,1 0-1,-1 0 1,1 1-1,-1-1 1,1 0-1,-1 1 1,1 0-1,-1-1 1,0 1-1,1 0 1,-1-1-1,0 1 1,1 0 0,-1 0-1,0 1 1,1-1-1,-1 0 1,1 0-1,-1 1 1,0-1-1,1 1 1,-1 0-1,1-1 1,-1 1-1,1 0 1,-2 1-1,-2 1 29,0 1-1,1 0 0,0 0 1,0 0-1,0 0 0,0 1 1,1-1-1,0 1 0,0 0 1,0 0-1,0 0 0,1 0 1,0 1-1,-3 9 0,1-1 7,0 0-1,1 1 1,1-1 0,-2 28-1,4-36-62,1-1 0,-1 1 0,1 0 0,1-1 1,-1 1-1,1 0 0,0-1 0,0 0 0,0 1 0,1-1 0,0 0 0,0 0 0,0-1 0,7 9 1,-3-5-583,1-1 0,0 0 0,0 0 0,12 7 0,19 5-4875</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1161.93">1726 382 11493,'0'0'5379,"27"-10"-12551,-5 10 529</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1710.16">1940 155 7860,'0'0'7126,"7"16"-6411,34 80-107,-35-81-514,-1 1 0,0 0 1,-1 1-1,-1-1 0,1 26 0,-2-25 27,1-23 91,5-35 103,-6 31-344,23-95 49,-22 95-20,1 1 0,0-1-1,0 1 1,1 0 0,0 0 0,0 1 0,1-1 0,11-11 0,-17 19-2,0 1 0,1-1 0,-1 0 0,1 1 0,-1-1 1,1 1-1,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 1,0 0-1,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,-1 0 0,2 2 1,0 0-14,0 0 1,-1 0 0,0 1 0,1-1 0,-1 1 0,0 0 0,0-1-1,0 1 1,0 0 0,0 5 0,5 72-217,-6-78 232,0 18 25,1 0 1,6 34 0,-7-54-28,0 0 0,0 1 1,0-1-1,0 0 0,0 0 0,0 1 0,0-1 1,0 0-1,0 1 0,0-1 0,0 0 1,0 1-1,1-1 0,-1 0 0,0 0 1,0 1-1,0-1 0,0 0 0,1 0 0,-1 0 1,0 1-1,0-1 0,1 0 0,-1 0 1,0 0-1,0 1 0,1-1 0,-1 0 1,0 0-1,0 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 1 1,1-1-1,-1 0 0,0-1 0,1 1 1,12-10 25,8-21 113,-20 30-122,46-81 10,-19 32 35,54-75 1,-82 125-38,0 0 1,1-1-1,-1 1 0,0 0 1,0-1-1,0 1 0,0 0 1,1 0-1,-1-1 0,0 1 1,0 0-1,0 0 0,1 0 1,-1-1-1,0 1 0,0 0 1,1 0-1,-1 0 0,0 0 1,0-1-1,1 1 0,-1 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 1 0,5 13 359,-5 35-154,-1-36 69,0 47-153,-1 22-700,7-30-2959,2-31-1899,2-10-2156</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2018.89">2497 97 7139,'0'0'6777,"0"14"-6561,-1 13-35,0 77 457,1-97-599,1 0 0,0 0 1,0 0-1,0 1 0,1-1 1,0 0-1,0 0 1,1-1-1,0 1 0,0-1 1,7 11-1,-9-15-14,1 0-1,0-1 1,-1 1 0,1-1-1,0 1 1,0-1 0,0 0-1,0 1 1,0-1 0,0 0-1,0-1 1,0 1 0,0 0-1,1 0 1,-1-1 0,0 1-1,0-1 1,1 0-1,-1 0 1,0 0 0,1 0-1,-1 0 1,0 0 0,1-1-1,-1 1 1,0-1 0,0 0-1,1 1 1,-1-1 0,0 0-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0 0,-1-1-1,1 1 1,2-3 0,5-5 205,0 0 0,0-1 0,0 0 0,-2-1 0,10-15 0,-9 12-49,-2 1-1,0-1 0,-1 0 1,0 0-1,-1-1 0,0 1 1,-1-1-1,-1 0 0,-1 0 1,0 0-1,-1-19 0,0 33-656,-2-8 591</inkml:trace>
@@ -6965,7 +6772,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">37 250 5074,'0'0'9546,"-6"-16"-8180,-16-50-702,22 64-631,-1 0 0,1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 1 0,0-1 0,-1 0-1,1 0 1,0 0 0,0 1 0,0-1 0,1 0-1,-1 1 1,0-1 0,3-1 0,33-20 483,-30 20-399,5-3-32,0 0 0,0 1 1,0 1-1,0 0 0,1 1 1,-1 0-1,1 1 1,0 0-1,0 1 0,0 0 1,0 1-1,13 2 0,-23-1-81,-1 0 0,1 0 0,-1 1-1,0-1 1,1 1 0,-1-1 0,0 1 0,0-1-1,0 1 1,0 0 0,0 0 0,-1 0-1,1 0 1,-1 1 0,1-1 0,-1 0-1,0 1 1,0-1 0,0 0 0,0 1-1,0-1 1,0 1 0,-1 0 0,1-1-1,-1 1 1,0 0 0,0 2 0,1 8 24,0 0 1,-1 1-1,-1-1 1,-2 16 0,0-16 11,-1 1 0,0 0 1,-1-1-1,0 0 1,-1 0-1,-1-1 1,0 0-1,-15 20 1,-82 88 97,79-93-80,5-5 121,11-11 81,0-1-1,0-1 1,-1 1-1,0-2 1,-12 9 0,21-16 273,25-7-319,158-49-1119,-143 47-2889,50-4 1,-44 9-1863</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="522.32">687 446 8004,'0'0'10863,"-3"4"-10100,-2 2-626,-1 0-1,1-1 0,-1 0 0,-1 0 0,1 0 1,-1-1-1,0 1 0,0-2 0,0 1 0,0-1 1,0 0-1,-1-1 0,0 1 0,1-1 0,-1-1 1,0 0-1,-16 1 0,23-3-132,0 1 1,0-1-1,0 1 1,0-1-1,0 0 0,0 0 1,0 1-1,0-1 0,1 0 1,-1 0-1,0 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,1-1 1,0 1-1,0 0 0,-1 0 1,1 0-1,0-1 0,0 1 1,0-2-1,0 0 5,-1-1 0,1 0-1,0 0 1,0 1 0,0-1-1,1 0 1,-1 0 0,3-6-1,-1 7-14,1-1-1,0 1 1,0 0 0,0-1-1,1 2 1,-1-1 0,1 0-1,-1 0 1,1 1 0,0 0-1,0 0 1,0 0 0,0 0-1,9-1 1,-8 1-5,0 0 1,0 1-1,0 0 1,0 0-1,0 0 1,0 1-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 1 0,0 0 1,7 2-1,-11-2 6,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-2 1 0,0 2 19,0 1-1,0-1 1,0 0-1,-1 0 1,0 0-1,0 0 1,-6 7-1,8-11-3,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,0-1-1,0 1 1,0 0 0,0 0 0,0-1-1,0 1 1,0-1 0,0 1 0,0-1-1,0 1 1,0-1 0,0 0 0,0 1 0,-1-1-1,1 0 1,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,-2-1 0,2 1-11,1-1 1,-1 0-1,0 1 1,0-1 0,0 0-1,1 0 1,-1 0 0,0 0-1,1 0 1,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,0-1-1,0 0 1,0 0-7,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 1,1 0-1,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,1 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,3-1 0,-4 2-2,1-1 0,-1 1 0,1 0 0,-1-1-1,1 1 1,-1 0 0,1 0 0,-1 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,0 1 0,0-1-1,-1 1 1,1-1 0,0 1 0,-1-1 0,1 1-1,-1 0 1,0-1 0,0 1 0,0 0 0,1-1-1,-2 1 1,1 0 0,0 1 0,-2 64 40,-1-56-3,-1 1-1,0 0 1,0-1-1,-1 0 1,-1 0-1,0-1 0,0 1 1,-1-1-1,0-1 1,-10 11-1,5-5-807,1 0 1,0 1-1,-9 19 0,12-17-3451</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="522.31">687 446 8004,'0'0'10863,"-3"4"-10100,-2 2-626,-1 0-1,1-1 0,-1 0 0,-1 0 0,1 0 1,-1-1-1,0 1 0,0-2 0,0 1 0,0-1 1,0 0-1,-1-1 0,0 1 0,1-1 0,-1-1 1,0 0-1,-16 1 0,23-3-132,0 1 1,0-1-1,0 1 1,0-1-1,0 0 0,0 0 1,0 1-1,0-1 0,1 0 1,-1 0-1,0 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,1-1 1,0 1-1,0 0 0,-1 0 1,1 0-1,0-1 0,0 1 1,0-2-1,0 0 5,-1-1 0,1 0-1,0 0 1,0 1 0,0-1-1,1 0 1,-1 0 0,3-6-1,-1 7-14,1-1-1,0 1 1,0 0 0,0-1-1,1 2 1,-1-1 0,1 0-1,-1 0 1,1 1 0,0 0-1,0 0 1,0 0 0,0 0-1,9-1 1,-8 1-5,0 0 1,0 1-1,0 0 1,0 0-1,0 0 1,0 1-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 1 0,0 0 1,7 2-1,-11-2 6,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-2 1 0,0 2 19,0 1-1,0-1 1,0 0-1,-1 0 1,0 0-1,0 0 1,-6 7-1,8-11-3,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,0-1-1,0 1 1,0 0 0,0 0 0,0-1-1,0 1 1,0-1 0,0 1 0,0-1-1,0 1 1,0-1 0,0 0 0,0 1 0,-1-1-1,1 0 1,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,-2-1 0,2 1-11,1-1 1,-1 0-1,0 1 1,0-1 0,0 0-1,1 0 1,-1 0 0,0 0-1,1 0 1,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,0-1-1,0 0 1,0 0-7,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 1,1 0-1,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,1 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,3-1 0,-4 2-2,1-1 0,-1 1 0,1 0 0,-1-1-1,1 1 1,-1 0 0,1 0 0,-1 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,0 1 0,0-1-1,-1 1 1,1-1 0,0 1 0,-1-1 0,1 1-1,-1 0 1,0-1 0,0 1 0,0 0 0,1-1-1,-2 1 1,1 0 0,0 1 0,-2 64 40,-1-56-3,-1 1-1,0 0 1,0-1-1,-1 0 1,-1 0-1,0-1 0,0 1 1,-1-1-1,0-1 1,-10 11-1,5-5-807,1 0 1,0 1-1,-9 19 0,12-17-3451</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1022.04">976 227 8868,'0'0'6005,"0"-18"-3369,-3-61-995,2 75-1547,1-1-1,1 0 1,-1 1-1,1-1 1,-1 0-1,1 1 1,1-1-1,-1 1 1,0-1 0,1 1-1,0 0 1,0 0-1,1 0 1,-1 0-1,1 0 1,0 0-1,0 1 1,0-1 0,0 1-1,0 0 1,1 0-1,0 0 1,-1 0-1,1 1 1,0-1-1,1 1 1,4-2-1,4-1-32,-1 1-1,1 0 0,0 1 0,1 1 0,-1 0 0,0 1 0,18 0 0,-29 1-65,0 0-1,-1 0 1,1 0 0,-1 0-1,1 1 1,-1-1-1,1 1 1,-1-1 0,0 1-1,1 0 1,-1-1-1,1 1 1,-1 0 0,0 0-1,0 0 1,0 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,0 0-1,0 2 1,1 1-13,0 0 0,0 0 0,0 0 0,-1 0 1,0 1-1,1-1 0,0 8 0,-1 5 7,-1-1 1,0 1-1,-2 20 1,-1-24 34,-1 0-1,0 0 1,-1 0 0,0-1 0,-1 0 0,-1 0 0,1 0 0,-2-1-1,0 0 1,0 0 0,-1-1 0,0 0 0,-1 0 0,0-1 0,0 0-1,-23 13 1,32-21-66,5-1-30,0 1 0,0 0 0,0-1 1,0 0-1,0 0 0,0 0 0,7-2 1,1 2 47,12-1-12,-14 0-5,0 0 0,0 1 0,0 1 0,0 0 0,11 2 0,-19-2 32,0-1 0,0 1 0,0-1 0,0 1 0,-1 0 1,1 0-1,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 2 0,-1-2 42,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,-1 0 1,1 0-1,-1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 1,-1 0-1,1 0 0,-4 1 0,-63 25 526,58-23-566,3-1-40,-116 35-94,37-24-3571,35-13-2400</inkml:trace>
 </inkml:ink>
 </file>
@@ -7146,7 +6953,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">125 110 2449,'0'0'9220,"-9"-1"-2673,10-4-6463,0 1-1,0-1 0,0 1 1,1 0-1,-1-1 0,1 1 1,0 0-1,1 0 0,-1 0 1,1 1-1,-1-1 0,1 0 1,0 1-1,1 0 0,-1 0 1,0 0-1,8-5 0,-5 4-104,-1 0-1,1 0 1,0 1 0,0-1-1,0 1 1,1 1 0,-1-1-1,1 1 1,-1 0-1,1 1 1,10-2 0,-16 4 13,-1-1 0,1 0 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 1,-1-1-1,1 1 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,0 0 1,1-1-1,-1 1 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0-1 1,0 1-1,0 0 0,0 0 0,0-1 0,0 3 0,0 29-20,-1-24 31,0 4-2,0-1 0,-1 0-1,-1 0 1,0 0 0,-1 0 0,0 0-1,0-1 1,-1 1 0,-1-1 0,-10 15-1,8-13-169,1 0 0,0 1 0,1 0-1,1 0 1,0 0 0,-5 20 0,10-31 77,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,2 3 0,36 25-694,-35-29 782,-1 1 0,1 0-1,-1 0 1,0 0-1,1 1 1,-1-1 0,0 1-1,0-1 1,-1 1-1,1 0 1,-1 0-1,1 0 1,-1 0 0,0 1-1,0-1 1,0 1-1,-1-1 1,1 1 0,-1 0-1,0 0 1,1 6-1,-2-7 107,-1 1-1,1 0 1,-1-1-1,0 1 1,0 0-1,-1-1 1,1 1-1,-1-1 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,-1 0 0,1-1 1,-1 1-1,0-1 1,0 1-1,0-1 1,0 0-1,-7 4 1,-7 3 33,-2 0-1,-35 12 1,34-14-58,11-4-249,-1 1 1,0-2-1,-1 1 1,-17 1-1,-2-5-5013,20-1-119</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="558.62">36 713 7828,'0'0'7800,"-1"10"-7074,0-1-504,0 5 45,0 0 0,1 1 0,0-1-1,1 0 1,3 16 0,-4-27-249,1 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,1 0 1,0-1-1,-1 1 0,1 0 1,0-1-1,0 1 0,1-1 1,-1 0-1,0 0 0,1 0 1,-1 0-1,1 0 0,0 0 1,-1-1-1,1 0 0,0 1 1,0-1-1,0 0 0,0 0 1,0 0-1,0-1 0,1 1 1,-1-1-1,6 0 0,-3 0-4,0-1-1,0 0 1,-1 0-1,1-1 0,0 1 1,-1-1-1,1-1 1,-1 1-1,0-1 1,1 0-1,-1 0 0,-1 0 1,1-1-1,0 1 1,-1-1-1,0 0 1,0-1-1,6-7 1,-2 2-9,-1-1 0,-1 1 0,0-1 0,0 0 0,-1-1 0,-1 1 0,0-1 1,3-12-1,-7 31-335,1 13 322,-1 1 1,-3 22 0,-25 77 565,-10 67 567,33-174-502,2-8-2074</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1017.81">192 1416 9476,'0'0'6379,"-14"-3"-5498,-42-9-145,53 12-696,1 0 0,-1 1-1,1-1 1,-1 0 0,1 1 0,0 0-1,-1-1 1,1 1 0,0 0 0,-1 0-1,1 0 1,0 1 0,0-1 0,0 0 0,0 1-1,0 0 1,0-1 0,0 1 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 0-1,-3 4 1,1 1 5,0-1 0,1 0-1,-1 1 1,1-1 0,0 1 0,-1 11-1,2-14-45,1 0 0,0 0 1,0 0-1,0 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,1 0 0,0 1 1,0-1-1,0 0 0,0 0 0,1 0 0,4 5 0,3 1-2,1-1 0,0 0 0,1 0 1,15 7-1,-14-8-16,0 0-1,-1 1 1,14 12 0,-23-16 53,-1-1 1,0 0-1,0 1 0,0-1 1,0 1-1,0 0 0,-1 0 1,0-1-1,0 1 1,0 0-1,0 0 0,-1 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,-1 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,0 0 0,0 0 1,-1 0-1,0-1 0,1 1 1,-1-1-1,-1 1 1,1-1-1,0 0 0,-1 0 1,0 0-1,-4 4 0,-1 0 39,-1-1-1,0-1 0,1 0 1,-2 0-1,-14 5 0,23-8-138,-1-2-1,0 1 0,0 0 1,0 0-1,0-1 0,0 1 1,0-1-1,0 1 0,0-1 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0-1-1,0 1 0,0-1 1,0 1-1,0-1 0,0 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1-1 0,1 1 1,-1-1-1,1 1 0,0-1 1,-2-3-1,-1-4-1413,2-1-1,-1 0 1,2 1 0,-1-1 0,0-19-1,2-21-7080</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1294.89">76 1413 5523,'0'0'13238,"0"0"-13227,0 0 0,0 0 0,0 0 0,0-1 0,0 1 1,0 0-1,0 0 0,0 0 0,0-1 0,0 1 0,1 0 1,-1 0-1,0-1 0,0 1 0,0 0 0,0 0 1,0 0-1,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 1,0 0-1,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 1,1 0-1,37-2 148,1-2 1,52-12-1,14-2-2942,-110 30-9343</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1294.88">76 1413 5523,'0'0'13238,"0"0"-13227,0 0 0,0 0 0,0 0 0,0-1 0,0 1 1,0 0-1,0 0 0,0 0 0,0-1 0,0 1 0,1 0 1,-1 0-1,0-1 0,0 1 0,0 0 0,0 0 1,0 0-1,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 1,0 0-1,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 1,1 0-1,37-2 148,1-2 1,52-12-1,14-2-2942,-110 30-9343</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -7268,7 +7075,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">174 302 9973,'0'0'3503,"10"-15"-2324,34-49-334,-39 58-754,0 1 0,0 0-1,1 0 1,0 0-1,0 1 1,0 0-1,1 0 1,-1 0 0,1 1-1,0 0 1,0 0-1,0 1 1,0 0-1,1 0 1,-1 1 0,0 0-1,1 0 1,8 0-1,-15 1-87,0 0 0,0 1-1,1-1 1,-1 0 0,0 0-1,0 1 1,0-1 0,0 1 0,0-1-1,0 1 1,1-1 0,-1 1-1,0-1 1,0 1 0,-1 0 0,1 0-1,0 0 1,0-1 0,0 1-1,0 0 1,-1 0 0,1 0 0,0 0-1,0 2 1,1 1-1,-1 0 0,0 0 0,1 0-1,-1 0 1,-1 0 0,1 0 0,0 7 0,-1-3 14,0 1 0,0 0 0,-1-1 0,-1 1 0,1-1 0,-1 1 0,-3 8 0,-1-6 3,-1 0 0,0-1 1,0 1-1,-1-2 0,-1 1 0,1-1 1,-15 11-1,-74 54 163,94-72-179,-195 142-3178,198-144 3159,0-1 0,0 1 1,0 0-1,0 0 0,1-1 0,-1 1 0,0 0 0,0-1 1,0 1-1,0 0 0,0 0 0,0-1 0,0 1 0,0 0 1,0 0-1,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 1,0 0-1,0 0 0,0-1 0,0 1 0,0 0 0,-1 0 1,1 0-1,0-1 0,0 1 0,0 0 0,0 0 1,-1 0-1,1-1 0,0 1 0,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 1,-1 1-1,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,0 1 0,0-1 0,-1 0 1,1 0-1,0 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 1,0 1-1,6-23-258,-4 18 288,1 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 1-1,0-1 0,1 1 1,-1 0-1,1 0 1,0 0-1,0 1 0,0-1 1,0 1-1,0 0 1,1 0-1,-1 0 0,0 1 1,1 0-1,8-2 1,-6 3 54,1-1-1,-1 1 1,0 1 0,1-1 0,-1 1 0,0 1 0,0-1 0,1 1-1,-1 0 1,-1 1 0,1 0 0,12 7 0,22 7-2009,-10-14-2510,-4-3-2980</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="647.37">478 185 7187,'0'0'4973,"3"13"-5031,1 9 118,20 77 501,-24-97-554,1-1 0,0 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,1 0 0,-1 0 0,0 0-1,0-1 1,0 1 0,1-1 0,-1 1-1,0-1 1,0 1 0,1-1 0,-1 1 0,0-1-1,1 0 1,-1 0 0,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0 0,3-1 0,1 0 337,0 1 0,0-1 0,0-1 0,0 1 0,-1-1 0,9-4 0,-7 42-85,-4-32-412,1 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1-1 0,1 0 0,-1-1 0,1 1 0,0-1 0,-1 0 1,7 1-1,-2-1-488,1 1 1,-1-1 0,1-1 0,-1 0 0,1-1 0,0 1 0,-1-2 0,1 1 0,-1-1-1,15-6 1,-22 7 606,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,-1-1-1,1 1 1,-1-1 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,2-4 0,-2 3 308,0 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0 0-1,0-1 1,0 1 0,0 0 0,-2-7 0,1 5 234,0 1-1,-1-1 0,0 0 0,0 1 1,0-1-1,0 1 0,-1 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,-1 0 0,1 1 1,-1 0-1,-5-4 0,8 6-248,-2 1-200,2 0-267,9-2-1334,-1-1 1471,0 0-1,1 0 1,-1 0 0,-1-1-1,1-1 1,0 1-1,-1-1 1,0 0 0,0 0-1,0-1 1,-1 1 0,0-1-1,0-1 1,-1 1-1,1-1 1,-1 0 0,-1 1-1,5-13 1,-1 2 515,-1-1 0,-1 1 0,-1-1 0,0 0-1,-2 0 1,0 0 0,0-21 0,-4 67-581,-1 0-1,-2-1 1,-10 39 0,-4 21 278,2 40-1784,12-43-3560,4-20-3201</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1050.11">1119 822 12438,'0'0'4492,"14"-19"-4222,-2 2-246,11-14 39,-2-1 0,33-63 0,-44 68-55,-1 1-1,-2-2 0,0 1 0,-2-1 0,0 0 1,-2 0-1,-2-1 0,0 1 0,-4-29 0,3 53-9,-1 1-1,0-1 0,0 0 1,0 0-1,0 1 0,0-1 1,-1 0-1,1 1 0,-1-1 1,0 1-1,0 0 0,-4-5 1,5 8 10,1-1-8,0 1 1,0 0-1,0 0 1,0 0 0,0-1-1,0 1 1,-1 0 0,1 0-1,0 0 1,0 0-1,0-1 1,0 1 0,-1 0-1,1 0 1,0 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0-1,0-1 1,0 1 0,-1 0-1,1 0 1,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,0 0-1,0 0 1,-1 0 0,1 1-1,0-1 1,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 0-1,0 0 1,-1 0 0,1 1-1,0-1 1,0 0 0,0 0-1,0 0 1,-1 0-1,1 1 1,0-1 0,0 0-1,0 0 1,0 0-1,0 1 1,0-1 0,0 0-1,0 0 1,0 1-1,0-1 1,-1 0 0,1 1-6,-13 24 13,1 1 0,1 0 1,2 1-1,0 0 1,2 1-1,-5 33 0,6-11-222,2 91 0,4-127 2,0-9-108,0 0 1,0 0-1,1 0 0,-1-1 0,1 1 0,0 0 1,1-1-1,1 6 0,-2-8 6,0 0 0,0 0 0,1 0 0,-1-1 1,0 1-1,1 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,4 2 0,25 0-4990</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1050.1">1119 822 12438,'0'0'4492,"14"-19"-4222,-2 2-246,11-14 39,-2-1 0,33-63 0,-44 68-55,-1 1-1,-2-2 0,0 1 0,-2-1 0,0 0 1,-2 0-1,-2-1 0,0 1 0,-4-29 0,3 53-9,-1 1-1,0-1 0,0 0 1,0 0-1,0 1 0,0-1 1,-1 0-1,1 1 0,-1-1 1,0 1-1,0 0 0,-4-5 1,5 8 10,1-1-8,0 1 1,0 0-1,0 0 1,0 0 0,0-1-1,0 1 1,-1 0 0,1 0-1,0 0 1,0 0-1,0-1 1,0 1 0,-1 0-1,1 0 1,0 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0-1,0-1 1,0 1 0,-1 0-1,1 0 1,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,0 0-1,0 0 1,-1 0 0,1 1-1,0-1 1,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 0-1,0 0 1,-1 0 0,1 1-1,0-1 1,0 0 0,0 0-1,0 0 1,-1 0-1,1 1 1,0-1 0,0 0-1,0 0 1,0 0-1,0 1 1,0-1 0,0 0-1,0 0 1,0 1-1,0-1 1,-1 0 0,1 1-6,-13 24 13,1 1 0,1 0 1,2 1-1,0 0 1,2 1-1,-5 33 0,6-11-222,2 91 0,4-127 2,0-9-108,0 0 1,0 0-1,1 0 0,-1-1 0,1 1 0,0 0 1,1-1-1,1 6 0,-2-8 6,0 0 0,0 0 0,1 0 0,-1-1 1,0 1-1,1 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,4 2 0,25 0-4990</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2754.91">1454 588 3602,'0'0'12814,"0"-11"-11862,1-23-816,-1 34-137,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0-1 0,-1 1 1,1 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,1 0 0,-9 25 45,5-10 14,0-1 1,1 1 0,0 0-1,1 0 1,1 0 0,0 0 0,3 17-1,-3-31-62,1 1 0,-1-1-1,0 0 1,1 1 0,-1-1-1,1 0 1,0 1 0,-1-1-1,1 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0-1 0,1 1-1,-1 0 1,0-1 0,0 1-1,1-1 1,-1 0 0,0 1-1,1-1 1,-1 0 0,1 0-1,-1 0 1,0 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,0 0 1,3-2 0,-1 2 27,-1-1 0,1 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,-1 0-1,1-1 0,1-3 0,0-2 23,-1 1 0,0-1 1,0 0-1,-1 1 1,0-1-1,-1 0 0,0 0 1,0 0-1,0 0 0,-1 1 1,-2-9-1,3 13-45,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 1 0,-6-1 0,45-6-5233,18-21 6249,-33 15-948,-20 15-89,0 0 1,0 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,0 0 0,0 0-1,0 0 1,0 2 0,5 74 164,-4-72-121,0 0 0,0 0 0,1 1 0,-1-1-1,2 0 1,-1 0 0,0-1 0,1 1 0,0 0 0,4 5 0,-6-11-12,0 1 1,0 0-1,0-1 0,-1 1 1,1-1-1,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 0 1,0 0-1,0 1 0,0-1 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1-1 0,0 1 1,0 0-1,0 0 1,0-1-1,0 1 0,0 0 1,0-1-1,0 1 1,0-1-1,-1 1 0,1-1 1,0 1-1,0-1 1,-1 0-1,1 1 0,0-1 1,0-1-1,26-29 407,-26 29-431,10-15 41,9-12 225,-13 23-54,-4 10 32,-3-1-219,-1 5 1,1 0 0,1 0 0,-1 0 0,1 1 0,1-1 0,-1 0 0,4 8 0,-4-14-10,0 1 0,1-1 0,-1 0-1,1 0 1,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,4 0 0,-1 0 17,0-1 1,0 1-1,0-1 1,0 0-1,0 0 1,-1-1-1,1 0 1,0 0-1,-1 0 1,1-1 0,-1 1-1,0-1 1,0-1-1,0 1 1,0-1-1,-1 1 1,1-1-1,5-8 1,-5 6 7,0-1 1,-1 1-1,0-1 1,-1 0-1,1 0 1,-2-1-1,1 1 1,-1-1-1,0 1 0,0-1 1,-1 0-1,0 0 1,0-14-1,-5-4 80,-1 15-443,4 11 326,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 1 1,1-1-1,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 1 1,0-1-1,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 1 1,0-1-1,0 1 0,-2 8 7,0 1 1,0 0 0,1 0-1,0 0 1,0 0 0,1 0-1,3 16 1,-2 8 0,-1-33 10,0 0 1,0 0-1,0 1 0,0-1 0,0 0 1,0 0-1,0 0 0,0 0 0,1 0 1,-1 0-1,0 1 0,1-1 0,-1 0 0,1 0 1,-1 0-1,1 0 0,0 0 0,-1 0 1,1-1-1,0 1 0,0 0 0,0 0 1,-1 0-1,1-1 0,0 1 0,2 0 1,-1 0 30,0-1 0,0 1 0,0-1 1,0 0-1,0 0 0,0 1 0,1-2 0,-1 1 1,0 0-1,0 0 0,0-1 0,0 1 1,3-2-1,9-3 136,-1-1 1,0 0-1,17-11 1,-22 12-285,-2 2 135,-1-1 1,0 0-1,0 0 0,0-1 1,-1 1-1,1-1 1,-1 0-1,0-1 0,0 1 1,-1 0-1,0-1 1,0 0-1,0 0 0,0 0 1,2-10-1,-1 0-205,-1 0 0,0-1-1,-1 1 1,0-31 0,-2 47 156,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,-1 0 0,1 1 0,0-1 1,0 0-1,-1 0 0,1 1 0,0-1 0,-1 1 0,-13 8-27,8 1 36,1-1 0,0 1 0,0 1 0,1-1 0,0 0 0,1 1 0,0 0 0,0 0 0,2 0 0,-1 0 0,1 0 1,1 0-1,0 1 0,3 20 0,-3-30 15,0-1 0,0 1 1,1 0-1,-1-1 0,1 1 0,-1-1 1,1 1-1,-1-1 0,1 1 1,0-1-1,0 1 0,0-1 0,0 0 1,0 1-1,0-1 0,0 0 1,0 0-1,0 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1-1 0,1 1 0,-1-1 1,1 1-1,-1-1 0,1 1 1,0-1-1,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1-1 0,2 0 1,2 0 18,1-1 1,-1 0 0,0 0 0,1 0 0,-1-1 0,0 0 0,0-1 0,9-6 0,16-18 130,-27 22-150,0 1 1,1 0-1,0 0 1,0 1-1,1 0 1,-1-1-1,1 2 1,0-1-1,0 1 1,0 0-1,0 0 1,0 0-1,1 1 0,-1 0 1,13-2-1,-18 5-26,0-1 0,1 1 0,-1 0-1,0-1 1,0 1 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,-1 0 0,1 1-1,-1-1 1,1 0 0,-1 0 0,1 1-1,-1-1 1,0 0 0,0 1-1,0-1 1,0 3 0,3 41 26,-3-44 5,1 24 224,3-31 352,20-30-533,42-25-372,-42 40 120,-1 0 0,26-31-1,-44 45 212,1 0 0,-1-1-1,0 0 1,-1 0-1,0 0 1,0-1-1,-1 1 1,0-1-1,0 0 1,-1 1 0,0-1-1,1-12 1,-3 14 46,1-6 94,0 0 0,-1 0 0,-3-22 0,3 34-108,0 0 0,0-1 0,0 1-1,0-1 1,0 1 0,-1 0-1,1-1 1,0 1 0,-1 0 0,1-1-1,-1 1 1,1 0 0,-1-1 0,0 1-1,0 0 1,0 0 0,1 0 0,-1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 1-1,0-1 1,-1 0 0,1 1 0,0-1-1,0 1 1,-1-1 0,1 1 0,-1 0-1,1-1 1,0 1 0,-1 0-1,1 0 1,-1 0 0,1 0 0,0 0-1,-1 1 1,1-1 0,-1 0 0,-1 1-1,0 2-40,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,1 0 1,-1 1-1,1-1 1,0 1-1,1 0 1,-1 0-1,0-1 1,1 1-1,0 0 1,0 0-1,0 6 1,-3 4-18,-4 23-73,2 1 1,1 0-1,2 0 0,2 0 0,4 52 1,-1-2-4615,-2-59-304</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2974.46">2416 407 11589,'0'0'1249,"107"-64"-897,-54 52-320,0-1 16,-8 5 64,-9 1-16,-10 2-96,-8 2-528,-18 0-1265</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3890.51">767 1239 10341,'0'0'8628,"2"-6"-7964,-1 3-632,0 1 0,0-1 1,0 0-1,1 0 0,-1 0 0,1 1 0,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,0 0 0,1 0 1,-1 0-1,1 0 0,-1 1 0,1-1 0,0 1 1,0-1-1,-1 1 0,1 0 0,0 0 0,0 1 0,0-1 1,0 0-1,0 1 0,1 0 0,-1 0 0,0 0 1,5 0-1,-7 1-40,0 0 0,1-1 0,-1 1 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 1,0-1-1,-1 0 0,1 1 0,-1-1 0,1 0 1,-1 1-1,0-1 0,1 1 0,-1-1 0,0 0 1,0 3-1,4 42-51,-5-36 84,0 0-1,-1 0 1,0 1-1,-1-2 1,0 1 0,0 0-1,-1-1 1,0 1-1,-1-1 1,0 0-1,-1-1 1,1 1-1,-2-1 1,1 0-1,-1 0 1,-10 8-1,-4 3-126,-1-2 0,0 0 0,-2-1 0,-45 24 0,69-40 87,0 1-1,-1-1 1,1 0 0,-1 1-1,1-1 1,-1 1 0,1-1-1,-1 0 1,1 0 0,-1 1-1,0-1 1,1 0 0,-1 0-1,1 0 1,-1 0 0,0 0-1,1 1 1,-1-1 0,1 0-1,-1 0 1,0-1 0,1 1-1,-1 0 1,1 0 0,-1 0 0,1 0-1,-1 0 1,0-1 0,1 1-1,-1 0 1,1 0 0,-1-1-1,0 0 1,4-19-274,24-26-72,-27 45 360,1 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 1,0-1-1,1 1 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 1,2 1-1,-1 0 2,0 0 0,0 0 0,1 1-1,-1-1 1,0 1 0,0 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 1 0,2 1 0,4 8 36,-1 0-1,0 0 0,-1 0 0,4 13 1,-5-7-235,15 36 72,-2-31-2425,6-10-3624,-2-11-1055</inkml:trace>
@@ -7516,7 +7323,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">835 1462 4034,'0'0'10178,"0"-19"-5640,1 53-4494,-3 0 1,-1 0-1,-1 0 1,-2 0-1,-11 36 1,15-65-464,-1 1 1,0-1-1,-1 0 1,1-1 0,-1 1-1,0 0 1,0-1-1,0 0 1,-1 0 0,0 0-1,1-1 1,-1 0-1,-1 0 1,1 0 0,0 0-1,-1-1 1,-9 4-1,9-6-3687</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="686.1">751 805 4674,'0'0'7934,"-2"-4"-6821,0 2-1055,1 1 1,0-1-1,0 0 0,0 0 1,0 0-1,0 1 0,1-1 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,0 0 0,1-1 1,-1 1-1,0 0 0,1 0 1,0 1-1,-1-1 0,1 0 1,0 0-1,0 0 0,0 0 1,0 1-1,0-1 0,0 0 1,1 1-1,-1-1 1,0 1-1,1-1 0,-1 1 1,1 0-1,0 0 0,-1-1 1,1 1-1,4-1 0,2-2-40,1 1 1,0 0-1,0 0 0,0 1 0,0 0 0,0 1 0,0 0 1,14 0-1,-20 1-30,-1 1 1,1-1 0,-1 1-1,0-1 1,1 1-1,-1 0 1,0 0 0,0 0-1,1 0 1,-1 1-1,0-1 1,0 1 0,0-1-1,0 1 1,-1 0-1,1-1 1,0 1 0,-1 0-1,1 0 1,-1 0-1,0 0 1,0 1 0,1-1-1,-1 0 1,-1 0-1,1 1 1,0-1 0,-1 1-1,1-1 1,0 5-1,2 11 37,-1-1 0,-1 1 0,-1 21-1,0-27 15,0-2-10,-1 0 0,0-1 1,-1 1-1,0 0 0,-1-1 1,0 1-1,0-1 0,-1 0 1,0 0-1,-1 0 0,-10 15 1,10-15 15,5-9-48,0 0-1,0 1 1,0-1 0,0 0-1,0 0 1,0 1-1,0-1 1,0 0 0,0 0-1,0 1 1,1-1-1,-1 0 1,0 0 0,0 0-1,0 1 1,0-1 0,0 0-1,1 0 1,-1 0-1,0 1 1,0-1 0,0 0-1,1 0 1,-1 0-1,0 0 1,0 0 0,1 1-1,-1-1 1,0 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0-1,1 0 1,-1 0 0,0-1-1,1 1 1,13 0-177,3-4 213,1-1-1,-1 0 1,0-1-1,0-1 0,-1 0 1,27-17-1,-31 11-1413,-10-4-5862,-2 17 6927,0-6-5537</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1317.19">876 97 3330,'0'0'8179,"-2"-6"-7378,0 0-702,1 4-60,0 1 0,0-1 0,0 0 0,0 1 0,1-1 1,-1 0-1,0 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,4-3 0,5-2 77,-7 4-79,0 0 1,0 0-1,0 0 1,0 0-1,1 1 1,-1-1 0,0 1-1,1 0 1,4-1-1,-7 2-87,-2 6-149,0 0 168,0 0 1,0 0-1,1 0 1,0 0-1,0 0 1,2 10-1,0 4 94,-2-16-82,1 0 0,0 0 0,0 0 1,1 0-1,-1-1 0,1 1 0,-1 0 0,1-1 0,0 1 1,1-1-1,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 1,0-1-1,0 1 0,1-1 0,-1 0 0,7 3 0,-6-3 12,0 0 0,0 1 0,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,-1 1 0,0-1 0,0 1 0,-1 0-1,1 0 1,3 8 0,-6-10 20,0 0 0,1 0 0,-1 1 0,-1-1 0,1 0 0,0 0 0,-1 1 0,1-1 0,-1 0-1,1 0 1,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,0 0-1,0 1 1,0-1 0,1 0 0,-4 1 0,-10 7 324,-1-1 0,-27 10 0,20-9-528,11-5-385</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1317.18">876 97 3330,'0'0'8179,"-2"-6"-7378,0 0-702,1 4-60,0 1 0,0-1 0,0 0 0,0 1 0,1-1 1,-1 0-1,0 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,4-3 0,5-2 77,-7 4-79,0 0 1,0 0-1,0 0 1,0 0-1,1 1 1,-1-1 0,0 1-1,1 0 1,4-1-1,-7 2-87,-2 6-149,0 0 168,0 0 1,0 0-1,1 0 1,0 0-1,0 0 1,2 10-1,0 4 94,-2-16-82,1 0 0,0 0 0,0 0 1,1 0-1,-1-1 0,1 1 0,-1 0 0,1-1 0,0 1 1,1-1-1,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 1,0-1-1,0 1 0,1-1 0,-1 0 0,7 3 0,-6-3 12,0 0 0,0 1 0,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,-1 1 0,0-1 0,0 1 0,-1 0-1,1 0 1,3 8 0,-6-10 20,0 0 0,1 0 0,-1 1 0,-1-1 0,1 0 0,0 0 0,-1 1 0,1-1 0,-1 0-1,1 0 1,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,0 0-1,0 1 1,0-1 0,1 0 0,-4 1 0,-10 7 324,-1-1 0,-27 10 0,20-9-528,11-5-385</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13772.77">92 911 5475,'0'0'3927,"-14"-5"-187,15 7-3740,-1 0 0,1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,0 1-1,-1 0 1,1-1 0,-1 1 0,1-1 0,3 1 0,42 9 84,27-1 364,-16-1-69,69 1 0,-122-10-351,1 0 1,-1-1-1,1 0 1,-1 0-1,1 0 1,-1-1-1,0 1 1,0-1-1,6-5 1,8-4-122,-18 12 10,-1 7-8310</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14330.2">141 771 1857,'0'0'7150,"0"-16"-6035,-1 22-1053,0-1-1,0 1 1,0-1 0,0 0 0,-1 1-1,0-1 1,0 0 0,0 0 0,-1 0-1,0 0 1,0-1 0,0 1-1,0-1 1,-6 6 0,-9 8 147,-36 30 1,31-29-106,15-11 79,17-8 64,13-2-168,5 2 34,0 2-1,0 1 1,1 2-1,-2 0 1,37 13-1,-56-16-161,-1 1-1,1 1 1,-1-1 0,0 1-1,7 5 1,3 6-2942,-10-9-314</inkml:trace>
 </inkml:ink>
@@ -7547,7 +7354,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">192 199 5891,'0'0'8316,"-4"-6"-7465,-2-3-584,4 6-183,0 0 0,0 0 0,0 1 0,0-1 1,0 0-1,-1 1 0,1-1 0,-1 1 0,1 0 0,-1-1 0,0 1 1,0 1-1,0-1 0,0 0 0,0 1 0,0-1 0,-1 1 0,1 0 0,0 0 1,-1 1-1,-6-2 0,6 2-94,-1 0 0,1 0 0,-1 0 0,0 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,0 1 1,0-1-1,0 1 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,1 6 0,1-7-20,-1-1-1,1 1 1,-1-1-1,1 1 1,0 0 0,0-1-1,0 0 1,0 1 0,0-1-1,1 0 1,-1 1-1,1-1 1,0 0 0,-1 0-1,1 0 1,0 0-1,0-1 1,0 1 0,0 0-1,1-1 1,3 3 0,63 27-546,-26-13 451,-43-18 122,1 1 0,0-1-1,0 0 1,-1 1-1,1-1 1,-1 1 0,1-1-1,0 1 1,-1-1 0,1 1-1,-1-1 1,1 1-1,-1 0 1,1-1 0,-1 1-1,1-1 1,-1 1-1,0 0 1,1 0 0,-1-1-1,0 1 1,0 0 0,0 0-1,1-1 1,-1 1-1,0 0 1,0 0 0,0 1-1,-15 17 53,-32 8 165,45-26-205,-82 35-228,82-33-423</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1237.69">241 342 160,'0'0'11069,"0"-1"-11048,1 1 1,-1-1-1,0 1 1,1-1-1,-1 1 0,1 0 1,-1-1-1,1 1 0,-1 0 1,0-1-1,1 1 0,0 0 1,-1-1-1,1 1 0,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1-1 0,0 1 1,-1 0-1,1 0 0,-1 0 1,1 1-1,0-1 0,3 4 30,-1 1-1,1 0 1,-1 1-1,0-1 1,-1 0-1,1 1 1,-1-1-1,0 1 0,0 0 1,1 8-1,-2-15 8,0 1-1,1-1 1,-1 0 0,1 0-1,-1 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0-1-1,1-1 1,6-10 62,18-26-41,-25 37-72,0 0 1,1 1-1,-1-1 0,1 1 1,0-1-1,0 1 0,-1-1 1,1 1-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 1-1,0-1 0,1 1 1,3-1-1,-4 2-14,1 0 1,-1 1 0,1-1-1,-1 1 1,1-1-1,-1 1 1,0 0 0,0 0-1,0 0 1,0 1-1,0-1 1,0 0 0,-1 1-1,1-1 1,-1 1-1,0-1 1,1 1 0,0 4-1,0-3 35,0 0-1,0 0 1,0 0-1,1 0 0,0 0 1,-1-1-1,1 1 1,7 5-1,-9-9-6,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,1-1 0,27-30 244,-16 17-241,14-8 96,-26 22 43,4 8-374,-1 1 219,1-1 0,1 0 1,-1 0-1,1-1 0,0 1 0,11 8 0,-12-12-152,0 0 0,-1-1-1,1 0 1,0 0 0,0 0 0,0 0 0,0-1 0,0 0 0,1 0 0,-1 0 0,0-1 0,9 0-1,-12 0 88,0 1-1,0-1 0,0-1 0,0 1 0,0 0 1,0 0-1,0-1 0,0 1 0,0-1 0,0 0 1,-1 1-1,1-1 0,0 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,-1-1 0,1 1 0,-1-1 0,0 1 1,3-4-1,-3 3 73,0-1 0,0 0 1,0 1-1,-1-1 0,1 0 0,-1 0 1,1 1-1,-1-1 0,0 0 1,0 0-1,0 0 0,-1 0 1,1 1-1,-1-1 0,1 0 0,-2-3 1,1 5 5,1 0 1,-1 0 0,1 1 0,-1-1 0,0 0-1,1 1 1,-1-1 0,0 0 0,1 1 0,-1-1-1,0 1 1,0-1 0,0 1 0,1-1 0,-1 1-1,0 0 1,0-1 0,0 1 0,0 0 0,0 0-1,0 0 1,0 0 0,1-1 0,-1 1 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0 0,0 0-1,0 0 1,0 1 0,-1 0 0,0-1-16,0 1 0,0-1 0,0 1 0,0 0 0,0-1-1,0 1 1,1 0 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,-2 4 0,3-4-12,0 1 1,0-1-1,0 1 0,0 0 0,1 0 1,-1-1-1,0 1 0,1 0 1,-1 0-1,1 0 0,0 0 0,0 0 1,0 0-1,0-1 0,0 1 1,0 3-1,1-4-7,-1-1 1,0 1-1,1-1 1,-1 1-1,1 0 0,0-1 1,-1 0-1,1 1 1,-1-1-1,1 1 1,0-1-1,-1 0 0,1 1 1,0-1-1,-1 0 1,1 0-1,0 1 1,-1-1-1,1 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 1,0 0-1,-1 0 1,2-1-1,5 0 1,-1 0-1,1-1 1,-1-1 0,1 1 0,-1-1 0,0 0-1,8-5 1,-13 8 15,8-6 31,0 1 0,-1-1 1,0 0-1,0-1 0,0 0 0,0 0 0,-1-1 0,0 0 0,9-14 0,-17 28 183,0 0 0,0 0 1,0 0-1,1 0 0,0 0 0,0 0 0,1 0 0,0 0 0,0 0 0,2 7 0,-2-10-222,-1 0 0,1 0 0,0-1 0,0 1-1,0 0 1,0-1 0,1 1 0,-1-1 0,1 1 0,-1-1-1,1 0 1,0 1 0,0-1 0,0 0 0,0 0 0,1-1 0,-1 1-1,0 0 1,1-1 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,3 0 0,-1-1 38,1 0 1,0-1-1,0 1 0,-1-1 0,1-1 1,-1 1-1,1-1 0,-1 0 1,1 0-1,-1 0 0,0-1 1,0 1-1,0-2 0,-1 1 0,1 0 1,7-8-1,5-6 26,-2 0-1,26-36 1,-33 41-49,1-3-30,0-1 0,-1 0 0,-1 0 0,-1-1 0,0 0 0,-1 0 0,-1 0-1,-1-1 1,0 1 0,-1-1 0,-1 0 0,-2-30 0,2 48 13,-1 0-1,0 0 1,0-1 0,0 1-1,0 0 1,0-1 0,0 1 0,0 0-1,1-1 1,-1 1 0,0 0-1,0-1 1,0 1 0,0 0 0,0-1-1,0 1 1,-1 0 0,1 0-1,0-1 1,0 1 0,0 0 0,0-1-1,0 1 1,0 0 0,0-1-1,-1 1 1,1 0 0,0 0 0,0-1-1,0 1 1,-1 0 0,1 0-1,0 0 1,0-1 0,-1 1 0,1 0-1,0 0 1,0 0 0,-1-1-1,1 1 1,0 0 0,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0 0,0 0-1,-1 0 1,1 0 0,0 0-1,-1 0 1,1 0 0,-1 0 0,-13 18-216,4 7 241,1-1-1,1 1 0,1 1 1,1 0-1,1 0 0,2 0 1,-1 47-1,3-65-32,1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,1 0 0,0 0 0,4 7 0,-5-12 5,0-2 0,0 1 1,1 0-1,-1 0 0,0 0 0,1 0 0,0-1 1,-1 1-1,1-1 0,0 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0 0 0,0 0 1,1 0-1,-1-1 0,0 1 0,0-1 0,1 1 1,-1-1-1,0 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,1-1 0,-1 1 0,0-1 1,0 1-1,1-1 0,-1 0 0,3-1 0,1-1-1,-1 1 0,0-1-1,1 0 1,-1 0 0,0 0-1,-1-1 1,1 0 0,0 0 0,-1 0-1,0 0 1,0-1 0,0 0-1,-1 1 1,0-1 0,0-1-1,0 1 1,0 0 0,-1-1-1,3-7 1,-1 0-263,0-1 0,-1 0 0,0 1 0,-2-1 0,2-23 0,-8 124-23,1 34 267,5-105-1416,0 0 1,6 28 0,2-18-3435</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1237.68">241 342 160,'0'0'11069,"0"-1"-11048,1 1 1,-1-1-1,0 1 1,1-1-1,-1 1 0,1 0 1,-1-1-1,1 1 0,-1 0 1,0-1-1,1 1 0,0 0 1,-1-1-1,1 1 0,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1-1 0,0 1 1,-1 0-1,1 0 0,-1 0 1,1 1-1,0-1 0,3 4 30,-1 1-1,1 0 1,-1 1-1,0-1 1,-1 0-1,1 1 1,-1-1-1,0 1 0,0 0 1,1 8-1,-2-15 8,0 1-1,1-1 1,-1 0 0,1 0-1,-1 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0-1-1,1-1 1,6-10 62,18-26-41,-25 37-72,0 0 1,1 1-1,-1-1 0,1 1 1,0-1-1,0 1 0,-1-1 1,1 1-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 1-1,0-1 0,1 1 1,3-1-1,-4 2-14,1 0 1,-1 1 0,1-1-1,-1 1 1,1-1-1,-1 1 1,0 0 0,0 0-1,0 0 1,0 1-1,0-1 1,0 0 0,-1 1-1,1-1 1,-1 1-1,0-1 1,1 1 0,0 4-1,0-3 35,0 0-1,0 0 1,0 0-1,1 0 0,0 0 1,-1-1-1,1 1 1,7 5-1,-9-9-6,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,1-1 0,27-30 244,-16 17-241,14-8 96,-26 22 43,4 8-374,-1 1 219,1-1 0,1 0 1,-1 0-1,1-1 0,0 1 0,11 8 0,-12-12-152,0 0 0,-1-1-1,1 0 1,0 0 0,0 0 0,0 0 0,0-1 0,0 0 0,1 0 0,-1 0 0,0-1 0,9 0-1,-12 0 88,0 1-1,0-1 0,0-1 0,0 1 0,0 0 1,0 0-1,0-1 0,0 1 0,0-1 0,0 0 1,-1 1-1,1-1 0,0 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,-1-1 0,1 1 0,-1-1 0,0 1 1,3-4-1,-3 3 73,0-1 0,0 0 1,0 1-1,-1-1 0,1 0 0,-1 0 1,1 1-1,-1-1 0,0 0 1,0 0-1,0 0 0,-1 0 1,1 1-1,-1-1 0,1 0 0,-2-3 1,1 5 5,1 0 1,-1 0 0,1 1 0,-1-1 0,0 0-1,1 1 1,-1-1 0,0 0 0,1 1 0,-1-1-1,0 1 1,0-1 0,0 1 0,1-1 0,-1 1-1,0 0 1,0-1 0,0 1 0,0 0 0,0 0-1,0 0 1,0 0 0,1-1 0,-1 1 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0 0,0 0-1,0 0 1,0 1 0,-1 0 0,0-1-16,0 1 0,0-1 0,0 1 0,0 0 0,0-1-1,0 1 1,1 0 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,-2 4 0,3-4-12,0 1 1,0-1-1,0 1 0,0 0 0,1 0 1,-1-1-1,0 1 0,1 0 1,-1 0-1,1 0 0,0 0 0,0 0 1,0 0-1,0-1 0,0 1 1,0 3-1,1-4-7,-1-1 1,0 1-1,1-1 1,-1 1-1,1 0 0,0-1 1,-1 0-1,1 1 1,-1-1-1,1 1 1,0-1-1,-1 0 0,1 1 1,0-1-1,-1 0 1,1 0-1,0 1 1,-1-1-1,1 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 1,0 0-1,-1 0 1,2-1-1,5 0 1,-1 0-1,1-1 1,-1-1 0,1 1 0,-1-1 0,0 0-1,8-5 1,-13 8 15,8-6 31,0 1 0,-1-1 1,0 0-1,0-1 0,0 0 0,0 0 0,-1-1 0,0 0 0,9-14 0,-17 28 183,0 0 0,0 0 1,0 0-1,1 0 0,0 0 0,0 0 0,1 0 0,0 0 0,0 0 0,2 7 0,-2-10-222,-1 0 0,1 0 0,0-1 0,0 1-1,0 0 1,0-1 0,1 1 0,-1-1 0,1 1 0,-1-1-1,1 0 1,0 1 0,0-1 0,0 0 0,0 0 0,1-1 0,-1 1-1,0 0 1,1-1 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,3 0 0,-1-1 38,1 0 1,0-1-1,0 1 0,-1-1 0,1-1 1,-1 1-1,1-1 0,-1 0 1,1 0-1,-1 0 0,0-1 1,0 1-1,0-2 0,-1 1 0,1 0 1,7-8-1,5-6 26,-2 0-1,26-36 1,-33 41-49,1-3-30,0-1 0,-1 0 0,-1 0 0,-1-1 0,0 0 0,-1 0 0,-1 0-1,-1-1 1,0 1 0,-1-1 0,-1 0 0,-2-30 0,2 48 13,-1 0-1,0 0 1,0-1 0,0 1-1,0 0 1,0-1 0,0 1 0,0 0-1,1-1 1,-1 1 0,0 0-1,0-1 1,0 1 0,0 0 0,0-1-1,0 1 1,-1 0 0,1 0-1,0-1 1,0 1 0,0 0 0,0-1-1,0 1 1,0 0 0,0-1-1,-1 1 1,1 0 0,0 0 0,0-1-1,0 1 1,-1 0 0,1 0-1,0 0 1,0-1 0,-1 1 0,1 0-1,0 0 1,0 0 0,-1-1-1,1 1 1,0 0 0,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0 0,0 0-1,-1 0 1,1 0 0,0 0-1,-1 0 1,1 0 0,-1 0 0,-13 18-216,4 7 241,1-1-1,1 1 0,1 1 1,1 0-1,1 0 0,2 0 1,-1 47-1,3-65-32,1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,1 0 0,0 0 0,4 7 0,-5-12 5,0-2 0,0 1 1,1 0-1,-1 0 0,0 0 0,1 0 0,0-1 1,-1 1-1,1-1 0,0 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0 0 0,0 0 1,1 0-1,-1-1 0,0 1 0,0-1 0,1 1 1,-1-1-1,0 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,1-1 0,-1 1 0,0-1 1,0 1-1,1-1 0,-1 0 0,3-1 0,1-1-1,-1 1 0,0-1-1,1 0 1,-1 0 0,0 0-1,-1-1 1,1 0 0,0 0 0,-1 0-1,0 0 1,0-1 0,0 0-1,-1 1 1,0-1 0,0-1-1,0 1 1,0 0 0,-1-1-1,3-7 1,-1 0-263,0-1 0,-1 0 0,0 1 0,-2-1 0,2-23 0,-8 124-23,1 34 267,5-105-1416,0 0 1,6 28 0,2-18-3435</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -7696,8 +7503,8 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2923.03">2622 273 9636,'0'0'6563,"124"-28"-6563,-79 28-704,-5 0-2433,-9 7-2434</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3219.76">3353 630 7988,'0'0'12181,"0"-28"-11524,0 40-657,0 9 176,0 9 32,0 1-160,-18 4-16,-13-2-32,-5 3-1073,5-10-1824,13-11-4498</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3833.55">3709 311 6115,'0'0'10701,"-4"-17"-9680,-6-54-615,10 69-398,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,0 0 0,0 0 0,2 0 0,46-12 231,-49 13-228,6-1 19,0 0-1,0 0 1,0 1 0,0 0-1,0 0 1,-1 1 0,1-1-1,0 1 1,0 1 0,10 3-1,-14-3-22,1-1 0,-1 1 0,-1 0-1,1 0 1,0 1 0,0-1 0,-1 1-1,1-1 1,-1 1 0,0 0 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 0-1,-1 0 1,1 1 0,-1-1 0,0 0-1,-1 1 1,2 5 0,-1 2 13,-1-1 1,1 0 0,-2 1-1,1-1 1,-1 0-1,-1 0 1,0 0 0,0 1-1,-1-2 1,-1 1-1,1 0 1,-2-1 0,1 1-1,-1-1 1,-8 10-1,-11 15 43,-2-1-1,-45 44 1,20-21 81,90-59 1486,143-56-1123,-174 53-10116</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4132.47">4048 8 11541,'0'0'8884,"15"-3"-8745,-7 2-97,0-1-1,0 1 1,0 1-1,1-1 1,-1 2-1,0-1 1,0 1-1,0 0 1,0 0-1,0 1 1,0 0-1,0 1 1,0 0-1,-1 0 1,9 5-1,-3-1-15,-1 1-1,0 1 0,-1 0 0,0 0 1,0 1-1,-1 0 0,0 1 1,-1 0-1,0 1 0,-1 0 0,0 0 1,-1 1-1,0 0 0,-1 0 1,0 1-1,-1-1 0,-1 1 0,3 15 1,-4-12-19,-1 1 1,-1-1-1,0 1 1,-1-1-1,-1 1 1,-1-1-1,0 1 1,-2-1-1,1 0 1,-2 0-1,-1 0 1,0-1-1,-1 0 1,0 0-1,-17 25 1,-9 6-251,-2-2-1,-2-2 1,-2-1 0,-69 56 0,-41 19-2404,-5-11-3703,46-39-288</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5085.73">1722 1488 6723,'0'0'10464,"-3"0"-9038,9 0-1300,247-21 1114,-94 4-3251,-124 16-2535,-29 1 1673</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4132.46">4048 8 11541,'0'0'8884,"15"-3"-8745,-7 2-97,0-1-1,0 1 1,0 1-1,1-1 1,-1 2-1,0-1 1,0 1-1,0 0 1,0 0-1,0 1 1,0 0-1,0 1 1,0 0-1,-1 0 1,9 5-1,-3-1-15,-1 1-1,0 1 0,-1 0 0,0 0 1,0 1-1,-1 0 0,0 1 1,-1 0-1,0 1 0,-1 0 0,0 0 1,-1 1-1,0 0 0,-1 0 1,0 1-1,-1-1 0,-1 1 0,3 15 1,-4-12-19,-1 1 1,-1-1-1,0 1 1,-1-1-1,-1 1 1,-1-1-1,0 1 1,-2-1-1,1 0 1,-2 0-1,-1 0 1,0-1-1,-1 0 1,0 0-1,-17 25 1,-9 6-251,-2-2-1,-2-2 1,-2-1 0,-69 56 0,-41 19-2404,-5-11-3703,46-39-288</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5085.72">1722 1488 6723,'0'0'10464,"-3"0"-9038,9 0-1300,247-21 1114,-94 4-3251,-124 16-2535,-29 1 1673</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5264.64">1797 1589 6019,'0'0'8051,"-13"13"-7682,49-13-113,17-18 272,9-2-288,-4-1-240,0 3-1409,-13-2-1440,-9 5-656,-19 0-1602</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5546.84">1962 1309 176,'0'0'15103,"2"-3"-14967,0 1-118,0 1 0,0-1 0,0 1 0,0 0 0,0-1-1,0 1 1,0 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 1 0,-1-1-1,0 1 1,1 0 0,-1 0 0,0 0 0,1 0 0,2 1 0,57 10 431,-48-8-364,22 5 180,111 28 284,-128-30-492,1 1-1,-2 0 0,1 2 1,-1 0-1,22 15 0,-37-22-32,-1 0-1,1 0 1,0 0-1,0 1 1,-1-1-1,1 0 1,-1 1-1,0 0 1,0 0-1,0-1 1,0 1-1,0 0 1,-1 1-1,1-1 1,-1 0-1,0 0 1,0 1-1,0-1 0,0 0 1,-1 1-1,1-1 1,-1 1-1,0-1 1,0 1-1,0-1 1,0 1-1,-1-1 1,0 1-1,1-1 1,-1 0-1,-1 1 1,1-1-1,0 0 1,-1 0-1,1 0 1,-1 0-1,-3 5 1,-8 8 74,1 0 0,-2-1 0,0 0 0,-1-2 0,-18 14 0,28-22-106,-37 25 24,-9 7-840,26-9-3696,23-22-1483</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5989.42">2631 1543 13430,'0'0'6064,"0"-18"-5445,-1 8-574,1 6-33,-1 0-1,1-1 1,0 1 0,0 0 0,0 0-1,0 0 1,1-1 0,0 1 0,-1 0-1,2 0 1,-1 0 0,0 0 0,1 0-1,0 1 1,0-1 0,0 0 0,0 1-1,1-1 1,-1 1 0,1 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 1 1,1-1 0,6-3 0,18-7 26,1 1 0,1 2 1,0 0-1,0 2 0,0 1 1,1 2-1,0 1 0,0 1 1,1 2-1,32 2 0,-60 0-41,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1 0 0,-1 1 0,1-1 0,-1 0 1,0 1-1,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,0 1 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,1 7 0,-1-3-8,0 0 0,-1 1 0,0-1 0,-1 1 0,0-1 0,0 0 0,-1 1 0,1-1 1,-2 0-1,1 0 0,-1 0 0,-1 0 0,0-1 0,-6 11 0,-17 16-23,-1 0-1,-3-2 1,0-1 0,-2-2 0,-40 29-1,-40 36 772,113-94-739,0 0-1,0 0 1,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 1-1,-1-1 1,1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,0 1 0,0-1-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,1 1-1,-1-1 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 1 0,0-1-1,0 0 1,0 0 0,0 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 1 0,0-1-1,1 0 1,-1 0 0,0 0-1,0 0 1,15 0-79,20-7 31,232-99 245,-125 45-112,-84 40-117,-31 12-94,-1-2-1,33-17 1,-58 27-536,-24 8-4899,-3 4-2230</inkml:trace>
@@ -7855,7 +7662,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">10 13 6099,'0'0'9049,"0"5"-8731,2 90 490,1-25-414,-9 76-1,2-119-83,1-40 250,1-45-251,3 32-333,0-1-1,2 1 1,9-42-1,-10 57-11,1 1 0,0 0-1,1 0 1,0 0 0,1 1-1,0-1 1,0 1 0,1 0 0,0 0-1,1 1 1,14-15 0,-20 22 31,0 0 1,0 0 0,0 1-1,0-1 1,0 0 0,0 0-1,0 1 1,0-1 0,1 1-1,-1-1 1,0 1 0,0-1-1,0 1 1,1 0-1,-1 0 1,0-1 0,0 1-1,1 0 1,-1 0 0,0 0-1,1 0 1,-1 1 0,0-1-1,0 0 1,2 1 0,-1 0-1,0 0 1,0 1-1,0-1 1,0 1-1,0 0 1,-1-1-1,1 1 1,-1 0 0,1 0-1,-1 0 1,0 0-1,2 4 1,3 8 79,0 0 0,-1 0 1,4 23-1,-7-28 86,5 21 127,-1-1 1,-1 1 0,1 39 0,-6-68 84,7-14 369,31-57-583,64-87-1,-102 155-173,1 1 0,0-1 0,0 1 0,1 0-1,-1-1 1,0 1 0,0 0 0,1 0 0,-1 0 0,0 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,1 0-1,2 0 1,-4 1 0,1 0 0,0 1 1,-1-1-1,1 0 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,-1 1 1,1-1-1,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0-1 1,1 1-1,-1-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,0-1 0,1 2 1,1 9-98,0-1 0,-1 1 1,1 21-1,-2-19 254,2 55-35,3 47-52,-4-103-43,1-1-1,1 1 1,0-1-1,0 0 1,1 1-1,0-1 0,7 12 1,-10-21-17,0 0 0,0 0 1,0 0-1,1 0 1,-1-1-1,0 1 0,1 0 1,-1-1-1,1 1 0,-1-1 1,1 0-1,-1 1 1,1-1-1,0 0 0,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 0,0-1 1,0 1-1,0-1 1,0 0-1,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0-1 1,0 1-1,0-1 0,0 0 1,0 1-1,0-1 0,0 0 1,0 0-1,-1 0 0,1 0 1,2-2-1,3-2-17,-1 0 0,1-1-1,-1 0 1,0 0 0,-1-1 0,1 1-1,-1-1 1,7-13 0,-5 6 18,-1 1 1,-1-2 0,0 1-1,-1-1 1,0 1-1,-1-1 1,-1 0-1,0 0 1,-1-21-1,-1 35 79,0 38-22,-3 9 98,1-34-123,1-1 0,1 1 0,-1-1 0,4 20 0,-2-29-35,0-1 0,0 1 0,0-1 0,0 0 0,1 1 0,-1-1 1,0 0-1,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 0 1,0 0-1,-1 0 0,4 0 0,0 0-31,-1 0 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 0 0,1 0 1,-1 0-1,6-2 0,-6 0 41,1-1 1,-1 1 0,0-1-1,0 0 1,0 0-1,-1 0 1,0 0 0,1-1-1,-1 1 1,-1-1 0,1 0-1,-1 0 1,0 0-1,0 0 1,0 0 0,1-9-1,-3 13 85,-1 19 104,-11 20-98,9-29-67,0 0 1,0 1-1,1-1 1,0 0 0,-1 20-1,3-29-30,1 1 1,-1-1-1,0 1 0,0-1 0,1 1 1,-1-1-1,0 0 0,1 1 0,-1-1 1,1 0-1,-1 1 0,0-1 0,1 0 1,-1 0-1,1 1 0,-1-1 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 1 1,-1-1-1,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 0 1,1-1-1,-1 1 0,1 0 0,-1 0 1,1 0-1,0-1 0,18-3-45,-3-4 99,0-1 0,-1 0 0,0-1-1,0 0 1,-1-2 0,16-15 0,13-10 33,-42 36-93,0 0-1,0 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 1 0,1-1 1,-1 1-1,0-1 0,1 1 1,-1-1-1,0 1 0,1 0 0,-1-1 1,1 1-1,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 1 1,-1-1-1,0 0 0,1 1 0,-1-1 1,1 1-1,-1-1 0,0 1 0,2 1 1,2 2 220,0 0 0,-1 1 0,0 0 0,0 0 0,0 0 0,4 6 1,17 22-1580,-24-32 994,0 1 1,0-1-1,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 1,0-1-1,-1 1 0,1-1 0,0 0 1,3 1-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="161.77">772 22 10565,'0'0'1969</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="161.76">772 22 10565,'0'0'1969</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -7884,7 +7691,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">75 48 5378,'0'0'8383,"0"-7"-7132,0-25-325,0 24-224,-1 8-673,0 0 0,1 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 1 0,1-1 1,-1 0-1,1 0 0,-1 1 1,1-1-1,-1 0 1,1 0-1,-1 1 0,1-1 1,-1 1-1,1-1 0,0 0 1,-1 1-1,1-1 0,0 1 1,-1-1-1,1 1 0,0-1 1,0 1-1,-1-1 0,1 1 1,-20 80 104,-18 150 1,37-224-207,1 20 490,0-26-405,0 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0-1 1,1 1-1,-1-1 0,1 1 0,-1 0 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,-1 1 1,1-1-1,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,2 0 0,41 0 149,115-4-2873,-134 1-267,1 0 0,28-10 0,-17 2-2608</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1256.15">427 174 3169,'0'0'9642,"-11"-11"-8708,-38-32-464,48 42-455,-1 1 1,1-1 0,-1 0-1,1 0 1,-1 1 0,1-1 0,-1 0-1,1 1 1,-1 0 0,0-1 0,1 1-1,-1 0 1,0 0 0,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0 0,0 1-1,1-1 1,-1 1 0,1-1 0,-1 1-1,1-1 1,-1 1 0,1 0 0,-1 0-1,1 0 1,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,-1 2-1,-3 5 10,0 0 0,1 1 0,0-1 0,-5 15 1,5-7 61,0-1 0,1 1 0,1 0 0,0 0 0,1 27 0,2-42-99,0-1-1,-1 1 0,1 0 0,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,-1 1 1,1-1-1,0 0 0,0 1 0,0-1 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,1-1 0,29-3-104,-23-1 159,1-1 0,-1 0-1,0 0 1,0-1 0,-1 0 0,0 0-1,0-1 1,-1 0 0,0 0 0,0-1-1,-1 0 1,0 1 0,6-19-1,-12 36-84,0 0-1,1 0 1,-1 0-1,2-1 1,0 12-1,1 13 127,-2-31-75,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1-1,0-1 1,0 1 0,1 0 0,-1 0 0,1 0 0,-1-1 0,4 4 0,-3-5-2,1 1-1,-1 0 1,1 0-1,-1-1 1,1 0-1,-1 1 1,1-1-1,0 0 1,-1 0-1,1 0 1,-1-1-1,1 1 1,-1-1-1,1 1 1,-1-1-1,1 0 1,-1 0-1,1 0 1,2-2-1,1-1 5,0 0 0,-1 0 0,1-1-1,-1 1 1,0-1 0,-1 0 0,1-1-1,-1 1 1,0-1 0,0 0 0,-1 0 0,0 0-1,0-1 1,0 1 0,-1-1 0,0 1 0,0-1-1,0 0 1,-1 0 0,0 1 0,-1-1-1,0 0 1,0 0 0,0 0 0,-1 0 0,-1-9-1,1 14-75,0 1 1,0-1-1,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1 0 0,-1-1 1,1 1-1,-1 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,-3 0 1,6 1-539,11 0 129,126 0-2454,-138 1 2939,1-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1-1 1,0 1-1,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 1 0,-1 32 1177,1-26-671,0 6 117,1 30 535,0-43-1157,-1 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,2 1 0,4-1 14,1 0 0,-1 0 0,0-1 0,0 0 0,0 0 0,0-1-1,0 0 1,0 0 0,0 0 0,-1-1 0,1 0 0,-1 0 0,0-1 0,1 0-1,-2 0 1,1 0 0,0-1 0,-1 0 0,0 0 0,0 0 0,0-1-1,-1 1 1,0-1 0,7-12 0,-9 13-29,0 1 0,0 0 0,0-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-10 0,-1 13 2,0-1 1,0 1-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0-1,0 0 1,0-1 0,-1 1-1,1 0 1,-1 0-1,1 0 1,-1-1 0,1 1-1,-1 0 1,1 0 0,-1 0-1,0 0 1,0 0-1,0 0 1,1 0 0,-1 0-1,0 1 1,0-1-1,0 0 1,0 0 0,-1 1-1,1-1 1,0 1-1,0-1 1,0 1 0,0-1-1,-1 1 1,1 0-1,0-1 1,-2 1 0,3 0-14,-1 1 1,0-1-1,1 1 1,-1-1-1,0 0 1,1 1-1,-1-1 1,0 1 0,1-1-1,-1 1 1,1 0-1,-1-1 1,1 1-1,0 0 1,-1-1-1,1 1 1,-1 0-1,1-1 1,0 1-1,0 0 1,-1 0 0,1-1-1,0 1 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0 1 1,0 32 11,1-26-46,-1 29 57,1-1 0,2 0 0,12 57 0,-10-76-5,-2 0-1,0 1 1,-1-1-1,0 0 1,-2 31 0,-1-42 30,1 0 1,-1-1 0,-1 1-1,1-1 1,-1 1 0,0-1-1,0 0 1,0 0 0,-1 1 0,0-2-1,0 1 1,0 0 0,-1-1-1,1 1 1,-1-1 0,0 0-1,-1 0 1,1-1 0,0 1-1,-10 4 1,14-7 11,0-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0-1,1 1 1,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,0-1 0,1 0-1,-1 0 1,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1-1 0,-2 0 0,8-21 77,27-32-434,41-41-247,95-95 0,-140 163 393,36-38-265,-61 61 429,-1 0 1,0 0-1,0-1 1,0 1-1,0-1 1,-1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 0,0 0 1,1-9-1,-3 13 45,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1-1,1 0 1,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 1 0,-2-1 0,-45 4 153,39-3-187,1 1-1,0 1 1,0 0-1,0 0 0,1 0 1,-1 1-1,1 0 1,-1 1-1,1-1 1,1 1-1,-1 1 0,1-1 1,0 1-1,0 0 1,-9 13-1,11-13-10,0 0 0,0 0 0,0 0 0,1 0 0,0 1 0,0-1 1,1 1-1,0 0 0,0 0 0,1 0 0,-1 0 0,2 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,1 0 0,0 0 0,2 9 0,-1-13 0,-1-1-1,1 1 0,-1 0 1,1-1-1,0 1 1,0-1-1,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1-1 0,1 1 1,0-1-1,0 1 1,0-1-1,0 0 0,0 0 1,0-1-1,0 1 0,5 0 1,10 1-1,0 0 1,28-1-1,-36-1 15,6 0-111,77-3-488,-32-10-3209,-30 4-1625</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1256.14">427 174 3169,'0'0'9642,"-11"-11"-8708,-38-32-464,48 42-455,-1 1 1,1-1 0,-1 0-1,1 0 1,-1 1 0,1-1 0,-1 0-1,1 1 1,-1 0 0,0-1 0,1 1-1,-1 0 1,0 0 0,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0 0,0 1-1,1-1 1,-1 1 0,1-1 0,-1 1-1,1-1 1,-1 1 0,1 0 0,-1 0-1,1 0 1,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,-1 2-1,-3 5 10,0 0 0,1 1 0,0-1 0,-5 15 1,5-7 61,0-1 0,1 1 0,1 0 0,0 0 0,1 27 0,2-42-99,0-1-1,-1 1 0,1 0 0,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,-1 1 1,1-1-1,0 0 0,0 1 0,0-1 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,1-1 0,29-3-104,-23-1 159,1-1 0,-1 0-1,0 0 1,0-1 0,-1 0 0,0 0-1,0-1 1,-1 0 0,0 0 0,0-1-1,-1 0 1,0 1 0,6-19-1,-12 36-84,0 0-1,1 0 1,-1 0-1,2-1 1,0 12-1,1 13 127,-2-31-75,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1-1,0-1 1,0 1 0,1 0 0,-1 0 0,1 0 0,-1-1 0,4 4 0,-3-5-2,1 1-1,-1 0 1,1 0-1,-1-1 1,1 0-1,-1 1 1,1-1-1,0 0 1,-1 0-1,1 0 1,-1-1-1,1 1 1,-1-1-1,1 1 1,-1-1-1,1 0 1,-1 0-1,1 0 1,2-2-1,1-1 5,0 0 0,-1 0 0,1-1-1,-1 1 1,0-1 0,-1 0 0,1-1-1,-1 1 1,0-1 0,0 0 0,-1 0 0,0 0-1,0-1 1,0 1 0,-1-1 0,0 1 0,0-1-1,0 0 1,-1 0 0,0 1 0,-1-1-1,0 0 1,0 0 0,0 0 0,-1 0 0,-1-9-1,1 14-75,0 1 1,0-1-1,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1 0 0,-1-1 1,1 1-1,-1 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,-3 0 1,6 1-539,11 0 129,126 0-2454,-138 1 2939,1-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1-1 1,0 1-1,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 1 0,-1 32 1177,1-26-671,0 6 117,1 30 535,0-43-1157,-1 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,2 1 0,4-1 14,1 0 0,-1 0 0,0-1 0,0 0 0,0 0 0,0-1-1,0 0 1,0 0 0,0 0 0,-1-1 0,1 0 0,-1 0 0,0-1 0,1 0-1,-2 0 1,1 0 0,0-1 0,-1 0 0,0 0 0,0 0 0,0-1-1,-1 1 1,0-1 0,7-12 0,-9 13-29,0 1 0,0 0 0,0-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-10 0,-1 13 2,0-1 1,0 1-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0-1,0 0 1,0-1 0,-1 1-1,1 0 1,-1 0-1,1 0 1,-1-1 0,1 1-1,-1 0 1,1 0 0,-1 0-1,0 0 1,0 0-1,0 0 1,1 0 0,-1 0-1,0 1 1,0-1-1,0 0 1,0 0 0,-1 1-1,1-1 1,0 1-1,0-1 1,0 1 0,0-1-1,-1 1 1,1 0-1,0-1 1,-2 1 0,3 0-14,-1 1 1,0-1-1,1 1 1,-1-1-1,0 0 1,1 1-1,-1-1 1,0 1 0,1-1-1,-1 1 1,1 0-1,-1-1 1,1 1-1,0 0 1,-1-1-1,1 1 1,-1 0-1,1-1 1,0 1-1,0 0 1,-1 0 0,1-1-1,0 1 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0 1 1,0 32 11,1-26-46,-1 29 57,1-1 0,2 0 0,12 57 0,-10-76-5,-2 0-1,0 1 1,-1-1-1,0 0 1,-2 31 0,-1-42 30,1 0 1,-1-1 0,-1 1-1,1-1 1,-1 1 0,0-1-1,0 0 1,0 0 0,-1 1 0,0-2-1,0 1 1,0 0 0,-1-1-1,1 1 1,-1-1 0,0 0-1,-1 0 1,1-1 0,0 1-1,-10 4 1,14-7 11,0-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0-1,1 1 1,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,0-1 0,1 0-1,-1 0 1,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1-1 0,-2 0 0,8-21 77,27-32-434,41-41-247,95-95 0,-140 163 393,36-38-265,-61 61 429,-1 0 1,0 0-1,0-1 1,0 1-1,0-1 1,-1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 0,0 0 1,1-9-1,-3 13 45,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1-1,1 0 1,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 1 0,-2-1 0,-45 4 153,39-3-187,1 1-1,0 1 1,0 0-1,0 0 0,1 0 1,-1 1-1,1 0 1,-1 1-1,1-1 1,1 1-1,-1 1 0,1-1 1,0 1-1,0 0 1,-9 13-1,11-13-10,0 0 0,0 0 0,0 0 0,1 0 0,0 1 0,0-1 1,1 1-1,0 0 0,0 0 0,1 0 0,-1 0 0,2 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,1 0 0,0 0 0,2 9 0,-1-13 0,-1-1-1,1 1 0,-1 0 1,1-1-1,0 1 1,0-1-1,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1-1 0,1 1 1,0-1-1,0 1 1,0-1-1,0 0 0,0 0 1,0-1-1,0 1 0,5 0 1,10 1-1,0 0 1,28-1-1,-36-1 15,6 0-111,77-3-488,-32-10-3209,-30 4-1625</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -8028,7 +7835,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:08:55.194"/>
+      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:10:59.027"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
@@ -8036,11 +7843,9 @@
       <inkml:brushProperty name="color" value="#F6630D"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">58 268 4770,'0'0'9050,"-3"-7"-8007,-6-12-602,4 17-88,4 34 111,1 5-303,-4 269 464,4-218-556,0-88 5,-1-3 89,-11-60-141,2-1 1,3-1-1,3 1 0,2-1 0,13-110 1,-9 160-45,0 1 1,2 0 0,-1 1-1,2-1 1,0 1 0,9-18-1,-12 26 16,1 1-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 1 1,1-1-1,-1 1 1,1 0-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,1 1-1,-1 0 1,1 1-1,-1-1 1,1 1-1,0 0 1,0 0-1,4 0 1,-4 0 3,-1 1 0,0-1 0,0 1 0,0 0 0,0 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 1 1,0 0-1,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,-1 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,1 7 0,0-7 12,-1 0 0,0 0 1,0 0-1,0 0 0,0 0 1,-1 0-1,0 0 0,1 0 0,-1 0 1,-1 0-1,1 0 0,-1-1 1,1 1-1,-3 3 0,0-2 16,-1 1 0,0-2 0,0 1 0,0-1 0,0 1 0,-1-1 0,-10 5 0,-24 13-100,-46 17-1,81-37-19,0-1-863</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="732.32">375 380 1905,'0'0'10485,"9"-1"-8687,-7 1-1751,1 0 46,-1 0-1,1 0 0,0 0 1,0 0-1,-1 0 0,1-1 1,0 0-1,-1 1 0,1-1 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1-1 0,0 1 1,0-1-1,0 0 0,1 1 0,-1-1 1,-1 0-1,1 0 0,0 0 1,0 0-1,-1 0 0,1-1 1,-1 1-1,0-1 0,0 1 1,0 0-1,0-1 0,0 0 1,0 1-1,-1-1 0,1-2 1,0-83 435,-1 87-524,0 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0-1,-1 0 1,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0-1,0 0 1,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,1-1-1,-1 0 1,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0-1,0-1 1,0 1 0,-1 0 0,1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,0 0 0,0 1 0,-1 0-1,-3 0 0,1 1-1,-1 0 1,1 0 0,-1 0-1,1 0 1,0 1-1,0-1 1,0 1-1,1 0 1,-5 4-1,-1 7-12,0 1 0,1 0 0,1 0 0,0 0 0,1 1 0,1 0 0,0 1 0,1-1 0,1 1 0,0 0 0,1 0 0,1 0 1,1 0-1,3 24 0,-3-38 3,0 1 1,1-1-1,-1 1 1,1-1-1,0 1 1,0-1-1,1 1 1,-1-1-1,1 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,1-1 1,0 0-1,-1 1 1,1-1-1,0 0 1,0 0-1,1 0 1,-1-1-1,0 1 1,0-1 0,1 0-1,-1 0 1,1 0-1,-1 0 1,6 0-1,-1 0 12,0-1 0,-1 1-1,1-2 1,0 1 0,-1-1 0,1 0-1,-1 0 1,1-1 0,-1 0 0,0-1-1,1 1 1,-1-1 0,0-1 0,7-4 0,-7 3 12,1 0 1,-1 0-1,0-1 1,-1 0 0,1 0-1,-1-1 1,-1 1-1,1-2 1,-1 1 0,0 0-1,-1-1 1,1 0-1,-2 0 1,1 0 0,-1-1-1,0 1 1,-1-1 0,0 1-1,0-1 1,-1 0-1,0 0 1,-1 0 0,0 0-1,-2-16 1,2 23-8,0-1-1,-1 1 1,1-1 0,-1 1 0,0 0-1,1-1 1,-1 1 0,0 0 0,0-1 0,-1 1-1,1 0 1,0 0 0,-1 0 0,0 0-1,1 0 1,-1 0 0,0 1 0,0-1 0,0 0-1,0 1 1,0-1 0,0 1 0,0 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,-1 1-1,1-1 1,-1 0 0,1 1 0,-4 0 0,5 0-133,7-2-328,-1 1 197,1 1 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,5 2 0,13 0 42,-7-3 207,-13 1-11,1-1-1,-1 1 1,0 0-1,0 0 1,1 1-1,-1 0 1,6 1 0,-9-1 11,0-1 1,1 1 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0-1,0 0 1,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 3-1,-1 17 445,-1-1 0,-1 0 0,-6 21-1,4-20-249,1 0-1,0 0 0,1 24 0,2-43-186,1 0-1,0-1 1,0 1-1,0 0 1,0 0-1,1-1 1,-1 1-1,0 0 1,1 0-1,-1-1 1,1 1-1,-1 0 1,1-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 0 1,0 1-1,0-1 1,3 2-1,0-2-45,0 1 0,0-1 0,1 0 0,-1 0 0,0-1 0,1 1-1,-1-1 1,9-1 0,-4 1-587,1 0 1,-1-1-1,0 0 0,0-1 0,1 0 0,-1 0 1,0-1-1,-1 0 0,1-1 0,-1 0 0,1 0 1,-1-1-1,0 0 0,-1 0 0,11-10 1,6-10-4350</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2500.5">976 360 1361,'0'0'12816,"-5"-6"-11789,-14-18-245,19 24-760,-1-1 1,1 1-1,-1-1 1,1 1-1,-1-1 1,1 1-1,-1 0 1,0-1-1,1 1 1,-1 0-1,1 0 1,-1-1-1,0 1 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 1-1,0-1 1,1 0-1,-1 0 1,1 1-1,-1-1 1,1 0-1,-1 1 1,1-1-1,-2 1 1,-13 18 150,13-16-121,-7 9 53,2 0 0,-1 1 0,2 0 1,0 0-1,0 1 0,1-1 0,1 1 0,1 0 0,0 1 0,0-1 0,1 1 0,1-1 1,1 1-1,2 26 0,-2-39-106,1 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1-1 0,3 1 0,3 0 16,0 0 0,-1-1 0,1 0 1,0 0-1,-1-1 0,1 0 0,-1 0 1,0-1-1,10-4 0,0-4 4,-1 0-1,-1-1 1,0-1-1,0 0 1,-1-1-1,-1 0 1,0-2-1,-1 1 1,-1-1-1,0-1 1,-1 0-1,-1 0 1,7-21-1,-14 29-1,0 1 0,-1-1 0,0 0 0,-1 0 0,0-11 1,0 8 26,0 11-41,-1 1 1,1-1 0,0 0-1,-1 0 1,1 1 0,-1-1-1,1 0 1,-1 0-1,1 1 1,-1-1 0,1 1-1,-1-1 1,0 0 0,1 1-1,-1-1 1,0 1 0,0 0-1,1-1 1,-1 1-1,0 0 1,0-1 0,0 1-1,1 0 1,-1 0 0,0 0-1,0-1 1,0 1 0,0 0-1,0 0 1,1 0-1,-1 1 1,0-1 0,0 0-1,0 0 1,0 0 0,1 1-1,-1-1 1,0 0 0,0 1-1,0 0 1,-3-1 2,1 1 1,-1 0 0,1 0 0,-1 1-1,1-1 1,0 1 0,0-1-1,0 1 1,-5 4 0,4-2-11,1 1 0,-1 0 0,1 0 0,0 1 1,1-1-1,-1 1 0,1-1 0,0 1 0,0 0 0,-1 11 0,-1 61-112,4-71 101,0-5 4,0 1-1,0-1 0,0 0 0,1 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 1,1-1-1,3 3 0,-1-1-28,0 0 1,1-1-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1-1 1,9 2-1,-6-2-44,0 0 0,0 0 1,0-1-1,0 0 0,0 0 0,1-1 0,-1 0 1,0 0-1,0-1 0,0 0 0,10-5 0,-11 2 93,1 0-1,-1-1 0,0 1 0,-1-2 1,1 1-1,-1-1 0,0 0 0,-1 0 1,0-1-1,0 0 0,-1 1 0,0-2 1,4-9-1,13-22 370,-20 39 19,-2 30-98,-5 5-210,3-27-104,2-1 0,-1 1 1,1 0-1,0 0 0,0 0 0,1-1 1,0 1-1,0 0 0,0 0 1,1 0-1,2 7 0,-3-13-33,1 0-1,0 0 0,-1 0 1,1-1-1,0 1 1,0 0-1,-1-1 0,1 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 0,0-1 1,0 0-1,0 1 1,0-1-1,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0-1 1,0 1-1,0 0 1,0 0-1,0-1 0,0 1 1,0-1-1,1 0 1,2-1-14,-1 0 0,1 1 0,-1-1 0,0-1 0,1 1 0,-1 0 0,4-6 1,62-90 277,-66 97-107,-2 35-90,-1-32 14,-1 9 61,1 0 1,1 0-1,0 0 0,1-1 0,3 15 1,-4-23-97,0 1 1,0-1 0,0 1-1,0-1 1,0 1 0,1-1 0,-1 0-1,1 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,0 0-1,1-1 1,-1 1 0,0-1-1,1 0 1,-1 1 0,0-1 0,1 0-1,0-1 1,-1 1 0,1 0-1,-1-1 1,1 1 0,4-1 0,-3 0 24,1 0 0,-1 0 0,1 0 0,-1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,7-5 0,-3 1 14,-1 0 0,1 0 0,-1-1 0,-1 0 0,1 0 0,7-13 0,3-10 2,-2 0 0,20-62 1,-29 77-71,5-19-56,0 0 0,-3 0 0,0 0 1,-2-1-1,0-49 0,-5 83 89,0 1-1,0-1 0,1 0 0,-1 1 0,0-1 1,0 0-1,0 0 0,0 1 0,-1-1 1,1 0-1,0 0 0,0 1 0,0-1 0,-1 0 1,1 1-1,0-1 0,-1 0 0,1 1 1,0-1-1,-1 1 0,1-1 0,-1 1 0,0-2 1,-10 9-102,-8 25 32,11-1 95,1 0 1,1 0 0,2 1 0,1-1 0,2 1 0,3 53-1,0-67-16,0-1 1,1 0-1,1 1 0,11 29 0,-13-39-27,1-1 0,0 1 0,1-1 0,-1 0 0,1-1 0,1 1 0,-1-1 0,1 0 0,0 0 0,1 0 0,0-1 0,-1 1 0,8 3 0,-11-7 5,0-1-1,0 0 0,0 0 1,0-1-1,0 1 1,0 0-1,0-1 0,0 1 1,0-1-1,1 1 1,-1-1-1,0 0 0,0 0 1,1 0-1,-1 0 0,0-1 1,0 1-1,0 0 1,0-1-1,1 0 0,-1 1 1,0-1-1,2-2 1,0 1 20,0-1 0,0 0 0,0-1 1,-1 1-1,0-1 0,1 1 1,-1-1-1,-1 0 0,1 0 1,2-6-1,4-8 58,-2 0 1,0-1-1,-1 1 0,5-25 0,-2-19-58,-7 44-144,-4 49 59,-2 1 205,3-21-119,-1 0 0,1 0 0,1-1 0,0 1 1,0 0-1,3 16 0,-2-25-15,0 1 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,1 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1-1 0,1 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,-1 0 0,5-1 0,-2 0 27,-1 0-1,1 0 0,-1 0 0,1-1 0,-1 0 0,0 0 1,0 0-1,1 0 0,-2-1 0,1 0 0,0 1 1,0-1-1,-1-1 0,1 1 0,-1 0 0,3-5 1,47-65 244,-36 45-240,-1-1 0,-2 0 0,-1-1 0,-1-1 0,-2 0 0,-1-1 0,-1 0 0,-2 0 0,-1 0 0,-2-1 0,0-48 0,-3 80-98,-10 38-301,3 11 416,1 1-1,3 0 1,1 0 0,8 71-1,-5-110-42,0 0 0,1 0 0,0 0 0,0-1 0,7 17 0,-8-23-9,0-1 0,0 1 0,1-1 1,-1 1-1,0-1 0,1 0 1,-1 0-1,1 0 0,0 1 1,0-1-1,0-1 0,0 1 1,0 0-1,0 0 0,0-1 0,1 0 1,-1 1-1,0-1 0,1 0 1,-1 0-1,1 0 0,0 0 1,-1-1-1,1 1 0,3 0 1,2-2 28,0 0 1,0 0 0,0 0-1,-1-1 1,1 0 0,-1-1 0,1 0-1,-1 0 1,0 0 0,0-1 0,0 0-1,-1-1 1,1 1 0,-1-1 0,0 0-1,0-1 1,-1 0 0,0 1 0,0-2-1,0 1 1,5-9 0,-3 2 23,0 0 1,0 0-1,-1-1 0,-1 1 1,0-1-1,-1-1 0,0 1 1,-1 0-1,-1-1 1,1-24-1,-4 38-46,1 0 0,0 0-1,-1 1 1,1-1 0,-1 0 0,1 1 0,-1-1 0,0 0 0,1 1-1,-1-1 1,0 1 0,1-1 0,-1 1 0,0 0 0,0-1-1,1 1 1,-1-1 0,0 1 0,0 0 0,0 0 0,0 0-1,1-1 1,-1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0-1,1 1 1,-1-1 0,0 0 0,0 0 0,0 0 0,1 1-1,-1-1 1,0 1 0,-1 0 0,-36 14-100,30-8 82,1 0 1,0 0-1,0 0 0,1 1 1,-1 1-1,2-1 0,-1 1 1,1 0-1,1 0 0,0 0 1,0 0-1,1 1 0,0 0 1,0 0-1,1 0 0,1 0 1,-1 0-1,1 13 0,2-21-13,-1 0-1,0-1 1,1 1-1,-1 0 1,1-1-1,-1 1 1,1 0-1,0-1 0,0 1 1,-1-1-1,1 1 1,1-1-1,-1 1 1,0-1-1,0 0 1,0 1-1,1-1 0,-1 0 1,0 0-1,1 0 1,-1 0-1,1 0 1,0 0-1,-1-1 1,1 1-1,0-1 1,-1 1-1,1-1 0,0 1 1,2-1-1,58 6-564,-58-6 548,12 0-426,1-1 1,-1 0-1,1-1 0,28-7 1,-34 6-328,-1-1-1,0-1 1,0 1-1,0-2 1,9-5 0,17-15-3397</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2919.17">1702 179 352,'0'0'12246,"-98"0"-10838,94 2 145,17-2-1937,23 0 384,8 0 0,14 0-272,0-5-2049,0-5-993,-9 0-1152</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3076.91">2077 103 4482,'0'0'13126,"0"-6"-13190,4 4-640,5-6-2562,0-4-3569</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">24 168 5170,'0'0'9674,"-1"-12"-8593,-7-76 3171,8 391-4382,2-236 968,0-35-2645,-2 0-8024</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="343.1">5 186 5442,'0'0'2866,"-1"-14"-1588,-3-50-366,5 60-867,0 0 0,-1-1 0,2 1 1,-1 0-1,0 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,1 1 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,6-4 0,-2 3 58,0-1 0,1 1 0,-1 0 0,1 0 0,0 1 0,-1 0 0,13-2 0,-17 4-81,1 0 0,-1 1 1,0-1-1,1 1 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 1 1,-1 0-1,1 0 0,-1 0 0,0 0 1,0 0-1,1 0 0,-1 1 1,0 0-1,0 0 0,0 0 0,-1 0 1,1 0-1,4 5 0,-3-2-15,-1 0 1,0 0-1,-1 1 1,1-1-1,-1 1 0,0 0 1,0 0-1,-1-1 1,0 1-1,0 0 0,0 0 1,-1 0-1,0 9 1,0-9 48,1 0 1,-1 0 0,-1-1 0,1 1-1,-1 0 1,0 0 0,0-1 0,-1 1-1,1 0 1,-1-1 0,-1 1 0,1-1 0,-1 0-1,0 0 1,0 0 0,0 0 0,-1-1-1,0 1 1,1-1 0,-2 0 0,1 0 0,0 0-1,-1-1 1,-9 6 0,6-3 18,-1-1 0,1 0 1,-1 0-1,0-1 0,-1 0 0,1-1 0,-1 0 1,1 0-1,-20 1 0,29-4-950,17-7-13238</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="995.9">317 304 5298,'0'0'7068,"9"-2"-6276,0 0-599,0-1 0,1 0 0,-1-1 0,0 0 0,0 0 0,-1-1 1,1 0-1,-1 0 0,8-8 0,-11 9-161,-1 0 1,0 0 0,0 0-1,0-1 1,0 1-1,-1-1 1,0 0 0,0 0-1,0 0 1,0-1 0,-1 1-1,0 0 1,0-1-1,-1 0 1,1 1 0,-1-1-1,-1 0 1,1-6 0,-1 11-39,0 0 0,0-1 1,-1 1-1,1 0 1,0 0-1,-1 0 1,1 0-1,-1 0 1,1 1-1,-1-1 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 1-1,1-1 1,-1 0-1,0 0 0,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 0,0 0 1,0 1-1,-2-1 1,-1 1-15,-1-1 1,1 1-1,-1 0 0,1 0 1,0 1-1,-1-1 1,1 1-1,-8 4 0,3 2 16,0 0-1,1 0 0,0 1 1,0 0-1,1 0 1,0 1-1,1-1 0,0 2 1,0-1-1,1 1 0,1 0 1,0 0-1,0 0 0,1 0 1,0 1-1,1 0 1,0-1-1,1 21 0,0-30-5,1 0-1,0-1 1,1 1-1,-1 0 1,0-1-1,0 1 1,1 0-1,-1-1 1,1 1-1,-1 0 1,1-1-1,0 1 1,-1-1-1,1 1 1,0-1-1,0 1 1,0-1-1,0 0 1,0 1-1,1-1 1,-1 0 0,0 0-1,1 0 1,-1 0-1,3 1 1,-1-1 11,1 1 0,-1-2 0,1 1 1,-1 0-1,1-1 0,-1 1 0,1-1 1,-1 0-1,1 0 0,0-1 0,6 0 1,-1-1 35,0-1 1,0 1-1,-1-1 1,1-1-1,0 1 1,-1-1-1,0-1 1,0 0-1,9-7 1,-15 9-21,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,-1-1 0,0 1-1,1-1 1,-2 1-1,1-1 1,0 0-1,-1 0 1,1 1-1,-1-1 1,0 0-1,0 0 1,-1-5-1,1 8-20,24 1-1331,26-1 117,-20 0-129,56 4 0,-83-2 1338,-1 0 0,1 0 0,0 0 0,-1 0 1,1 0-1,-1 0 0,0 1 0,1-1 0,-1 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 1 0,0-1 0,0 0 0,-1 0 1,1 1-1,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,-1 4 0,2 12 526,0 0 0,-2-1 0,-2 25 0,0-11 831,3-31-1339,-1 0 1,0-1-1,0 1 1,0 0-1,1 0 1,-1 0-1,0-1 1,1 1-1,-1 0 1,1 0-1,-1-1 0,1 1 1,-1 0-1,1-1 1,-1 1-1,1-1 1,0 1-1,-1 0 1,1-1-1,0 1 1,-1-1-1,1 0 1,0 1-1,0-1 0,0 0 1,-1 1-1,1-1 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,2 0-1,34-2 52,-33 1-15,20-5-20,0-1 0,0-1 0,-1-1 0,-1-1 0,1-2 1,-2 0-1,27-19 0,-38 25-172,4-5-1816,-12 5-1206</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -8090,124 +7895,6 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:08:49.634"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">108 16 6163,'0'0'7056,"-8"-2"-6765,-25-9-104,25 9 347,8 9-268,-2 17 69,-1-1 0,-1 0-1,-7 25 1,-6 33 178,-4 244 395,21-184-3422,9-143-4252,4-6 2583</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="472.03">1 169 6451,'0'0'4621,"0"-14"-4176,3-44-162,-1 54-256,0 0 0,0 1 1,0-1-1,1 1 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 1 1,1 0-1,-1-1 0,1 1 0,-1 0 0,1 1 1,0-1-1,0 1 0,4-2 0,-4 2 24,7-3-19,1 0-1,-1 0 1,1 1-1,0 1 1,0 0 0,0 1-1,0 0 1,0 1-1,0 0 1,0 1 0,13 2-1,-20-2-32,-1 0 0,1 0 0,0 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,0-1-1,0 1 1,0 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0 0 0,-1 0 0,1 0 0,-1 1 0,0-1-1,0 1 1,0-1 0,0 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 7 0,-1-6 21,1-1 1,-1 1-1,-1-1 1,1 0-1,-1 1 1,0-1-1,0 1 1,0-1-1,-1 0 0,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,-1-1-1,0 1 1,-8 8-1,0-3 90,-1 1 0,-1-1 0,0-1-1,0 0 1,-14 6 0,11-7 64,0-1 0,-27 9 0,11-5-96,27-8-26</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2063.77">317 433 8180,'0'0'3273,"9"0"-2536,19 1 104,-12 0-290,1 0 0,-1-1 0,1-1 0,30-6 0,-44 6-520,0 0-1,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 1,0 1-1,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 1,-1 0-1,0-1 0,0 1 0,1-1 0,-1 1 0,-1-1 1,1 0-1,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 1,0 0-1,0-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1-4 1,-1 5-34,1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,0 0 0,-3-1 0,2 1-1,0 0 0,0-1 0,0 1 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,0 0 0,1 0 0,-4 2 0,-2 8-9,0 0 0,1 0-1,0 0 1,1 1 0,0 0 0,1 0 0,1 1-1,0-1 1,1 1 0,0 0 0,1 0 0,1 0 0,0 0-1,1 0 1,0 1 0,4 25 0,-3-38 4,0 1 1,-1-1-1,1 1 1,0-1 0,0 0-1,0 1 1,0-1-1,0 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,0 0 0,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 1,1 0 0,-1-1-1,1 0 1,-1 1-1,1-1 1,-1 0-1,1 0 1,-1 0-1,6-1 1,-1 1 16,1-1 0,0 0 0,-1 0 0,1-1 0,-1 0 0,1 0 0,-1-1 0,0 0 0,0 0 0,9-6 0,10-11 42,-1 0 0,-2-2 1,0 0-1,-1-2 0,-1 0 1,20-31-1,-40 53-40,1-1 0,0 1 0,-1 0 1,0-1-1,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 1,-1 0-1,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 1,0 1-1,-1-1 0,1 0 0,-1-5 0,-1 7-10,1-1-1,0 1 1,-1 0 0,1-1-1,-1 1 1,1 0-1,-1 0 1,0 0 0,1 0-1,-1 0 1,0 1-1,0-1 1,0 0 0,1 1-1,-1-1 1,0 1-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0-1,0 1 1,0-1 0,0 0-1,0 1 1,0-1-1,-2 2 1,-1-1 5,0 1 1,0 0-1,1 0 1,-1 1-1,0-1 0,1 1 1,-5 4-1,7-6-22,1-1 1,0 1-1,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 1 0,0-1 0,1 0 1,-1 0-1,0 1 0,1-1 0,-1 1 0,1-1 0,-1 0 1,1 1-1,-1-1 0,1 1 0,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,0 1 0,1 2 0,2-3-57,0 0-1,0 0 0,0-1 0,0 1 0,0-1 0,1 1 1,-1-1-1,0 0 0,0 0 0,0-1 0,4 0 0,0 1 29,121 0 22,-127 0 17,0 0-1,-1 0 1,1 0 0,0 1 0,-1-1-1,1 0 1,0 1 0,-1-1 0,1 0-1,0 1 1,-1-1 0,1 0 0,-1 1-1,1-1 1,-1 1 0,1 0 0,-1-1-1,1 1 1,-1-1 0,1 1 0,-1-1-1,0 1 1,1 0 0,-1-1 0,0 1-1,1 0 1,-1 0 0,0-1 0,0 1-1,0 0 1,0-1 0,0 3 0,0 30 41,0-22 22,-18 252 1790,54-262-1929,-32-2 93,0 0-1,0 0 1,0-1-1,0 1 1,0-1-1,0 0 1,0 0-1,-1 0 1,1-1-1,-1 1 1,1-1-1,-1 0 1,4-5-1,39-44-353,-27 25 428,-17 22-83,1 0 0,0 0 1,0 0-1,1 0 0,-1 1 0,1 0 0,0-1 0,0 2 0,1-1 0,-1 0 0,1 1 0,-1 0 0,1 0 0,0 0 0,1 0 0,-1 1 0,0 0 0,8-2 0,-3 2 46,0-1-1,0 0 1,-1 0-1,10-5 0,-18 7 16,-45 3 74,37 1-136,-1 1 0,0 1 0,1-1 0,0 1 0,0 0 0,1 1 0,-1-1 0,1 2 0,1-1 0,-7 8 0,-3 6 0,0 1 0,-14 25 0,24-36 7,0 0-1,0 1 1,1-1 0,0 1-1,1 0 1,0 0 0,0 0-1,1 0 1,1 0 0,0 0-1,1 1 1,0-1 0,2 13-1,-2-22-2,1 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,1 0 1,-1-1-1,1 1 1,0-1-1,0 1 1,-1-1-1,1 1 1,0-1-1,0 0 1,1 0 0,-1 0-1,0 0 1,0-1-1,0 1 1,1-1-1,-1 1 1,0-1-1,1 0 1,-1 1-1,0-1 1,1 0-1,-1-1 1,3 1-1,4-1 77,-1 1 0,0-1-1,1 0 1,-1-1 0,0 0 0,0 0 0,11-5-1,141-72 655,-137 54-473,-19 15-4601</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3639.23">1391 474 4722,'0'0'6617,"0"0"-6518,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0-1 1,0 1-1,1 0 0,-1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0-1 0,0 1 1,0 0-1,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,-1 0 0,1 0 1,-6 1-100,0 0 0,0 1 0,0 0 0,0 0 0,1 0 1,-1 1-1,0 0 0,1 0 0,0 0 0,0 1 0,0-1 1,0 1-1,1 0 0,-1 1 0,1-1 0,0 1 0,0 0 1,1 0-1,-5 7 0,1-1-15,1 0-1,0 0 1,0 0 0,1 1 0,0 0 0,1 0 0,1 0-1,-5 23 1,7-22-32,0-4 38,0 0 0,1 0 0,0-1 0,2 17 0,-2-24-5,1 1-1,-1-1 0,0 1 1,1-1-1,-1 0 0,1 1 1,0-1-1,-1 0 1,1 1-1,0-1 0,0 0 1,0 0-1,0 1 0,0-1 1,0 0-1,0 0 0,0 0 1,0 0-1,0-1 1,1 1-1,-1 0 0,0 0 1,1-1-1,-1 1 0,1-1 1,-1 1-1,1-1 1,-1 1-1,0-1 0,1 0 1,-1 0-1,1 0 0,1 0 1,0 0 25,1 0 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,3-3 0,-2 0 17,1-1 0,-1 0 0,0 1 0,0-2 0,0 1 0,-1 0 0,4-10 0,-4 5 12,0 1 1,0-1-1,-1 1 1,-1-1 0,0 0-1,0 0 1,-2-14 0,1 16 39,0 9 45,0 0-120,-1 1 0,0-1-1,1 1 1,-1 0 0,0-1-1,1 1 1,-1 0 0,1 0-1,-1 0 1,1-1 0,0 1-1,-1 0 1,1 0 0,0 0-1,-1 0 1,1 0-1,0 0 1,0-1 0,0 1-1,0 0 1,0 0 0,0 2-1,-1 24-48,1-26 56,0 20-5,-1-14-13,1 0 1,-1 0-1,2 0 0,-1 0 0,1 0 0,2 8 1,-2-14-3,-1 1 1,1-1-1,0 1 1,0-1-1,-1 1 1,1-1-1,0 1 1,1-1-1,-1 0 1,0 0-1,0 1 1,0-1-1,1 0 1,-1 0-1,1 0 0,-1 0 1,1-1-1,-1 1 1,1 0-1,-1-1 1,1 1-1,0-1 1,-1 1-1,1-1 1,0 0-1,0 1 1,-1-1-1,1 0 1,3-1-1,1 1 3,1 0 0,0-1 0,0 0 0,-1 0 0,1-1 0,0 0 0,-1 0 0,0-1 0,1 1 0,-1-1 0,0-1 0,-1 1 0,1-1 0,7-6 0,0-2 39,0-2 1,0 1 0,-2-2 0,13-17 0,-25 44 31,1 0-1,1 0 1,0-1-1,0 1 1,2 0-1,-1-1 1,1 1-1,6 12 1,-9-23-70,1 0 0,0 0 0,-1 0 0,1-1 1,0 1-1,0 0 0,-1 0 0,1-1 0,0 1 0,0-1 1,0 1-1,0-1 0,0 1 0,-1-1 0,1 0 0,0 1 1,0-1-1,0 0 0,0 0 0,0 1 0,0-1 0,0 0 1,0 0-1,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 1,0 0-1,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,0 1 0,-1-1 0,1 0 1,0 0-1,0 0 0,31-32-165,-4-13 203,-23 37-23,-1 0 0,2 1 0,-1-1-1,1 1 1,7-8 0,-12 16-15,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,-1 0 1,1 0-1,0 1 0,0-1 1,-1 0-1,1 0 0,0 1 1,0-1-1,-1 0 0,1 1 1,0-1-1,-1 1 0,1-1 1,-1 1-1,1-1 0,0 1 1,-1 0-1,0-1 0,1 1 1,-1 0-1,1-1 0,-1 1 1,0 0-1,1-1 0,-1 1 1,0 0-1,0 0 0,1 0 1,-1 0-1,18 38 383,-16-34-254,2 5-53,1-1-1,-1 1 1,2-1-1,0 0 1,0-1-1,0 0 1,1 1-1,10 8 1,-14-14-65,0-1 1,0 0-1,1 0 1,-1 0-1,0 0 0,1 0 1,-1-1-1,1 0 1,-1 1-1,1-1 0,0-1 1,-1 1-1,1 0 1,0-1-1,0 0 0,-1 0 1,1 0-1,0 0 1,0-1-1,0 1 0,-1-1 1,1 0-1,0 0 1,-1 0-1,1-1 0,-1 1 1,4-3-1,1-1 13,0-1-1,-1 0 1,0 0 0,0 0-1,0-1 1,-1 0-1,0 0 1,-1-1-1,1 0 1,-1 0 0,-1 0-1,1 0 1,-2-1-1,1 1 1,-1-1 0,0 0-1,2-16 1,2-11-40,-2 1 0,-2-1-1,-1-44 1,-3-84-497,-5 260 645,10 140 0,-3-220-236,0 0 0,1 1 0,1-1 0,0 0 0,1-1 0,1 1-1,1-1 1,0 1 0,11 19 0,-16-34-169,1 0 0,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0 0,1 0-1,0 0 1,-1 0-1,1-1 1,0 1 0,0-1-1,-1 1 1,1-1 0,0 0-1,0 0 1,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,0-1-1,0 1 1,-1-1 0,1 1-1,0-1 1,-1 0 0,1 1-1,0-1 1,-1 0-1,1 0 1,-1 0 0,1 0-1,1-3 1,8-17-4861</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4763.4">2006 541 6147,'0'0'6918,"-2"-2"-6750,9-1-259,69-3 316,30-4 182,-90 7-353,131-29-32,-129 27-24,-1-1-1,-1 0 1,1-1-1,-1-1 1,0-1-1,18-13 1,-34 22 54,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 1,0 0-1,-1 0 0,1 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 1,0 1-1,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 1,1 0-1,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 1,0 0-1,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 1,0 0-1,0 0 0,0 0 0,1-1 0,-24 3 815,14 1-831,1 1 0,0 0 0,0 0 0,0 1-1,1 0 1,-1 1 0,1-1 0,0 1-1,1 1 1,-7 8 0,0-1 29,1 1 0,1 0 0,-18 32 0,26-42-74,1 0 1,0 0-1,0 0 0,0 0 1,1 0-1,0 0 0,0 0 0,0 1 1,0-1-1,1 0 0,0 1 1,0-1-1,0 1 0,2 5 0,1-10-15,0 0-1,1 0 0,-1 0 0,0-1 1,1 1-1,-1-1 0,0 0 0,1 0 0,-1 0 1,7-2-1,-6 2 9,2-1 12,-1 0-1,0-1 1,0 1-1,0-1 1,0 0-1,0-1 1,0 1-1,-1-1 1,1 0-1,-1 0 1,1 0-1,-1-1 1,0 1-1,-1-1 1,6-6-1,-1 0 23,0 0-1,0-1 0,-1 0 1,0 0-1,6-16 0,-2-36 151,-9 48 109,-1 44-191,-3-1-50,1-16-36,1 0 0,0 0 1,0 1-1,3 11 0,-3-21-6,1-1 1,-1 1-1,1-1 1,0 0-1,0 1 1,0-1-1,0 0 1,0 1-1,0-1 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,0-1-1,0 1 0,0-1 1,0 1-1,0-1 1,0 0-1,1 1 1,-1-1-1,4 1 1,6 1 6,0-1 1,0 1-1,0-2 0,0 0 1,0 0-1,1-2 1,-1 1-1,0-1 0,0-1 1,0 0-1,0-1 1,-1 0-1,1-1 1,21-10-1,-25 10 11,-1 0-1,0 0 1,0-1-1,0 0 1,0 0 0,-1-1-1,0 0 1,0 0-1,-1-1 1,0 1 0,0-1-1,0 0 1,-1 0-1,0-1 1,-1 1 0,1-1-1,-1 0 1,-1 0-1,1 0 1,-2 0 0,1-1-1,0-8 1,-2 11 10,0 0 1,0 1 0,0-1-1,-1 1 1,0-1-1,0 0 1,0 1-1,-5-11 1,6 15-11,-1-1 0,0 1-1,1 0 1,-1-1 0,0 1 0,0 0 0,0 0 0,0 0-1,0-1 1,0 1 0,0 0 0,0 0 0,0 1 0,-1-1-1,1 0 1,0 0 0,-1 1 0,1-1 0,0 0-1,-1 1 1,1-1 0,-1 1 0,1 0 0,-1 0 0,1-1-1,-1 1 1,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1-1,-1 0 1,1 0 0,-1 1 0,1-1 0,-1 1 0,1 0-1,-3 1 1,3-1-19,-1 0-1,1 0 0,-1 1 1,1-1-1,0 1 0,-1-1 1,1 1-1,0-1 0,0 1 1,0 0-1,1 0 0,-1-1 1,0 1-1,1 0 0,-1 0 1,1 0-1,-1 0 1,1 3-1,-4 39-71,4-36 68,0 88-8,4 1-1,18 98 1,-18-169 20,-2 0 0,0 1 0,-2-1 0,-1 0 1,-6 43-1,4-58-2,1-1-1,-2 1 1,1-1-1,-1 1 1,-1-1 0,0-1-1,0 1 1,-1-1 0,-1 1-1,1-2 1,-1 1 0,-1-1-1,1 0 1,-2-1-1,1 1 1,-10 5 0,14-10 14,1-1 1,-1 1-1,0-1 1,0 0-1,0 0 1,-1 0-1,1 0 0,0-1 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-6-1-1,9 0-7,-1-1-1,0 1 1,0-1 0,1 1-1,-1-1 1,0 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0-1,0 0 1,-1-1 0,1 1-1,0 0 1,0-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0 1-1,0-1 1,1 0 0,-1 0-1,0 1 1,1-1-1,0 0 1,-1 0 0,1 0-1,0 1 1,0-1-1,0 0 1,1-3 0,-1-7-45,0 0 1,1 0 0,1 0 0,0 0 0,1 0 0,0 0 0,1 0-1,0 1 1,1-1 0,1 1 0,-1 0 0,2 1 0,10-15 0,12-13-224,2 2 0,39-36 0,-59 61 186,49-46-228,62-67-60,-110 110 381,-1 0 1,-1-1-1,0 0 0,-1-1 0,-1 0 0,0 0 0,7-25 0,-13 34 85,0-1-1,-1 1 1,0-1-1,-1 0 0,0-8 1,0 15-89,-1 0 0,1 1 1,0-1-1,-1 1 0,1-1 1,-1 1-1,1-1 0,-1 1 1,0 0-1,1-1 0,-1 1 1,1 0-1,-1-1 0,0 1 1,1 0-1,-1-1 0,0 1 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 1,0 1-1,1-1 0,-2 1 1,-27 7 34,24-3-50,-1-1-1,1 1 1,-1 0 0,1 1 0,1-1 0,-1 1-1,1 0 1,0 1 0,0-1 0,1 0-1,0 1 1,0 0 0,0 0 0,1 0 0,-2 12-1,-1 6-22,1-1 0,2 1 0,0 32 0,2-52 19,0-1 0,0 0 1,0 1-1,1-1 0,-1 0 1,1 1-1,0-1 1,0 0-1,1 0 0,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,1-1 0,-1 1 1,1-1-1,0 0 0,0 0 1,6 5-1,-4-5-10,0 0 0,1-1 1,0 1-1,-1-1 0,1 0 1,0-1-1,0 1 0,0-1 0,0-1 1,0 1-1,0-1 0,0 0 0,0 0 1,11-2-1,-4-1-283,0-1 0,-1 0 0,1 0 0,-1-2 0,0 1 0,0-2 0,-1 1 0,0-2 0,0 1 0,17-17-1,18-16-4464</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink51.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:10:59.027"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">24 168 5170,'0'0'9674,"-1"-12"-8593,-7-76 3171,8 391-4382,2-236 968,0-35-2645,-2 0-8024</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="343.1">5 186 5442,'0'0'2866,"-1"-14"-1588,-3-50-366,5 60-867,0 0 0,-1-1 0,2 1 1,-1 0-1,0 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,1 1 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,6-4 0,-2 3 58,0-1 0,1 1 0,-1 0 0,1 0 0,0 1 0,-1 0 0,13-2 0,-17 4-81,1 0 0,-1 1 1,0-1-1,1 1 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 1 1,-1 0-1,1 0 0,-1 0 0,0 0 1,0 0-1,1 0 0,-1 1 1,0 0-1,0 0 0,0 0 0,-1 0 1,1 0-1,4 5 0,-3-2-15,-1 0 1,0 0-1,-1 1 1,1-1-1,-1 1 0,0 0 1,0 0-1,-1-1 1,0 1-1,0 0 0,0 0 1,-1 0-1,0 9 1,0-9 48,1 0 1,-1 0 0,-1-1 0,1 1-1,-1 0 1,0 0 0,0-1 0,-1 1-1,1 0 1,-1-1 0,-1 1 0,1-1 0,-1 0-1,0 0 1,0 0 0,0 0 0,-1-1-1,0 1 1,1-1 0,-2 0 0,1 0 0,0 0-1,-1-1 1,-9 6 0,6-3 18,-1-1 0,1 0 1,-1 0-1,0-1 0,-1 0 0,1-1 0,-1 0 1,1 0-1,-20 1 0,29-4-950,17-7-13238</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="995.9">317 304 5298,'0'0'7068,"9"-2"-6276,0 0-599,0-1 0,1 0 0,-1-1 0,0 0 0,0 0 0,-1-1 1,1 0-1,-1 0 0,8-8 0,-11 9-161,-1 0 1,0 0 0,0 0-1,0-1 1,0 1-1,-1-1 1,0 0 0,0 0-1,0 0 1,0-1 0,-1 1-1,0 0 1,0-1-1,-1 0 1,1 1 0,-1-1-1,-1 0 1,1-6 0,-1 11-39,0 0 0,0-1 1,-1 1-1,1 0 1,0 0-1,-1 0 1,1 0-1,-1 0 1,1 1-1,-1-1 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 1-1,1-1 1,-1 0-1,0 0 0,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 0,0 0 1,0 1-1,-2-1 1,-1 1-15,-1-1 1,1 1-1,-1 0 0,1 0 1,0 1-1,-1-1 1,1 1-1,-8 4 0,3 2 16,0 0-1,1 0 0,0 1 1,0 0-1,1 0 1,0 1-1,1-1 0,0 2 1,0-1-1,1 1 0,1 0 1,0 0-1,0 0 0,1 0 1,0 1-1,1 0 1,0-1-1,1 21 0,0-30-5,1 0-1,0-1 1,1 1-1,-1 0 1,0-1-1,0 1 1,1 0-1,-1-1 1,1 1-1,-1 0 1,1-1-1,0 1 1,-1-1-1,1 1 1,0-1-1,0 1 1,0-1-1,0 0 1,0 1-1,1-1 1,-1 0 0,0 0-1,1 0 1,-1 0-1,3 1 1,-1-1 11,1 1 0,-1-2 0,1 1 1,-1 0-1,1-1 0,-1 1 0,1-1 1,-1 0-1,1 0 0,0-1 0,6 0 1,-1-1 35,0-1 1,0 1-1,-1-1 1,1-1-1,0 1 1,-1-1-1,0-1 1,0 0-1,9-7 1,-15 9-21,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,-1-1 0,0 1-1,1-1 1,-2 1-1,1-1 1,0 0-1,-1 0 1,1 1-1,-1-1 1,0 0-1,0 0 1,-1-5-1,1 8-20,24 1-1331,26-1 117,-20 0-129,56 4 0,-83-2 1338,-1 0 0,1 0 0,0 0 0,-1 0 1,1 0-1,-1 0 0,0 1 0,1-1 0,-1 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 1 0,0-1 0,0 0 0,-1 0 1,1 1-1,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,-1 4 0,2 12 526,0 0 0,-2-1 0,-2 25 0,0-11 831,3-31-1339,-1 0 1,0-1-1,0 1 1,0 0-1,1 0 1,-1 0-1,0-1 1,1 1-1,-1 0 1,1 0-1,-1-1 0,1 1 1,-1 0-1,1-1 1,-1 1-1,1-1 1,0 1-1,-1 0 1,1-1-1,0 1 1,-1-1-1,1 0 1,0 1-1,0-1 0,0 0 1,-1 1-1,1-1 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,2 0-1,34-2 52,-33 1-15,20-5-20,0-1 0,0-1 0,-1-1 0,-1-1 0,1-2 1,-2 0-1,27-19 0,-38 25-172,4-5-1816,-12 5-1206</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink52.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:11:09.991"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">156 720 224,'0'0'4226,"2"-3"-3343,3-8-281,3-15 4808,-8 25-5130,0 0 0,0 0 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,0 0 0,0 0 1,-1-1-1,1 1 1,0 0-1,-1 0 1,1-1-1,-1 1 0,-1-2 1,-13-2-821,10 5 539,0 1-1,0 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,1 0 0,0 1 0,-1 0 0,1 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,1 0 1,-1 0-1,1 0 0,0 0 0,-3 9 0,-4 2-6,2 2 1,0-1 0,1 1-1,-8 29 1,11-29 8,1 0 0,1 1 0,0-1 0,1 0-1,1 1 1,3 32 0,-2-44 2,0 0 0,1 0 1,0 0-1,-1-1 0,2 1 0,-1 0 0,1-1 0,0 0 0,0 1 0,5 5 1,-6-8 0,1-1 0,0 1 0,0-1 0,-1 0 1,1 0-1,1 0 0,-1 0 0,0 0 0,0-1 0,1 1 1,-1-1-1,1 0 0,-1 0 0,1 0 0,-1-1 1,1 1-1,-1-1 0,6 0 0,1 0 38,-1 0-1,0-1 0,0 0 1,0-1-1,0 0 1,0 0-1,-1-1 1,1 0-1,9-5 1,42-28-3717,-35 18-604,-10 0-1812</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1101.45">312 886 5763,'0'0'4970,"22"-11"-2300,-16 9-2571,0 0-1,-1-1 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1-1-1,-1 0 0,1 0 1,-1 0-1,1-1 1,-1 1-1,0-1 1,-1 0-1,1 0 1,-1-1-1,0 1 0,-1 0 1,1-1-1,-1 0 1,0 0-1,0 0 1,-1 0-1,0 0 1,0 0-1,0 0 0,-1 0 1,0 0-1,-1-11 1,1 16-104,0-1 0,0 1 1,-1-1-1,1 1 0,-1-1 1,1 1-1,-1 0 0,0-1 0,0 1 1,1 0-1,-1-1 0,0 1 1,0 0-1,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 0 1,0 0-1,-1 0 0,1 1 1,0-1-1,-1 0 0,1 1 1,-1 0-1,1-1 0,-1 1 0,1 0 1,-1-1-1,1 1 0,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 1-1,1-1 0,-1 0 0,1 1 1,-1-1-1,1 1 0,-3 0 1,0 1-18,0-1 0,0 1 0,0 0 1,0 0-1,0 1 0,0-1 0,0 1 1,1 0-1,-1 0 0,1 0 0,0 0 0,0 0 1,-4 6-1,1 4 15,0 0 1,1 1-1,1 0 1,0 0-1,0 0 1,2 0-1,0 1 1,0-1-1,1 1 0,2 14 1,-1-28 4,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1-1,1 1 1,-1-1 0,1 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,3 1-1,0 0-34,1 0 0,-1 0 0,1-1 0,-1 0 0,1 0-1,0 0 1,8 0 0,-2 0-71,0-1 0,0-1 1,0 0-1,0 0 0,0-1 0,14-4 0,-15 2 6,0-1 0,0 0 0,0 0 1,-1-1-1,0 0 0,0 0 0,10-10 0,-14 11 93,-1 1-1,0-1 1,0 0-1,-1 0 1,1 0-1,-1 0 0,0 0 1,-1-1-1,1 0 1,-1 1-1,0-1 1,0 0-1,-1 0 1,1-8-1,2-41 171,-4 45 390,0 42-188,0 66 136,0-97-501,0 0 0,0-1 0,0 1-1,0-1 1,0 1 0,1-1 0,-1 1 0,0 0-1,0-1 1,0 1 0,1-1 0,-1 1 0,0-1-1,0 1 1,1-1 0,-1 1 0,1-1-1,-1 0 1,0 1 0,1-1 0,-1 1 0,1-1-1,-1 0 1,1 1 0,-1-1 0,1 0-1,-1 0 1,1 1 0,-1-1 0,2 0 0,22 0-428,-18-1 352,0-1-1,0 1 1,-1-1 0,1-1 0,0 1 0,4-4 0,4-5 7,-1 0 1,-1-1 0,17-21 0,24-23-415,-53 56 488,1-1 1,-1 1-1,1-1 0,0 1 1,-1-1-1,1 1 0,0-1 1,-1 1-1,1 0 1,0-1-1,-1 1 0,1 0 1,0 0-1,0-1 0,-1 1 1,1 0-1,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,-1 1 1,1-1-1,0 0 0,0 0 1,-1 1-1,1-1 0,0 0 1,-1 1-1,1-1 1,0 1-1,-1-1 0,1 1 1,-1-1-1,1 1 0,-1-1 1,1 1-1,-1 0 1,1-1-1,-1 1 0,1 0 1,-1-1-1,0 1 0,1 0 1,-1 0-1,0 1 0,15 48 986,-12-33-871,-1-12-106,-1-1 1,0 0-1,1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,1-1 0,-1 1 1,1-1-1,0 1 0,0-1 0,0 0 1,0 0-1,1 0 0,-1-1 1,7 4-1,-6-5-11,-1 0 0,1 0 1,-1 0-1,1-1 0,-1 1 1,1-1-1,-1 0 0,1 0 1,0-1-1,-1 1 0,1-1 0,-1 1 1,1-1-1,-1 0 0,0-1 1,1 1-1,-1 0 0,0-1 1,0 0-1,0 0 0,0 0 1,5-4-1,1-2-11,0 0 0,0-1 0,-1 0 0,-1 0 1,1-1-1,-2 1 0,1-2 0,-1 1 0,-1-1 0,0 0 0,0 0 0,-1 0 1,0-1-1,-1 1 0,1-14 0,2-17 112,-2 0-1,-2-75 1,-2 78 450,-9 153-417,4-66 153,0 54-1,5-89-254,1 0-1,1 0 1,0 0-1,0 0 1,1 0-1,1 0 1,0 0-1,11 21 1,-13-30-109,0-1-1,1 0 1,0 1 0,-1-1-1,1 0 1,0-1 0,0 1-1,1 0 1,-1-1 0,0 0 0,1 0-1,0 0 1,-1 0 0,1 0-1,8 2 1,-11-4-130,1 0 0,0 1 0,-1-1-1,1 0 1,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1-1 0,1 1-1,0-1 1,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1-1,0-1 1,0 1 0,-1-1 0,1 1 0,0-1 0,-1 0 0,1 1 0,-1-1 0,1 0-1,-1-2 1,2-18-5180</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1286.25">900 705 6019,'0'0'8484,"93"-18"-8468,-53 13-16,0 0-593,-8 5-335,-1 0-833,-4 0-704,-10 0-2705</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2273.82">1301 687 912,'0'0'12473,"-11"0"-11614,7 0-830,1-1 17,-1 1 1,0 0 0,1-1 0,-1 2-1,0-1 1,1 0 0,-1 1-1,1 0 1,-1-1 0,0 2 0,1-1-1,0 0 1,-1 1 0,1-1-1,0 1 1,0 0 0,-1 0-1,2 0 1,-1 1 0,0-1 0,0 1-1,1-1 1,-5 6 0,2 1 4,0 1 0,0 0 0,1-1 0,0 1 0,1 1 1,0-1-1,1 0 0,0 1 0,0 0 0,1-1 0,1 20 0,0-29-79,0 0 0,0 1 0,0-1-1,1 0 1,-1 0 0,0 1 0,1-1-1,-1 0 1,1 0 0,-1 0 0,1 1-1,0-1 1,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0-1 1,0 1 0,0 0 0,0 0-1,0-1 1,0 1 0,0-1 0,1 1-1,-1-1 1,0 1 0,0-1 0,1 0-1,-1 0 1,0 1 0,1-1 0,-1 0-1,3-1 1,-2 2-7,1-2-1,0 1 1,-1 0-1,1 0 1,-1-1-1,1 1 1,0-1-1,-1 0 1,1 0 0,-1 0-1,0 0 1,1 0-1,-1-1 1,0 1-1,0-1 1,0 1-1,3-4 1,2-6 15,0 0-1,-1 0 1,0-1 0,-1 0 0,0 0 0,-1-1-1,0 1 1,-1-1 0,-1 0 0,0 0-1,1-23 1,-4 45 51,1 0-1,1 0 1,0 0-1,0 0 1,1 0-1,0 0 1,0 0-1,1-1 1,5 13-1,-6-17-47,1-1 0,-1 0 0,1 1 0,0-1-1,0 0 1,0 0 0,0-1 0,0 1-1,1 0 1,-1-1 0,1 0 0,0 0 0,0 0-1,-1-1 1,1 1 0,0-1 0,1 0-1,-1 0 1,0 0 0,0 0 0,0-1 0,8 0-1,-3 1-57,1-2 1,0 1-1,0-1 0,0 0 0,0-1 0,-1 0 0,1-1 0,-1 0 0,0-1 0,0 0 0,0 0 0,0-1 1,8-5-1,-12 7 93,-1-1 0,0 1 1,1-1-1,-2 0 0,1 0 1,0-1-1,-1 1 1,0-1-1,0 1 0,0-1 1,0 0-1,-1 0 0,0-1 1,0 1-1,0 0 0,-1-1 1,0 1-1,0-1 1,0 1-1,-1-1 0,1 1 1,-1-1-1,-1 0 0,0-5 1,1 9 5,-1 1 0,1-1 0,0 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-2-1 0,1 0-28,0 1 1,0-1-1,0 1 1,0-1 0,0 1-1,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,1 0 1,-1 1 0,0-1-1,1 0 1,-1 1-1,1-1 1,-1 1 0,1 0-1,0-1 1,0 1-1,0 0 1,0 0 0,0 0-1,-2 4 1,1 15-1,0 1 0,2 0 1,0 0-1,2 0 0,0-1 1,1 1-1,1-1 0,11 33 1,-8-32 20,-2 0 1,0 0-1,-1 1 1,-1-1-1,-2 1 1,0 0-1,-3 32 1,0-46-20,0 0 1,-1-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,-1 0 0,0-1-1,0 1 1,0-1 0,-9 8 0,11-11 68,-1 0 0,0 0 0,-1 0 1,1-1-1,-1 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,0-1 1,-1-1-1,1 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,-10-1 0,15 0-45,0-1-1,0 0 0,0 1 0,0-1 0,0 0 1,0 1-1,0-1 0,1 0 0,-1 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,0 0 0,-1 0 0,1 0 0,0-1 1,0 1-1,0 0 0,0-2 0,-2-37-99,2 35 75,1-5-152,0-1-1,1 0 0,1 1 0,0-1 1,0 1-1,1 0 0,0 0 0,1 0 1,0 1-1,0-1 0,14-16 1,9-10-1546,47-46 0,-60 68 1083,58-69-1138,-66 74 1810,0 0 1,-1-1-1,0 1 1,0-2-1,-1 1 1,0 0-1,4-17 1,-9 26 22,1 1 1,-1-1 0,0 0-1,1 1 1,-1-1 0,0 1-1,0-1 1,1 0 0,-1 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0 0-1,0 0 1,0 1 0,-1-1-1,1 1 1,0-1 0,0 0-1,0 1 1,-1-1 0,1 0-1,0 1 1,-1-1 0,1 1-1,-1-1 1,1 1 0,-1-1-1,1 1 1,-1-1 0,1 1-1,-1-1 1,1 1 0,-1 0-1,0-1 1,1 1 0,-1 0-1,1 0 1,-1-1-1,0 1 1,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0 0,-2 0 0,0 1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 1 1,0-1-1,-2 4 0,-4 3-11,2 0 1,-1 1 0,1 0 0,1 0 0,0 1-1,0 0 1,1 0 0,0 0 0,0 0-1,2 0 1,-1 1 0,1 0 0,0-1-1,1 1 1,1 0 0,0 0 0,0 0-1,1-1 1,2 15 0,-2-22-107,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,0 0-1,0 0 1,0-1 0,1 1 0,-1-1-1,1 1 1,-1-1 0,1 0 0,0 0-1,0 0 1,0 0 0,0-1 0,0 1-1,0-1 1,0 0 0,7 2 0,2 0-964,1-1 1,0 0 0,-1-1 0,20 0-1,17-1-4695</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2559.4">2223 855 4194,'0'0'12790,"7"0"-11360,31-4-925,42-10-1,7-2-1626,-28 12-4032</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2759.6">2197 1029 5843,'0'0'9380,"22"12"-9188,18-22-16,5-8-176,4 1-656,-5-1-785,-4 0-1184,-9 0-1377</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3087.74">2250 685 8116,'0'0'6261,"6"6"-6018,11 8-124,0-1-1,1-1 1,1 0-1,36 17 1,-38-21-151,1 0 0,-1 2 0,-1 0 1,0 0-1,0 2 0,-1 0 0,0 1 1,21 23-1,-34-31 80,1-1 0,-1 0 0,1 1 1,-1-1-1,-1 1 0,1 0 0,-1 0 0,0-1 0,0 1 1,0 0-1,0 0 0,-1 0 0,0 0 0,0 0 0,0 0 1,-1 0-1,0 0 0,0 0 0,0 0 0,0 0 1,-1-1-1,0 1 0,0 0 0,0-1 0,0 1 0,-1-1 1,0 0-1,0 0 0,-6 6 0,-8 10 83,-2 0 0,0-2 0,-2 0-1,-25 17 1,39-29-251,-28 19-1350,3-4-2281</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7564.91">3974 359 4722,'0'0'8636,"-4"-6"-7894,-11-20 39,14 25-734,1 1-1,-1-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 1 0,-23 12 202,17-6-208,-1 1 1,1 0 0,1 0 0,-1 1 0,1 0 0,1 0 0,0 0 0,0 1-1,1 0 1,-6 15 0,6-8-18,0 0-1,2 0 1,0 1 0,0-1-1,2 1 1,0 18 0,1-33-26,0-1 0,1 1 0,-1-1 1,0 1-1,1-1 0,-1 1 0,1-1 0,0 1 1,0-1-1,0 1 0,0-1 0,0 0 0,0 0 1,1 0-1,-1 0 0,1 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,0-1 0,3 3 0,0-2-21,-1 1 0,1-1 0,1 0 1,-1-1-1,0 1 0,0-1 0,1 0 0,-1 0 0,1-1 0,6 1 0,-1-1-44,1-1-1,-1 0 1,1 0 0,-1-1-1,1-1 1,-1 0 0,0 0-1,0-1 1,17-9 0,-23 10 81,1-1-1,0 0 1,-1 0 0,0-1 0,0 1 0,0-1 0,-1 0-1,0 0 1,0-1 0,0 1 0,0-1 0,-1 0-1,0 0 1,0 0 0,-1 0 0,0-1 0,0 1 0,0-1-1,-1 1 1,0-1 0,0 0 0,0 1 0,-1-1 0,0 0-1,-1 0 1,1 1 0,-1-1 0,-1 0 0,1 1 0,-1-1-1,0 1 1,-1 0 0,1 0 0,-1-1 0,0 2 0,-1-1-1,0 0 1,1 1 0,-2-1 0,1 1 0,-6-5 0,5 6 26,0-1 0,-1 1 0,1 0 1,-1 0-1,0 1 0,0 0 1,0 0-1,0 0 0,-1 1 0,1 0 1,-1 0-1,1 0 0,-1 1 0,0 0 1,0 1-1,1-1 0,-13 2 1,18-1-104,0 1 0,0 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0 0-1,1 0 1,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,0 0-384,0 1-1,-1-1 1,1 0-1,0 1 1,0-1-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 1,3 3-1,21 6-4529</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8439.9">4242 280 4914,'0'0'9535,"-1"-6"-8201,-2-20-376,2 20-382,-2 28-322,1-4-246,-15 262 363,17-279-334,0-39 259,0 22-286,0 10-38,-1 0 0,1 0 1,1 1-1,-1-1 0,1 0 0,0 0 0,3-9 0,-2 13 14,-1-1-1,1 1 0,-1 0 1,1 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,1 1 1,-1-1-1,0 1 0,1-1 0,-1 1 1,1 0-1,0 0 0,-1 0 1,1 1-1,4-2 0,0 0-27,0 0 1,0 1-1,0 0 0,1 0 0,-1 1 0,0 0 1,0 0-1,0 0 0,13 3 0,-17-2 36,-1 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,-1 4 0,2-4 13,-1 0 1,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,-3 3 0,-1-1 6,0 1 0,-1-2 0,1 1 0,-1-1 0,1 1 0,-10 1 0,-1-1 21,-1 0 0,1 0 0,-1-2 1,0 0-1,-20-2 0,7 1-54,30-1-290,0 0 0,0 1 0,1-1 0,-1 0 0,0 1 1,0-1-1,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 1 1,-1-1-1,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,1 0 1,-1-1-1,1 1 0,-1 0 0,1-1 0,-1 1 0,2-1 0,14-6-4493</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8922.52">4576 634 5138,'0'0'4851,"9"-43"-4851,-5 35-32,5 0-625,-5-2-1696,-4 0-3313</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11112.11">4580 267 6147,'0'0'7886,"-1"-6"-7251,-5-13-324,2 24-161,2 43 29,1-19 67,-6 86 525,-3 86-694,14-174-1363,5-11-2566,-15-30-3013,-2 5 7224,0 0 1,0 0-1,0 1 0,-1 0 0,-15-10 0,-28-27 5733,52 45-6025,0-1 0,0 1-1,0-1 1,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,1 1-1,-1-1 1,0 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1-1,0-1 1,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0 0-1,1-1 1,-1 1 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1-1,1 0 1,-1 0 0,2 1 0,25-8-513,-23 6 667,116-17-17,7-1-268,-113 16 48,-1-1-1,1 0 1,-1-1 0,0 0 0,0-1 0,19-13-1,-31 19 44,0 0 0,0-1-1,0 1 1,-1 0-1,1-1 1,0 1 0,0-1-1,-1 1 1,1-1 0,0 0-1,-1 1 1,1-1 0,0 0-1,-1 1 1,1-1-1,-1 0 1,1 0 0,-1 0-1,0 1 1,1-1 0,-1 0-1,0 0 1,0 0 0,1 0-1,-1 0 1,0 0-1,0 0 1,0 1 0,0-1-1,0 0 1,0 0 0,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,-1 1-1,1-1 1,0 0 0,-1 0-1,1 0 1,-1 1 0,1-1-1,-1 0 1,1 0 0,-1 1-1,0-1 1,1 1-1,-1-1 1,0 0 0,0 1-1,1-1 1,-1 1 0,0 0-1,0-1 1,0 1 0,0 0-1,1-1 1,-1 1-1,0 0 1,-1 0 0,-4-1-6,1 1 0,-1-1 0,1 1 0,-1 1 1,1-1-1,-1 1 0,1 0 0,-1 0 0,1 1 1,0-1-1,0 1 0,0 1 0,0-1 0,0 1 0,0-1 1,0 1-1,1 1 0,-1-1 0,1 1 0,-6 5 0,6-3-22,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,1 1 0,0 0 0,1 0 0,0 0 0,0 0 0,0 1 0,1-1 0,0 1 0,0 13 0,1-19-10,0 0-1,0 1 1,0-1 0,1 0-1,-1 0 1,1 0 0,0 0-1,-1 0 1,1 0 0,0-1-1,0 1 1,0 0-1,1 0 1,-1-1 0,0 1-1,1 0 1,-1-1 0,1 1-1,-1-1 1,1 0-1,0 0 1,-1 1 0,1-1-1,0 0 1,0-1 0,0 1-1,0 0 1,0 0-1,0-1 1,0 1 0,0-1-1,0 0 1,0 1 0,0-1-1,0 0 1,0 0-1,0 0 1,0-1 0,4 0-1,1 1-51,1-1-1,-1 0 1,1-1 0,-1 0-1,0 0 1,1 0-1,-1-1 1,0 0 0,-1-1-1,9-4 1,-2-4 48,0 0-1,-1 0 1,-1-2 0,0 1 0,0-1 0,-2-1 0,0 0 0,12-26 0,-20 39 671,4 34-437,-4-25-201,0 0-1,1 0 1,0 0 0,0 0 0,0 0 0,1-1 0,0 1 0,1-1 0,-1 0 0,1 0-1,0 0 1,10 10 0,-9-12-35,0-1 0,0 1-1,0-1 1,0 0 0,0-1-1,1 0 1,-1 1 0,1-2 0,0 1-1,-1-1 1,1 1 0,0-2-1,0 1 1,0-1 0,0 1 0,8-2-1,-8 1 16,0-1-1,0 0 1,-1 0-1,1 0 1,0-1-1,0 1 1,-1-1-1,1-1 0,-1 1 1,1-1-1,-1 0 1,0 0-1,0 0 1,0-1-1,-1 0 1,1 0-1,-1 0 1,0-1-1,0 1 0,0-1 1,-1 0-1,4-6 1,-1 0 51,-1-1 1,-1 1 0,0-1-1,0 0 1,-1 0-1,-1 0 1,0-1 0,0 1-1,-1-22 1,-2 44 31,0-1 0,-1 1 0,0-1 0,-5 16 0,-6 30-27,12-46-26,1 0 0,0 0 0,0 0 0,0 0 1,4 16-1,-3-23-57,0 0-1,-1 0 1,1-1 0,0 1-1,0 0 1,0 0 0,0 0 0,0-1-1,1 1 1,-1 0 0,0-1-1,1 1 1,-1-1 0,1 0-1,0 1 1,-1-1 0,1 0 0,0 0-1,0 0 1,0 0 0,0-1-1,-1 1 1,1 0 0,0-1 0,0 1-1,1-1 1,-1 0 0,0 1-1,0-1 1,3-1 0,6 2-415,-6-1-114,-1 0-1,1 0 0,0 0 1,-1 0-1,1-1 0,8-2 1,14-14-4132</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11264.98">5392 282 1249,'0'0'14070,"-67"-71"-14070,67 89-1072,0 5-1554,0 2-1712</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11612.56">5490 474 6355,'0'0'4557,"-1"15"-2279,-3 132 2049,6-147-4338,1 1 0,-1 0-1,0-1 1,1 0 0,-1 1-1,1-1 1,-1 0 0,0 0-1,1 0 1,-1-1 0,1 1-1,-1-1 1,0 1 0,1-1-1,3-1 1,7-5-6,0-1 0,-1 0 1,0-1-1,0 0 0,19-20 0,29-22-53,-59 50 81,0 1 0,-1-1 0,1 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 1,0 0-1,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1-1 1,-1 1-1,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,0 1 0,1 2 0,11 54 863,-8-31-632,-2-21-251,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,3 5 0,-4-8-225,-1-1 0,0 1 0,1-1 0,-1 0-1,1 1 1,-1-1 0,1 0 0,0 0 0,0 0 0,-1 0-1,1-1 1,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0-1,0 1 1,4-1 0,16 0-5251</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11904.03">5908 499 7411,'0'0'7089,"14"-1"-6941,-1 0 0,1 0 0,16-5 0,-23 3-127,0 1 0,0-2 0,0 1-1,0-1 1,0 0 0,-1 0 0,0-1 0,0 0 0,9-8-1,-15 13 0,0 0-1,0 0 0,0-1 0,0 1 1,1 0-1,-1 0 0,0-1 0,0 1 1,0 0-1,0 0 0,0-1 0,0 1 1,0 0-1,0-1 0,1 1 0,-1 0 1,0 0-1,0-1 0,0 1 0,0 0 1,-1-1-1,1 1 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0-1 1,0 1-1,0 0 0,-1 0 0,1-1 1,0 1-1,0 0 0,0 0 0,-1 0 1,1-1-1,0 1 0,0 0 0,0 0 1,-1 0-1,1 0 0,0-1 0,-1 1 1,1 0-1,-21-4 481,-20 5-29,37 0-462,0 1-1,0-1 1,0 1-1,0 0 1,0-1-1,0 2 1,0-1-1,1 0 1,-1 1-1,1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 1-1,1-1 0,-1 1 1,1 0-1,0-1 1,0 1-1,1 0 1,-1 0-1,1 1 1,0-1-1,0 0 1,0 0-1,0 1 1,1-1-1,0 0 1,0 1-1,0-1 1,1 6-1,0-9-64,-1 1 0,1-1-1,0 0 1,-1 1 0,1-1 0,0 0-1,0 0 1,0 1 0,0-1 0,0 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,0-1 0,1 1 0,-1 0-1,1-1 1,-1 1 0,0-1-1,1 1 1,-1-1 0,1 1 0,1-1-1,43 3-2018,-37-3 1379,48-1-3727,4-1-1852</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12239.63">6282 469 2593,'0'0'4978,"-17"-2"-2315,4 0-2062,4 0-137,-1 0-1,0 1 1,1 0-1,-1 1 0,0-1 1,0 2-1,0 0 0,1 0 1,-1 0-1,-17 6 1,26-6-429,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0 1 0,0 0 0,1-1-41,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1-1,0 1 1,0 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,0-1 0,1 1 0,-1-1 0,0 1 0,1-1-1,-1 1 1,2 0 0,0 1-46,0 0 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1-1 0,0 1 0,4-1 0,1 1-38,0-2 1,0 1-1,1-1 1,-1-1-1,0 0 0,0 0 1,-1 0-1,1-1 1,0 0-1,-1 0 1,12-8-1,-7 3 66,0 0-1,-1-1 0,0-1 1,-1 0-1,0 0 1,10-15-1,-4 3 56,-1-1 1,-1 0-1,-1-1 0,-1 0 1,-1-1-1,12-45 1,-19 48 115,0-1 0,-2 1 0,-1-1 0,-1-28 0,0 19 414,0 31-502,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0-1,-1 0 1,1 1 0,-1-1 0,0 0 0,-1-1 0,2 2-36,-1 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,1-1 1,-1 1-1,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1 0 1,0-1-1,-1 1 0,1 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,0-1 1,0 1-1,0 0 0,0 1 0,-6 39-32,1 0 1,2 0-1,5 82 0,0-31-210,-1-33-717,0-15-2628,-6 61-1,-9-36-2557</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12719.81">3203 1039 9012,'0'0'6032,"29"-10"-5306,-28 10-724,54-17 541,1 1-1,88-11 1,565-23 1025,0 41-1901,570-36-1684,-1262 44 2021,200-28 9,-192 24 4,-1-1 1,0-1-1,0-1 1,0-2-1,-1 0 1,33-20-1,-55 30-105,0-1 1,0 1-1,0-1 1,0 1-1,0-1 1,-1 0-1,1 1 1,0-1-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 1,1 0-1,-1-2 1,0-1-4203</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13853.96">4139 1212 6819,'0'0'5763,"-22"119"-4291,18-65-431,-1-3-449,1-3-208,4-2-31,0-3-273,0-7 64,0-6-112,0-4-64,0-11-897,0-7-1632</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14068.81">3912 1352 4226,'0'0'12101,"147"-36"-11908,-76 34-81,-4-3-112,4 5-80,-13 0-1649,-4 7-2241,-14 9-816</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14338.97">4433 1451 4098,'0'0'6723,"-18"13"-4255,-60 42-563,74-53-1837,1 1 1,-1-1 0,1 0 0,0 1 0,0 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,1 1 0,0-1-1,0 0 1,0 1 0,0 0 0,1 0 0,-1-1-1,1 1 1,0 0 0,0 0 0,1 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 1 0,0-1 0,1 0-1,1 5 1,-1-7-68,-1-1 0,1 0 0,-1 1-1,1-1 1,0 0 0,0 0 0,-1 0 0,1 1-1,0-1 1,0 0 0,0 0 0,0 0-1,1-1 1,-1 1 0,0 0 0,0 0 0,0-1-1,1 1 1,-1 0 0,0-1 0,1 1 0,-1-1-1,0 0 1,1 1 0,1-1 0,42 2 12,-34-2-12,6-1-19,0-1 1,0 0-1,1-1 0,-2 0 1,1-2-1,0 0 1,-1-1-1,0-1 0,0 0 1,-1-1-1,0-1 1,0 0-1,-1-1 0,23-20 1,-34 27 33,0 0 1,-1 0-1,1 0 1,0 0-1,-1-1 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,-1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,-1-1-1,1 1 1,-1 0-1,0 0 1,0 0-1,-1 0 1,1-1-1,-1 1 1,0 0-1,0 0 1,-3-6-1,2 5-3,0 1 0,-1 0 0,0 0-1,0 1 1,0-1 0,0 1 0,0-1-1,-1 1 1,1 0 0,-1 0 0,0 0-1,0 1 1,0-1 0,0 1 0,-1 0-1,1 0 1,0 1 0,-1-1 0,1 1-1,-1 0 1,0 0 0,-7 0 0,7 1-213,-46 1 320,32 9-1983,19-9 1545,-1 0 1,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 1-1,0-1 1,-1 0 0,1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0-1,1 2 1,3 9-7809</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14548.79">4897 1255 7716,'0'0'6723,"-14"127"-5363,5-63-880,5-3-159,-1 0-177,5-2-144,0-8-272,0-11-3234,5-14-4114</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15155.95">4835 1629 7716,'0'0'8355,"19"-15"-8325,-2 0-23,-7 7-6,-1-1 0,2 1 0,-1 1 0,1 0 0,0 1 0,1 0 0,-1 0 0,1 1 0,0 1 0,17-5 0,-16 6-2,45-9-70,0-4 0,77-31 1,-139 48 1480,-4 1-1309,-1 1 1,1 0 0,0 1-1,-14 7 1,16-7-97,0 0-1,1 0 1,-1 1-1,1-1 1,0 1-1,0 1 1,1-1-1,0 1 1,0-1 0,0 1-1,0 1 1,1-1-1,0 0 1,1 1-1,-1 0 1,1-1-1,0 1 1,1 0-1,-1 9 1,5-15-100,0 0 0,0-1 0,0 1 0,1-1 0,-1 1-1,0-1 1,1-1 0,-1 1 0,0 0 0,6-2 0,0-1-88,1-1 1,-1-1-1,0 0 1,-1 0-1,1 0 1,-1-1-1,0 0 0,-1-1 1,0 0-1,0 0 1,0 0-1,-1-1 0,0 0 1,0 0-1,4-10 1,-10 20 311,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0-1-1,0 1 1,1-1 0,-1 1 0,0-1 0,1 0 0,1 2 0,0 0-132,-1-1 0,1 1 0,0-1 1,0 1-1,0-1 0,0 0 0,0 0 0,1-1 1,-1 1-1,1-1 0,-1 1 0,8 0 0,1-1 22,0-2 0,0 1 0,-1-2 0,1 0 0,0 0 0,0-1 0,-1 0 0,0-1 0,1 0 0,-1-1 0,-1-1 0,1 1 0,-1-2 0,0 1 0,0-1 0,-1-1 0,12-11 0,-12 10 41,0 0 0,0-1 0,-1 0-1,-1-1 1,1 1 0,-2-1 0,1-1-1,-2 1 1,1-1 0,-1 0 0,-1 0-1,-1-1 1,1 1 0,-2-1 0,0 0-1,1-12 1,-3 16-43,-2-45 209,2 53-212,0 0 1,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 0-1,0 1 1,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,1 0-1,-1-1 1,0 1 0,1 0 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0-1,-1 1 1,0-1 0,1 0 0,-1 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,1-1-1,-2 2 1,-2 2-9,0 0-1,1 1 0,-1 0 1,1-1-1,0 1 0,0 1 1,0-1-1,1 0 0,0 1 1,0-1-1,-2 9 0,-10 66 49,12-65-30,1-1 0,0 0 1,1 1-1,1-1 0,4 23 0,-4-33-106,0-1-1,0 1 0,0-1 0,1 1 1,-1-1-1,1 1 0,0-1 0,0 0 1,0 0-1,0 0 0,1 0 0,0 0 0,-1-1 1,1 1-1,0-1 0,0 1 0,0-1 1,0 0-1,1 0 0,-1-1 0,0 1 1,1-1-1,0 1 0,-1-1 0,8 1 1,19 0-2829,-2-2-3049</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15701.39">7414 535 5635,'0'0'12117,"-44"-28"-11893,17 56-160,-13 15-32,-14 5 0,5 3-32,5-5-64,12-10-1072,15-8-1089,12-13-1121,5-7 65,14-13-3154</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15855.23">7125 715 80,'0'0'6467,"4"-104"-3538,-4 79-223,0 7-33,5 8-720,-1 5-817,5 5-736,9 5-384,4 23 16,9 5 145,5 7-1,9 4-160,-5-6-16,4-2-609,5-6-1071,5-12-1922,-5-10-2033</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16053.37">7793 438 5426,'0'0'11990,"0"-18"-11878,0 64-32,0 10 64,0 0-112,0 0-32,0-5-608,0-6-1809,5-11-2225,12-14-3154</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16384.44">8047 560 9636,'0'0'4845,"-12"20"-3948,-36 66-454,46-82-414,0 1 1,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 1 0,1-1 0,-1 0 0,1 1-1,0-1 1,0 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,1 1 0,-1-1 0,4 7 0,-3-9-25,0 0 0,0 0 0,0 0 0,1 0 1,-1 0-1,1 0 0,0-1 0,0 0 0,0 1 1,0-1-1,0 0 0,0 0 0,1-1 0,-1 1 1,1-1-1,-1 0 0,1 1 0,-1-2 1,1 1-1,0 0 0,-1-1 0,1 1 0,4-1 1,-3-1-4,1 1 0,-1 0 0,0-1 1,0 0-1,1-1 0,-1 1 0,0-1 1,0 0-1,0 0 0,0 0 1,-1-1-1,1 0 0,-1 0 0,1 0 1,-1 0-1,0-1 0,0 1 1,-1-1-1,1 0 0,-1-1 0,0 1 1,0 0-1,0-1 0,0 0 0,-1 1 1,0-1-1,0 0 0,0 0 1,-1-1-1,1 1 0,-1 0 0,-1 0 1,1-8-1,0 8 47,0-1 0,0 1 0,-1 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,-1 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,0 1 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 1 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,0 1 0,0 0 0,1 0 0,-1 0 1,-1 0-1,1 1 0,0 0 0,0 0 0,0 0 0,-7 0 0,8 0-55,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 1-1,-7 1 1,11-1-75,-1-1 0,1 1 0,0 0-1,0 0 1,0 0 0,0-1 0,0 1-1,1 0 1,-1 0 0,0 0 0,0 1-1,0-1 1,1 0 0,-1 0-1,1 0 1,-1 0 0,1 1 0,-1-1-1,1 0 1,0 0 0,0 1 0,-1-1-1,1 0 1,0 1 0,0-1 0,0 0-1,1 2 1,3 18-3625,18-3-1627</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16726.69">8462 578 5410,'0'0'10955,"-12"18"-10107,-32 57-456,42-73-381,1 0 0,0 0-1,0 0 1,0 0 0,0 1-1,0-1 1,0 0-1,1 0 1,-1 1 0,1-1-1,-1 1 1,1-1-1,0 0 1,0 1 0,0-1-1,0 1 1,0-1 0,1 0-1,-1 1 1,1-1-1,-1 0 1,1 1 0,0-1-1,0 0 1,0 0 0,0 0-1,1 0 1,-1 0-1,0 0 1,1 0 0,0 0-1,-1 0 1,1-1 0,0 1-1,0-1 1,0 1-1,0-1 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,1 0 1,-1 0-1,0-1 1,4 1 0,-1 1 13,1-1 0,0 0 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 0 0,0-1 0,0 1 0,0-1 0,0-1 0,0 1-1,-1-1 1,1 0 0,9-4 0,-12 1 36,1 1 0,0-1-1,-1 0 1,0 0 0,0 0-1,-1 0 1,1-1 0,-1 1-1,0-1 1,0 1 0,-1-1 0,0 0-1,0 0 1,0 1 0,-1-1-1,0 0 1,0 0 0,0 0-1,-1 0 1,0 0 0,0 1-1,-3-10 1,3 10-45,0 0-1,0 1 1,0-1 0,-1 1 0,1-1 0,-1 1-1,0 0 1,-1 0 0,1 0 0,-1 0-1,0 0 1,0 0 0,0 1 0,0-1-1,0 1 1,-1 0 0,0 0 0,0 0 0,0 1-1,0-1 1,0 1 0,0 0 0,0 0-1,-1 0 1,1 1 0,-1 0 0,1-1 0,-7 1-1,8 1-98,0 1-1,0-1 0,0 1 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,0 1 0,1 0 1,-1-1-1,1 1 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 1 0,0-1 0,-2 5 1,-29 53-3538,18-19-1185</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17005.25">8987 553 14102,'0'0'4146,"102"0"-3954,-48-6-47,-5-1-81,-4 4-64,-5-2-1105,-14 5-944,-8 0-2257</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17188.77">9010 746 2577,'0'0'12694,"124"-25"-12694,-75 12-528,0-2-1985,-13-3-1985,-9 2-3234</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17433.69">9068 422 5763,'0'0'6499,"23"10"-6355,-3-3-123,1 1 18,0 1 0,0 0 0,-1 2 1,0 0-1,28 22 0,-35-22-28,-1 0 0,0 1 1,-1 1-1,0 0 0,-1 0 1,-1 1-1,13 23 0,-20-32 43,1-1-1,-1 1 0,0 0 0,0-1 0,0 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,0 0 1,0 0-1,0 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,-1 1 1,1-1-1,-1 0 0,0 0 0,-6 7 0,-14 9 191,-2 0 1,-42 26-1,-16 0-5184,46-28-3240</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink53.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
       <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:11:33.381"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
@@ -8221,7 +7908,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink51.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8251,7 +7938,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink52.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8280,7 +7967,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink53.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8305,14 +7992,14 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">201 250 6515,'0'0'6875,"-23"-5"-5151,16 6-1660,0 0 1,0 0-1,-1 0 1,1 1-1,0 0 1,0 0-1,1 1 1,-1 0-1,0 0 1,1 1-1,0 0 1,0 0-1,0 0 1,0 1-1,1 0 1,-1 0-1,-7 11 1,7-9-57,0 0 1,1 1 0,0 0 0,0 1-1,1-1 1,0 1 0,0 0 0,1 0-1,0 0 1,1 0 0,0 0-1,0 1 1,0 14 0,2-22-24,0 0 0,1 0 0,-1 0 1,1-1-1,-1 1 0,1 0 0,0 0 0,0 0 0,-1-1 1,1 1-1,1 0 0,-1-1 0,0 1 0,0-1 0,0 1 1,1-1-1,-1 0 0,1 1 0,-1-1 0,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,0-1 0,0 1 1,-1 0-1,1-1 0,0 0 0,0 1 0,0-1 0,0 0 1,2 0-1,11 2-1,0-2 1,-1 0-1,21-2 0,-26 1 33,1 0-12,-1 0-1,1-1 1,-1 0-1,0 0 1,1-1-1,-1 0 1,-1-1-1,1 0 1,0 0-1,-1-1 1,0 0-1,0-1 1,-1 0-1,1 0 1,11-12-1,-18 15 6,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1-1-1,0 1 1,0 0 0,0-1 0,-3-1 0,-9-9-58,-1 1-1,0 0 0,-32-18 1,22 15-38,17 9 96,0 0-1,0 0 1,1-1 0,0 0 0,0 0 0,1-1 0,-8-10 0,13 16-30,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 1,0 1-1,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 1,0-1-1,0 1 0,3-2 0,7-4-137,1 1 1,0 0-1,0 1 1,1 0 0,0 1-1,0 1 1,22-3-1,7 2-33,48 1-1,-89 3 189,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 1 0,0-1 1,0 1-1,0 0 0,0-1 0,0 1 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 0,0 1 1,-1-1-1,0 0 0,1 1 0,-1-1 1,0 1-1,1-1 0,-1 1 1,0 0-1,0-1 0,-1 1 1,1 0-1,0 0 0,0 2 0,1 4 102,-1 1 0,0-1-1,-1 1 1,0-1-1,-2 17 1,1-15 5,0-4-57,-1 0-1,1-1 1,-1 1-1,0 0 1,-1-1-1,0 0 1,1 0 0,-1 0-1,-1 0 1,1 0-1,-1 0 1,0-1-1,0 0 1,0 0-1,-1 0 1,1 0-1,-8 4 1,6-4-272,0 0-1,1 1 1,0 0 0,0 0 0,0 0-1,0 0 1,1 1 0,0 0 0,0 0-1,0 0 1,-3 9 0,6-4-2615,1-7-1462</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="578.83">656 228 6515,'0'0'9298,"-17"11"-8719,-53 38-107,67-47-462,0 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 1 1,0-1-1,0 1 1,0-1-1,0 1 0,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,1 1-1,0-1 0,0 0 1,0 0-1,0 1 1,1 3-1,0-5-3,0 1 0,0-1-1,0 1 1,1-1 0,-1 1 0,0-1 0,1 0-1,0 0 1,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,0-1 0,1 1 0,-1-1-1,0 1 1,1-1 0,-1 0 0,1 0-1,-1 0 1,1 0 0,0 0 0,4 0 0,16 1 120,-1 0 1,38-3-1,-51 0-98,-1 0 0,0 0 0,0-1 0,0 0 0,-1 0 0,1-1 0,0 0 0,-1 0 0,0-1 0,12-8 0,-18 12-11,0-1-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1-1 1,0 1 0,0 0-1,1 0 1,-1 0-1,0-1 1,0 1-1,0 0 1,0 0-1,-1 0 1,1-1-1,0 1 1,0 0-1,-1 0 1,1 0-1,-1 0 1,1-1-1,-1 1 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 1-1,-1-2 1,-7-5 53,0 1-1,-1 0 1,0 0 0,-11-4 0,11 5-137,-13-6 47,3 1 55,0-1-1,1 0 1,-29-23 0,45 31-47,0 1 0,-1-1 0,1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0-1 1,0 0-1,0 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,0 1 1,0 0-1,0 0 0,0 0 0,1 0 0,1-5 0,-1 6-27,1 1-1,-1 0 1,1 0-1,-1-1 1,1 1-1,0 0 1,0 1-1,0-1 1,0 0 0,1 0-1,-1 1 1,0-1-1,1 1 1,-1 0-1,1 0 1,-1 0 0,4-1-1,50-13-579,-51 14 541,18-3-161,0 2 1,41-1-1,-63 4 225,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1-1,-1 0 1,1 1-1,0-1 1,-1 0-1,1 1 1,-1-1-1,1 1 1,-1-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,-1 3 1,-3 49-89,1-42 179,-1 1-1,0-1 1,-1 0 0,-1 0 0,-9 14-1,-14 33-1749,18-15-3613,10-22-1987</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="838.35">1302 108 8340,'0'0'6467,"-85"94"-5363,54-56-271,-9 3-129,9-3-448,4-5 48,5 0-224,4-5-32,5-5-48,4-8-32,0-2-1200,4-8-1794</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="578.82">656 228 6515,'0'0'9298,"-17"11"-8719,-53 38-107,67-47-462,0 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 1 1,0-1-1,0 1 1,0-1-1,0 1 0,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,1 1-1,0-1 0,0 0 1,0 0-1,0 1 1,1 3-1,0-5-3,0 1 0,0-1-1,0 1 1,1-1 0,-1 1 0,0-1 0,1 0-1,0 0 1,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,0-1 0,1 1 0,-1-1-1,0 1 1,1-1 0,-1 0 0,1 0-1,-1 0 1,1 0 0,0 0 0,4 0 0,16 1 120,-1 0 1,38-3-1,-51 0-98,-1 0 0,0 0 0,0-1 0,0 0 0,-1 0 0,1-1 0,0 0 0,-1 0 0,0-1 0,12-8 0,-18 12-11,0-1-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1-1 1,0 1 0,0 0-1,1 0 1,-1 0-1,0-1 1,0 1-1,0 0 1,0 0-1,-1 0 1,1-1-1,0 1 1,0 0-1,-1 0 1,1 0-1,-1 0 1,1-1-1,-1 1 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 1-1,-1-2 1,-7-5 53,0 1-1,-1 0 1,0 0 0,-11-4 0,11 5-137,-13-6 47,3 1 55,0-1-1,1 0 1,-29-23 0,45 31-47,0 1 0,-1-1 0,1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0-1 1,0 0-1,0 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,0 1 1,0 0-1,0 0 0,0 0 0,1 0 0,1-5 0,-1 6-27,1 1-1,-1 0 1,1 0-1,-1-1 1,1 1-1,0 0 1,0 1-1,0-1 1,0 0 0,1 0-1,-1 1 1,0-1-1,1 1 1,-1 0-1,1 0 1,-1 0 0,4-1-1,50-13-579,-51 14 541,18-3-161,0 2 1,41-1-1,-63 4 225,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1-1,-1 0 1,1 1-1,0-1 1,-1 0-1,1 1 1,-1-1-1,1 1 1,-1-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,-1 3 1,-3 49-89,1-42 179,-1 1-1,0-1 1,-1 0 0,-1 0 0,-9 14-1,-14 33-1749,18-15-3613,10-22-1987</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="838.34">1302 108 8340,'0'0'6467,"-85"94"-5363,54-56-271,-9 3-129,9-3-448,4-5 48,5 0-224,4-5-32,5-5-48,4-8-32,0-2-1200,4-8-1794</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1036.31">959 1 10917,'0'0'5298,"44"43"-6706,-8-18-657,-5 6-2017,0 0-3714</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1231.29">1258 403 11221,'0'0'9332,"4"0"-9396,-4 5-2305,0 0-1488</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink54.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8337,11 +8024,11 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">232 282 4386,'0'0'7969,"-37"-3"-3700,29 4-4223,1 0 0,-1 0 0,1 1 1,-1 0-1,1 0 0,0 1 1,0 0-1,0 0 0,0 1 0,0 0 1,1 0-1,0 0 0,-1 1 1,2 0-1,-1 0 0,1 1 0,-1-1 1,1 1-1,1 0 0,-7 11 0,4-6-8,0 1-1,0 0 0,2 1 1,-1-1-1,2 1 0,-1 0 0,2 0 1,0 1-1,0-1 0,-1 26 1,4-36-38,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,3 3 0,-2-2-9,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 1,0-1-1,1 0 0,-1-1 0,6 1 0,12 2 37,1-1 1,-1-2-1,30-2 1,-45 1-17,0 0-1,1 0 1,-1 0 0,0-1-1,0 0 1,0-1 0,0 0-1,0 0 1,-1 0 0,1-1-1,-1 0 1,0 0 0,11-10-1,-15 11-1,0 1-1,0-1 0,0 0 0,0 0 1,0 1-1,-1-1 0,0-1 0,0 1 0,1 0 1,-2 0-1,1 0 0,0-1 0,-1 1 1,1 0-1,-1 0 0,0-1 0,0 1 1,0 0-1,-1-1 0,1 1 0,-1 0 1,0-1-1,-2-4 0,0-1-6,0 1 1,-1 1-1,0-1 0,-1 1 1,0-1-1,0 1 0,-11-11 0,-4-1-57,-1 2 0,-31-21 0,32 24 24,-1-1-1,2 0 1,-25-26-1,39 35 13,0 0 0,1 0 0,-1-1-1,1 1 1,0-1 0,1 0 0,0 0-1,0 0 1,0 0 0,1-1-1,0 1 1,1-1 0,-1 1 0,1-1-1,1-9 1,0 13 2,0 0 0,0 1 0,0-1 0,1 1 1,-1-1-1,1 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,0 0 0,0 0 0,0 0 0,4-4 1,1 1-1,-1 1 1,1 0-1,0 1 1,0-1-1,1 1 1,9-3-1,-3 1-6,1 0-1,0 2 1,1 0-1,-1 0 1,1 2-1,0 0 0,0 0 1,24 2-1,-34 0 21,0 1-1,1 0 0,-1 0 1,0 1-1,0-1 0,0 1 1,0 1-1,0-1 0,-1 1 0,10 6 1,-12-7 0,0 1 1,0-1 0,0 1-1,0 0 1,-1 0-1,1 1 1,-1-1 0,0 0-1,0 1 1,0-1 0,-1 1-1,1 0 1,-1-1-1,0 1 1,0 0 0,0 0-1,0 0 1,-1 5 0,1 1 27,-1-1 0,0 0 0,0 0 0,-1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,-1-1 0,-8 17 0,-1-5-117,0 0-1,-29 34 1,10-15-826,-9 23-5803,30-40-65</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="573.06">571 358 8196,'0'0'6859,"-16"5"-6608,1-1-174,10-3-41,-1 0 0,0 1 1,1-1-1,-1 1 0,1 1 0,-1-1 0,1 1 0,0 0 1,0 0-1,1 0 0,-1 1 0,0-1 0,1 1 1,0 0-1,-5 7 0,3-4 21,1-1 0,-1 1-1,1 1 1,1-1 0,0 1 0,0 0-1,0 0 1,1 0 0,0 0 0,0 1-1,1-1 1,1 1 0,-1 0 0,1-1-1,1 1 1,-1 0 0,3 17 0,-1-23-56,0-1 1,0 1 0,0 0-1,0-1 1,1 0 0,-1 1-1,1-1 1,0 0 0,0 1-1,0-1 1,0 0-1,0-1 1,0 1 0,0 0-1,1 0 1,-1-1 0,0 0-1,1 1 1,-1-1 0,1 0-1,0 0 1,-1 0-1,1-1 1,0 1 0,4 0-1,9 2 14,0-2 0,0 0 0,20 0 0,-23-2-11,-8 2 0,1-1-1,0 0 1,-1-1-1,1 1 1,0-1-1,-1 0 1,1-1-1,-1 1 1,0-1-1,10-5 1,-13 6 6,0-1 0,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 1,0 1-1,-1-1 0,1 1 0,0 0 0,-1-1 0,0 1 0,1-1 1,-1 0-1,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 1,-1-3-1,-3-7 5,0 1 1,-1-1 0,0 1 0,-1 1-1,-1-1 1,0 1 0,0 1 0,-1 0 0,-17-16-1,0-2-10,-5-9 13,-35-52-1,56 74-35,1 0 0,1-1 0,0 0 0,1 0 0,1 0 1,-8-35-1,13 49 10,0 0 1,0-1-1,1 1 1,-1 0 0,1-1-1,0 1 1,0-1-1,0 1 1,0 0 0,0-1-1,0 1 1,0 0-1,1-1 1,-1 1-1,1 0 1,0-1 0,0 1-1,0 0 1,0 0-1,0 0 1,0 0 0,1 0-1,-1 0 1,0 0-1,1 0 1,0 0-1,-1 1 1,1-1 0,0 1-1,3-3 1,3 2-50,0 0-1,0 0 1,0 0 0,1 1 0,-1 1 0,0-1-1,14 2 1,-22-1 56,13 0-23,-1 0 1,1 1-1,-1 0 0,1 1 0,-1 1 0,0 0 0,14 5 1,-21-6 19,-1 0 0,1 1 0,-1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 1,0 0-1,0 1 0,0-1 0,0 1 0,-1 0 0,2 7 0,-1 0 27,-1-1 0,0 0 1,-1 1-1,0-1 0,-1 1 0,0-1 1,0 1-1,-1-1 0,-1 0 0,0 0 1,-1 0-1,-7 16 0,0-6-755,0-1-1,-2-1 1,0 0-1,-1-1 1,-22 22-1,5-9-4160</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="573.05">571 358 8196,'0'0'6859,"-16"5"-6608,1-1-174,10-3-41,-1 0 0,0 1 1,1-1-1,-1 1 0,1 1 0,-1-1 0,1 1 0,0 0 1,0 0-1,1 0 0,-1 1 0,0-1 0,1 1 1,0 0-1,-5 7 0,3-4 21,1-1 0,-1 1-1,1 1 1,1-1 0,0 1 0,0 0-1,0 0 1,1 0 0,0 0 0,0 1-1,1-1 1,1 1 0,-1 0 0,1-1-1,1 1 1,-1 0 0,3 17 0,-1-23-56,0-1 1,0 1 0,0 0-1,0-1 1,1 0 0,-1 1-1,1-1 1,0 0 0,0 1-1,0-1 1,0 0-1,0-1 1,0 1 0,0 0-1,1 0 1,-1-1 0,0 0-1,1 1 1,-1-1 0,1 0-1,0 0 1,-1 0-1,1-1 1,0 1 0,4 0-1,9 2 14,0-2 0,0 0 0,20 0 0,-23-2-11,-8 2 0,1-1-1,0 0 1,-1-1-1,1 1 1,0-1-1,-1 0 1,1-1-1,-1 1 1,0-1-1,10-5 1,-13 6 6,0-1 0,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 1,0 1-1,-1-1 0,1 1 0,0 0 0,-1-1 0,0 1 0,1-1 1,-1 0-1,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 1,-1-3-1,-3-7 5,0 1 1,-1-1 0,0 1 0,-1 1-1,-1-1 1,0 1 0,0 1 0,-1 0 0,-17-16-1,0-2-10,-5-9 13,-35-52-1,56 74-35,1 0 0,1-1 0,0 0 0,1 0 0,1 0 1,-8-35-1,13 49 10,0 0 1,0-1-1,1 1 1,-1 0 0,1-1-1,0 1 1,0-1-1,0 1 1,0 0 0,0-1-1,0 1 1,0 0-1,1-1 1,-1 1-1,1 0 1,0-1 0,0 1-1,0 0 1,0 0-1,0 0 1,0 0 0,1 0-1,-1 0 1,0 0-1,1 0 1,0 0-1,-1 1 1,1-1 0,0 1-1,3-3 1,3 2-50,0 0-1,0 0 1,0 0 0,1 1 0,-1 1 0,0-1-1,14 2 1,-22-1 56,13 0-23,-1 0 1,1 1-1,-1 0 0,1 1 0,-1 1 0,0 0 0,14 5 1,-21-6 19,-1 0 0,1 1 0,-1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 1,0 0-1,0 1 0,0-1 0,0 1 0,-1 0 0,2 7 0,-1 0 27,-1-1 0,0 0 1,-1 1-1,0-1 0,-1 1 0,0-1 1,0 1-1,-1-1 0,-1 0 0,0 0 1,-1 0-1,-7 16 0,0-6-755,0-1-1,-2-1 1,0 0-1,-1-1 1,-22 22-1,5-9-4160</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink55.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8367,11 +8054,11 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 154 9716,'0'0'6158,"7"1"-5600,37 4-333,1-2 1,71-3-1,-47-1-173,-11 1-220,72 0-36,-43 0-3904,-87 0 4094,1 0-111,-1 0 1,0-1-1,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 1,0 0-1,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 1 1,0-1-1,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 1,0 0-1,0 1 0,0-1 0,0 6-3725</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="234.08">277 251 2721,'0'0'8594,"-11"2"-7637,-25 4-350,23-3-39,35-1-219,40-4-105,0-3 1,87-18-1,-33-3-4192,-99 20 1635,-6-1-721</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="553.81">425 9 4978,'0'0'7708,"-4"-2"-7553,-5-3-154,11 4 14,23 10 46,41 21 62,-41-17-29,0 0 0,-2 2 0,37 29 1,-54-39-62,0 1 0,-1 0-1,0 0 1,1 0 0,-2 1 0,1-1 0,5 14 0,-8-16-7,0 0-1,-1 0 1,0 1 0,0-1-1,0 0 1,0 1 0,-1-1-1,0 1 1,0-1 0,0 0-1,0 1 1,-1-1 0,1 1-1,-1-1 1,-2 6 0,0-5 9,1 0-1,-1 0 1,0 0 0,-1 0 0,1 0 0,-1-1 0,0 1-1,0-1 1,-1 0 0,1 0 0,-1-1 0,0 0-1,-9 6 1,-12 5 37,-42 15 0,38-16-87,-8 5-293,18-8-2659,-44 14-1,28-15-3288</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="553.8">425 9 4978,'0'0'7708,"-4"-2"-7553,-5-3-154,11 4 14,23 10 46,41 21 62,-41-17-29,0 0 0,-2 2 0,37 29 1,-54-39-62,0 1 0,-1 0-1,0 0 1,1 0 0,-2 1 0,1-1 0,5 14 0,-8-16-7,0 0-1,-1 0 1,0 1 0,0-1-1,0 0 1,0 1 0,-1-1-1,0 1 1,0-1 0,0 0-1,0 1 1,-1-1 0,1 1-1,-1-1 1,-2 6 0,0-5 9,1 0-1,-1 0 1,0 0 0,-1 0 0,1 0 0,-1-1 0,0 1-1,0-1 1,-1 0 0,1 0 0,-1-1 0,0 0-1,-9 6 1,-12 5 37,-42 15 0,38-16-87,-8 5-293,18-8-2659,-44 14-1,28-15-3288</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink56.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8399,55 +8086,14 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="426.02">295 189 9316,'0'0'6366,"-3"-3"-6009,2 2-350,0 0 0,0 0 0,0 0 1,-1 1-1,1-1 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 1,1 0-1,-2 1 0,-2 2 0,1-1 0,0 0 0,-1 1 0,1 0 0,0 0 0,0 0 1,1 1-1,-5 4 0,-4 5 59,1 2-1,1-1 1,-17 30 0,24-36-33,-1 0 0,1 1-1,1-1 1,0 1 0,0-1 0,1 1 0,0-1-1,0 1 1,2 15 0,-1-23-32,0 0-1,0 0 1,0 0-1,0 0 1,1 1-1,-1-1 1,0 0 0,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,-1 0 0,1 0-1,0-1 1,0 1-1,-1 0 1,1 0-1,0-1 1,0 1-1,0 0 1,0-1 0,1 1-1,36 9 79,-28-10-60,1 0-1,0 0 0,0-1 0,-1 0 1,13-3-1,-19 2 2,1 0 0,-1 0 0,1 0-1,-1 0 1,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,0-1 0,1 0 0,-1 0-1,-1 0 1,1 0 0,0 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,-1 0 0,0-5-1,2-9 75,-1 0 0,-1 0-1,0-1 1,-5-33 0,4 51-145,0 0 0,0 0 0,-1 1 0,1-1 1,0 0-1,-1 0 0,0 1 0,1-1 0,-1 1 0,0-1 1,0 0-1,0 1 0,0-1 0,0 1 0,0 0 0,0-1 1,0 1-1,-1 0 0,1 0 0,-1 0 0,1-1 1,-1 2-1,1-1 0,-1 0 0,1 0 0,-1 0 0,0 1 1,1-1-1,-1 1 0,0-1 0,0 1 0,1 0 1,-1 0-1,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,-2 1 0,4 0-178,0-1 0,-1 0 0,1 1 0,-1-1 0,1 1 0,0-1-1,-1 1 1,1-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0-1,0-1 1,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,1 1-1,-1-1 1,0 1 0,1-1 0,-1 1 0,1 0 0,14 4-4704</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="801.68">540 146 544,'0'0'14572,"-6"4"-14065,-1 1-401,1 2 0,-1-1 0,1 1 0,0 0 0,0 0 1,1 1-1,0 0 0,-5 10 0,7-12-42,0 0 0,1 0 0,0 0 1,0 0-1,0 0 0,1 0 0,0 0 1,0 1-1,0-1 0,1 0 0,0 1 1,0-1-1,1 0 0,1 8 0,-1-12-59,0 0 0,0 1-1,0-1 1,0 0 0,1 0 0,-1 0-1,1 0 1,0 0 0,-1 0-1,1-1 1,0 1 0,0-1 0,0 1-1,0-1 1,0 1 0,1-1-1,-1 0 1,0 0 0,0 0 0,1 0-1,-1-1 1,1 1 0,-1-1-1,5 1 1,6 1 50,1-1 0,0-1 0,15-1-1,-22 1-14,-4 0-12,0-1 0,0 1 0,0 0 0,0-1 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 1,1-1-1,0 1 0,-1-1 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 0,0-1 0,0 1 1,0-1-1,-1 1 0,1-1 0,-1 1 0,1-1 1,-1 0-1,0 0 0,0 0 0,0 0 0,0 0 1,-1 0-1,1 0 0,-1 0 0,0 0 0,0 0 1,0-4-1,0 0 74,0 0-1,-1-1 1,0 1 0,0 0-1,-1 0 1,0-1 0,0 1 0,-1 1-1,0-1 1,0 0 0,0 1 0,-1-1-1,0 1 1,-8-9 0,7 9-121,0 1 1,-1 0-1,1 0 1,-1 0-1,-1 1 1,1 0-1,-1 0 1,1 1-1,-1-1 1,0 1-1,0 1 1,0-1-1,-1 1 1,1 1-1,-15-2 1,22 3-91,-1 0 0,1 0 0,-1 1 1,0-1-1,1 0 0,-1 0 0,1 1 1,-1-1-1,1 1 0,-1-1 0,1 0 1,0 1-1,-1-1 0,1 1 0,-1-1 1,1 1-1,0-1 0,-1 1 0,1 0 1,0-1-1,0 1 0,0-1 0,-1 1 1,1-1-1,0 1 0,0 0 0,0-1 1,0 1-1,0 0 0,0-1 0,0 1 1,0-1-1,0 1 0,0 0 0,1 0 1,-1 1-279,0-1 0,0 0 0,0 0 1,1 1-1,-1-1 0,0 0 0,1 0 0,-1 1 1,1-1-1,-1 0 0,1 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,0 0 1,1 2-1,22 3-6587</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1454.6">803 1 9412,'0'0'7006,"0"3"-6763,0 291 379,-18-298-188,12-1-389,0 1 0,0-2-1,1 1 1,-1-1 0,1 0-1,1 0 1,-1 0-1,-6-12 1,10 15-36,-1 1-1,1-1 1,0 1 0,0-1-1,0 0 1,0 1-1,0-1 1,0 0 0,1 0-1,-1 0 1,1 0 0,0 1-1,0-1 1,0 0-1,0 0 1,1 0 0,-1 0-1,1 0 1,0 1-1,-1-1 1,1 0 0,0 0-1,1 1 1,-1-1 0,0 1-1,1-1 1,2-2-1,6-5-162,2 1-1,-1 0 0,1 1 0,1 0 0,26-13 0,-26 15 67,0 0 0,-1-1 0,0-1 1,0 0-1,0-1 0,18-18 0,-29 26 1147,-15 201-854,14-198-206,0-1-1,1 0 0,-1 0 1,0 0-1,0 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 0,0-1 1,0 1-1,0 0 0,0 0 1,-1-1-1,1 1 0,0-1 1,0 1-1,0-1 0,0 1 0,0-1 1,1 1-1,-1-1 0,0 0 1,0 0-1,0 1 0,0-1 1,0 0-1,0 0 0,0 0 1,0 0-1,1-1 0,-1 1 1,1 0-1,2-1 6,0 1 1,0-1-1,0 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1-1-1,1 0 1,-1 0-1,4-2 1,1-4 23,-1-1 0,1 0-1,-1 0 1,-1-1 0,7-12 0,22-30 491,-35 51-509,0 1 1,0 0 0,0 0 0,0 0-1,0 0 1,0-1 0,1 1 0,-1 0-1,0 0 1,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0-1 0,0 1 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0-1,0 0 1,0 0 0,1 0 0,-1 0-1,0 0 1,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,0 0-1,1 0 1,-1 1 0,0-1 0,0 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0-1,0 0 1,0 1 0,0-1 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0 0,0 0-1,0 1 1,3 13-200,-3-12 247,26 80-1705,-4-28-4859,-9-26-1209</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1917.67">1440 174 6947,'0'0'9754,"-1"19"-9562,0-1-100,1 12 88,-2 0 0,-8 41 0,-12 96 183,5-27-184,20-172 684,-4-59 0,0 51-883,0 0 0,3 1 0,9-58 0,-5 70 22,2-9-139,15-41 1,-20 69 86,0 0 1,1 0 0,-1 0-1,2 1 1,-1-1 0,1 1 0,0 0-1,0 1 1,1-1 0,12-10-1,-17 16 37,1-1-1,-1 1 0,1 0 1,0-1-1,-1 1 0,1 0 1,0 0-1,0 0 1,0 0-1,0 1 0,0-1 1,0 0-1,0 1 0,0-1 1,0 1-1,0 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 0,0 1 1,0-1-1,0 1 0,0-1 1,0 1-1,0 0 1,0 0-1,0-1 0,0 2 1,0-1-1,-1 0 0,1 0 1,0 0-1,-1 1 0,1-1 1,-1 1-1,1-1 1,-1 1-1,0 0 0,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 1,-1 0-1,0 0 0,0 1 1,1 2-1,0 3 12,-1 0 0,0 0 0,0 0-1,0 0 1,-1 0 0,0 1 0,-3 7 0,3-12 6,-1 0 0,0 1-1,0-1 1,0 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,-1-1 0,1 0 0,0 0 0,-1 0-1,-6 5 1,-21 12-147,-48 26 0,30-27-5795,39-18-195</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2460.18">1600 357 2305,'0'0'11392,"13"-6"-10333,42-21-344,-52 26-679,-1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 1,0-1-1,0 1 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0-2 0,0-48 381,-2 37-17,0 16-391,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 1,1 0-1,-1 1 0,0-1 0,-1 2 0,-2 4-24,0 1 0,1 0 1,-1-1-1,1 1 0,0 1 0,1-1 0,0 0 0,0 1 0,-1 8 0,-2 72-20,5-87 40,1 0 1,-1-1-1,1 1 0,-1 0 1,1 0-1,-1 0 0,1-1 1,0 1-1,0 0 0,-1 0 1,1-1-1,0 1 0,0-1 1,0 1-1,0-1 0,0 1 1,0-1-1,0 0 0,-1 1 1,1-1-1,0 0 0,0 0 0,0 1 1,1-1-1,-1 0 0,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 0,0 0 1,0 0-1,1-2 0,39-7 313,15-24-87,-48 27-232,0 1 0,0 0 0,0 0 0,1 0 0,0 1 0,0 1 0,0 0 0,1 0 0,-1 0 0,1 1 0,19-1 0,-28 3 7,1 1 0,-1 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,0 1-1,1-1 1,-1 1 0,0 0 0,0-1 0,0 3 0,5 44 460,-5-45-432,0 1-1,0-1 1,0 1-1,1-1 1,-1 1 0,1-1-1,0 0 1,0 1-1,0-1 1,0 0 0,3 6-1,-2-8-160,-1 1 0,0-1 0,1 0 0,-1 1-1,1-1 1,0 0 0,-1 0 0,1 0 0,0 0-1,-1 0 1,1-1 0,0 1 0,0-1 0,0 1-1,0-1 1,0 1 0,0-1 0,0 0 0,0 0 0,3 0-1,52-2-6912,-25-4 1451</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1917.66">1440 174 6947,'0'0'9754,"-1"19"-9562,0-1-100,1 12 88,-2 0 0,-8 41 0,-12 96 183,5-27-184,20-172 684,-4-59 0,0 51-883,0 0 0,3 1 0,9-58 0,-5 70 22,2-9-139,15-41 1,-20 69 86,0 0 1,1 0 0,-1 0-1,2 1 1,-1-1 0,1 1 0,0 0-1,0 1 1,1-1 0,12-10-1,-17 16 37,1-1-1,-1 1 0,1 0 1,0-1-1,-1 1 0,1 0 1,0 0-1,0 0 1,0 0-1,0 1 0,0-1 1,0 0-1,0 1 0,0-1 1,0 1-1,0 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 0,0 1 1,0-1-1,0 1 0,0-1 1,0 1-1,0 0 1,0 0-1,0-1 0,0 2 1,0-1-1,-1 0 0,1 0 1,0 0-1,-1 1 0,1-1 1,-1 1-1,1-1 1,-1 1-1,0 0 0,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 1,-1 0-1,0 0 0,0 1 1,1 2-1,0 3 12,-1 0 0,0 0 0,0 0-1,0 0 1,-1 0 0,0 1 0,-3 7 0,3-12 6,-1 0 0,0 1-1,0-1 1,0 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,-1-1 0,1 0 0,0 0 0,-1 0-1,-6 5 1,-21 12-147,-48 26 0,30-27-5795,39-18-195</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2460.17">1600 357 2305,'0'0'11392,"13"-6"-10333,42-21-344,-52 26-679,-1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 1,0-1-1,0 1 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0-2 0,0-48 381,-2 37-17,0 16-391,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 1,1 0-1,-1 1 0,0-1 0,-1 2 0,-2 4-24,0 1 0,1 0 1,-1-1-1,1 1 0,0 1 0,1-1 0,0 0 0,0 1 0,-1 8 0,-2 72-20,5-87 40,1 0 1,-1-1-1,1 1 0,-1 0 1,1 0-1,-1 0 0,1-1 1,0 1-1,0 0 0,-1 0 1,1-1-1,0 1 0,0-1 1,0 1-1,0-1 0,0 1 1,0-1-1,0 0 0,-1 1 1,1-1-1,0 0 0,0 0 0,0 1 1,1-1-1,-1 0 0,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 0,0 0 1,0 0-1,1-2 0,39-7 313,15-24-87,-48 27-232,0 1 0,0 0 0,0 0 0,1 0 0,0 1 0,0 1 0,0 0 0,1 0 0,-1 0 0,1 1 0,19-1 0,-28 3 7,1 1 0,-1 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,0 1-1,1-1 1,-1 1 0,0 0 0,0-1 0,0 3 0,5 44 460,-5-45-432,0 1-1,0-1 1,0 1-1,1-1 1,-1 1 0,1-1-1,0 0 1,0 1-1,0-1 1,0 0 0,3 6-1,-2-8-160,-1 1 0,0-1 0,1 0 0,-1 1-1,1-1 1,0 0 0,-1 0 0,1 0 0,0 0-1,-1 0 1,1-1 0,0 1 0,0-1 0,0 1-1,0-1 1,0 1 0,0-1 0,0 0 0,0 0 0,3 0-1,52-2-6912,-25-4 1451</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3159.87">2179 271 5763,'0'0'8566,"-6"3"-8302,3-2-207,0 1-1,0 0 1,0 0-1,1 0 1,-1 1-1,0-1 1,1 1 0,0-1-1,-1 1 1,1 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,1 0 1,-1 1-1,1-1 1,0 0-1,0 1 1,1-1-1,-1 1 1,1-1-1,-1 1 1,1-1-1,0 1 1,1 6-1,-1-9-53,0 1 0,1 0 0,-1-1 0,0 1-1,0 0 1,1-1 0,-1 1 0,1 0 0,-1-1-1,1 1 1,0-1 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,0 0 0,0 0-1,0 1 1,1-1 0,-1 0 0,0 0 0,1 0-1,1 0 1,2 1 6,-1 0 1,0 0-1,1-1 0,0 0 0,-1 0 0,1 0 0,0-1 0,-1 0 1,6 0-1,-1 0 18,-1 0 0,1-1 1,-1 0-1,0-1 0,1 0 0,-1 0 1,0-1-1,0 0 0,0 0 1,9-7-1,-13 9 30,-1-1-1,0-1 1,0 1 0,0 0-1,-1-1 1,1 0-1,-1 1 1,1-1 0,-1 0-1,0 0 1,0-1 0,0 1-1,0 0 1,-1 0 0,1-1-1,0-5 673,-7 12-457,1 1-273,1 1-1,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 1,1 0-1,0 0 0,1 0 0,-1 1 0,1-1 0,0 6 0,6-9-84,1-1-1,-1-1 1,1 1-1,-1-1 1,1 0-1,10-1 1,26-15-34,-40 14 107,0 0 0,1 1 1,-1-1-1,1 1 0,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,0 1 0,-1 0 1,1-1-1,0 1 0,0 0 0,0 0 1,0 0-1,0 1 0,-1-1 0,1 1 0,0 0 1,0-1-1,4 3 0,2 3 24,-1-2 0,2 1 0,-1-1 0,0 0-1,1-1 1,-1 0 0,1-1 0,0 0 0,0 0 0,0-1 0,0 0 0,0-1-1,0 0 1,0-1 0,0 0 0,13-3 0,-16 2 0,0 0 0,0 0 0,0 0 0,0-1 0,0 0 1,-1-1-1,1 1 0,-1-1 0,0 0 0,0-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,-1-1 1,1 0-1,-1 0 0,0 0 0,0 0 0,-1-1 0,1 0 0,3-11 0,-1-13 90,0 1-1,-2-1 0,-1 0 1,-3-60-1,-1 48 313,1 41 25,-5 18-273,5-16-165,-13 41-12,2 1 0,1 0-1,3 0 1,-5 72 0,12-81-275,1 35-4943,3-51-130</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3391.61">2576 260 11733,'0'0'4194,"147"-10"-3874,-71 5-320,4 0-48,-8-5-256,-10 0-272,-22-1-240,-18 6-289,-13-5 385,-9 5-1121,0 0-2129</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T16:53:58.456"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">268 1218 560,'0'0'7782,"0"-9"-6789,0-32 185,0 5 4180,0 36-4904,-35 0 416,31 0-856,1 0 0,-1 1 0,1 0 1,0-1-1,-1 1 0,1 1 1,0-1-1,0 0 0,0 1 0,0 0 1,0 0-1,0-1 0,0 2 1,0-1-1,1 0 0,-1 1 0,1-1 1,0 1-1,0-1 0,0 1 1,0 0-1,0 0 0,-2 5 1,1 0 16,-1-1 0,1 1 0,1 0 1,-1 0-1,1 0 0,1 0 0,-1 1 1,1 11-1,1-8 10,-1-2-25,2 0 1,-1 0-1,1 0 0,4 16 1,-4-22-15,0-1-1,0 0 1,0 0 0,1 0 0,0 0-1,0-1 1,-1 1 0,1 0 0,1-1-1,-1 1 1,0-1 0,1 0 0,-1 0 0,1 0-1,0 0 1,-1 0 0,7 2 0,-3-1 14,0 0 0,0 0 0,-1 0 1,1 1-1,-1-1 0,0 1 0,8 8 1,-11-8-10,0-1 1,0 0 0,0 0 0,-1 1 0,1-1 0,-1 1 0,0 0 0,0-1-1,0 1 1,-1 0 0,1 0 0,-1-1 0,0 1 0,0 4 0,-1-4 19,1-1-1,-1 0 1,0 0 0,0 0 0,0 0 0,0 0 0,-1 0-1,1 0 1,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1-1,0 0 1,-1 0 0,1 0 0,-5 3 0,-58 34 311,45-28-263,7-3-61,8-4-4,-1-1 0,1 0-1,-1 0 1,1 0 0,-1-1-1,0 0 1,0 0 0,0 0-1,0-1 1,-1 0 0,-9 1-1,25-15-2748,22-11-610,8-8-938</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="324.35">557 1267 5827,'0'0'9049,"-9"1"-8128,-24 5-158,30-6-650,5-1-109,16-3-44,7-8 275,0-2-1,33-24 1,-40 25-229,1 0 1,0 2-1,0 0 0,1 1 0,28-10 1,-43 20-620,-13 12-9238</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="596.91">566 1124 6547,'0'0'7870,"-2"3"-6875,1 3-924,-1-1-1,1 0 0,0 0 1,1 1-1,0-1 0,-1 1 1,2-1-1,-1 0 0,1 1 1,-1-1-1,2 0 0,-1 0 1,4 10-1,2 18 266,0 31 235,6 34-245,-11-90-311,0 1-1,0-1 1,1 0-1,0 0 0,1 0 1,-1 0-1,1 0 1,7 9-1,-8-15-128,-1 1 1,1 0-1,0-1 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,1-1 0,-1 1 1,0-1-1,1 0 0,-1 0 0,8 1 0,-5-1-687,1 0 0,0-1-1,-1 0 1,1 0-1,-1-1 1,1 0-1,8-2 1,12-10-5223</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="786.96">851 920 9188,'0'0'8980,"32"133"-8579,-10-82-273,9 5-96,0 2-32,0 6-273,-8-1-1375,-5-4-1778,-14-3-1520</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1083.13">0 2127 8612,'0'0'2849,"121"-84"-1584,-37 36-385,10-6-384,13 1 113,4-1-49,-8 3 64,-14 8-208,-13 10-255,-14 8-113,-13 9-48,-13 9-32,-19 7-1233,-12 2-2177,-5 24-447,-13 12-1042</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1530.47">397 2216 5330,'0'0'6417,"7"-18"-4723,-3 7-1411,-2 2-126,1 0 0,0 1 0,0 0-1,1 0 1,0 0 0,1 0 0,0 0 0,0 1 0,1 0 0,-1 0-1,1 0 1,1 1 0,0 0 0,7-6 0,0 2 11,1 1 0,0 0 1,0 1-1,1 0 0,0 1 0,1 1 1,-1 1-1,1 0 0,0 1 1,0 1-1,1 1 0,18-1 0,-34 3-171,-1 1-1,1-1 1,-1 1-1,1 0 0,0 0 1,-1-1-1,1 1 1,-1 0-1,0 0 0,1 0 1,-1 0-1,0 1 1,0-1-1,1 0 0,-1 1 1,0-1-1,0 0 1,0 1-1,-1-1 0,1 1 1,0-1-1,-1 1 1,1 0-1,0-1 0,-1 1 1,0 0-1,1-1 1,-1 1-1,0 0 0,0 0 1,0-1-1,-1 4 1,2 7 38,-1 0 1,-1 0 0,-3 18-1,1-17-6,-1 0 0,0 0 0,0 0 0,-1 0 0,-1-1 0,-11 19-1,-53 66 173,10-16-54,52-59-102,8-22-44,0 1 1,0-1-1,0 0 0,1 1 0,-1-1 0,0 1 0,0-1 1,0 0-1,1 1 0,-1-1 0,0 0 0,0 1 0,1-1 1,-1 0-1,0 1 0,1-1 0,-1 0 0,1 0 1,-1 0-1,0 1 0,1-1 0,-1 0 0,0 0 0,1 0 1,-1 0-1,1 1 0,-1-1 0,1 0 0,0 0 1,3 0 17,1 0 1,0-1-1,-1 1 1,1-1 0,-1 0-1,1 0 1,6-3-1,87-35 328,111-63-1,-173 83-329,23-13-57,-30 15-170,1 1 0,1 2 0,39-13 0,-56 26-5182,-9 1-325</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2575.74">1484 1506 6211,'0'0'9932,"-4"0"-8915,-10 0-177,10 0 1521,22-2-3169,-2-3 807,0-1-1,-1-1 1,0-1 0,0 0 0,22-16-1,8-5-1284,-40 29-2923</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2822.17">1453 1702 2273,'0'0'9773,"7"-5"-8730,238-173 93,-243 177-1411,8-9-940,-7 3-3551</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3147.42">1435 1323 8324,'0'0'4911,"17"-6"-4606,-13 4-285,11-4 39,2 1 0,-1 0-1,1 1 1,-1 1 0,1 1 0,21-1 0,-14 3 16,13-1 70,1 2 0,44 8 0,-72-8-90,1 1 0,-1 1 0,0 0 0,-1 0-1,1 1 1,-1 0 0,1 1 0,-1 0 0,-1 0-1,1 1 1,-1 0 0,0 0 0,8 9 0,-13-12-16,0 1 0,0-1 0,-1 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 1 1,0-1-1,0 0 0,0 1 0,0 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,0-1 0,0 1 1,0-1-1,0 1 0,-1-1 0,1 0 0,-3 4 0,-7 11-111,0-1 0,0 0-1,-2-1 1,-23 25 0,6-7-1875,11-11-2212</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4271.71">2514 1017 3378,'0'0'9044,"-11"-2"-1545,61-27-7604,74-40 337,-110 63-221,-1 1 0,1 0-1,0 1 1,0 0 0,0 1 0,0 1 0,24-1 0,-36 3-17,-1 0 0,0 0 0,0 1 1,0-1-1,0 0 0,0 1 0,0-1 1,0 1-1,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 0,0 0 1,0 1-1,0 0 0,3 46 90,-3-40-70,-1 3 7,0-1 1,0 1-1,-1-1 0,-1 0 1,0 0-1,0 0 0,-1 0 1,0 0-1,-11 17 0,-7 7 110,-34 41 0,12-17-70,38-50-201,-9 12-677,16-13 410,11-7 181,29-9 184,-24 5 61,1 0-1,0 1 1,28-1-1,-42 4-21,-1 0-1,0 0 0,0 0 1,1 0-1,-1 0 0,0 1 1,0 0-1,1 0 0,-1-1 1,0 2-1,0-1 1,0 0-1,0 1 0,3 2 1,-4-2 19,0 0 1,-1 0-1,1 1 1,-1-1-1,1 1 1,-1-1-1,0 1 1,0 0-1,0-1 1,0 1-1,-1 0 1,1 0-1,-1 0 1,1-1 0,-1 1-1,0 0 1,-1 4-1,1-3 30,-1 0 0,0-1 0,0 1 1,0 0-1,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,0-1 0,1 1 0,-1-1 0,0 0 0,-6 4 0,-8 4 56,-1 0 0,-23 10 0,33-16-97,-7 2-65,-45 20 286,56-25-290,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,1 1 1,-1-1-1,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-6-3 0,8 3-126,0-1 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0-1,0 0 1,1 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0-1,1-1 1,-1-1 0,1-4-1586,-1-31-7287</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4899.35">2790 645 8820,'0'0'3391,"-20"-7"-1910,-65-20-340,79 25-1031,-1 1-1,0-1 1,0 1-1,0 1 1,0-1-1,0 1 1,0 0-1,0 1 0,0 0 1,0 0-1,0 0 1,1 1-1,-1 0 1,0 0-1,1 1 1,-1 0-1,1 0 0,0 0 1,-11 9-1,1 2-89,1 0 1,1 1-1,0 0 0,-22 33 0,21-28 150,-1 1-78,0 0 0,2 1-1,0 1 1,2 0 0,0 1-1,2 0 1,0 0 0,2 1-1,1 1 1,0-1 0,2 1-1,2 0 1,-2 39 0,4-30 26,1-1 0,2 0 0,2 1 0,1-1 0,1-1 0,18 54 1,-12-57-60,0-1 1,2 0-1,2-1 1,0 0-1,2-1 1,1-1-1,0-1 1,34 32-1,-43-48-44,1-1 1,-1 1-1,1-2 0,1 0 0,0 0 0,0-1 0,0 0 0,0-1 0,24 6 1,-25-9-9,0 0 1,-1-1-1,1 0 1,0-1-1,0-1 1,0 0-1,0 0 1,-1-1-1,1 0 1,-1-1-1,1 0 1,-1 0-1,16-9 1,5-4 10,-1-1 1,0-2 0,-2-1-1,0-2 1,-2 0-1,0-2 1,-1 0-1,-2-2 1,0-1 0,-2-1-1,-1 0 1,-1-2-1,-2 0 1,-1-1-1,-1-1 1,-2 0-1,-1-1 1,-2 0 0,-1-1-1,-1 0 1,-2 0-1,2-54 1,-8 82-18,2-27-7,-7-64 0,3 86 5,0 1 1,0-1-1,-1 0 0,-1 1 0,0-1 0,0 1 1,-1 0-1,0 0 0,-11-15 0,2 8 15,0 1 1,-1 1-1,0 0 0,-2 1 1,1 0-1,-2 2 0,0 0 1,-23-12-1,30 18-6,-1 0 0,0 1-1,0 1 1,0 0 0,-1 0 0,1 1-1,-1 1 1,0 0 0,0 0 0,1 2-1,-1 0 1,0 0 0,0 1 0,-25 5 0,32-4-62,0 1-1,0 0 1,0 0 0,1 0 0,-1 0 0,1 1 0,0 0 0,0 1 0,0-1 0,0 1 0,1 0 0,-5 6 0,-4 7-1265,0 1-1,-10 23 1,-3 3-3921</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5840.37">3213 362 6195,'0'0'5474,"3"18"-5314,47 170 2012,-29-84-821,-15-76 3233,-5-28-4369,0-10-364,1 0 0,1-1 0,-1 1 1,2 0-1,-1 1 0,2-1 0,-1 1 1,1 0-1,1 0 0,-1 0 1,10-10-1,26-51-388,-38 62 575,0-1-1,-1 0 1,0 0-1,-1 0 1,0 0-1,0 0 0,-1 0 1,-2-17-1,2-4 1195,0 30-834,0 13-123,-1 27-352,0-16 191,1 0 1,1 0 0,1 0-1,9 45 1,-11-68-117,0-1 2,0 0 0,0 1-1,0-1 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1-1,1 0 1,-1 0 0,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 0 1,1 1-1,-1-1 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0 0,0 1-1,0-1 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0-1 1,0 1-1,0 0 1,1 0-1,-1 0 1,1 0-429,-2-18-5307,-3 3 549</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6234.59">3169 500 7043,'0'0'10661,"-4"-6"-10130,3 4-509,-8-19 89,10 20-102,0 1 0,-1-1 0,1 0 1,0 1-1,0-1 0,-1 1 0,1-1 1,0 1-1,0-1 0,0 1 0,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,1 0 1,0 1-1,0-1 0,2 1 0,3 1 45,1 0-1,-1 0 1,0 0 0,0 1-1,0 0 1,0 0-1,0 1 1,-1-1-1,0 1 1,0 1 0,0-1-1,0 1 1,0-1-1,5 9 1,-2-3 5,0 1 1,0-1-1,-1 2 0,-1-1 1,0 1-1,7 18 0,-11-20 88,0 1-1,-1 0 0,0-1 0,0 15 0,-5-13 837,-6-45-242,5 1-801,0-1 1,3 1-1,1-1 1,1 0-1,6-42 0,-6 70-73,1 1-1,0 0 1,0 0-1,0-1 1,1 1-1,-1 0 1,1 0-1,0 0 1,1 0-1,-1 1 1,0-1-1,1 1 1,0-1-1,0 1 1,0 0-1,0 0 1,1 0-1,-1 1 1,1-1 0,-1 1-1,1-1 1,8-2-1,-3 2-904,0 0 1,1 1-1,-1 1 1,1-1-1,-1 2 1,1-1-1,0 1 0,-1 0 1,14 3-1,17 6-4218</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6633.39">3659 383 6403,'0'0'5122,"-17"1"-2883,10 0-2026,-8 0 292,0 1 0,-1 1-1,1 0 1,-20 8 0,32-10-439,-1 0 0,1 0 1,-1 1-1,1 0 0,0-1 1,-1 1-1,1 0 0,0 1 1,0-1-1,1 0 0,-1 1 1,0 0-1,1 0 0,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,1 1 0,-1-1 1,1 1-1,0-1 0,0 1 0,0-1 1,0 1-1,1 0 0,-1 4 1,1-7-72,-1 1 0,1 0 1,0 0-1,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,1-1 1,0 1-1,-1 0 0,1 0 0,0 0 1,0-1-1,0 1 0,0-1 0,2 4 1,0-4-26,0 0 0,-1 0-1,1 0 1,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,1 1 0,-1-2 0,4 1 0,-1 0 47,0 0 0,1-1 0,-1 1 0,0-1 1,1-1-1,-1 1 0,0-1 0,0 0 0,0 0 0,0-1 0,-1 0 1,1 0-1,-1 0 0,1-1 0,-1 1 0,0-1 0,5-6 1,-4 3 19,0-1 1,-1 1 0,0-1 0,0 0-1,-1 0 1,0-1 0,0 1 0,-1-1-1,0 0 1,3-16 0,-3 3-3,-1 1 0,-1-1-1,0 1 1,-2-1 0,0 1 0,-1-1 0,-2 1 0,0 0 0,-11-33-1,8 35-32,0-2-15,-1 1 1,0 1 0,-19-33-1,22 79-181,5 5 219,1-1 0,1 1 0,2-1 0,1 1 1,2-1-1,1-1 0,1 0 0,18 42 0,-2-21 214,45 72-1,-9-42-1253,-45-64-823,1 0-1,21 17 1,-16-19-2524</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink57.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8475,7 +8121,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink58.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8508,7 +8154,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink59.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8536,7 +8182,48 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T16:53:58.456"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#F6630D"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">268 1218 560,'0'0'7782,"0"-9"-6789,0-32 185,0 5 4180,0 36-4904,-35 0 416,31 0-856,1 0 0,-1 1 0,1 0 1,0-1-1,-1 1 0,1 1 1,0-1-1,0 0 0,0 1 0,0 0 1,0 0-1,0-1 0,0 2 1,0-1-1,1 0 0,-1 1 0,1-1 1,0 1-1,0-1 0,0 1 1,0 0-1,0 0 0,-2 5 1,1 0 16,-1-1 0,1 1 0,1 0 1,-1 0-1,1 0 0,1 0 0,-1 1 1,1 11-1,1-8 10,-1-2-25,2 0 1,-1 0-1,1 0 0,4 16 1,-4-22-15,0-1-1,0 0 1,0 0 0,1 0 0,0 0-1,0-1 1,-1 1 0,1 0 0,1-1-1,-1 1 1,0-1 0,1 0 0,-1 0 0,1 0-1,0 0 1,-1 0 0,7 2 0,-3-1 14,0 0 0,0 0 0,-1 0 1,1 1-1,-1-1 0,0 1 0,8 8 1,-11-8-10,0-1 1,0 0 0,0 0 0,-1 1 0,1-1 0,-1 1 0,0 0 0,0-1-1,0 1 1,-1 0 0,1 0 0,-1-1 0,0 1 0,0 4 0,-1-4 19,1-1-1,-1 0 1,0 0 0,0 0 0,0 0 0,0 0 0,-1 0-1,1 0 1,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1-1,0 0 1,-1 0 0,1 0 0,-5 3 0,-58 34 311,45-28-263,7-3-61,8-4-4,-1-1 0,1 0-1,-1 0 1,1 0 0,-1-1-1,0 0 1,0 0 0,0 0-1,0-1 1,-1 0 0,-9 1-1,25-15-2748,22-11-610,8-8-938</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="324.35">557 1267 5827,'0'0'9049,"-9"1"-8128,-24 5-158,30-6-650,5-1-109,16-3-44,7-8 275,0-2-1,33-24 1,-40 25-229,1 0 1,0 2-1,0 0 0,1 1 0,28-10 1,-43 20-620,-13 12-9238</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="596.91">566 1124 6547,'0'0'7870,"-2"3"-6875,1 3-924,-1-1-1,1 0 0,0 0 1,1 1-1,0-1 0,-1 1 1,2-1-1,-1 0 0,1 1 1,-1-1-1,2 0 0,-1 0 1,4 10-1,2 18 266,0 31 235,6 34-245,-11-90-311,0 1-1,0-1 1,1 0-1,0 0 0,1 0 1,-1 0-1,1 0 1,7 9-1,-8-15-128,-1 1 1,1 0-1,0-1 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,1-1 0,-1 1 1,0-1-1,1 0 0,-1 0 0,8 1 0,-5-1-687,1 0 0,0-1-1,-1 0 1,1 0-1,-1-1 1,1 0-1,8-2 1,12-10-5223</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="786.95">851 920 9188,'0'0'8980,"32"133"-8579,-10-82-273,9 5-96,0 2-32,0 6-273,-8-1-1375,-5-4-1778,-14-3-1520</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1083.12">0 2127 8612,'0'0'2849,"121"-84"-1584,-37 36-385,10-6-384,13 1 113,4-1-49,-8 3 64,-14 8-208,-13 10-255,-14 8-113,-13 9-48,-13 9-32,-19 7-1233,-12 2-2177,-5 24-447,-13 12-1042</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1530.47">397 2216 5330,'0'0'6417,"7"-18"-4723,-3 7-1411,-2 2-126,1 0 0,0 1 0,0 0-1,1 0 1,0 0 0,1 0 0,0 0 0,0 1 0,1 0 0,-1 0-1,1 0 1,1 1 0,0 0 0,7-6 0,0 2 11,1 1 0,0 0 1,0 1-1,1 0 0,0 1 0,1 1 1,-1 1-1,1 0 0,0 1 1,0 1-1,1 1 0,18-1 0,-34 3-171,-1 1-1,1-1 1,-1 1-1,1 0 0,0 0 1,-1-1-1,1 1 1,-1 0-1,0 0 0,1 0 1,-1 0-1,0 1 1,0-1-1,1 0 0,-1 1 1,0-1-1,0 0 1,0 1-1,-1-1 0,1 1 1,0-1-1,-1 1 1,1 0-1,0-1 0,-1 1 1,0 0-1,1-1 1,-1 1-1,0 0 0,0 0 1,0-1-1,-1 4 1,2 7 38,-1 0 1,-1 0 0,-3 18-1,1-17-6,-1 0 0,0 0 0,0 0 0,-1 0 0,-1-1 0,-11 19-1,-53 66 173,10-16-54,52-59-102,8-22-44,0 1 1,0-1-1,0 0 0,1 1 0,-1-1 0,0 1 0,0-1 1,0 0-1,1 1 0,-1-1 0,0 0 0,0 1 0,1-1 1,-1 0-1,0 1 0,1-1 0,-1 0 0,1 0 1,-1 0-1,0 1 0,1-1 0,-1 0 0,0 0 0,1 0 1,-1 0-1,1 1 0,-1-1 0,1 0 0,0 0 1,3 0 17,1 0 1,0-1-1,-1 1 1,1-1 0,-1 0-1,1 0 1,6-3-1,87-35 328,111-63-1,-173 83-329,23-13-57,-30 15-170,1 1 0,1 2 0,39-13 0,-56 26-5182,-9 1-325</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2575.73">1484 1506 6211,'0'0'9932,"-4"0"-8915,-10 0-177,10 0 1521,22-2-3169,-2-3 807,0-1-1,-1-1 1,0-1 0,0 0 0,22-16-1,8-5-1284,-40 29-2923</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2822.17">1453 1702 2273,'0'0'9773,"7"-5"-8730,238-173 93,-243 177-1411,8-9-940,-7 3-3551</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3147.42">1435 1323 8324,'0'0'4911,"17"-6"-4606,-13 4-285,11-4 39,2 1 0,-1 0-1,1 1 1,-1 1 0,1 1 0,21-1 0,-14 3 16,13-1 70,1 2 0,44 8 0,-72-8-90,1 1 0,-1 1 0,0 0 0,-1 0-1,1 1 1,-1 0 0,1 1 0,-1 0 0,-1 0-1,1 1 1,-1 0 0,0 0 0,8 9 0,-13-12-16,0 1 0,0-1 0,-1 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 1 1,0-1-1,0 0 0,0 1 0,0 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,0-1 0,0 1 1,0-1-1,0 1 0,-1-1 0,1 0 0,-3 4 0,-7 11-111,0-1 0,0 0-1,-2-1 1,-23 25 0,6-7-1875,11-11-2212</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4271.71">2514 1017 3378,'0'0'9044,"-11"-2"-1545,61-27-7604,74-40 337,-110 63-221,-1 1 0,1 0-1,0 1 1,0 0 0,0 1 0,0 1 0,24-1 0,-36 3-17,-1 0 0,0 0 0,0 1 1,0-1-1,0 0 0,0 1 0,0-1 1,0 1-1,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 0,0 0 1,0 1-1,0 0 0,3 46 90,-3-40-70,-1 3 7,0-1 1,0 1-1,-1-1 0,-1 0 1,0 0-1,0 0 0,-1 0 1,0 0-1,-11 17 0,-7 7 110,-34 41 0,12-17-70,38-50-201,-9 12-677,16-13 410,11-7 181,29-9 184,-24 5 61,1 0-1,0 1 1,28-1-1,-42 4-21,-1 0-1,0 0 0,0 0 1,1 0-1,-1 0 0,0 1 1,0 0-1,1 0 0,-1-1 1,0 2-1,0-1 1,0 0-1,0 1 0,3 2 1,-4-2 19,0 0 1,-1 0-1,1 1 1,-1-1-1,1 1 1,-1-1-1,0 1 1,0 0-1,0-1 1,0 1-1,-1 0 1,1 0-1,-1 0 1,1-1 0,-1 1-1,0 0 1,-1 4-1,1-3 30,-1 0 0,0-1 0,0 1 1,0 0-1,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,0-1 0,1 1 0,-1-1 0,0 0 0,-6 4 0,-8 4 56,-1 0 0,-23 10 0,33-16-97,-7 2-65,-45 20 286,56-25-290,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,1 1 1,-1-1-1,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-6-3 0,8 3-126,0-1 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0-1,0 0 1,1 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0-1,1-1 1,-1-1 0,1-4-1586,-1-31-7287</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4899.35">2790 645 8820,'0'0'3391,"-20"-7"-1910,-65-20-340,79 25-1031,-1 1-1,0-1 1,0 1-1,0 1 1,0-1-1,0 1 1,0 0-1,0 1 0,0 0 1,0 0-1,0 0 1,1 1-1,-1 0 1,0 0-1,1 1 1,-1 0-1,1 0 0,0 0 1,-11 9-1,1 2-89,1 0 1,1 1-1,0 0 0,-22 33 0,21-28 150,-1 1-78,0 0 0,2 1-1,0 1 1,2 0 0,0 1-1,2 0 1,0 0 0,2 1-1,1 1 1,0-1 0,2 1-1,2 0 1,-2 39 0,4-30 26,1-1 0,2 0 0,2 1 0,1-1 0,1-1 0,18 54 1,-12-57-60,0-1 1,2 0-1,2-1 1,0 0-1,2-1 1,1-1-1,0-1 1,34 32-1,-43-48-44,1-1 1,-1 1-1,1-2 0,1 0 0,0 0 0,0-1 0,0 0 0,0-1 0,24 6 1,-25-9-9,0 0 1,-1-1-1,1 0 1,0-1-1,0-1 1,0 0-1,0 0 1,-1-1-1,1 0 1,-1-1-1,1 0 1,-1 0-1,16-9 1,5-4 10,-1-1 1,0-2 0,-2-1-1,0-2 1,-2 0-1,0-2 1,-1 0-1,-2-2 1,0-1 0,-2-1-1,-1 0 1,-1-2-1,-2 0 1,-1-1-1,-1-1 1,-2 0-1,-1-1 1,-2 0 0,-1-1-1,-1 0 1,-2 0-1,2-54 1,-8 82-18,2-27-7,-7-64 0,3 86 5,0 1 1,0-1-1,-1 0 0,-1 1 0,0-1 0,0 1 1,-1 0-1,0 0 0,-11-15 0,2 8 15,0 1 1,-1 1-1,0 0 0,-2 1 1,1 0-1,-2 2 0,0 0 1,-23-12-1,30 18-6,-1 0 0,0 1-1,0 1 1,0 0 0,-1 0 0,1 1-1,-1 1 1,0 0 0,0 0 0,1 2-1,-1 0 1,0 0 0,0 1 0,-25 5 0,32-4-62,0 1-1,0 0 1,0 0 0,1 0 0,-1 0 0,1 1 0,0 0 0,0 1 0,0-1 0,0 1 0,1 0 0,-5 6 0,-4 7-1265,0 1-1,-10 23 1,-3 3-3921</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5840.37">3213 362 6195,'0'0'5474,"3"18"-5314,47 170 2012,-29-84-821,-15-76 3233,-5-28-4369,0-10-364,1 0 0,1-1 0,-1 1 1,2 0-1,-1 1 0,2-1 0,-1 1 1,1 0-1,1 0 0,-1 0 1,10-10-1,26-51-388,-38 62 575,0-1-1,-1 0 1,0 0-1,-1 0 1,0 0-1,0 0 0,-1 0 1,-2-17-1,2-4 1195,0 30-834,0 13-123,-1 27-352,0-16 191,1 0 1,1 0 0,1 0-1,9 45 1,-11-68-117,0-1 2,0 0 0,0 1-1,0-1 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1-1,1 0 1,-1 0 0,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 0 1,1 1-1,-1-1 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0 0,0 1-1,0-1 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0-1 1,0 1-1,0 0 1,1 0-1,-1 0 1,1 0-429,-2-18-5307,-3 3 549</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6234.59">3169 500 7043,'0'0'10661,"-4"-6"-10130,3 4-509,-8-19 89,10 20-102,0 1 0,-1-1 0,1 0 1,0 1-1,0-1 0,-1 1 0,1-1 1,0 1-1,0-1 0,0 1 0,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,1 0 1,0 1-1,0-1 0,2 1 0,3 1 45,1 0-1,-1 0 1,0 0 0,0 1-1,0 0 1,0 0-1,0 1 1,-1-1-1,0 1 1,0 1 0,0-1-1,0 1 1,0-1-1,5 9 1,-2-3 5,0 1 1,0-1-1,-1 2 0,-1-1 1,0 1-1,7 18 0,-11-20 88,0 1-1,-1 0 0,0-1 0,0 15 0,-5-13 837,-6-45-242,5 1-801,0-1 1,3 1-1,1-1 1,1 0-1,6-42 0,-6 70-73,1 1-1,0 0 1,0 0-1,0-1 1,1 1-1,-1 0 1,1 0-1,0 0 1,1 0-1,-1 1 1,0-1-1,1 1 1,0-1-1,0 1 1,0 0-1,0 0 1,1 0-1,-1 1 1,1-1 0,-1 1-1,1-1 1,8-2-1,-3 2-904,0 0 1,1 1-1,-1 1 1,1-1-1,-1 2 1,1-1-1,0 1 0,-1 0 1,14 3-1,17 6-4218</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6633.39">3659 383 6403,'0'0'5122,"-17"1"-2883,10 0-2026,-8 0 292,0 1 0,-1 1-1,1 0 1,-20 8 0,32-10-439,-1 0 0,1 0 1,-1 1-1,1 0 0,0-1 1,-1 1-1,1 0 0,0 1 1,0-1-1,1 0 0,-1 1 1,0 0-1,1 0 0,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,1 1 0,-1-1 1,1 1-1,0-1 0,0 1 0,0-1 1,0 1-1,1 0 0,-1 4 1,1-7-72,-1 1 0,1 0 1,0 0-1,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,1-1 1,0 1-1,-1 0 0,1 0 0,0 0 1,0-1-1,0 1 0,0-1 0,2 4 1,0-4-26,0 0 0,-1 0-1,1 0 1,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,1 1 0,-1-2 0,4 1 0,-1 0 47,0 0 0,1-1 0,-1 1 0,0-1 1,1-1-1,-1 1 0,0-1 0,0 0 0,0 0 0,0-1 0,-1 0 1,1 0-1,-1 0 0,1-1 0,-1 1 0,0-1 0,5-6 1,-4 3 19,0-1 1,-1 1 0,0-1 0,0 0-1,-1 0 1,0-1 0,0 1 0,-1-1-1,0 0 1,3-16 0,-3 3-3,-1 1 0,-1-1-1,0 1 1,-2-1 0,0 1 0,-1-1 0,-2 1 0,0 0 0,-11-33-1,8 35-32,0-2-15,-1 1 1,0 1 0,-19-33-1,22 79-181,5 5 219,1-1 0,1 1 0,2-1 0,1 1 1,2-1-1,1-1 0,1 0 0,18 42 0,-2-21 214,45 72-1,-9-42-1253,-45-64-823,1 0-1,21 17 1,-16-19-2524</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink60.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8567,7 +8254,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink61.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8599,7 +8286,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink62.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8629,7 +8316,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink63.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8655,12 +8342,12 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">337 257 3874,'0'0'9092,"0"-12"-7993,1-2-1437,-1-27 3360,1 37-2188,-1 6-193,3 26-390,2 87-156,-4-59-79,3 1-1,2-2 1,21 91 0,-3-66-1,28 113 15,-52-192-25,0 0-1,-1 0 1,1 0 0,0 0 0,0-1-1,-1 1 1,1 0 0,0 0 0,-1 0 0,1-1-1,-1 1 1,1 0 0,-1-1 0,1 1-1,-1 0 1,1-1 0,-1 1 0,0-1-1,1 1 1,-1-1 0,0 1 0,0-1-1,1 1 1,-1-1 0,0 0 0,0 1-1,0-1 1,1 0 0,-1 0 0,0 1 0,0-1-1,0 0 1,0 0 0,0 0 0,-48 5 280,16-2-174,10 2-118,8-3-9,1 1 1,0 0-1,0 1 0,1 0 0,-1 1 0,1 1 0,0 0 0,-21 14 0,34-20 11,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 0-1,0 1 1,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 0-1,0 1 1,0-1 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0-1,1 0 1,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,24 2 25,15-3 48,-1-3-1,1-1 1,-1-2 0,0-1 0,-1-2 0,0-2-1,-1-2 1,0-1 0,55-32 0,-91 47-97,0 0 0,0 0 0,0 0 0,-1 0 1,1-1-1,0 1 0,-1 0 0,1-1 1,0 1-1,-1-1 0,1 1 0,0 0 0,-1-1 1,1 1-1,-1-1 0,1 0 0,-1 1 1,1-1-1,-1 1 0,1-1 0,-1 0 0,0 1 1,1-1-1,-1 0 0,0 0 0,1 1 1,-1-1-1,0 0 0,0 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0 1 0,-1-1 1,1 0-1,0 0 0,-1 0 0,-29-19-6572,17 13 3448,-8-8-3509</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="336.11">69 375 3426,'0'0'8497,"-14"-11"-7598,4 3-783,0 1 0,0-2 0,-12-13 0,22 21-106,-1 0-1,1 1 1,0-1 0,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 1 1,0-1 0,1 0-1,-1 0 1,0 0 0,1 0-1,-1 0 1,0 0 0,1 1-1,-1-1 1,1 0 0,-1 0-1,1 1 1,0-1 0,-1 0-1,1 1 1,0-1 0,-1 0-1,1 1 1,0-1 0,0 1-1,1-1 1,37-21 191,-29 17-142,391-179 1249,-265 125-465,-98 41-539,-36 17-139,-13 7-13,3 4-755,0 0-1,1 0 1,0 0-1,1 1 1,0 0-1,-5 13 1,7-16-66,-17 35-3501</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1157.15">1152 357 4722,'0'0'7806,"-11"-16"-6669,-41-45-235,50 59-841,-1-1 1,0 1-1,0 0 0,0 1 1,0-1-1,-1 0 1,1 1-1,0 0 0,-1-1 1,1 2-1,-1-1 1,1 0-1,-1 1 1,1-1-1,-1 1 0,1 0 1,-1 0-1,0 0 1,1 1-1,-1-1 1,1 1-1,-1 0 0,1 0 1,0 0-1,-5 3 1,5-4-51,-10 6 33,1-1-1,0 1 1,0 1-1,1 0 1,-1 1-1,1 0 1,1 1-1,0 0 1,0 1-1,1 0 1,0 0-1,1 1 0,-10 15 1,4-4 12,2 0 1,0 2-1,1-1 0,1 1 1,2 1-1,-7 28 1,8-20-7,1 0 0,2 0 0,1 1 1,2-1-1,1 1 0,5 36 1,-3-62-49,-1-1 0,1 1 0,1 0 0,-1-1 0,1 0 0,0 0 0,1 0 0,0 0 0,0 0 0,0-1 0,1 1 0,0-1 0,0 0 0,1-1 0,0 1 0,0-1 0,0 0 0,0-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0-1 0,9 3 0,-5-2 11,-1-1 0,1 0-1,-1-1 1,1 0 0,0-1-1,-1 0 1,1 0 0,0-1-1,-1-1 1,1 0 0,-1 0-1,0-1 1,1 0 0,-1-1-1,0 0 1,-1-1 0,1 0-1,8-6 1,-1-2 2,-1 0 0,-1-1 0,0-1 0,-1-1 0,-1 1 0,0-2 0,-1 0 0,-1-1 0,0 0-1,-2 0 1,0-1 0,8-27 0,-8 17 6,-1 0 0,-2-1 0,0 0-1,-3 0 1,0 0 0,-2 0 0,-5-57-1,3 78-22,0 1-1,-1 0 0,0 0 0,-1 1 0,0-1 0,0 0 1,0 1-1,-1 0 0,0 0 0,0 0 0,-1 0 0,0 0 1,0 1-1,-1 0 0,1 0 0,-1 1 0,-1-1 1,1 1-1,-1 1 0,0-1 0,0 1 0,0 0 0,0 1 1,-1 0-1,-15-5 0,12 5-3,-1 0 1,0 1-1,0 0 0,-1 1 0,1 1 1,0 0-1,0 0 0,-1 1 0,1 1 1,0 0-1,0 0 0,0 1 0,1 1 1,-1 0-1,1 0 0,-20 12 1,20-9-10,0 0 0,1 1 0,0 0 1,0 0-1,1 1 0,-16 20 0,20-23-71,1 1-1,0 0 0,1 0 1,-1 0-1,1 0 0,1 1 1,-1-1-1,1 1 0,1 0 1,-1-1-1,1 1 0,0 14 1,1-20-12,1 1 1,-1-1 0,0 1 0,1-1 0,-1 1-1,1-1 1,0 1 0,-1-1 0,1 1-1,0-1 1,1 0 0,-1 0 0,0 1-1,1-1 1,-1 0 0,1 0 0,0 0-1,3 3 1,0-2-56,-1 0-1,1 0 1,0 0 0,0-1-1,0 0 1,0 0-1,1 0 1,7 1 0,12 1-127,-1-1 0,1-1 0,29-2 0,-37 0 332,-5 0-40,1 0 0,0 0 0,0 2 1,0-1-1,-1 2 0,1-1 0,15 7 0,-23-6 75,1 0 0,-1 0 0,1 1 0,-1-1 0,0 1 0,-1 0 0,1 1 0,-1-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,0 1-1,-1 0 1,3 8 0,3 13 459,-1 1-1,-2 1 0,0-1 1,0 53-1,-4-51-431,1 0 0,2 0 1,1 0-1,9 29 0,-13-56-167,0 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 1,4 2-1,-4-3-244,0 0 0,1 1 0,-1-2-1,0 1 1,0 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,3-1 0,14-12-3734</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1157.14">1152 357 4722,'0'0'7806,"-11"-16"-6669,-41-45-235,50 59-841,-1-1 1,0 1-1,0 0 0,0 1 1,0-1-1,-1 0 1,1 1-1,0 0 0,-1-1 1,1 2-1,-1-1 1,1 0-1,-1 1 1,1-1-1,-1 1 0,1 0 1,-1 0-1,0 0 1,1 1-1,-1-1 1,1 1-1,-1 0 0,1 0 1,0 0-1,-5 3 1,5-4-51,-10 6 33,1-1-1,0 1 1,0 1-1,1 0 1,-1 1-1,1 0 1,1 1-1,0 0 1,0 1-1,1 0 1,0 0-1,1 1 0,-10 15 1,4-4 12,2 0 1,0 2-1,1-1 0,1 1 1,2 1-1,-7 28 1,8-20-7,1 0 0,2 0 0,1 1 1,2-1-1,1 1 0,5 36 1,-3-62-49,-1-1 0,1 1 0,1 0 0,-1-1 0,1 0 0,0 0 0,1 0 0,0 0 0,0 0 0,0-1 0,1 1 0,0-1 0,0 0 0,1-1 0,0 1 0,0-1 0,0 0 0,0-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0-1 0,9 3 0,-5-2 11,-1-1 0,1 0-1,-1-1 1,1 0 0,0-1-1,-1 0 1,1 0 0,0-1-1,-1-1 1,1 0 0,-1 0-1,0-1 1,1 0 0,-1-1-1,0 0 1,-1-1 0,1 0-1,8-6 1,-1-2 2,-1 0 0,-1-1 0,0-1 0,-1-1 0,-1 1 0,0-2 0,-1 0 0,-1-1 0,0 0-1,-2 0 1,0-1 0,8-27 0,-8 17 6,-1 0 0,-2-1 0,0 0-1,-3 0 1,0 0 0,-2 0 0,-5-57-1,3 78-22,0 1-1,-1 0 0,0 0 0,-1 1 0,0-1 0,0 0 1,0 1-1,-1 0 0,0 0 0,0 0 0,-1 0 0,0 0 1,0 1-1,-1 0 0,1 0 0,-1 1 0,-1-1 1,1 1-1,-1 1 0,0-1 0,0 1 0,0 0 0,0 1 1,-1 0-1,-15-5 0,12 5-3,-1 0 1,0 1-1,0 0 0,-1 1 0,1 1 1,0 0-1,0 0 0,-1 1 0,1 1 1,0 0-1,0 0 0,0 1 0,1 1 1,-1 0-1,1 0 0,-20 12 1,20-9-10,0 0 0,1 1 0,0 0 1,0 0-1,1 1 0,-16 20 0,20-23-71,1 1-1,0 0 0,1 0 1,-1 0-1,1 0 0,1 1 1,-1-1-1,1 1 0,1 0 1,-1-1-1,1 1 0,0 14 1,1-20-12,1 1 1,-1-1 0,0 1 0,1-1 0,-1 1-1,1-1 1,0 1 0,-1-1 0,1 1-1,0-1 1,1 0 0,-1 0 0,0 1-1,1-1 1,-1 0 0,1 0 0,0 0-1,3 3 1,0-2-56,-1 0-1,1 0 1,0 0 0,0-1-1,0 0 1,0 0-1,1 0 1,7 1 0,12 1-127,-1-1 0,1-1 0,29-2 0,-37 0 332,-5 0-40,1 0 0,0 0 0,0 2 1,0-1-1,-1 2 0,1-1 0,15 7 0,-23-6 75,1 0 0,-1 0 0,1 1 0,-1-1 0,0 1 0,-1 0 0,1 1 0,-1-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,0 1-1,-1 0 1,3 8 0,3 13 459,-1 1-1,-2 1 0,0-1 1,0 53-1,-4-51-431,1 0 0,2 0 1,1 0-1,9 29 0,-13-56-167,0 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 1,4 2-1,-4-3-244,0 0 0,1 1 0,-1-2-1,0 1 1,0 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,3-1 0,14-12-3734</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1915.62">1611 382 672,'0'0'13559,"0"-10"-12788,0-25-470,0 32-259,1 6-43,-1 18 21,23 153 1501,1 22-1006,-18 43 1222,-8-265-1564,-1-1 1,-1 1-1,-10-32 1,6 24-190,-5-45-1,8-224 31,6 290-17,0 0 1,1 0 0,0 0 0,1 1-1,1-1 1,-1 0 0,2 1 0,0 0-1,1 0 1,0 1 0,0 0 0,13-17-1,-14 22 6,1 0 0,0 0-1,0 0 1,0 0-1,1 1 1,-1 0-1,1 0 1,0 1-1,1 0 1,-1 0-1,1 1 1,0 0-1,0 0 1,0 1 0,0 0-1,0 0 1,1 1-1,-1 0 1,0 1-1,11 0 1,-17 0-9,-1 0 0,1 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1-1,-1 0 1,1 0 0,-1 0 0,1-1 0,-1 1 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,-1-1 0,2 3 0,0 1 1,-1-1-1,0 1 1,0 0-1,-1-1 1,1 1-1,-1 0 0,0-1 1,0 1-1,-2 7 1,0 2 1,-1 0 0,0 0 0,-2 0 1,1 0-1,-13 21 0,-6 3-314,-2-1-1,-1-1 1,-2-2 0,-2 0-1,-58 50 1,88-83 225,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 1,0 1-1,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 1,-1 1-1,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 1,0-1-1,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,1-1 1,-1 0-1,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,23 16-173,-18-12 74,114 89 38,87 61 227,-185-141 95,1 0 0,1-2 0,0-1-1,1-1 1,0-1 0,0-1 0,38 6 0,-61-13-155,10 1 168,0-1 0,0 1 1,0-2-1,18-1 1,-28 1-186,0 0-1,0 0 1,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,0 0-1,-1 0 1,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0-1,-1 1 1,1-1 0,0 0 0,-1 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0-4 0,0 5-211,0 1 1,0-1-1,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,-1 1 1,1-1-1,0 0 1,-1 0-1,1 0 1,-1 1-1,1-1 0,0 0 1,-1 1-1,0-1 1,1 0-1,-1 1 1,1-1-1,-1 0 1,0 1-1,1-1 0,-1 1 1,0 0-1,0-1 1,1 1-1,-1-1 1,0 1-1,-1-1 1,-23-7-9156</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink64.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8693,7 +8380,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7493.95">3940 171 7972,'0'0'5378,"102"-48"-5666,-17 20 256,13-3-1441,-4 3-448,-19 5-1296,-21 11-1953</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8962.9">696 1457 864,'0'0'10080,"2"-14"-9373,9-42-99,-9 52-515,0 1-1,-1 0 1,2-1 0,-1 1 0,0 0-1,0 0 1,1 0 0,0 0 0,-1 0-1,1 1 1,0 0 0,1-1 0,-1 1-1,0 0 1,1 0 0,-1 0 0,1 1-1,6-3 1,-3 1-33,15-6 13,0 1 0,0 0 0,31-5 0,-1 8-8168</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9339.09">772 1340 1793,'0'0'6075,"-13"17"-5280,-38 56-238,49-70-511,0-1 0,0 1-1,0 0 1,0 0 0,1 1 0,-1-1-1,1 0 1,0 0 0,0 1 0,0-1-1,0 1 1,1-1 0,0 1 0,-1-1-1,1 1 1,0-1 0,1 1 0,-1 3-1,2 10 28,-2-16-73,0 0-1,1 0 1,-1 1-1,1-1 1,-1 0-1,1 0 1,-1 0 0,1 0-1,0 0 1,-1 0-1,1 0 1,0-1-1,0 1 1,-1 0 0,1 0-1,0 0 1,0-1-1,0 1 1,0 0 0,0-1-1,0 1 1,0-1-1,1 0 1,-1 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0 0-1,1 0 1,1 0-1,48 1 67,-37-1 15,8-2 57,28 1 44,-48 1-179,1 0 0,-1 0 0,1 0 0,-1 1 0,0-1-1,1 1 1,-1 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0-1,1 1 1,2 2 0,-4-2 30,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 1 1,-1-1-1,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,-1 0 1,1-1-1,-1 1 0,-2 2 0,-55 29 835,46-26-924,0-1-1,1 2 1,-17 11 0,27-17-638</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9522.87">1035 1492 5507,'0'0'6867,"4"-7"-9156,1 12-321,4 0-3200</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9522.86">1035 1492 5507,'0'0'6867,"4"-7"-9156,1 12-321,4 0-3200</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9915.21">1119 1373 6275,'0'0'3756,"5"0"-3406,20-2-214,0-1 1,0-2-1,-1 0 1,0-1-1,30-13 0,-19 7 247,59-12 0,-93 24-356,0 0-1,0-1 0,0 1 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,1 0 0,0 0 1,0 1-1,0-1 0,0 0 0,0 1 1,0-1-1,-1 0 0,1 1 0,0-1 0,0 1 1,0-1-1,-1 1 0,1 0 0,0-1 1,-1 1-1,1 0 0,0-1 0,-1 1 1,1 0-1,-1 0 0,0 0 0,2 1 0,-2 30 449,-1-21-243,-1 13 144,0 0 0,-2-1-1,-13 47 1,11-47-352,0 0 0,2 1 0,-4 46-1,8-20-1528,0-18-4508,0-21 632</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10911.23">888 2414 2721,'0'0'8228,"0"-7"-7169,0-24-218,0 30-803,0 1 1,0-1-1,0 1 1,-1-1 0,1 1-1,0-1 1,0 1 0,0 0-1,0-1 1,0 1-1,-1-1 1,1 1 0,0-1-1,0 1 1,-1 0 0,1-1-1,0 1 1,0 0-1,-1-1 1,1 1 0,0 0-1,-1-1 1,1 1 0,-1 0-1,1 0 1,0-1-1,-1 1 1,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,0 0 1,-1 0-1,1-1 1,-1 1 0,1 0-1,-1 0 1,1 1 0,-1-1-1,1 0 1,-1 0-1,-18 6 102,4 3-117,1 1-1,0 0 0,1 1 0,0 0 1,1 2-1,0-1 0,1 1 0,-15 22 0,25-33-23,0 0-1,1 0 0,-1 0 1,1-1-1,-1 1 0,1 0 1,-1 0-1,1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1 0 1,1-1-1,0 1 0,0 0 1,0 0-1,0 0 0,0-1 0,0 1 1,0-1-1,0 1 0,0-1 1,1 1-1,-1-1 0,1 0 1,-1 1-1,1-1 0,0 0 0,-1 0 1,3 1-1,9 4-18,0 1 0,0-1 0,27 7 0,-10-2 20,-22-9 3,-2 2 1,1-1-1,0 1 0,0 0 1,-1 0-1,10 9 0,-14-11 2,0 0 0,0 1 0,0-1 0,-1 0 0,1 1-1,-1-1 1,1 1 0,-1 0 0,0 0 0,0-1 0,-1 1 0,1 0-1,0 0 1,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,-1 0 0,0 3-1,0-3 17,0 0 0,-1 1-1,0-1 1,1 0 0,-1 0-1,0 0 1,-1-1-1,1 1 1,0 0 0,-1-1-1,0 0 1,1 1-1,-1-1 1,-4 2 0,-44 26 54,32-24-1268,19-6 1036,-1 0 0,1 0 0,-1 0-1,1 0 1,0 0 0,-1 0 0,1 0-1,-1 0 1,1-1 0,0 1-1,-1 0 1,1 0 0,0-1 0,-1 1-1,1 0 1,0 0 0,-1-1-1,1 1 1,0 0 0,0-1 0,-1 1-1,1 0 1,0-1 0,0 1-1,0-1 1,-1 1 0,1 0 0,0-1-1,0 1 1,0-1 0,0 1-1,0 0 1,0-1 0,0 1 0,0-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0-20-4215</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11089.66">794 2478 5122,'0'0'6387,"120"-105"-5618,-80 82-193,-8 5-80,-6 6-320,-3 4-176,-10 8-112,0 0-1393,-4 10-1008,-4 16-960,-5 2-977</inkml:trace>
@@ -8712,9 +8399,9 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17035.25">4024 1067 1825,'0'0'6136,"-2"-2"-5232,-2 0-742,1 0 0,-1 0-1,0 1 1,0-1-1,1 1 1,-1 0-1,0 0 1,0 0-1,0 0 1,0 1 0,0-1-1,0 1 1,0 0-1,-1 0 1,1 1-1,0-1 1,0 1-1,0 0 1,1 0 0,-1 0-1,0 1 1,0-1-1,0 1 1,1 0-1,-1 0 1,-4 4-1,8-6-129,0 0-1,0 0 0,0 1 1,0-1-1,0 0 0,0 0 1,0 0-1,0 1 0,0-1 1,0 0-1,0 0 0,0 0 1,0 0-1,0 1 1,0-1-1,-1 0 0,1 0 1,0 0-1,0 0 0,0 1 1,0-1-1,0 0 0,0 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 0 0,0 1 1,-1-1-1,1 0 0,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0-1 0,0 1 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,-1-1 1,11-10 605,197-90-514,-207 101-120,0 0 0,0 0 0,0 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0-1 0,0 1 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0-1 1,0 1-1,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0-1 1,0 1-1,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,0 0 0,-17-2 456,-20 5 199,12 8-663,0 0-1,1 2 1,0 0 0,-31 25-1,54-37 12,-1 0-6,1 0 0,0 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 0 0,0 0 0,1-1 1,-1 1-1,0-1 0,1 1 0,-3 0 0,3-1-3,0 1 0,0 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0-1,0 0 1,0 1 0,0-1 0,0 1 0,-1 30-119,1-30 107,-1 7 6,1 1-1,1 0 1,-1 0 0,2-1 0,-1 1 0,1 0 0,4 11 0,-4-18 11,0 0 0,-1-1 0,1 1 1,0 0-1,0-1 0,1 1 1,-1-1-1,1 1 0,-1-1 0,1 0 1,0 0-1,-1-1 0,1 1 1,0 0-1,0-1 0,0 0 0,1 1 1,-1-1-1,0 0 0,0-1 1,1 1-1,-1-1 0,0 1 0,7-1 1,127 0 256,-136 0-264,0 0 0,0 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 2 0,0 0 28,1 1 0,-1-1 0,0 1 0,0-1 1,0 1-1,-1-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,-3 3 0,0-1 22,-1 0-1,0-1 0,-1 0 1,1 0-1,-1 0 0,1-1 1,-11 3-1,-19 11-161,29-9-3886,3-1-3250</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17837.54">3588 1933 4562,'0'0'10117,"22"-56"-9605,10 30-240,3-2 16,5 5-256,-8 6 32,-10 1-64,-4 11-528,-9 3-1153,-18 25-6034,-14 2 5090</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18088">3601 1946 448,'0'6'300,"0"-1"-1,-1 1 1,0 0-1,0-1 1,0 1-1,-1 0 1,0-1-1,0 1 1,0-1-1,-4 6 1,-1 4 580,5-12-784,0 0-1,1 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,0 0 1,0-1-1,1 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,1 1 0,-1-1 1,1 1-1,-1 0 0,1-1 0,0 1 0,1-1 0,-1 0 0,0 1 0,1-1 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 1,1 1-1,0-1 0,0 0 0,0 1 0,0-1 0,0-1 0,6 4 0,70 22 606,-63-23-479,0 1-1,0 0 1,24 13 0,-39-18-191,1 1 0,0 0 0,-1 0 0,1 0 0,-1 1-1,0-1 1,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,-1 3 0,-2 3 136,0-1 1,0 1 0,-1-1 0,0-1 0,0 1 0,0-1-1,-10 8 1,-31 15 160,36-23-538,0 1-1,0 0 0,1 0 0,0 1 1,-11 11-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18256.1">3931 2116 3762,'0'0'7331,"27"-7"-11685,-1-1 288</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18256.09">3931 2116 3762,'0'0'7331,"27"-7"-11685,-1-1 288</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18596.34">4011 1900 6627,'0'0'4522,"13"-14"-3615,-1 1-827,0 0 0,1 0 0,0 2 0,1 0 0,1 0 0,0 1 0,17-8 0,-9 7-71,-3 0 9,0 1-1,1 1 0,0 1 0,0 1 1,1 1-1,0 0 0,39-3 0,-61 29 10,-2 48 1367,-17 113 0,12-89-1286,0-5-1878,-7-32-3120,1-21-1527</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19198.69">3864 2933 4994,'0'0'6539,"-14"-3"-6115,-45-7-106,58 10-297,-1-1 1,0 1-1,1 0 0,-1 1 1,0-1-1,1 0 0,-1 0 0,0 1 1,1-1-1,-1 1 0,0-1 1,1 1-1,-1 0 0,1-1 1,0 1-1,-1 0 0,1 0 1,-1 0-1,1 0 0,0 0 1,0 1-1,0-1 0,0 0 0,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 1 0,1-1 1,-1 1-1,1 0 0,-1 1 1,0 3-24,-1 0 1,2 0-1,-1 0 1,1 0 0,0 0-1,1 9 1,-1-12 7,1 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0 1 0,1-1 1,-1-1-1,0 1 0,1 0 0,0-1 0,4 5 0,54 31-20,-20-13 99,-39-24-75,-1 0-1,0-1 1,0 1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1 1-1,0-1 1,-1 0-1,0 0 1,1 1-1,-1-1 1,0 0-1,0 1 1,1-1-1,-1 0 1,0 1-1,0-1 1,-1 0-1,1 1 1,0-1-1,0 0 1,-1 1-1,1-1 1,0 0-1,-1 0 1,0 1-1,1-1 1,-1 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-2 1 1,-7 6 70,-1 0 0,1-1 0,-1-1 0,-15 7 0,5-2-145,11-5-70,-9 5-264,7-7-3368</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19198.68">3864 2933 4994,'0'0'6539,"-14"-3"-6115,-45-7-106,58 10-297,-1-1 1,0 1-1,1 0 0,-1 1 1,0-1-1,1 0 0,-1 0 0,0 1 1,1-1-1,-1 1 0,0-1 1,1 1-1,-1 0 0,1-1 1,0 1-1,-1 0 0,1 0 1,-1 0-1,1 0 0,0 0 1,0 1-1,0-1 0,0 0 0,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 1 0,1-1 1,-1 1-1,1 0 0,-1 1 1,0 3-24,-1 0 1,2 0-1,-1 0 1,1 0 0,0 0-1,1 9 1,-1-12 7,1 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0 1 0,1-1 1,-1-1-1,0 1 0,1 0 0,0-1 0,4 5 0,54 31-20,-20-13 99,-39-24-75,-1 0-1,0-1 1,0 1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1 1-1,0-1 1,-1 0-1,0 0 1,1 1-1,-1-1 1,0 0-1,0 1 1,1-1-1,-1 0 1,0 1-1,0-1 1,-1 0-1,1 1 1,0-1-1,0 0 1,-1 1-1,1-1 1,0 0-1,-1 0 1,0 1-1,1-1 1,-1 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-2 1 1,-7 6 70,-1 0 0,1-1 0,-1-1 0,-15 7 0,5-2-145,11-5-70,-9 5-264,7-7-3368</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19378.02">4020 2966 8196,'0'0'4914,"-9"6"-6867,14-1-1104,8-3-3026</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19692.21">4020 2979 6131,'36'-85'1894,"-36"83"-1709,1 1 1,-1-1-1,1 1 0,-1 0 0,1-1 1,-1 1-1,0-1 0,0 0 0,0 1 1,0-1-1,0 1 0,0-1 1,0 1-1,-1-1 0,1 1 0,0-1 1,-1 1-1,0-3 0,0-2 733,17-2-1175,11-3 398,46-11 0,-62 19-111,-1 1 0,1 0 0,-1 1 0,1 0 0,0 0 0,0 2 0,-1-1 0,12 3 0,-21-3-17,0 1 1,0-1-1,-1 1 1,1-1-1,0 1 1,0 0-1,0-1 1,-1 1-1,1 0 1,0 0-1,-1-1 1,1 1-1,0 0 1,-1 0-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,0 2 1,0 33 685,0-24-429,-1-1-96,-1 1 0,0-1 0,-1 0 0,0 0 0,0 0 0,-1-1 0,-1 1 0,0-1-1,-8 13 1,8-14-429,0-1-1,0 1 0,1 0 1,0 1-1,1-1 0,0 1 1,0-1-1,1 1 0,0 0 1,1 0-1,0 0 0,0 11 1,8-6-3366,12-6-1234</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20002.21">4452 2842 4674,'0'0'7841,"-14"1"-7443,-42 6-233,54-6-156,1 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 1,0 1-1,1-1 0,-1 0 0,0 0 1,1 1-1,-1-1 0,1 0 0,-1 1 0,1-1 1,0 0-1,0 1 0,0-1 0,-1 1 1,1-1-1,0 0 0,1 1 0,-1-1 1,0 1-1,0-1 0,1 0 0,-1 1 0,1-1 1,-1 0-1,1 1 0,-1-1 0,1 0 1,1 2-1,1 4 56,1 0 1,-1 0-1,1 0 0,1-1 1,5 7-1,10 8 343,-8-10-12,-1 1 1,0 0-1,-1 1 0,16 25 0,-24-35-427,-1-1 0,0 0 0,1 1 0,-1 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,0 0 0,1 0 0,-1-1 0,0 1 0,-1 0 0,1 0 0,0-1 0,-1 1 1,1 0-1,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-4 2 0,-16 5-3294,22-9 3132,-1 0 0,0 0-1,1-1 1,-1 1 0,0 0-1,1 0 1,-1-1-1,1 1 1,-1-1 0,1 1-1,-1-1 1,1 1 0,-1-1-1,1 1 1,-1-1-1,1 1 1,-1-1 0,1 1-1,0-1 1,-1 0 0,1 1-1,0-1 1,0 0 0,-1 1-1,1-1 1,0 0-1,0 1 1,0-1 0,0 0-1,0 1 1,0-1 0,0-1-1,-1-24-3986</inkml:trace>
@@ -8733,15 +8420,15 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28034.43">6244 2664 6451,'0'0'6942,"-13"19"-6217,-38 63-116,49-77-586,-1 0 0,1 1 0,0 0 0,0-1 0,0 1 0,1 0 0,0 0 0,0 0 0,1-1 0,0 1 1,0 0-1,0 0 0,0 0 0,1 0 0,0 0 0,3 9 0,-3-12-25,0 0 0,1 0 1,-1 0-1,1-1 0,0 1 0,0 0 0,0-1 0,0 1 1,0-1-1,1 1 0,-1-1 0,1 0 0,-1 0 1,1 0-1,0-1 0,0 1 0,0-1 0,0 1 1,0-1-1,0 0 0,0 0 0,0 0 0,0-1 1,1 1-1,-1-1 0,4 1 0,-3-1 28,0 0 0,0 1 0,-1-1 0,1-1 0,0 1-1,0-1 1,0 1 0,0-1 0,-1 0 0,1 0 0,0-1 0,-1 1-1,1-1 1,-1 1 0,0-1 0,1 0 0,-1-1 0,0 1 0,0-1-1,0 1 1,4-6 0,-3 1 22,-1 0-1,1 0 0,-1 0 1,-1 0-1,1-1 0,-2 1 1,1-1-1,-1 0 0,0 1 1,0-10-1,0 14-27,-1 1 0,0-1 0,0 0 0,0 0-1,-1 1 1,1-1 0,-1 1 0,1-1 0,-1 0 0,0 1 0,0-1-1,0 1 1,0-1 0,0 1 0,-1 0 0,1 0 0,-1-1 0,0 1 0,1 0-1,-1 0 1,0 0 0,0 1 0,0-1 0,-1 0 0,1 1 0,0 0-1,0-1 1,-1 1 0,1 0 0,-1 0 0,1 0 0,-4 0 0,1 0-38,0 0 0,1 1 0,-1-1-1,0 1 1,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0 1 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0 0 0,0 0-1,-5 4 1,6-3-417,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,1 1-1,-3 6 1,-1 10-5653</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="76701.07">1543 1126 2001,'0'0'7171,"-6"0"-6400,-50-8 2810,12-3-3388,0 2 0,-1 1 0,1 3 0,-74 0 0,-105 13-156,188-4-38,0 2-1,1 1 1,0 1-1,-46 18 1,-148 74-13,196-83-5,0 2 0,1 0 0,1 2-1,-48 44 1,67-53-4,0 1-1,1 0 0,1 0 1,0 1-1,0 1 0,2-1 1,0 1-1,0 0 1,2 1-1,0-1 0,0 1 1,2 0-1,0 1 0,1-1 1,0 0-1,1 1 1,1-1-1,1 1 0,0-1 1,5 19-1,-4-29 2,0-1 1,0 1-1,1 0 1,0-1-1,0 1 0,0-1 1,0 0-1,1 0 0,0 0 1,0-1-1,1 1 1,-1-1-1,1 0 0,9 6 1,-2-2-2,-1 0 0,2-1 0,-1-1 0,0 0 0,22 7 0,16 1 83,1-2 0,0-2 0,1-2 0,88 2-1,559 7 387,-682-18-452,1-1 0,-1-1 0,0 0 0,0-2 0,0 0 1,-1-1-1,0 0 0,0-1 0,22-14 0,-3 0 90,-1-2-1,60-52 1,-80 62-40,0-1 0,0 0 0,18-26 0,-28 33-16,0 1 0,0-1 0,-1 0 0,1-1 0,-1 1 0,-1 0 0,0-1 0,0 0 0,0 1 0,-1-1 0,1-14 0,-3 10 9,1 0 1,-2 1-1,0-1 0,0 1 0,-1-1 0,0 1 1,-1 0-1,0 0 0,-1 0 0,-7-12 1,2 7 20,-1 0 1,-1 1 0,0 1-1,-1-1 1,-24-19 0,-7 1 60,-1 1 0,-1 3 0,-69-32 0,106 56-115,-1 1-1,1 0 1,-1 1-1,0 0 1,0 1-1,-1 0 0,1 0 1,0 1-1,-1 1 1,1 0-1,-1 0 1,1 1-1,0 0 1,-1 1-1,1 0 1,0 0-1,0 1 1,-13 6-1,13-4-556,0 0 0,0 1 0,1 0 0,0 0-1,1 0 1,-1 2 0,1-1 0,0 1 0,1 0-1,-12 16 1,5-4-2907,1-6-1454</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="78232.89">1137 1984 2081,'0'0'3490,"-20"-1"-2778,-169-6 1508,184 7-2122,-15-1 96,1 1 0,-1 0-1,1 1 1,0 1 0,0 1-1,0 1 1,0 1 0,0 0-1,-31 14 1,-17 16-191,-97 68 1,140-85-4,1 1-1,1 1 1,0 1 0,2 1 0,0 1 0,2 1 0,-16 25-1,22-27-1,1 0-1,1 0 0,1 1 0,1 0 0,1 1 0,1-1 0,1 1 1,1 1-1,1-1 0,1 0 0,1 1 0,4 35 0,-2-51 10,1-1-1,0 0 1,1 0 0,0 0-1,0 0 1,0-1 0,1 1-1,0-1 1,1 0 0,0 0-1,0 0 1,0 0 0,1-1-1,0 0 1,0 0 0,0-1-1,1 0 1,0 0 0,0 0-1,9 4 1,3 1 79,1 0 0,0-1 0,1-2 0,0 0 0,0-1 0,35 6 0,27-2 284,0-3 0,0-4 0,97-10 0,-114-3-215,0-3-1,124-42 0,-95 25-110,1-1 0,-1-4 0,103-54-1,-173 76-23,0-1 1,-1-1-1,0-1 0,-2-1 1,0-1-1,24-25 0,-37 33-8,0 0 0,-1-1 1,-1 0-1,0 0 0,0-1 0,-1 0 0,-1 0 0,1 0 0,-2-1 0,0 0 1,-1 1-1,0-2 0,-1 1 0,0 0 0,0-18 0,-2 25-7,-1 0 1,1 0-1,-1 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,-1 1 0,1-1 1,-1 1-1,0 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,0 1 0,0 0 1,0 0-1,-1 0 0,1 0 0,-1 1 0,0-1 0,-6-2 0,-8-5 11,1 1 0,-1 1 0,-1 1 0,0 0 0,0 2 0,-1 0 0,1 1 0,-1 1 0,-22-1 0,-30 1 7,-92 5 0,128 0-2,-167 15 324,-44 1 76,247-17-538,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 1,0 0-1,0-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,0 0 1,-1 0-1,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 1,1 0-1,-1 10-2388,-4 7-3471</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="79678.91">1178 3104 3458,'0'0'5127,"-18"-8"-4844,-57-24 11,70 30-270,-1-1 0,0 2 0,0-1 1,0 1-1,-1 0 0,1 0 1,0 1-1,0-1 0,0 1 1,-1 1-1,1-1 0,0 1 1,0 0-1,0 1 0,-8 2 1,2 1-33,1 1 0,-1 0 0,1 1 0,0 1 0,-10 8 0,7-5 35,-14 9-27,2 1 0,0 1 0,2 2 0,0 0 0,1 2 0,2 0 0,1 2 0,1 0 0,1 1 0,2 1 0,1 0 0,-15 41 0,-31 155 26,59-219-27,0 0-1,0 0 0,1 0 1,0 1-1,1-1 0,0 0 1,0 1-1,0-1 0,1 0 1,0 0-1,0 0 1,1 1-1,0-1 0,0-1 1,1 1-1,0 0 0,0 0 1,0-1-1,1 0 0,0 0 1,0 0-1,7 7 0,-4-6 3,0-1 0,1 0 0,0 0 0,0 0 0,1-1 0,0 0-1,-1-1 1,2 0 0,-1 0 0,0-1 0,1 0 0,-1-1 0,1 0 0,0 0-1,19 0 1,13-2 115,1-1 0,-1-2-1,1-2 1,-1-1-1,71-22 1,-34 5 51,13-2-82,-1-4-1,-1-4 0,93-49 0,-81 27-56,186-108 86,-276 156-70,-2 0 1,1-1-1,-1 0 1,0 0-1,0-1 0,-1 0 1,-1-1-1,1 0 1,-2 0-1,1-1 1,-1 0-1,-1 0 1,0-1-1,-1 0 1,0 0-1,0 0 1,-2 0-1,1-1 0,-2 0 1,0 1-1,0-1 1,-1 0-1,-1-24 1,-1 31 34,-1 1 0,1-1 1,-1 1-1,0 0 0,0 0 0,0 0 0,-1 0 1,0 0-1,0 0 0,0 0 0,-1 1 1,0 0-1,1 0 0,-1 0 0,-1 0 1,1 0-1,-1 1 0,1 0 0,-1 0 1,0 0-1,0 1 0,-10-5 0,-11-3 14,0 1 0,0 1-1,-36-5 1,15 5-53,0 1 1,-1 3-1,0 2 1,-93 9 0,105 1-153,1 1 1,0 2 0,0 1 0,1 2 0,-55 32 0,87-45 56,-59 35-1525,57-33 1068,1 0 1,-1 0 0,1 1-1,0-1 1,0 1 0,0-1 0,-3 7-1,3 4-4933</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="79678.9">1178 3104 3458,'0'0'5127,"-18"-8"-4844,-57-24 11,70 30-270,-1-1 0,0 2 0,0-1 1,0 1-1,-1 0 0,1 0 1,0 1-1,0-1 0,0 1 1,-1 1-1,1-1 0,0 1 1,0 0-1,0 1 0,-8 2 1,2 1-33,1 1 0,-1 0 0,1 1 0,0 1 0,-10 8 0,7-5 35,-14 9-27,2 1 0,0 1 0,2 2 0,0 0 0,1 2 0,2 0 0,1 2 0,1 0 0,1 1 0,2 1 0,1 0 0,-15 41 0,-31 155 26,59-219-27,0 0-1,0 0 0,1 0 1,0 1-1,1-1 0,0 0 1,0 1-1,0-1 0,1 0 1,0 0-1,0 0 1,1 1-1,0-1 0,0-1 1,1 1-1,0 0 0,0 0 1,0-1-1,1 0 0,0 0 1,0 0-1,7 7 0,-4-6 3,0-1 0,1 0 0,0 0 0,0 0 0,1-1 0,0 0-1,-1-1 1,2 0 0,-1 0 0,0-1 0,1 0 0,-1-1 0,1 0 0,0 0-1,19 0 1,13-2 115,1-1 0,-1-2-1,1-2 1,-1-1-1,71-22 1,-34 5 51,13-2-82,-1-4-1,-1-4 0,93-49 0,-81 27-56,186-108 86,-276 156-70,-2 0 1,1-1-1,-1 0 1,0 0-1,0-1 0,-1 0 1,-1-1-1,1 0 1,-2 0-1,1-1 1,-1 0-1,-1 0 1,0-1-1,-1 0 1,0 0-1,0 0 1,-2 0-1,1-1 0,-2 0 1,0 1-1,0-1 1,-1 0-1,-1-24 1,-1 31 34,-1 1 0,1-1 1,-1 1-1,0 0 0,0 0 0,0 0 0,-1 0 1,0 0-1,0 0 0,0 0 0,-1 1 1,0 0-1,1 0 0,-1 0 0,-1 0 1,1 0-1,-1 1 0,1 0 0,-1 0 1,0 0-1,0 1 0,-10-5 0,-11-3 14,0 1 0,0 1-1,-36-5 1,15 5-53,0 1 1,-1 3-1,0 2 1,-93 9 0,105 1-153,1 1 1,0 2 0,0 1 0,1 2 0,-55 32 0,87-45 56,-59 35-1525,57-33 1068,1 0 1,-1 0 0,1 1-1,0-1 1,0 1 0,0-1 0,-3 7-1,3 4-4933</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="81180.22">1266 4156 3922,'0'0'4767,"0"-10"-4156,2-2-422,-2 8-122,1 0-1,-1-1 1,0 1-1,0-1 0,0 1 1,-1 0-1,1-1 1,-2-4-1,1 7-14,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 1-1,-1-1 0,1 0 0,-1 1 0,1-1 1,-1 1-1,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 1 0,0-1 0,0 1 1,-1-1-1,1 1 0,0 0 0,0 0 0,0-1 0,-1 2 1,1-1-1,0 0 0,0 0 0,0 1 0,0-1 0,-4 2 1,-11 3-100,0 0 0,1 1 0,-26 12 0,29-11 172,-41 19-124,1 2 0,2 3 1,-80 61-1,114-77-19,0 0 0,0 0 0,2 2 1,0 0-1,-24 36 0,32-41 7,0 1 0,1-1 0,1 1 0,0 0 0,1 1 1,1-1-1,0 1 0,1 0 0,0-1 0,0 25 0,2-19 4,1 0-1,0 0 0,1-1 1,2 1-1,0-1 0,7 21 0,-7-28 2,1 1 0,1-1 0,0 0 0,0-1 0,1 0 0,1 0 0,0 0 0,0-1 0,0 0 0,16 12 0,-9-10-13,0 0-1,0-2 1,1 0 0,1 0-1,0-1 1,0-1-1,0-1 1,1-1 0,0 0-1,19 2 1,21 0-211,108-2 1,-139-5 210,10-2-17,0-1 1,0-2-1,0-1 0,-1-3 0,0 0 0,57-24 0,-9-4 62,120-73-1,-171 91-1,-2 0-1,0-3 0,45-40 0,-68 54 8,1-1 0,-2 0 0,1 0 0,-1-1 0,-1 0 0,1 0-1,-2-1 1,1 0 0,-2 0 0,1 0 0,-2 0 0,1-1 0,-1 1-1,-1-1 1,1-16 0,-2 18-8,-1 1 1,0-1-1,-1 0 0,0 0 0,-1 1 0,0-1 0,0 0 0,-1 1 1,0 0-1,-9-17 0,4 12-12,0 1 0,-2 1 0,1 0-1,-2 0 1,0 1 0,-13-12 0,2 4 66,-1 2 0,-1 0 1,-1 1-1,0 2 0,-1 0 0,0 2 0,-1 1 1,0 1-1,-1 1 0,0 2 0,0 0 0,-1 2 0,0 1 1,-53 0-1,30 3 77,27-1-153,-1 2 0,-35 4 0,60-4-71,1 0-1,-1 0 0,0 0 1,0 0-1,0 1 0,0-1 0,0 0 1,1 0-1,-1 1 0,0-1 1,0 0-1,0 1 0,1-1 1,-1 1-1,0-1 0,1 1 1,-1-1-1,0 1 0,1 0 0,-1-1 1,1 1-1,-1 0 0,1-1 1,-1 1-1,1 0 0,-1 0 1,1 0-1,0-1 0,-1 1 1,1 0-1,0 0 0,0 0 1,0 0-1,-1 0 0,1-1 0,0 1 1,0 0-1,0 0 0,1 0 1,-1 0-1,0 1 0,0 1-503,0 5-3363</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="82555.82">4047 729 1265,'0'0'6653,"-40"-13"-3569,2 15-3086,1 2-1,0 1 0,0 2 1,1 1-1,0 2 0,-37 16 1,-214 84 0,233-85 1,2 2 0,1 3 0,-57 42 0,96-62-18,0 0 1,1 2-1,0-1 0,1 1 0,0 1 0,1-1 0,0 2 0,1-1 0,-12 29 0,16-31 3,0 0 1,0 0-1,1 1 0,1-1 0,0 0 0,0 1 0,1 0 0,1-1 1,0 1-1,0 0 0,1-1 0,1 1 0,0-1 0,4 13 0,-2-13 23,1 0-1,1-1 1,0 0-1,1 0 0,-1-1 1,2 1-1,0-1 1,0-1-1,0 0 0,1 0 1,0-1-1,0 0 1,1 0-1,0-1 0,1 0 1,-1-1-1,1 0 1,13 4-1,17 4 65,1-1 0,0-1 0,68 6 0,-59-10-27,1-2 0,0-2-1,0-2 1,0-3 0,0-2 0,0-3-1,0-1 1,-1-3 0,97-34 0,-101 26-15,-1-1 0,-1-3 0,74-48 0,-107 62 46,0 1 0,-1-2 0,0 0 0,0 0 0,-1-1 0,0 0-1,-1 0 1,0-1 0,-1-1 0,-1 1 0,1-1 0,-2-1 0,0 1 0,-1-1 0,0 0-1,-1 0 1,3-21 0,-3 6-8,-1 0-1,-2 0 1,-1-1-1,-2 1 1,-5-36-1,5 56-9,0 0 0,-1 1-1,0-1 1,0 1 0,-1 0-1,0-1 1,0 2 0,-1-1-1,0 1 1,0-1 0,-1 1-1,0 1 1,0-1 0,-1 1 0,0 0-1,0 1 1,0-1 0,-1 1-1,1 1 1,-1-1 0,-10-2-1,1 0-68,0 2 1,-1 0-1,1 1 0,-1 0 0,0 2 0,-1 0 0,1 1 0,-31 2 1,45 0-70,-1-1 0,1 1 1,0 0-1,0 0 0,0 0 1,-1 1-1,1-1 0,1 1 0,-1 0 1,0 0-1,0 1 0,1-1 1,-1 1-1,1 0 0,0-1 1,0 1-1,-3 5 0,-4 4-964,1 1 1,0 1-1,-8 19 0,12-24 298,-17 30-4120</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="83614.4">3717 1599 1008,'0'0'1897,"-16"3"-1355,13-3-510,-11 2 118,-1 1 0,1 0-1,0 1 1,0 1 0,0 0-1,1 0 1,-18 11 0,-13 13 200,2 1-1,1 1 1,2 3 0,1 1 0,2 2 0,1 2-1,2 0 1,-45 73 0,71-99-267,1 0 1,0 0-1,1 0 1,0 1-1,1 0 1,1 0-1,-3 21 1,3-4 39,2 1 0,3 41 1,-2-63-113,2 0 0,-1 0 1,2 0-1,-1 0 1,1-1-1,1 1 0,0-1 1,0 0-1,1 0 0,0 0 1,0 0-1,1-1 1,0 0-1,1 0 0,0-1 1,0 0-1,0 0 0,1 0 1,0-1-1,0 0 1,1-1-1,0 0 0,0 0 1,0-1-1,10 4 0,10 2 38,1-1-1,1-1 0,-1-2 0,1-1 0,0-1 0,57-1 0,-36-6-15,0-2 0,-1-2 1,1-3-1,-2-2 0,1-2 0,-2-3 0,0-1 1,57-31-1,-19 0 4,148-107-1,-140 89-187,-50 37 9,-2-2 0,58-55 0,-90 76 189,-1 0 0,0-1 0,0 0 1,-1-1-1,-1 0 0,0 0 0,-1 0 1,0-1-1,-1 0 0,-1-1 0,0 1 1,-1-1-1,3-22 0,-4 16 217,-1-1 1,-1 0-1,-1 0 0,-1 0 0,-7-36 0,6 49-170,-1 0-1,0 0 1,0 0 0,-1 0 0,0 1-1,-1-1 1,0 1 0,0 0-1,-1 1 1,0-1 0,0 1-1,-1 0 1,0 1 0,0-1 0,-11-6-1,-8-4-3,-1 1 0,0 2-1,-1 1 1,-1 1-1,0 1 1,0 2-1,-1 1 1,0 1 0,0 2-1,-1 1 1,-57-1-1,85 5-176,0 1 0,0-1-1,1 0 1,-1 1 0,0-1 0,1 1-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,0 1 1,-1-1 0,1 1-1,0 0 1,0 0 0,0 0-1,0-1 1,-1 4 0,-2 3-795,0 0 0,0 0 0,1 1 0,-5 13 0,2-5-625,-10 20-2628</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="83614.39">3717 1599 1008,'0'0'1897,"-16"3"-1355,13-3-510,-11 2 118,-1 1 0,1 0-1,0 1 1,0 1 0,0 0-1,1 0 1,-18 11 0,-13 13 200,2 1-1,1 1 1,2 3 0,1 1 0,2 2 0,1 2-1,2 0 1,-45 73 0,71-99-267,1 0 1,0 0-1,1 0 1,0 1-1,1 0 1,1 0-1,-3 21 1,3-4 39,2 1 0,3 41 1,-2-63-113,2 0 0,-1 0 1,2 0-1,-1 0 1,1-1-1,1 1 0,0-1 1,0 0-1,1 0 0,0 0 1,0 0-1,1-1 1,0 0-1,1 0 0,0-1 1,0 0-1,0 0 0,1 0 1,0-1-1,0 0 1,1-1-1,0 0 0,0 0 1,0-1-1,10 4 0,10 2 38,1-1-1,1-1 0,-1-2 0,1-1 0,0-1 0,57-1 0,-36-6-15,0-2 0,-1-2 1,1-3-1,-2-2 0,1-2 0,-2-3 0,0-1 1,57-31-1,-19 0 4,148-107-1,-140 89-187,-50 37 9,-2-2 0,58-55 0,-90 76 189,-1 0 0,0-1 0,0 0 1,-1-1-1,-1 0 0,0 0 0,-1 0 1,0-1-1,-1 0 0,-1-1 0,0 1 1,-1-1-1,3-22 0,-4 16 217,-1-1 1,-1 0-1,-1 0 0,-1 0 0,-7-36 0,6 49-170,-1 0-1,0 0 1,0 0 0,-1 0 0,0 1-1,-1-1 1,0 1 0,0 0-1,-1 1 1,0-1 0,0 1-1,-1 0 1,0 1 0,0-1 0,-11-6-1,-8-4-3,-1 1 0,0 2-1,-1 1 1,-1 1-1,0 1 1,0 2-1,-1 1 1,0 1 0,0 2-1,-1 1 1,-57-1-1,85 5-176,0 1 0,0-1-1,1 0 1,-1 1 0,0-1 0,1 1-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,0 1 1,-1-1 0,1 1-1,0 0 1,0 0 0,0 0-1,0-1 1,-1 4 0,-2 3-795,0 0 0,0 0 0,1 1 0,-5 13 0,2-5-625,-10 20-2628</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="84622.47">4011 2440 1681,'0'0'4925,"-15"-5"-4664,-52-13-122,63 18-125,1 0 1,-1 0 0,1 1-1,-1-1 1,1 1-1,-1 0 1,1 0 0,0 0-1,-1 0 1,1 0-1,0 1 1,0-1 0,0 1-1,0 0 1,0 0-1,0 0 1,1 1 0,-4 2-1,-5 4 45,-31 24 188,0 1 0,3 3 1,1 1-1,-47 61 0,62-67-174,0 1 0,2 0 0,2 2 0,1 1 0,1 0 0,-19 65 0,30-76-56,1 0 0,1 0 0,2 0 0,0 0 0,2 1 0,0-1 0,2 0 0,1 0 0,1 0 0,10 36 0,-9-48-17,1-1 0,0 0-1,0 1 1,1-2 0,1 1-1,0-1 1,1-1 0,0 1-1,1-2 1,0 1 0,0-1-1,15 9 1,1 0 50,0-2 0,2 0 0,0-2 0,39 14 0,-42-22-17,1 0 0,-1-2 0,1-1 0,0-1 0,0-1 0,0-1 0,38-5 0,-33 0 31,-1-2 0,0 0 0,-1-2 1,1-2-1,29-15 0,-3 3-30,82-33 28,-1-7 0,-4-5 0,141-98 0,-260 157-34,0-2 1,0 1-1,-1-2 1,-1 0-1,0 0 1,-1-1-1,0-1 1,-1 0-1,0 0 1,-1-1-1,-1 0 1,0 0-1,-1-1 1,-1 0-1,0 0 1,-2-1-1,0 0 1,3-21-1,-6 28-8,4-22 3,1-60 1,-6 83-2,-1 1 0,1-1 0,-2 0 0,1 1 0,-1-1 0,0 1 0,-1 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,-5-7 0,-5-1 97,1 1 0,-2 0-1,0 1 1,-1 1 0,0 0 0,-1 2 0,0-1 0,-1 2 0,0 0 0,0 2 0,-1 0 0,-1 1 0,-24-6 0,1 3 12,0 1 0,0 3 0,0 2 0,0 1 0,-56 5 0,82 0-206,0 0-1,0 1 1,1 1-1,0 1 1,-1 0-1,2 2 1,-23 10 0,-23 16-5239,34-15-854</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink65.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8772,7 +8459,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink66.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8800,7 +8487,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="448.36">2099 604 5010,'0'0'6425,"-1"-1"-6349,1 0 0,-1 0 0,1 0 1,0 0-1,-1-1 0,1 1 1,0 0-1,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 1,1-3-1,30-18 4,6-4 39,-36 24-121,0 1-1,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 1,-1 0-1,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,0-1 1,0 0-1,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,0-3 0,0 4-10,0-1-1,-1 1 1,1-1 0,0 1-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 1-1,0-1 1,1 1-1,-1 0 1,0-1-1,0 1 1,0 0-1,0 0 1,-3 0-1,-48 2-214,47-1 216,0 0 1,0 0-1,0 0 0,0 1 1,0 0-1,1 0 1,-1 0-1,1 1 1,-1-1-1,1 2 1,0-1-1,0 0 1,0 1-1,1 0 1,-1 0-1,1 0 1,0 1-1,0-1 0,0 1 1,1 0-1,0 0 1,0 0-1,0 1 1,1-1-1,-1 1 1,1 0-1,1-1 1,-1 1-1,1 0 1,-1 8-1,2-12-10,0 1-1,0-1 1,0 1-1,0 0 1,0-1-1,1 1 1,-1 0-1,1-1 1,0 1-1,0-1 1,0 1-1,0-1 1,0 0-1,1 1 1,-1-1-1,1 0 1,-1 0-1,3 2 1,0-1-8,0 0 1,0-1-1,0 0 1,0 0-1,1 0 0,-1 0 1,1-1-1,-1 0 1,9 2-1,10 1-145,-1-1-1,1 0 1,0-2 0,-1-1-1,1-1 1,37-5-1,-44 3-421,-1-1 0,0 0 0,0-1 0,0-1 0,-1 0-1,19-11 1,3-8-1935</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="661.22">2566 347 4002,'0'0'4930,"-120"74"-4706,98-43-176,4 2-48,5-3-16,-1-2 16,5-2-80,9-6-688,0-7-753,0-5-1216</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="865.52">2375 518 1297,'0'0'7592,"-4"-9"-6727,-6-9-632,2 4-52,22 26-48,1 5-14,0-2 1,2 0 0,21 14-1,-31-24-355,0 0-1,1-1 1,0 0-1,0-1 0,0 1 1,1-2-1,-1 1 1,1-1-1,-1 0 1,18 0-1,14-1-2281,0-1-1092</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1132.1">2776 322 1601,'0'0'6960,"-2"-12"-6378,1-2-462,-3-16 67,2 61 466,1 29 85,1 9-636,10 97 0,-1-124-1994,5-17-2448,-6-18 824</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1132.09">2776 322 1601,'0'0'6960,"-2"-12"-6378,1-2-462,-3-16 67,2 61 466,1 29 85,1 9-636,10 97 0,-1-124-1994,5-17-2448,-6-18 824</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1297.25">2696 497 4994,'0'0'6723,"53"-56"-6707,-17 49-16,4 2-32,0 2-1136,-4 3-1169,-1 0-1761</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1643.2">2874 426 5314,'0'0'2959,"16"7"-2639,49 27-106,-61-31-201,-1-1 1,0 1-1,0 0 1,0 0-1,0 0 1,0 1-1,-1-1 1,1 1-1,-1-1 1,0 1-1,0 0 0,0 0 1,-1 0-1,1 0 1,-1 0-1,1 6 1,0 4 26,0-1 1,-2 1-1,0 20 1,-1-12 69,-3 14-68,4-35-19,0-1-1,0 1 0,0 0 1,0 0-1,0-1 0,0 1 1,0 0-1,-1 0 0,1-1 1,0 1-1,-1 0 0,1-1 0,0 1 1,-1 0-1,1-1 0,-1 1 1,1-1-1,-1 1 0,1 0 1,-1-1-1,1 1 0,-1-1 1,0 0-1,1 1 0,-1-1 0,0 1 1,1-1-1,-1 0 0,0 0 1,0 1-1,1-1 0,-1 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,1 0 1,-1 0-1,-1-1 0,1 1 47,0-1-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,1-1 0,-1 1 1,1 0-1,-1 0 0,1-1 1,0 1-1,-1 0 1,1-1-1,0 1 0,0-3 1,-1-34 536,2 28-431,-1 4-172,1 0-1,-1 0 1,1 0 0,1 0-1,-1 0 1,1 1 0,0-1-1,0 0 1,1 1 0,-1-1-1,1 1 1,1 0-1,-1 0 1,1 0 0,0 1-1,0-1 1,0 1 0,0 0-1,6-4 1,-2 2-489,-1 1 0,1 0 0,0 1 0,0 0 0,1 0 0,-1 1 0,13-4 0,6 1-3387</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2465.01">3181 569 3858,'0'0'5629,"9"-12"-5456,2 1-154,-3 3-6,-1 0 0,1 0 1,-1 0-1,-1-1 1,0 0-1,0 0 0,5-13 1,-11 21-7,1 0 0,-1 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 1,-1 0-1,1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 1,-2-1-1,0 1 0,0 0 1,1 0 0,-1 0-1,0 1 1,0-1-1,1 1 1,-1-1 0,0 1-1,0-1 1,0 1 0,0 0-1,0 0 1,0 0-1,-3 0 1,0 1-3,0 0 0,-1 0 0,1 0 0,0 0 0,-1 1 0,1 0 0,0 0 0,0 0 1,1 1-1,-9 5 0,8-3-7,1 0 0,0 0 1,0 1-1,0-1 1,1 1-1,0 0 0,0 0 1,0 0-1,1 0 1,0 1-1,0-1 1,-1 9-1,1 0-34,0 0 0,1-1 0,1 1 0,2 22 1,-2-35 18,1 0 1,-1 0 0,1 0-1,-1-1 1,1 1 0,0 0-1,0 0 1,0 0 0,-1-1-1,2 1 1,-1-1 0,0 1 0,0-1-1,0 1 1,1-1 0,-1 1-1,1-1 1,-1 0 0,1 0-1,2 1 1,0 1-44,1-1 1,0 0-1,-1-1 1,1 1-1,0-1 1,0 0-1,10 1 0,-7-1-157,-1-1-1,1 0 0,0 0 0,-1 0 1,1-1-1,-1-1 0,1 1 0,-1-1 0,1 0 1,12-6-1,-14 3 156,0 0 0,0-1 0,-1 1 1,0-1-1,0 0 0,0-1 0,-1 1 0,0-1 1,0 0-1,-1 0 0,1 0 0,-2 0 0,1-1 1,-1 1-1,2-9 0,13-34 2740,-12 58-1141,-1 6-1610,-4 75 681,0-89-618,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1-1 0,0 1 0,16-14 156,3-19-95,-12 20-33,1 1 0,0 0 0,13-16 0,-19 26-29,1 0 0,-1 0 0,0-1 0,1 1 0,-1 1 0,1-1 0,-1 0 0,1 1 0,0-1 1,0 1-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,6 1 1,-7-1 5,-1 1 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,-1 1-1,1-1 0,0 0 0,0 1 1,-1-1-1,1 0 0,-1 1 1,1-1-1,-1 1 0,0-1 0,1 3 1,6 41 163,-5-35-52,-2-9-91,6 24 22,1-20 0,3-15 129,-2-3-207,1 0 1,0 0-1,1 1 1,0 0-1,1 1 0,22-19 1,-32 30 36,-1 0 1,1-1-1,-1 1 1,1 0-1,-1 0 0,1 0 1,0-1-1,-1 1 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,0 0-1,-1 1 1,1-1-1,-1 0 1,1 0-1,-1 1 1,1-1-1,-1 0 1,1 0-1,-1 1 0,1-1 1,-1 1-1,1-1 1,-1 0-1,0 1 1,1-1-1,-1 1 1,0-1-1,1 1 1,-1-1-1,0 1 1,0-1-1,1 1 1,-1-1-1,0 1 1,0 0-1,0-1 1,0 1-1,0-1 1,0 1-1,0-1 1,0 2-1,6 35-147,-5-32 143,0 4-254,0-1 0,1 1 0,1-1 0,-1 1 0,7 13 0,0-5-2858</inkml:trace>
@@ -8813,8 +8500,100 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8269.52">3489 1447 1921,'0'0'7689,"7"-5"-6505,11-10-1121,-1-1-1,-1 0 1,0-2-1,-1 0 1,-1 0 0,-1-1-1,0-1 1,-1 0-1,-2-1 1,0 0-1,-1-1 1,-1 0-1,-1 0 1,-1-1-1,-1 1 1,-1-1 0,1-27-1,-21 106-201,13-33 130,0 1-1,2-1 1,1 0 0,1 0-1,1 0 1,1 0-1,1 0 1,1 0-1,1-1 1,10 27-1,-14-46-2,0 1 1,1 0-1,-1-1 0,1 0 0,-1 1 0,1-1 0,0 0 0,0-1 0,1 1 0,-1 0 0,1-1 0,-1 0 1,1 0-1,0 0 0,5 2 0,-7-3 9,0 0 1,0-1 0,1 1-1,-1 0 1,1-1-1,-1 0 1,1 1-1,-1-1 1,1 0-1,-1 0 1,0-1 0,1 1-1,-1 0 1,1-1-1,-1 0 1,0 1-1,1-1 1,-1 0 0,0 0-1,0 0 1,1-1-1,-1 1 1,0 0-1,0-1 1,0 1-1,-1-1 1,4-3 0,3-5-170,-1-1 1,0-1 0,0 1 0,-1-1 0,-1 0 0,0 0 0,0-1 0,-2 1-1,1-1 1,1-14 0,0-14 245,-1-78 0,-4 151 1622,1 43-241,0-63-2295,1 0-1,0-1 1,0 1 0,8 18-1,-6-21-3230</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8446.31">4046 999 1521,'0'0'8436,"-23"46"-13623,23-20 417</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9252.93">4104 1203 4178,'0'0'5306,"7"0"-4777,0 0-306,0-1 1,-1 1 0,1-1-1,0 0 1,11-4 0,-16 5-203,0-1 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0-1,1-1 1,-1 1 0,0 0 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1-2 0,-2 3-38,1 1 0,0-1 1,-1 1-1,1-1 0,0 1 1,-1-1-1,1 1 0,-1-1 1,1 1-1,0 0 0,-1-1 1,1 1-1,-1 0 0,1-1 1,-1 1-1,1 0 0,-1 0 1,0-1-1,1 1 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,0 0 0,0 1 1,-21 4-311,19-3 310,1 0 0,-1 1 0,1-1-1,-1 1 1,1-1 0,0 1 0,0 0 0,0-1-1,0 1 1,1 0 0,-1 0 0,1 0 0,0 1 0,-1-1-1,2 0 1,-2 5 0,-2 57-164,4-52 136,0-11 39,0 0-1,1 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1-1 0,0 1 1,-1 0-1,1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,3 0 0,-4-1 32,0-1-1,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 0 1,0 0-1,0 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,0 0 1,-1 0-1,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0-2 0,2-38 918,-2 35-870,-1 0 0,2-1 1,-1 1-1,1 0 0,0 0 1,2-8-1,-2 12-102,0-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,1 0 0,3-1 0,8-3-100,-1 1 0,1 0 0,0 1 0,0 1 0,1 0 0,24 1 0,-38 1 115,0 1 0,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 2 0,6 42 515,-4-25-166,-2-19-304,0 1 0,1 0 0,-1-1-1,1 1 1,-1 0 0,1-1 0,-1 1 0,1-1 0,0 1 0,0-1-1,0 1 1,0-1 0,0 1 0,1 1 0,0-3-14,-1 1 0,0-1 0,0 0 0,0 0 0,0 1 1,0-1-1,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 1,0 1-1,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 1,0 1-1,0-1 0,0 0 0,0 1 0,2-2 0,5-4-29,0 0 1,-1-1-1,1 1 0,-1-1 0,-1-1 0,1 1 0,-1-1 1,0 0-1,-1-1 0,0 0 0,0 1 0,-1-1 0,0-1 1,-1 1-1,0-1 0,0 1 0,-1-1 0,0 0 0,-1 0 1,0-15-1,-1 23-22,-1-1 1,1 1-1,-1 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 1 1,-1-1-1,1 0 0,0 1 1,-1-1-1,0 0 1,1 1-1,-1 0 0,0-1 1,0 1-1,0 0 0,1 0 1,-1 0-1,0 0 1,-1 0-1,1 1 0,0-1 1,0 1-1,0-1 1,0 1-1,0 0 0,-1 0 1,1 0-1,-3 0 1,3 0-44,-1 0 0,1-1 0,0 1 0,0 0 0,0 1 0,0-1 0,0 0 1,0 1-1,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 1 1,-1-1-1,1 1 0,-1-1 0,1 1 0,0 0 0,0 0 0,0-1 0,0 1 1,0 0-1,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 4 1,5-5 65,-1 1 1,1-1-1,0 0 1,0 0 0,0-1-1,0 0 1,0 1-1,0-2 1,7 0-1,-6 1 15,-1 0-394,21 0 1122,-17 4-5964,-9 5 3672</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9592.97">4531 1152 1105,'0'0'8988,"-1"-5"-7276,-2-11-393,13 28-883,24 27-219,-22-31-153,0 0 58,-1 1 0,0 0-1,0 1 1,18 21-1,-27-29-103,0 0-1,-1 1 0,1-1 0,-1 1 1,1 0-1,-1-1 0,0 1 1,0 0-1,0 0 0,0-1 1,-1 1-1,1 0 0,-1 0 0,1 0 1,-1 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 1,1 0-1,-1 0 0,0 0 0,0-1 1,0 1-1,0 0 0,-1-1 1,1 1-1,-1-1 0,-3 5 1,-3 2 12,-1 0 1,0 0 0,0-1-1,-1-1 1,1 0 0,-17 9-1,15-10-1135,0-1 1,0 0-1,-20 6 0,-13-2-6987</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9592.96">4531 1152 1105,'0'0'8988,"-1"-5"-7276,-2-11-393,13 28-883,24 27-219,-22-31-153,0 0 58,-1 1 0,0 0-1,0 1 1,18 21-1,-27-29-103,0 0-1,-1 1 0,1-1 0,-1 1 1,1 0-1,-1-1 0,0 1 1,0 0-1,0 0 0,0-1 1,-1 1-1,1 0 0,-1 0 0,1 0 1,-1 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 1,1 0-1,-1 0 0,0 0 0,0-1 1,0 1-1,0 0 0,-1-1 1,1 1-1,-1-1 0,-3 5 1,-3 2 12,-1 0 1,0 0 0,0-1-1,-1-1 1,1 0 0,-17 9-1,15-10-1135,0-1 1,0 0-1,-20 6 0,-13-2-6987</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9843">4870 1501 7411,'0'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink67.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:16:31.448"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#AB008B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">101 378 2673,'0'0'5285,"17"-18"-4551,54-57-136,-67 71-405,0 0 0,-1 0 0,1 0-1,-1-1 1,0 0 0,0 1 0,0-1 0,-1 0 0,1-1 0,-1 1 0,-1 0 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,0 0 0,-2-7 0,2 12-191,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 1 1,-1-1-1,1 0 0,-1 1 1,1-1-1,0 1 0,-1-1 1,1 1-1,-1 0 1,1 0-1,-1-1 0,1 1 1,-1 0-1,1 1 1,-4-1-1,-37 3-132,36-1 122,-1 0-1,0 1 0,1-1 0,0 1 0,-1 1 0,1-1 1,1 1-1,-1 0 0,0 0 0,1 1 0,0 0 0,0 0 1,-7 10-1,5-7 10,0 1-1,1 0 1,0 0 0,1 1-1,0 0 1,1 0 0,0 0-1,-4 13 1,6-13 50,0-1 1,1 1-1,-1-1 0,2 1 1,0 0-1,0-1 0,1 1 1,0 0-1,0-1 1,4 13-1,-3-18-31,-1 0 1,1 0-1,0-1 1,0 1-1,1 0 0,-1-1 1,1 1-1,0-1 1,0 0-1,0 0 0,0 0 1,0 0-1,1 0 1,-1-1-1,1 1 0,0-1 1,0 0-1,0 0 1,0-1-1,0 1 0,0-1 1,0 0-1,0 0 1,9 1-1,-1-1-204,0-1 0,0 1 0,0-2 0,0 0 0,0 0 1,0-1-1,-1-1 0,1 0 0,0 0 0,-1-1 0,16-9 0,-2 1-2202,-1-2 0,-1-1-1,39-33 1,-28 17-666</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="374.22">470 233 960,'0'0'7543,"-17"-12"-6500,-59-33 147,73 43-1102,0 0 0,0 0-1,0 1 1,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1 0 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,0 0-1,0-1 1,1 2 0,-1-1 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-3 4 0,1 1-45,-1 0 1,2 0-1,-1 1 0,1-1 0,0 1 0,1 0 0,0-1 1,0 1-1,1 0 0,-1 12 0,2-16-39,0-1 0,0 1 0,0-1 1,1 1-1,-1-1 0,1 0 0,0 1 0,0-1 0,4 8 0,-4-11-5,1 1 1,-1-1-1,0 1 1,1-1-1,0 1 1,-1-1 0,1 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0-1 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,1 0 1,-1 0-1,3-1 1,1 2-19,-1-1 1,0-1 0,0 1 0,0-1-1,1 0 1,-1 0 0,0 0 0,0-1-1,0 1 1,-1-1 0,1-1 0,0 1-1,-1-1 1,1 0 0,-1 1 0,0-2-1,0 1 1,0-1 0,0 1 0,-1-1-1,1 0 1,-1 0 0,0 0 0,-1-1-1,1 1 1,0-1 0,-1 0 0,0 0 0,-1 1-1,3-7 1,-2 3 67,0 0 0,0 1 0,-1-2-1,0 1 1,0 0 0,-2-14 0,1 20 764,0 41-343,0-29-458,0-2 23,0 0 0,0 0 0,0-1-1,1 1 1,0 0 0,1 0 0,3 10 0,-3-15-93,-1-1 1,1 1-1,0-1 0,0 0 0,0 1 1,0-1-1,0 0 0,0 0 0,0-1 1,1 1-1,-1 0 0,1-1 0,-1 1 1,1-1-1,0 0 0,-1 0 0,1 0 0,0 0 1,0-1-1,0 1 0,0-1 0,0 0 1,0 1-1,3-2 0,2 2-482,-1-1 1,0 0-1,1 0 0,-1-1 0,1 0 0,-1 0 1,0-1-1,0 1 0,0-2 0,0 1 0,0-1 1,0 0-1,-1-1 0,1 1 0,-1-1 0,0-1 1,0 1-1,0-1 0,-1 0 0,8-8 0,10-16-2437</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="851.41">671 187 1473,'0'0'10020,"-17"-7"-8590,3 1-1118,0 1 1,-29-6-1,41 11-281,1 0 0,-1 0 0,0 0 1,0 0-1,1 1 0,-1-1 0,0 1 0,1-1 1,-1 1-1,1 0 0,-1-1 0,1 1 1,-1 0-1,1 0 0,-1 0 0,1 0 0,0 0 1,0 0-1,0 1 0,-1-1 0,1 0 0,0 1 1,0-1-1,1 1 0,-1-1 0,0 1 1,0-1-1,0 4 0,-12 46 572,11-44-529,1 2-46,-1 0 0,1 0 1,0 0-1,1 0 0,0 0 1,2 15-1,-2-22-29,1 0 1,-1 1-1,1-1 0,0 0 1,0 0-1,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,0 0 0,-1-1 1,1 1-1,0-1 1,0 1-1,0-1 0,0 1 1,0-1-1,0 0 0,0 0 1,0 0-1,0 0 0,0-1 1,1 1-1,-1-1 0,0 1 1,1-1-1,2 0 0,3 1-130,0 0 0,-1-1 0,1 0 0,0 0 0,-1-1 0,1 0 0,-1-1-1,1 1 1,-1-1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0-1,12-10 1,-9 5-285,-1 0 0,-1-1-1,1-1 1,-1 1 0,-1-1-1,0 0 1,0-1 0,-1 0-1,6-13 1,-7 10 205,0-1 1,0 1-1,-1-1 1,-1 0-1,1-19 0,-3 26 491,0 1 0,-1-1 0,0 1 0,0-1 0,-1 0-1,1 1 1,-2-1 0,1 1 0,-1-1 0,-1 1-1,-5-13 1,8 19-214,0 0 0,0 1 0,-1-1-1,1 1 1,0-1 0,0 0 0,-1 1-1,1-1 1,0 1 0,-1-1 0,1 1 0,-1-1-1,1 1 1,0-1 0,-1 1 0,1 0-1,-1-1 1,1 1 0,-1 0 0,1-1 0,-1 1-1,0 0 1,1-1 0,-1 1 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1 0 0,0 0-1,1 0 1,-1 0 0,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0 0,1 0 0,-1 0-1,0 1 1,1-1 0,-1 0 0,1 0-1,-1 1 1,1-1 0,-1 1 0,1-1 0,-1 0-1,1 1 1,-1-1 0,1 1 0,-1-1-1,1 1 1,0-1 0,-1 1 0,1-1-1,0 1 1,0-1 0,-1 1 0,1 0 0,0-1-1,0 1 1,-1 0 0,-12 42 22,6 4 9,1-1 0,2 77 0,3-121-118,1 0 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 0,1-1 1,-1 1-1,1 0 1,0 0-1,0 0 1,0-1-1,0 1 0,0-1 1,0 1-1,1-1 1,-1 1-1,1-1 1,-1 0-1,0 1 0,1-1 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,-1-1 1,1 1-1,0 0 0,0-1 1,0 0-1,0 1 1,3-1-1,-1 0-132,0 0-1,0 0 1,-1-1-1,1 0 1,0 1-1,0-1 0,0-1 1,-1 1-1,1 0 1,-1-1-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 1,0-1-1,4-4 1,8-11-122,-2-1 0,18-30 0,-31 48 302,0 1 0,1 0 0,-1-1 0,1 1 0,-1 0 1,0-1-1,1 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 2 0,19 17-252,-16-15 284,37 24-3375,-19-17-2262</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink68.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:16:33.443"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#AB008B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">104 373 2497,'0'0'6665,"-1"21"-5652,-4 37-514,-11 211 1446,13-247-1571,3-22-358,0 0 1,-1 0-1,1 0 1,0 1-1,0-1 0,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,0 1 0,-1-1 1,1 0-1,0 0 0,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,0-1 1,-1 1-1,1 0 0,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 0,0 0 1,-1 0-1,1 0 0,0-1 1,-2-2 65,0 0 0,0 0 0,0-1 0,0 1 0,1-1 0,0 1 0,-1-1 0,0-4 0,-4-31 12,2-1-1,1 0 1,3-48-1,0 45-21,0 21-67,2-1 0,0 1 0,2 0 0,0 0 1,1 0-1,11-28 0,-11 37 14,1 0 0,0 0-1,1 0 1,0 1 0,1 0 0,1 1-1,0 0 1,0 0 0,1 1-1,0 0 1,13-10 0,-22 19-8,0 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 0 0,-1 0-1,1 1 1,-1-1 0,1 0 0,0 1 0,-1-1-1,1 1 1,0 0 0,-1-1 0,1 1 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 1 0,1-1-1,-1 1-8,-1 0 0,0 0 0,0 0 0,0 0 0,1 1-1,-1-1 1,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 1-1,-1-1 1,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1 2-1,0 6 7,-1 1-1,1-1 0,-2 1 0,0 0 1,0-1-1,-3 14 0,-3-3-65,0 0 0,-2 0 1,0-1-1,-1-1 0,-23 34 0,-74 85-2578,102-133 2528,1 0-1,-1 0 1,0-1-1,0 1 1,-11 5-1,16-10 116,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1-1 1,0 1-1,-1 0 0,1 0 1,0 0-1,-1-1 1,1 1-1,0 0 0,-1-1 1,1 1-1,0 0 1,-1-1-1,1 1 1,0 0-1,0-1 0,-1 1 1,1-1-1,0 1 1,0 0-1,0-1 0,0 1 1,0-1-1,-1 1 1,1-1-1,0 1 0,0 0 1,0-1-1,0 1 1,0-1-1,0 1 1,1-1-1,-1 1 0,0 0 1,0-1-1,-1-24 580,1 24-511,-1-17 261,1 13-81,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,1-8 0,-1 12-213,-1-1 0,1 1 0,0-1 0,0 1-1,0 0 1,-1 0 0,1-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1 0-1,1-1 1,-1 1 0,1 0 0,1 0 0,18-1-137,0 2 0,0 0 0,0 1 0,-1 1 0,1 1 0,-1 1 0,38 15 0,-31-11-1357,0-1 0,0-1 0,50 6 0,-21-10-1958,-6-3-1253</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1054.21">630 381 4018,'0'0'1595,"-9"-15"548,0 2-1539,0 0 0,0 0 1,-2 1-1,-17-17 0,24 25-335,-1 0 0,0 0 0,0 1 0,0 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,0 0 0,0 1 0,0 0 0,0 0 0,0 0-1,0 1 1,0-1 0,0 1 0,-10 2 0,13-1-250,-1 0 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,-1 1 0,1-1 0,1 0 0,-1 1 0,0-1 0,1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 5 1,-2 5 21,1-1 1,1 1 0,0 0-1,1 0 1,2 25 0,-1-36-57,0 1 0,1 0 0,-1 0 0,1-1 1,-1 1-1,1-1 0,0 0 0,1 1 1,-1-1-1,0 0 0,1 0 0,0 0 0,0-1 1,0 1-1,0-1 0,0 1 0,0-1 0,1 0 1,-1 0-1,1-1 0,-1 1 0,1-1 0,0 0 1,-1 1-1,1-2 0,0 1 0,0 0 1,5-1-1,-4 1-6,-1 0-1,1-1 1,-1 0 0,1 0 0,-1 0 0,0-1 0,1 1-1,-1-1 1,1 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 0-1,0 0 1,0-1 0,0 1 0,0-1 0,-1 1 0,1-1-1,-1 0 1,0-1 0,0 1 0,4-6 0,-2-4 130,0-1 1,0 0 0,-2 1-1,1-2 1,-2 1-1,0 0 1,0 0-1,-2-1 1,-1-22-1,1 28 258,0 12-372,1 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,0-1 0,1 1 0,-1 0 0,1-1 0,-1 1 1,1-1-1,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,6 3 0,-3-2-5,1 0 0,-1 0 0,1-1 1,0 0-1,0 0 0,0 0 0,0 0 0,0-1 1,8 1-1,-7-2 22,0 0 0,1-1 1,-1 0-1,0 0 0,0-1 0,0 1 1,0-2-1,0 1 0,0-1 0,0 0 1,-1 0-1,0-1 0,1 0 1,-1 0-1,0 0 0,-1-1 0,1 0 1,-1 0-1,0 0 0,0-1 0,-1 1 1,0-1-1,0-1 0,5-9 1,-6 13 80,7 44-314,-9-36 222,0 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,0-1 0,0 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,5 4 1,-5-5-2,1-1 1,-1 0-1,1 0 1,-1 0 0,1 0-1,0 0 1,0-1 0,0 0-1,0 0 1,0 0-1,0 0 1,0-1 0,0 1-1,0-1 1,5 0 0,5 0-26,-1-1 0,1 0 0,-1 0 0,1-1 0,-1-1 0,15-5 0,-19 4 7,-1 1 0,0-1-1,-1-1 1,1 1 0,-1-2-1,0 1 1,0-1-1,0 0 1,-1 0 0,7-9-1,-8 9 27,0 0 1,-1 0-1,0-1 0,0 0 0,0 1 0,-1-1 0,0-1 0,-1 1 0,4-14 0,-3 1 36,-1 0-1,-1-31 0,-1 49-10,0 0-1,0-1 1,0 1 0,0-1-1,0 1 1,0 0 0,-1-1-1,1 1 1,-1 0-1,0-1 1,1 1 0,-1 0-1,0 0 1,0-1 0,-1 1-1,1 0 1,0 0-1,-1 0 1,1 0 0,-1 1-1,0-1 1,1 0 0,-1 1-1,0-1 1,-3-1-1,4 4-35,0 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 1-1,0-1 1,0 0 0,0 2 0,0-2-9,2 51-17,1 0 0,3 0-1,15 62 1,-14-78 37,0 0 0,1 42 0,-7-68-1,-1-1 0,0 1 0,0 0 0,-1-1 0,0 1 0,-1-1 0,0 1 0,0-1 1,-1 1-1,-1-1 0,1 0 0,-1 0 0,-6 9 0,7-15 9,0 0-1,-1 1 1,1-1 0,0 0 0,-1 0 0,0-1-1,1 1 1,-1-1 0,0 0 0,-1 0 0,-6 2 0,9-3-9,1-1 0,-1 1 0,1-1 1,0 0-1,-1 1 0,1-1 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1-1 0,1 1 1,0 0-1,-1 0 0,1-1 1,-1 1-1,1-1 0,0 0 0,-1 1 1,1-1-1,0 0 0,0 1 1,-1-1-1,1 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0-1-1,1 1 0,-1 0 1,0 0-1,0-1 0,1 1 0,-1 0 1,1-1-1,-1 1 0,0-3 1,-1-8-36,0 0 0,0-1 0,1 1 0,1 0 0,0-1 0,0 1 0,1 0 0,1-1 0,0 1 0,1 0 0,0 0 0,1 1 0,1-1 1,-1 1-1,2-1 0,0 2 0,0-1 0,12-15 0,13-15-385,3 2 0,1 1 0,45-38 0,-47 45-78,2-2 101,-9 11-331,-1-2 1,-1-1-1,37-51 0,-60 75 726,0-1 0,0 1 0,0-1-1,0 1 1,-1-1 0,1 1 0,0-1 0,-1 0 0,1 1-1,-1-1 1,0 0 0,1 0 0,-1-3 0,0 5 22,0-1 1,-1 1-1,1-1 1,0 1-1,0-1 1,0 1-1,-1-1 1,1 1-1,0-1 1,-1 1-1,1 0 0,0-1 1,-1 1-1,1 0 1,-1-1-1,1 1 1,0 0-1,-1-1 1,1 1-1,-1 0 1,1 0-1,-1 0 1,1-1-1,-1 1 1,1 0-1,-1 0 1,1 0-1,-1 0 0,0 0 1,-3 0 70,1 0 0,-1 0 0,0 1 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,-3 2 0,0 1-3,0 0 0,1 1 0,0-1 1,0 1-1,0 1 0,0-1 1,1 1-1,0 0 0,1 0 0,0 0 1,0 1-1,0 0 0,1-1 1,0 1-1,-4 16 0,6-19-77,0 1 0,0-1 0,0 0 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,0 1 0,0-1 0,1 0 0,0 0 0,-1 1 0,2-1 0,-1 0 0,0 0 0,1-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,1 0 0,8 7 0,1-3-20,1 0 0,0-1 1,0 0-1,0-1 1,1-1-1,0 0 0,23 3 1,40 15-2054,-55-11-1405,-12 2-3535</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1880.16">568 1066 7555,'0'0'8791,"-13"8"-8663,11-7-127,-3 1 8,1 1 0,-1-1 0,1 1 0,-1 0 0,1 1 0,0-1 0,0 1 1,1-1-1,-1 1 0,1 0 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,1 0 0,0 0 0,-1 6 0,-4 207 485,6-143-273,3-49-163,-3-26-49,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1-1,0-1 1,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1-1,0-1 1,1 0 0,-1 1 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 1-1,1-1 1,-1 0 0,1 0 0,0 1 0,0-32 778,4-33-561,1-5-184,-5-117 0,-3 173-61,0 1 0,0-1 1,-1 1-1,-1 0 1,-6-14-1,8 20 18,-1 0-1,0 0 1,0 1-1,0-1 1,-1 1-1,0 0 1,0 0-1,0 0 1,-1 1-1,0-1 1,1 1-1,-8-4 1,11 9-26,0 1-1,1 0 1,-1-1 0,0 1 0,1 0-1,0 0 1,-1 0 0,1-1-1,0 1 1,0 0 0,0 0 0,0 0-1,0 3 1,0-4 6,0 52 2,1 0-1,3-1 1,14 65 0,-7-71 47,-1-7 25,-2-1 0,-1 1 0,1 48 0,-4-84-425</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3035.4">546 1422 6419,'0'0'8212,"-6"0"-7607,-14 0-112,43-2 269,35-4 64,282-54 279,126-19-1049,165-35 4,38-6-302,-569 108 262,133 0 0,-232 12 116,-1-38 654,-1 26-782,0 0-1,-1 0 1,-1 0 0,-6-19-1,5 20 99,1-1-1,0 0 1,1 0-1,-1-19 1,3 30 0,0 12-223,2 86 304,22 145 0,-25-276 1214,2-4-1376,-2 0 0,-1 0 0,-13-66 1,13 100-31,-13-39 12,15 41-10,0 0 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 1 0,0 0 0,0-1 0,0 1-1,0 0 1,0-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-3-1 0,3 45-365,-1 41 348,0-45 107,1 0-1,2 0 0,8 52 0,-5-76-14,1 18 6,-5-31-409</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5065.95">296 1595 3458,'0'0'5736,"0"-7"-5032,1-12-168,2-21 4875,-6 41-5395,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 1 0,0-1 0,1 1 0,-1-1 0,-4 7 0,-3 1-8,-19 16-8,-82 84 42,180-173 25,-20 10 128,-49 52 245,-2 2-432,0-1 0,-1 1 1,1 0-1,0 0 0,-1 0 0,1 0 0,0 0 1,0 0-1,0 1 0,0-1 0,0 1 0,0-1 0,-1 3 1,-6 4-7,-46 33-12,24-17 47,-39 22 0,83-63-7389,-8 7 215</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5281.06">20 1572 6515,'0'0'7732,"9"77"-6964,4-41-384,-4-3-16,4 0-192,5-5-160,-4 0-16,8-5-80,-4-6-1104,-1-4-2626,-8-3-3761</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink69.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:16:43.020"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#AB008B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">240 0 5010,'0'0'10253,"-6"1"-9461,4-1-724,-1 1 1,1 0-1,-1-1 0,1 1 0,-1 0 0,1 0 0,0 1 0,0-1 0,-1 0 1,1 1-1,0-1 0,0 1 0,0 0 0,-2 3 0,-25 38 748,28-41-802,-19 31 445,-89 167 939,106-192-1580,-5 9 176,6-4-3451</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="708.92">21 74 3089,'0'0'11528,"-3"-8"-10370,1 5-1055,-12-22 431,13 19-316,9 18-147,6 5 182,0-1-1,1-1 1,33 26-1,-29-25-159,-1 1 0,26 28 0,-30-25 491,-32-37-404,-30-36-163,-45-44 786,116 120-661,1-1 0,33 23 0,-27-23-134,-2 2-1,35 36 1,-62-58-9,-1-2 79,-4-1-61,1 0 1,0-1-1,-1 1 0,1-1 1,0 0-1,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,1-1 1,-1 0-1,1 0 0,0 0 1,-2-3-1,-7-7 14,-25-28 8,-48-71-1,82 108-37,26 39-8,2-1-1,1-1 1,2-1 0,1-2 0,67 52 0,-63-55-302,-1-1-6174,-27-25 1699</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -8846,7 +8625,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="816.32">441 1198 8756,'0'0'11074,"-11"0"-10655,121-43-224,267-142-697,-376 184-941,-4 9-5984,-12 12 1749</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1383.3">580 1303 6467,'0'0'10351,"18"-10"-9622,56-29-62,-73 38-646,0 1 1,1-1-1,-1 0 0,0 1 1,1-1-1,-1 0 1,0 1-1,1 0 0,-1-1 1,0 1-1,1 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,0 1-1,1-1 0,-1 0 1,1 1-1,-1-1 1,0 1-1,1 0 0,-1-1 1,0 1-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 0,0 0 1,0 1-1,1 2 5,0-1 0,-1 1 0,1 0-1,-1-1 1,0 1 0,0 0 0,0 0 0,0 5 0,-1-7-5,1 10 21,0 0 1,0 0-1,-1 0 1,-1 0 0,0 0-1,-1 0 1,0 0-1,0 0 1,-8 18-1,7-23-31,0 0 0,-1 1 0,0-1-1,-1-1 1,1 1 0,-1-1 0,-1 1-1,1-1 1,-1-1 0,0 1 0,0-1-1,-1 0 1,1-1 0,-1 1 0,-11 4-1,15-7-37,-1 0-1,1-1 0,-1 1 0,1-1 0,-1 0 0,0 0 1,1-1-1,-1 1 0,0-1 0,0 1 0,1-1 1,-1 0-1,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 1,1 0-1,-1 0 0,-3-2 0,2 0-20,1 0-1,0 0 1,0-1-1,0 0 1,0 1 0,0-1-1,1 0 1,-1-1-1,1 1 1,0-1-1,0 1 1,-3-8 0,0-5-165,0 1 0,0-1 0,2 0 0,0-1 1,1 1-1,0-1 0,1-23 0,1 22-33,2-26-609,-1 44 839,1 0 1,-1 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 0-1,0 0 1,-1 0 0,1 1-1,0-1 1,0 0 0,-1 0 0,1 1-1,0-1 1,0 1 0,0-1-1,0 0 1,0 1 0,0 0 0,0-1-1,0 1 1,0 0 0,0-1-1,0 1 1,0 0 0,0 0 0,2 0-1,1 2-2,0 0 1,-1 1-1,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 1 1,1-1-1,-1 1 0,2 5 0,14 15 95,100 95 2572,-111-114-2489,0 0-1,0 0 1,1-1-1,0-1 0,0 1 1,0-1-1,0-1 1,0 1-1,1-1 1,-1-1-1,1 0 1,10 1-1,8-1 7,0-1-1,42-5 0,-36-6-525,-28 3-8441</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2408.64">847 745 8436,'0'0'8553,"4"0"-8374,4 0-76,-1 0 1,0-1-1,0 0 1,0 0-1,0-1 1,0 0-1,0 0 0,12-6 1,63-34 314,-36 17-329,52-25-425,-97 49-705,-8 3-3748,-15 9 862,-11 1-2217</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2617.18">923 554 7603,'0'0'8164,"27"79"-7411,-9-43-209,-5 7-224,0-5-192,1-2-96,-5-3-32,4-2-208,5-11-1217,-5-5-1904,5-10-1041</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2617.17">923 554 7603,'0'0'8164,"27"79"-7411,-9-43-209,-5 7-224,0-5-192,1-2-96,-5-3-32,4-2-208,5-11-1217,-5-5-1904,5-10-1041</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2838.52">1141 521 9476,'0'0'7524,"9"89"-7092,0-51-336,9 1 32,-5-4-128,5-2-128,0-5-1153,-5-5-2480,5-10-1394</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3179.32">1248 322 8340,'0'0'9409,"2"-15"-8606,-1 8-735,8-36 42,-9 41-108,1 1 0,-1 0 0,1-1-1,0 1 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 0-1,0 0 1,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,0 0-1,1 1 1,-1-1 0,0 1-1,1-1 1,-1 1 0,1-1-1,-1 1 1,0 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 0-1,-1 0 1,3 1 0,10 2 21,-2 1 0,1 1 0,0 0 0,-1 1 0,0 1 0,-1-1 0,1 2 1,-1 0-1,-1 0 0,13 12 0,18 20 38,37 47 1,-66-72-55,8 8 8,-1 1 0,-1 0 0,-2 2 0,0 0 0,-2 1 0,20 53 0,-29-64-76,0 1 0,-1 0-1,-1 0 1,0 1-1,-2-1 1,0 0-1,-1 1 1,0-1-1,-1 1 1,-2-1-1,1 0 1,-2 1-1,-8 22 1,4-19-255,-2 0 1,0-1 0,-2 0-1,-19 26 1,-63 69-2307,22-42-1036,-10-5-2033</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3966.56">103 620 5587,'0'0'8910,"-4"-3"-7701,4 3-1177,-1-1 1,1 1-1,-1-1 0,1 1 1,-1-1-1,1 1 0,-1-1 1,1 1-1,-1 0 1,1-1-1,-1 1 0,0 0 1,1-1-1,-1 1 0,0 0 1,1 0-1,-1-1 1,0 1-1,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,1 0 1,-1 1-1,0-1 0,1 0 1,-1 0-1,0 1 0,1-1 1,-1 0-1,0 1 1,1-1-1,-1 1 0,1-1 1,-1 1-1,0 0 0,-14 41 178,-4 46-73,3 1 1,5 1 0,3 0-1,5 108 1,4-172-122,1 1-1,2-1 1,0 1 0,2-1 0,1-1-1,1 1 1,1-1 0,1-1-1,2 0 1,0 0 0,1-1 0,20 25-1,-22-33-267,0-1-1,1-1 1,1 0 0,1 0-1,-1-1 1,2-1-1,0 0 1,0-2 0,1 1-1,0-2 1,0 0-1,1-1 1,0 0 0,1-2-1,-1 0 1,1-1-1,0 0 1,28 0-1,-30-3-778,1 0-1,-1-2 1,0 0-1,1-1 1,20-5-1,15-16-3877</inkml:trace>
@@ -8859,98 +8638,6 @@
 </file>
 
 <file path=xl/ink/ink70.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:16:31.448"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#AB008B"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">101 378 2673,'0'0'5285,"17"-18"-4551,54-57-136,-67 71-405,0 0 0,-1 0 0,1 0-1,-1-1 1,0 0 0,0 1 0,0-1 0,-1 0 0,1-1 0,-1 1 0,-1 0 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,0 0 0,-2-7 0,2 12-191,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 1 1,-1-1-1,1 0 0,-1 1 1,1-1-1,0 1 0,-1-1 1,1 1-1,-1 0 1,1 0-1,-1-1 0,1 1 1,-1 0-1,1 1 1,-4-1-1,-37 3-132,36-1 122,-1 0-1,0 1 0,1-1 0,0 1 0,-1 1 0,1-1 1,1 1-1,-1 0 0,0 0 0,1 1 0,0 0 0,0 0 1,-7 10-1,5-7 10,0 1-1,1 0 1,0 0 0,1 1-1,0 0 1,1 0 0,0 0-1,-4 13 1,6-13 50,0-1 1,1 1-1,-1-1 0,2 1 1,0 0-1,0-1 0,1 1 1,0 0-1,0-1 1,4 13-1,-3-18-31,-1 0 1,1 0-1,0-1 1,0 1-1,1 0 0,-1-1 1,1 1-1,0-1 1,0 0-1,0 0 0,0 0 1,0 0-1,1 0 1,-1-1-1,1 1 0,0-1 1,0 0-1,0 0 1,0-1-1,0 1 0,0-1 1,0 0-1,0 0 1,9 1-1,-1-1-204,0-1 0,0 1 0,0-2 0,0 0 0,0 0 1,0-1-1,-1-1 0,1 0 0,0 0 0,-1-1 0,16-9 0,-2 1-2202,-1-2 0,-1-1-1,39-33 1,-28 17-666</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="374.22">470 233 960,'0'0'7543,"-17"-12"-6500,-59-33 147,73 43-1102,0 0 0,0 0-1,0 1 1,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1 0 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,0 0-1,0-1 1,1 2 0,-1-1 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-3 4 0,1 1-45,-1 0 1,2 0-1,-1 1 0,1-1 0,0 1 0,1 0 0,0-1 1,0 1-1,1 0 0,-1 12 0,2-16-39,0-1 0,0 1 0,0-1 1,1 1-1,-1-1 0,1 0 0,0 1 0,0-1 0,4 8 0,-4-11-5,1 1 1,-1-1-1,0 1 1,1-1-1,0 1 1,-1-1 0,1 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0-1 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,1 0 1,-1 0-1,3-1 1,1 2-19,-1-1 1,0-1 0,0 1 0,0-1-1,1 0 1,-1 0 0,0 0 0,0-1-1,0 1 1,-1-1 0,1-1 0,0 1-1,-1-1 1,1 0 0,-1 1 0,0-2-1,0 1 1,0-1 0,0 1 0,-1-1-1,1 0 1,-1 0 0,0 0 0,-1-1-1,1 1 1,0-1 0,-1 0 0,0 0 0,-1 1-1,3-7 1,-2 3 67,0 0 0,0 1 0,-1-2-1,0 1 1,0 0 0,-2-14 0,1 20 764,0 41-343,0-29-458,0-2 23,0 0 0,0 0 0,0-1-1,1 1 1,0 0 0,1 0 0,3 10 0,-3-15-93,-1-1 1,1 1-1,0-1 0,0 0 0,0 1 1,0-1-1,0 0 0,0 0 0,0-1 1,1 1-1,-1 0 0,1-1 0,-1 1 1,1-1-1,0 0 0,-1 0 0,1 0 0,0 0 1,0-1-1,0 1 0,0-1 0,0 0 1,0 1-1,3-2 0,2 2-482,-1-1 1,0 0-1,1 0 0,-1-1 0,1 0 0,-1 0 1,0-1-1,0 1 0,0-2 0,0 1 0,0-1 1,0 0-1,-1-1 0,1 1 0,-1-1 0,0-1 1,0 1-1,0-1 0,-1 0 0,8-8 0,10-16-2437</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="851.41">671 187 1473,'0'0'10020,"-17"-7"-8590,3 1-1118,0 1 1,-29-6-1,41 11-281,1 0 0,-1 0 0,0 0 1,0 0-1,1 1 0,-1-1 0,0 1 0,1-1 1,-1 1-1,1 0 0,-1-1 0,1 1 1,-1 0-1,1 0 0,-1 0 0,1 0 0,0 0 1,0 0-1,0 1 0,-1-1 0,1 0 0,0 1 1,0-1-1,1 1 0,-1-1 0,0 1 1,0-1-1,0 4 0,-12 46 572,11-44-529,1 2-46,-1 0 0,1 0 1,0 0-1,1 0 0,0 0 1,2 15-1,-2-22-29,1 0 1,-1 1-1,1-1 0,0 0 1,0 0-1,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,0 0 0,-1-1 1,1 1-1,0-1 1,0 1-1,0-1 0,0 1 1,0-1-1,0 0 0,0 0 1,0 0-1,0 0 0,0-1 1,1 1-1,-1-1 0,0 1 1,1-1-1,2 0 0,3 1-130,0 0 0,-1-1 0,1 0 0,0 0 0,-1-1 0,1 0 0,-1-1-1,1 1 1,-1-1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0-1,12-10 1,-9 5-285,-1 0 0,-1-1-1,1-1 1,-1 1 0,-1-1-1,0 0 1,0-1 0,-1 0-1,6-13 1,-7 10 205,0-1 1,0 1-1,-1-1 1,-1 0-1,1-19 0,-3 26 491,0 1 0,-1-1 0,0 1 0,0-1 0,-1 0-1,1 1 1,-2-1 0,1 1 0,-1-1 0,-1 1-1,-5-13 1,8 19-214,0 0 0,0 1 0,-1-1-1,1 1 1,0-1 0,0 0 0,-1 1-1,1-1 1,0 1 0,-1-1 0,1 1 0,-1-1-1,1 1 1,0-1 0,-1 1 0,1 0-1,-1-1 1,1 1 0,-1 0 0,1-1 0,-1 1-1,0 0 1,1-1 0,-1 1 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1 0 0,0 0-1,1 0 1,-1 0 0,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0 0,1 0 0,-1 0-1,0 1 1,1-1 0,-1 0 0,1 0-1,-1 1 1,1-1 0,-1 1 0,1-1 0,-1 0-1,1 1 1,-1-1 0,1 1 0,-1-1-1,1 1 1,0-1 0,-1 1 0,1-1-1,0 1 1,0-1 0,-1 1 0,1 0 0,0-1-1,0 1 1,-1 0 0,-12 42 22,6 4 9,1-1 0,2 77 0,3-121-118,1 0 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 0,1-1 1,-1 1-1,1 0 1,0 0-1,0 0 1,0-1-1,0 1 0,0-1 1,0 1-1,1-1 1,-1 1-1,1-1 1,-1 0-1,0 1 0,1-1 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,-1-1 1,1 1-1,0 0 0,0-1 1,0 0-1,0 1 1,3-1-1,-1 0-132,0 0-1,0 0 1,-1-1-1,1 0 1,0 1-1,0-1 0,0-1 1,-1 1-1,1 0 1,-1-1-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 1,0-1-1,4-4 1,8-11-122,-2-1 0,18-30 0,-31 48 302,0 1 0,1 0 0,-1-1 0,1 1 0,-1 0 1,0-1-1,1 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 2 0,19 17-252,-16-15 284,37 24-3375,-19-17-2262</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink71.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:16:33.443"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#AB008B"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">104 373 2497,'0'0'6665,"-1"21"-5652,-4 37-514,-11 211 1446,13-247-1571,3-22-358,0 0 1,-1 0-1,1 0 1,0 1-1,0-1 0,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,0 1 0,-1-1 1,1 0-1,0 0 0,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,0-1 1,-1 1-1,1 0 0,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 0,0 0 1,-1 0-1,1 0 0,0-1 1,-2-2 65,0 0 0,0 0 0,0-1 0,0 1 0,1-1 0,0 1 0,-1-1 0,0-4 0,-4-31 12,2-1-1,1 0 1,3-48-1,0 45-21,0 21-67,2-1 0,0 1 0,2 0 0,0 0 1,1 0-1,11-28 0,-11 37 14,1 0 0,0 0-1,1 0 1,0 1 0,1 0 0,1 1-1,0 0 1,0 0 0,1 1-1,0 0 1,13-10 0,-22 19-8,0 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 0 0,-1 0-1,1 1 1,-1-1 0,1 0 0,0 1 0,-1-1-1,1 1 1,0 0 0,-1-1 0,1 1 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 1 0,1-1-1,-1 1-8,-1 0 0,0 0 0,0 0 0,0 0 0,1 1-1,-1-1 1,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 1-1,-1-1 1,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1 2-1,0 6 7,-1 1-1,1-1 0,-2 1 0,0 0 1,0-1-1,-3 14 0,-3-3-65,0 0 0,-2 0 1,0-1-1,-1-1 0,-23 34 0,-74 85-2578,102-133 2528,1 0-1,-1 0 1,0-1-1,0 1 1,-11 5-1,16-10 116,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1-1 1,0 1-1,-1 0 0,1 0 1,0 0-1,-1-1 1,1 1-1,0 0 0,-1-1 1,1 1-1,0 0 1,-1-1-1,1 1 1,0 0-1,0-1 0,-1 1 1,1-1-1,0 1 1,0 0-1,0-1 0,0 1 1,0-1-1,-1 1 1,1-1-1,0 1 0,0 0 1,0-1-1,0 1 1,0-1-1,0 1 1,1-1-1,-1 1 0,0 0 1,0-1-1,-1-24 580,1 24-511,-1-17 261,1 13-81,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,1-8 0,-1 12-213,-1-1 0,1 1 0,0-1 0,0 1-1,0 0 1,-1 0 0,1-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1 0-1,1-1 1,-1 1 0,1 0 0,1 0 0,18-1-137,0 2 0,0 0 0,0 1 0,-1 1 0,1 1 0,-1 1 0,38 15 0,-31-11-1357,0-1 0,0-1 0,50 6 0,-21-10-1958,-6-3-1253</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1054.21">630 381 4018,'0'0'1595,"-9"-15"548,0 2-1539,0 0 0,0 0 1,-2 1-1,-17-17 0,24 25-335,-1 0 0,0 0 0,0 1 0,0 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,0 0 0,0 1 0,0 0 0,0 0 0,0 0-1,0 1 1,0-1 0,0 1 0,-10 2 0,13-1-250,-1 0 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,-1 1 0,1-1 0,1 0 0,-1 1 0,0-1 0,1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 5 1,-2 5 21,1-1 1,1 1 0,0 0-1,1 0 1,2 25 0,-1-36-57,0 1 0,1 0 0,-1 0 0,1-1 1,-1 1-1,1-1 0,0 0 0,1 1 1,-1-1-1,0 0 0,1 0 0,0 0 0,0-1 1,0 1-1,0-1 0,0 1 0,0-1 0,1 0 1,-1 0-1,1-1 0,-1 1 0,1-1 0,0 0 1,-1 1-1,1-2 0,0 1 0,0 0 1,5-1-1,-4 1-6,-1 0-1,1-1 1,-1 0 0,1 0 0,-1 0 0,0-1 0,1 1-1,-1-1 1,1 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 0-1,0 0 1,0-1 0,0 1 0,0-1 0,-1 1 0,1-1-1,-1 0 1,0-1 0,0 1 0,4-6 0,-2-4 130,0-1 1,0 0 0,-2 1-1,1-2 1,-2 1-1,0 0 1,0 0-1,-2-1 1,-1-22-1,1 28 258,0 12-372,1 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,0-1 0,1 1 0,-1 0 0,1-1 0,-1 1 1,1-1-1,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,6 3 0,-3-2-5,1 0 0,-1 0 0,1-1 1,0 0-1,0 0 0,0 0 0,0 0 0,0-1 1,8 1-1,-7-2 22,0 0 0,1-1 1,-1 0-1,0 0 0,0-1 0,0 1 1,0-2-1,0 1 0,0-1 0,0 0 1,-1 0-1,0-1 0,1 0 1,-1 0-1,0 0 0,-1-1 0,1 0 1,-1 0-1,0 0 0,0-1 0,-1 1 1,0-1-1,0-1 0,5-9 1,-6 13 80,7 44-314,-9-36 222,0 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,0-1 0,0 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,5 4 1,-5-5-2,1-1 1,-1 0-1,1 0 1,-1 0 0,1 0-1,0 0 1,0-1 0,0 0-1,0 0 1,0 0-1,0 0 1,0-1 0,0 1-1,0-1 1,5 0 0,5 0-26,-1-1 0,1 0 0,-1 0 0,1-1 0,-1-1 0,15-5 0,-19 4 7,-1 1 0,0-1-1,-1-1 1,1 1 0,-1-2-1,0 1 1,0-1-1,0 0 1,-1 0 0,7-9-1,-8 9 27,0 0 1,-1 0-1,0-1 0,0 0 0,0 1 0,-1-1 0,0-1 0,-1 1 0,4-14 0,-3 1 36,-1 0-1,-1-31 0,-1 49-10,0 0-1,0-1 1,0 1 0,0-1-1,0 1 1,0 0 0,-1-1-1,1 1 1,-1 0-1,0-1 1,1 1 0,-1 0-1,0 0 1,0-1 0,-1 1-1,1 0 1,0 0-1,-1 0 1,1 0 0,-1 1-1,0-1 1,1 0 0,-1 1-1,0-1 1,-3-1-1,4 4-35,0 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 1-1,0-1 1,0 0 0,0 2 0,0-2-9,2 51-17,1 0 0,3 0-1,15 62 1,-14-78 37,0 0 0,1 42 0,-7-68-1,-1-1 0,0 1 0,0 0 0,-1-1 0,0 1 0,-1-1 0,0 1 0,0-1 1,-1 1-1,-1-1 0,1 0 0,-1 0 0,-6 9 0,7-15 9,0 0-1,-1 1 1,1-1 0,0 0 0,-1 0 0,0-1-1,1 1 1,-1-1 0,0 0 0,-1 0 0,-6 2 0,9-3-9,1-1 0,-1 1 0,1-1 1,0 0-1,-1 1 0,1-1 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1-1 0,1 1 1,0 0-1,-1 0 0,1-1 1,-1 1-1,1-1 0,0 0 0,-1 1 1,1-1-1,0 0 0,0 1 1,-1-1-1,1 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0-1-1,1 1 0,-1 0 1,0 0-1,0-1 0,1 1 0,-1 0 1,1-1-1,-1 1 0,0-3 1,-1-8-36,0 0 0,0-1 0,1 1 0,1 0 0,0-1 0,0 1 0,1 0 0,1-1 0,0 1 0,1 0 0,0 0 0,1 1 0,1-1 1,-1 1-1,2-1 0,0 2 0,0-1 0,12-15 0,13-15-385,3 2 0,1 1 0,45-38 0,-47 45-78,2-2 101,-9 11-331,-1-2 1,-1-1-1,37-51 0,-60 75 726,0-1 0,0 1 0,0-1-1,0 1 1,-1-1 0,1 1 0,0-1 0,-1 0 0,1 1-1,-1-1 1,0 0 0,1 0 0,-1-3 0,0 5 22,0-1 1,-1 1-1,1-1 1,0 1-1,0-1 1,0 1-1,-1-1 1,1 1-1,0-1 1,-1 1-1,1 0 0,0-1 1,-1 1-1,1 0 1,-1-1-1,1 1 1,0 0-1,-1-1 1,1 1-1,-1 0 1,1 0-1,-1 0 1,1-1-1,-1 1 1,1 0-1,-1 0 1,1 0-1,-1 0 0,0 0 1,-3 0 70,1 0 0,-1 0 0,0 1 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,-3 2 0,0 1-3,0 0 0,1 1 0,0-1 1,0 1-1,0 1 0,0-1 1,1 1-1,0 0 0,1 0 0,0 0 1,0 1-1,0 0 0,1-1 1,0 1-1,-4 16 0,6-19-77,0 1 0,0-1 0,0 0 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,0 1 0,0-1 0,1 0 0,0 0 0,-1 1 0,2-1 0,-1 0 0,0 0 0,1-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,1 0 0,8 7 0,1-3-20,1 0 0,0-1 1,0 0-1,0-1 1,1-1-1,0 0 0,23 3 1,40 15-2054,-55-11-1405,-12 2-3535</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1880.17">568 1066 7555,'0'0'8791,"-13"8"-8663,11-7-127,-3 1 8,1 1 0,-1-1 0,1 1 0,-1 0 0,1 1 0,0-1 0,0 1 1,1-1-1,-1 1 0,1 0 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,1 0 0,0 0 0,-1 6 0,-4 207 485,6-143-273,3-49-163,-3-26-49,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1-1,0-1 1,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1-1,0-1 1,1 0 0,-1 1 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 1-1,1-1 1,-1 0 0,1 0 0,0 1 0,0-32 778,4-33-561,1-5-184,-5-117 0,-3 173-61,0 1 0,0-1 1,-1 1-1,-1 0 1,-6-14-1,8 20 18,-1 0-1,0 0 1,0 1-1,0-1 1,-1 1-1,0 0 1,0 0-1,0 0 1,-1 1-1,0-1 1,1 1-1,-8-4 1,11 9-26,0 1-1,1 0 1,-1-1 0,0 1 0,1 0-1,0 0 1,-1 0 0,1-1-1,0 1 1,0 0 0,0 0 0,0 0-1,0 3 1,0-4 6,0 52 2,1 0-1,3-1 1,14 65 0,-7-71 47,-1-7 25,-2-1 0,-1 1 0,1 48 0,-4-84-425</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3035.4">546 1422 6419,'0'0'8212,"-6"0"-7607,-14 0-112,43-2 269,35-4 64,282-54 279,126-19-1049,165-35 4,38-6-302,-569 108 262,133 0 0,-232 12 116,-1-38 654,-1 26-782,0 0-1,-1 0 1,-1 0 0,-6-19-1,5 20 99,1-1-1,0 0 1,1 0-1,-1-19 1,3 30 0,0 12-223,2 86 304,22 145 0,-25-276 1214,2-4-1376,-2 0 0,-1 0 0,-13-66 1,13 100-31,-13-39 12,15 41-10,0 0 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 1 0,0 0 0,0-1 0,0 1-1,0 0 1,0-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-3-1 0,3 45-365,-1 41 348,0-45 107,1 0-1,2 0 0,8 52 0,-5-76-14,1 18 6,-5-31-409</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5065.95">296 1595 3458,'0'0'5736,"0"-7"-5032,1-12-168,2-21 4875,-6 41-5395,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 1 0,0-1 0,1 1 0,-1-1 0,-4 7 0,-3 1-8,-19 16-8,-82 84 42,180-173 25,-20 10 128,-49 52 245,-2 2-432,0-1 0,-1 1 1,1 0-1,0 0 0,-1 0 0,1 0 0,0 0 1,0 0-1,0 1 0,0-1 0,0 1 0,0-1 0,-1 3 1,-6 4-7,-46 33-12,24-17 47,-39 22 0,83-63-7389,-8 7 215</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5281.06">20 1572 6515,'0'0'7732,"9"77"-6964,4-41-384,-4-3-16,4 0-192,5-5-160,-4 0-16,8-5-80,-4-6-1104,-1-4-2626,-8-3-3761</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink72.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:16:43.020"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#AB008B"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">240 0 5010,'0'0'10253,"-6"1"-9461,4-1-724,-1 1 1,1 0-1,-1-1 0,1 1 0,-1 0 0,1 0 0,0 1 0,0-1 0,-1 0 1,1 1-1,0-1 0,0 1 0,0 0 0,-2 3 0,-25 38 748,28-41-802,-19 31 445,-89 167 939,106-192-1580,-5 9 176,6-4-3451</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="708.92">21 74 3089,'0'0'11528,"-3"-8"-10370,1 5-1055,-12-22 431,13 19-316,9 18-147,6 5 182,0-1-1,1-1 1,33 26-1,-29-25-159,-1 1 0,26 28 0,-30-25 491,-32-37-404,-30-36-163,-45-44 786,116 120-661,1-1 0,33 23 0,-27-23-134,-2 2-1,35 36 1,-62-58-9,-1-2 79,-4-1-61,1 0 1,0-1-1,-1 1 0,1-1 1,0 0-1,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,1-1 1,-1 0-1,1 0 0,0 0 1,-2-3-1,-7-7 14,-25-28 8,-48-71-1,82 108-37,26 39-8,2-1-1,1-1 1,2-1 0,1-2 0,67 52 0,-63-55-302,-1-1-6174,-27-25 1699</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink73.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8979,7 +8666,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink71.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9007,7 +8694,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink72.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9035,7 +8722,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink73.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9060,12 +8747,12 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">136 229 8868,'0'0'5917,"8"-17"-5407,-1 2-434,-4 7-43,0-1 0,1 1-1,0 0 1,1 0 0,0 1 0,0-1-1,0 1 1,1 0 0,0 0-1,1 1 1,-1 0 0,9-6 0,13-6 391,57-28 0,-73 41-319,1-1-1,0 2 1,0-1 0,1 2 0,-1 0-1,1 1 1,17-2 0,-29 13-185,-3-2 111,1 0 0,-2 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,-1-1-1,0 1 0,-6 10 1,-43 58 408,12-18-381,35-49-40,-2 2-31,2 0 0,-1 0 0,1 0-1,-3 12 1,7-21-8,0 1 0,1 0 1,-1-1-1,1 1 0,0 0 0,-1 0 1,1 0-1,0 0 0,0-1 0,0 1 0,0 0 1,1 0-1,-1 0 0,0 0 0,1-1 1,-1 1-1,1 0 0,0 0 0,-1-1 1,1 1-1,0-1 0,0 1 0,0 0 0,0-1 1,0 0-1,1 1 0,-1-1 0,0 0 1,1 1-1,-1-1 0,3 1 0,56 21-741,-52-22 749,-1 1 0,1 0 0,-1 1 0,1-1 0,-1 2 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 1 0,-1 0 0,8 8 0,-13-11 11,0-1-1,0 1 1,0-1 0,0 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,0 0 0,1 0 0,-1-1-1,0 1 1,-1 0 0,1 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,0 0-1,0-1 1,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,-1 2 0,-5 3 80,0 0 0,0 0-1,-1 0 1,-14 6 0,-35 13 238,-109 34 0,74-29-313,58-21-210,-8 3-1881,19 1-5414</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="613.31">226 1016 10869,'0'0'5424,"1"-16"-4170,10-42 5,-11 56-953,-1 6-67,-7 34-138,-1 2 91,-1-6-137,3 0-1,0 0 0,3 0 1,1 1-1,1 0 1,3 39-1,0-69-68,0 0-1,1 0 1,-1-1-1,1 1 1,0 0-1,0-1 1,1 1-1,-1-1 1,1 0-1,0 0 1,0 0-1,0 0 1,1 0-1,-1-1 1,1 1 0,0-1-1,0 0 1,0 0-1,0 0 1,1-1-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1-1 1,0 1-1,0-1 1,0 0-1,9 0 1,-5 0-74,0-1-1,-1 1 1,1-1 0,0-1 0,0 0-1,-1 0 1,1-1 0,0 1 0,-1-2 0,0 0-1,1 0 1,-1 0 0,0-1 0,-1 0-1,1-1 1,11-8 0,-10 4 93,0 0 0,0-1-1,-1 0 1,0-1 0,-1 0 0,0 0 0,-1 0-1,0-1 1,8-22 0,-16 50 87,0 0-1,2 1 1,2 29 0,-1 34 352,-26 121 319,13-121-1359,-3 117-1,15-216-11312</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="613.3">226 1016 10869,'0'0'5424,"1"-16"-4170,10-42 5,-11 56-953,-1 6-67,-7 34-138,-1 2 91,-1-6-137,3 0-1,0 0 0,3 0 1,1 1-1,1 0 1,3 39-1,0-69-68,0 0-1,1 0 1,-1-1-1,1 1 1,0 0-1,0-1 1,1 1-1,-1-1 1,1 0-1,0 0 1,0 0-1,0 0 1,1 0-1,-1-1 1,1 1 0,0-1-1,0 0 1,0 0-1,0 0 1,1-1-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1-1 1,0 1-1,0-1 1,0 0-1,9 0 1,-5 0-74,0-1-1,-1 1 1,1-1 0,0-1 0,0 0-1,-1 0 1,1-1 0,0 1 0,-1-2 0,0 0-1,1 0 1,-1 0 0,0-1 0,-1 0-1,1-1 1,11-8 0,-10 4 93,0 0 0,0-1-1,-1 0 1,0-1 0,-1 0 0,0 0 0,-1 0-1,0-1 1,8-22 0,-16 50 87,0 0-1,2 1 1,2 29 0,-1 34 352,-26 121 319,13-121-1359,-3 117-1,15-216-11312</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2694.07">333 2311 2177,'0'0'6870,"-2"-15"-5643,-4-54-199,4 9 3555,2 59-4189,0 10-153,-3 43-93,-3-1 1,-2 1-1,-15 49 1,-5 34 86,21-110-345,5-7 860,2-18-730,1 0-1,0 0 0,0 1 0,0-1 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 0,-1 0 0,1 0 1,0-1-1,0 1 0,0 0 0,0-1 1,-1 1-1,1-1 0,0 1 0,0-1 1,-1 1-1,1-1 0,0 0 0,51-25-76,81-29-1,32-16-1259,-159 68 1285,1 0-1,-1-1 1,0 0 0,0 0 0,0-1-1,-1 0 1,8-7 0,-11 9 53,-1 1 0,1 0 1,-1-1-1,0 1 0,0-1 0,0 0 0,0 1 0,0-1 1,0 0-1,-1 0 0,1 1 0,-1-1 0,0 0 1,0 0-1,0 0 0,0 0 0,-1 1 0,1-1 0,-1 0 1,1 0-1,-1 1 0,-2-5 0,2 5 73,0-1 0,0 1-1,0 0 1,-1 0 0,1-1 0,-1 1-1,1 0 1,-1 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 1-1,-3-2 1,0 30-382,-15 131 508,2 206-1,17-140-7065,1-195 5121,0-4-5176</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink74.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9093,7 +8780,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink75.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9121,7 +8808,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink79.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink76.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9146,11 +8833,102 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">93 114 7363,'0'0'8476,"-6"-14"-7555,6 12-910,1 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,1 0 0,-1 0-1,1 0 1,-1 1 0,1-1 0,0 0-1,-1 1 1,1 0 0,0-1-1,0 1 1,3-1 0,41-23 77,-42 23-70,10-5 33,-5 2-37,1 1 0,-1-1 0,1 1 0,0 1 0,0 0 0,0 0 0,1 1 0,12-1 0,-22 3-121,-1 9 107,-1-1 1,0 0-1,0 1 1,-1-1 0,0 0-1,0 1 1,-1-1 0,0-1-1,-8 16 1,-2-2 72,-1-1 0,-18 19 0,22-28-143,1-1 0,1 1 0,-1 0 0,2 1 0,-1 0 0,2 0 0,0 1 0,0 0 0,1 0 0,-6 23 0,11-34 12,0-1 0,0 0-1,0 0 1,1 0 0,-1 1 0,0-1-1,0 0 1,1 0 0,-1 0-1,0 0 1,1 0 0,-1 1-1,1-1 1,0 0 0,-1 0 0,1 0-1,0-1 1,0 1 0,-1 0-1,1 0 1,0 0 0,0 0-1,0-1 1,0 1 0,0 0 0,0-1-1,0 1 1,0-1 0,0 1-1,1-1 1,-1 0 0,0 1-1,0-1 1,0 0 0,0 0 0,1 0-1,-1 0 1,2 0 0,59 0-227,-40-2 238,91 3-31,-112-1 73,-1 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 1,-1 1-1,1-1 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,-19 27 306,-2-13-96,-1-1-1,-1 0 1,0-2 0,-43 15-1,29-11-304,-54 16-3572,52-23-1153</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1043.85">337 983 2881,'0'0'9581,"0"-15"-8442,0-62 1046,0 91-1942,-1 9-42,-2-1 0,-5 27 0,3-25-61,2-1-1,-2 31 0,5-46-130,0 0-1,0 0 0,1 0 0,0-1 0,0 1 0,1 0 0,0 0 0,1 0 0,4 9 0,-6-14-13,1 0 1,1 0-1,-1-1 0,0 1 0,1-1 0,-1 1 0,1-1 1,0 0-1,-1 0 0,1 0 0,0-1 0,0 1 1,1-1-1,-1 1 0,0-1 0,0 0 0,1 0 1,-1-1-1,1 1 0,-1-1 0,0 1 0,1-1 1,6-1-1,-3 1-39,0 0 0,0 0 0,0-1 0,-1-1 0,1 1 0,0-1 0,-1 0 0,1 0 0,-1-1 0,1 0 0,-1 0 0,0 0 0,0-1 0,-1 0-1,1 0 1,-1-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 0 0,0-1 0,2-7 0,7-43 45,-12 55 52,0 6-29,0 29-131,-13 135 542,1-38-11,8-72-788,-22 112 0,26-169-44,0 0 0,-1 0 0,1 1-1,-1-1 1,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,-8 3-6475</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1043.84">337 983 2881,'0'0'9581,"0"-15"-8442,0-62 1046,0 91-1942,-1 9-42,-2-1 0,-5 27 0,3-25-61,2-1-1,-2 31 0,5-46-130,0 0-1,0 0 0,1 0 0,0-1 0,0 1 0,1 0 0,0 0 0,1 0 0,4 9 0,-6-14-13,1 0 1,1 0-1,-1-1 0,0 1 0,1-1 0,-1 1 0,1-1 1,0 0-1,-1 0 0,1 0 0,0-1 0,0 1 1,1-1-1,-1 1 0,0-1 0,0 0 0,1 0 1,-1-1-1,1 1 0,-1-1 0,0 1 0,1-1 1,6-1-1,-3 1-39,0 0 0,0 0 0,0-1 0,-1-1 0,1 1 0,0-1 0,-1 0 0,1 0 0,-1-1 0,1 0 0,-1 0 0,0 0 0,0-1 0,-1 0-1,1 0 1,-1-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 0 0,0-1 0,2-7 0,7-43 45,-12 55 52,0 6-29,0 29-131,-13 135 542,1-38-11,8-72-788,-22 112 0,26-169-44,0 0 0,-1 0 0,1 1-1,-1-1 1,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,-8 3-6475</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3152.16">322 2223 16,'0'0'5683,"1"-4"-4619,0-5-1646,1-10 4123,-1 6 2621,-1 34-4894,0 195-1215,41-217-146,-29 0 49,0-1 1,1 0-1,-1-1 1,0-1-1,-1 0 1,1-1-1,-1 0 1,22-13-1,-29 15 27,1 0 0,0 0 0,-1-1-1,1 0 1,-1 0 0,0 0 0,0 0-1,-1-1 1,1 0 0,-1 0 0,0 1-1,0-2 1,-1 1 0,0 0 0,0-1-1,0 1 1,0-1 0,-1 1 0,0-1-1,0 0 1,0-6 0,-1-63 302,0 74-237,-1 28-322,-13 433 666,14-459-640</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8069.18">351 2117 800,'0'0'5061,"-48"-8"1348,44 7-5724,-15-8 598,19 9-1247,0 0 0,0 0 1,1 0-1,-1-1 0,0 1 1,0 0-1,0 0 0,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 0,0 0 1,1 0-1,-1-1 0,0 1 1,0 0-1,0 0 0,0 0 1,0 0-1,1 0 0,-1-1 1,0 1-1,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 0,0 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 0,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,0-1 0,0 1 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 0 1,419-101 990,-426 104-420,-145 61-673,123-58-11,0-1 0,0-1 0,-1-2 1,-47-2-1,42 0 56,34 0 71,-8 18-100,-4 19 59,-9 43-1,20-66-5,-1 0-1,2-1 1,0 1-1,0 0 1,2 0-1,3 26 0,-4-38-9,1 0-1,-1 0 0,1-1 0,0 1 1,0 0-1,0-1 0,0 1 1,0-1-1,1 1 0,-1-1 0,0 1 1,1-1-1,-1 0 0,0 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,0-1 0,0 1 1,0-1-1,0 0 0,-1 1 0,4-1 1,59 0-55,-47-1 122,97-11-18,-71 6-27,50-1 0,-91 7-14,0 0 1,-1 0 0,1 0-1,0 1 1,-1-1 0,1 0-1,-1 1 1,1-1 0,0 1-1,-1-1 1,1 1 0,-1 0-1,1-1 1,-1 1-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0 0,1 1-1,-1-1 1,0 0 0,1 2-1,-1 0 7,0-1-1,0 1 0,0 0 0,0 0 0,0 0 1,-1 0-1,1 0 0,-1-1 0,0 1 0,0 0 1,0 0-1,-1 4 0,0 0 11,0 0 0,0-1 0,-1 1 0,0 0 0,0-1 0,-1 1 0,0-1 0,0 0 0,0 1 0,-8 8 0,-11 9 17,0-2 0,-2 0 0,-1-1 1,0-2-1,-2 0 0,0-2 0,-1-1 1,-57 24-1,78-38-26,-1 1 0,0-1 1,0-1-1,1 0 0,-1 0 0,0 0 0,0-1 1,0 0-1,-10-2 0,14 2-5,0-1 1,0 0-1,0 0 1,0 0-1,1 0 1,-1-1-1,0 1 0,1-1 1,-1 0-1,1 0 1,0-1-1,-1 1 1,1-1-1,0 1 0,1-1 1,-1 0-1,0 0 1,-3-6-1,9 8-38,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 1 1,0-1 0,1 1-1,-1 0 1,0 0-1,5 1 1,-4-1 12,24-2 34,0-2 1,0 0-1,-1-2 0,0-1 0,0-1 1,0-2-1,-1 0 0,-1-2 0,0 0 0,0-2 1,33-25-1,-53 35-1,-1 0 0,1 0 0,-1-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0-1 0,-1 1 0,1-1 0,-1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,-1 0 0,1-1 0,-1 1 0,-2-9 0,2 12-22,0 0 0,0 0 1,-1 1-1,1-1 0,0 1 1,-1-1-1,0 1 0,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 1,-1 0-1,1 0 0,0 1 1,-1-1-1,1 1 0,-1-1 0,0 1 1,1 0-1,-1 0 0,0 0 1,1 1-1,-1-1 0,-5 0 0,-8-2-119,-1 1 0,-33 1-1,50 1 128,-13 1-69,0 0-1,0 2 0,1 0 0,-1 0 0,1 1 0,0 0 1,-15 8-1,15-6-42,0-1 1,0 0-1,-1-1 0,0 0 1,0-1-1,0-1 1,-17 2-1,28-5 111,1 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1-4-1,-6-40-111,5-1 25,0-44 76,2 82 28,0 0 1,0 0-1,1 0 1,0 0 0,0 0-1,1 0 1,0 0-1,4-8 1,-3 14-22,1 0 1,-1 0-1,0 1 1,0 0-1,1 0 1,-1 0-1,1 0 1,-1 1-1,1 0 1,5 0-1,-5 0 11,72-4 29,-20 2 22,-1-3 0,64-13 0,22-18 50,-204 59 671,33-11-961,-1-1 0,0-1 0,0-2 1,-56 8-1,37-15-58,31-1 189,0 0 1,-28 5 0,39-4 46,1 1 0,-1 0 0,1 0 0,0 1-1,0-1 1,0 1 0,0 1 0,0-1 0,1 1 0,-9 7-1,7-5 5,0 1 0,1-1 0,0 1 0,0 1 0,1-1 0,0 1 0,0 0 0,1 0-1,0 1 1,-4 10 0,4-4-22,0 0-1,2 0 0,0 0 0,0 0 1,2 22-1,0-35 19,0 0 0,1 0-1,0 0 1,-1 0 0,1 0 0,0-1-1,0 1 1,0 0 0,0-1 0,0 1 0,0 0-1,1-1 1,-1 1 0,0-1 0,1 0-1,0 1 1,-1-1 0,1 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,0-1 0,-1 1 0,1 0-1,0-1 1,0 0 0,0 1 0,0-1-1,4 0 1,69 5 98,-65-6 3,188-12 86,-133 10-209,-63 4 34,-1 0 0,0 0 0,0 0 0,0 1-1,0-1 1,-1 0 0,1 1 0,0-1-1,0 1 1,-1-1 0,1 1 0,-1-1 0,1 1-1,-1-1 1,0 1 0,0 0 0,1-1 0,-1 1-1,0-1 1,-1 1 0,1 0 0,0 1 0,-5 45 322,0-39-263,1 0-1,-2-1 1,1 0-1,-1 0 1,-1 0 0,1-1-1,-11 9 1,-55 44 156,58-50-216,1 0-1,-1-1 0,0-1 0,-1 0 1,0-1-1,0-1 0,-1 0 1,0-1-1,0-1 0,0 0 1,0-1-1,-1-1 0,1-1 1,-19 0-1,33-1-162,-1-1-1,1 1 1,0-1-1,0 1 1,0-1 0,0 0-1,0 0 1,0 0-1,0 0 1,1 0 0,-4-2-1,-3-13-7212</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9065.68">1120 2459 3089,'0'0'10573,"0"-18"-9148,-1-20-1577,0 18-30,1 1-1,1 0 1,0-1 0,1 1-1,6-20 1,20-78 1839,-13 14 1165,-5 71-2730,-5 18 97,-1-2-1,-1 1 1,0 0 0,2-29 0,-5 43-93,-2 33-208,-9 24 242,-3 0 0,-31 82 1,14-44 6,-96 251 20,30-90-154,97-255-155,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 1,0 0-1,0 0 0,2 3-2730,-2-3 2730,18-20-2862,-5 6 904,24-25-4533</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9607.28">1276 2342 4482,'0'0'10063,"2"-12"-9006,8-34-262,-8 34-248,-2 23-310,1 4-92,-1-1 1,-1 1-1,0-1 0,-1 1 0,0-1 1,-1 0-1,-1 0 0,-7 18 0,9-29-123,0 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,1 8 0,-1-10-24,1-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,4-1 0,3 1-11,-1 0 0,0 0 0,1-1 0,-1 0 0,0-1 0,0 1-1,1-1 1,-1-1 0,-1 1 0,1-1 0,0-1 0,-1 1 0,1-1 0,-1 0-1,0-1 1,0 1 0,-1-1 0,0 0 0,1 0 0,-2-1 0,1 0 0,-1 0 0,5-8-1,-3 5 31,0 0-1,-1 0 1,0-1-1,-1 0 1,0 0-1,0 0 1,-1 0-1,-1 0 0,0-1 1,0 1-1,0-21 1,-7 117-14,-4 1 1,-34 147-1,32-179-10,1-20-207,10-34-832</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink77.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:05:02.806"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#F6630D"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">69 25 5859,'0'0'7750,"0"-6"-6710,0-13-718,0 28-181,-7 45 50,-5-7-280,-22 112 1474,25-78-2622,13-2-3411,1-67 846,4-10-1045</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="360.76">7 78 5394,'0'0'6785,"-3"-4"-6198,3 4-592,0 0-1,-1-1 1,1 1 0,0 0 0,0-1 0,-1 1-1,1 0 1,0-1 0,0 1 0,0-1 0,0 1-1,-1 0 1,1-1 0,0 1 0,0-1 0,0 1-1,0 0 1,0-1 0,0 1 0,0-1 0,0 1-1,0-1 1,0 1 0,0 0 0,0-1 0,0 1-1,1-1 1,-1 1 0,0 0 0,0-1 0,0 1-1,1-1 1,-1 1 0,0 0 0,0-1 0,1 1-1,-1 0 1,0 0 0,1-1 0,-1 1 0,0 0-1,1 0 1,-1-1 0,0 1 0,1 0 0,30-4 35,46 15 395,-62-8-369,0 0 0,-1 2-1,1-1 1,-1 2 0,23 12 0,-32-16-52,-1 1 1,0 0-1,0 1 1,0-1-1,0 1 1,-1-1-1,1 1 1,-1 0-1,0 0 1,0 1-1,-1-1 1,1 1-1,-1-1 1,0 1-1,0 0 1,0 0-1,-1 0 1,0 0-1,0 0 1,1 10-1,-1-6 27,-1 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,-1 0 0,0-1 0,0 1 0,-1 0 0,0-1 0,-8 16 0,4-13 15,-1-1-1,0 1 0,-1-1 0,0-1 0,0 0 1,-1 0-1,-17 12 0,-23 11 139,36-24-382,0 1 1,1 0 0,0 0-1,1 1 1,-22 23 0,32-31-449,-2 4-536,4-2-3268</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="932.59">415 295 7075,'0'0'4640,"6"0"-4598,2 1 89,0-1-1,0-1 0,-1 0 1,1 0-1,0 0 0,-1-1 0,1 0 1,-1 0-1,1-1 0,-1 0 0,0 0 1,0-1-1,0 0 0,-1 0 1,1 0-1,-1-1 0,8-8 0,-14 13-135,1 0-1,-1-1 0,0 1 1,0 0-1,1 0 0,-1-1 1,0 1-1,0 0 0,0 0 1,0-1-1,0 1 0,1 0 1,-1-1-1,0 1 0,0 0 1,0-1-1,0 1 0,0 0 0,0-1 1,0 1-1,0 0 0,0-1 1,0 1-1,0 0 0,0-1 1,-1 1-1,1 0 0,0-1 1,0 1-1,0 0 0,0-1 1,0 1-1,-1 0 0,1 0 1,0-1-1,0 1 0,-1 0 1,1 0-1,0-1 0,0 1 0,-1 0 1,1 0-1,0 0 0,0 0 1,-1-1-1,1 1 0,0 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,-1 0 1,1 0-1,0 1 0,-1-1 1,1 0-1,-24 2-136,16-1 136,0 1 0,0 0 0,0 1-1,0 0 1,1 0 0,0 1 0,-1 0 0,1 0-1,0 1 1,1 0 0,-1 0 0,1 0 0,0 1 0,1 0-1,-1 0 1,1 0 0,0 1 0,0 0 0,1 0-1,0 0 1,1 1 0,-1-1 0,1 1 0,1 0-1,-1-1 1,1 1 0,-1 15 0,3-21-7,0-1-1,0 1 1,0-1 0,0 1 0,0-1 0,0 1-1,1-1 1,-1 0 0,1 1 0,-1-1 0,1 1-1,-1-1 1,1 0 0,0 1 0,0-1 0,0 0-1,-1 0 1,1 0 0,0 1 0,1-1-1,-1 0 1,0 0 0,0-1 0,0 1 0,1 0-1,-1 0 1,0 0 0,1-1 0,-1 1 0,0-1-1,1 1 1,2-1 0,3 2-102,1-2 0,0 1 0,0-1 0,0 0 0,10-2 0,-2 0-240,1 0-580,0 0-1,-1-2 1,0 0 0,19-7-1,15-7-2737</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1249.71">858 219 1761,'0'0'8796,"-10"-3"-8004,6 2-743,0-1 21,1 1-1,-1 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,0 1 0,0 0 0,0 0 0,1 0 1,-1 0-1,0 1 0,0-1 0,0 1 0,1 0 1,-1 0-1,0 1 0,1-1 0,-1 1 0,1-1 1,-1 1-1,1 0 0,-6 5 0,5-4-42,0 0-1,1 0 1,-1 0 0,1 0-1,0 1 1,0-1-1,0 1 1,0 0-1,1 0 1,-1 0 0,1 1-1,0-1 1,0 0-1,1 1 1,-1-1-1,1 1 1,0 0 0,0-1-1,1 1 1,-1 0-1,1-1 1,0 1-1,1 7 1,0-10-34,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1-1 0,1 1 0,-1 0 1,1 0-1,-1 0 0,1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,4 0 0,58 14 35,-49-12 44,27 3 224,-42-6-291,0 0 1,0 0 0,0 0-1,-1 1 1,1-1-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0-1,0 1 1,0-1 0,0 0-1,-1 0 1,1 0 0,0 0-1,0 1 1,0-1-1,0 0 1,0 0 0,0 0-1,0 1 1,-1-1-1,1 0 1,0 0 0,0 1-1,0-1 1,0 0 0,0 0-1,0 1 1,0-1-1,0 0 1,0 0 0,0 1-1,0-1 1,0 0 0,0 0-1,1 0 1,-1 1-1,0-1 1,0 0 0,0 0-1,0 0 1,0 1-1,0-1 1,1 0 0,-1 0-1,0 0 1,0 1 0,0-1-1,0 0 1,1 0-1,-1 0 1,0 0 0,0 0-1,0 0 1,1 1-1,-1-1 1,1 0 0,-2 0 9,-39 14 365,-13 7-3839</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1514.32">1157 142 1217,'0'0'10084,"-18"10"-9814,12-6-240,-5 1 77,1 1-1,-1 0 1,2 1 0,-1 0 0,1 0 0,0 1 0,0 0 0,1 1-1,0 0 1,1 0 0,0 1 0,-10 18 0,14-22-74,0-1-1,1 1 1,0 0 0,1 0-1,-1 0 1,1 0 0,0 0 0,0 0-1,1 0 1,0 1 0,0-1-1,0 0 1,3 11 0,-2-14-35,1 0 0,0 0 0,-1 0 0,1 0 1,0-1-1,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 1,0-1-1,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 1,0 1-1,0-1 0,6 0 0,22 1-105,0 0 0,53-8 0,10-9-4441,-81 13-683</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink78.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:05:01.156"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#F6630D"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">275 1 5891,'0'0'4877,"-10"9"-4523,-17 23-152,0 1 0,3 1 0,0 1-1,-30 63 1,30-64-95,24-33 79,0-18 14,1-11-104,1-1-1,2 1 0,1-1 0,1 1 0,18-51 0,-24 79-84,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 0-1,1 0 1,-1 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0-1,0 0 1,0-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,13 32-223,-5 7 112,-2 1 0,-2 0 0,-1-1 0,-2 1 0,-4 50 0,2-81-459,1-1-1,-1 1 1,-1-1-1,1 1 1,-1-1-1,-1 1 1,1-1-1,-1 0 1,-6 11-1,-10 9-4546</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="167.02">0 278 6403,'0'0'3137,"142"-48"-3185,-98 43-1184,-1-4-1794</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="492.41">424 66 1008,'0'0'11158,"-14"-2"-10478,-47-1-291,59 3-381,-1 1 0,1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 1 1,0-1-1,1 1 1,-1-1 0,0 1-1,1 0 1,-1-1 0,1 1-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 1 1,0-1 0,0 2-1,-9 52 61,9-53-68,1 1-14,-1-1 0,1 0 0,0 1 0,0-1 1,0 1-1,0-1 0,1 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,5 5 0,-1-3-19,0-1 0,0 0-1,1-1 1,-1 1 0,1-1-1,0 0 1,13 4 0,67 27 393,-86-34-354,0 0 0,1 0 1,-1 1-1,0-1 0,0 0 1,0 1-1,1-1 0,-1 0 0,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 0 0,0 1 0,0-1 1,0 0-1,0 1 0,0-1 1,0 1-1,0-1 0,0 0 0,0 1 1,0-1-1,0 0 0,-1 1 1,1-1-1,0 0 0,0 0 1,0 1-1,-1-1 0,1 0 0,0 1 1,0-1-1,-1 0 0,1 0 1,0 0-1,0 1 0,-1-1 0,1 0 1,0 0-1,-1 0 0,1 0 1,0 1-1,-1-1 0,1 0 1,0 0-1,-1 0 0,1 0 0,-1 0 1,-18 9 194,-5 0-168,-10 3-410,12-6-2814,16-5-749</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="737.01">668 57 1505,'0'0'8684,"-16"16"-8121,-52 54 50,63-65-563,1-1-1,0 0 1,0 1 0,1 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,1 1 1,0 0 0,0-1-1,0 1 1,1 0-1,-1 0 1,1 0-1,1-1 1,-1 1 0,1 0-1,0 0 1,0 0-1,1 0 1,0 0 0,2 8-1,-2-12-45,0-1-1,0 1 0,0 0 1,0 0-1,0-1 1,1 1-1,-1-1 0,0 1 1,1-1-1,-1 1 1,1-1-1,0 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0-1 0,0 0 1,0 1-1,2-1 1,58 1 291,-40-2-185,-15 1-592,1-1 0,-1-1 0,1 1 0,-1-1 1,0 0-1,1-1 0,6-3 0,2-2-3267</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink79.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:05:07.323"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#F6630D"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">78 42 896,'0'0'3100,"0"-4"-2542,1 1-1188,-1-18 5105,0 20-4260,0 1 0,0-1-1,0 1 1,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1-1,0-1 1,-1 1 0,1-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0-1,1 0 1,-2-1 0,2 1 420,-3 1 81,3-1-716,0 0 0,0-1 1,0 1-1,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-1 0 1,1 0-1,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,-29 313 403,28-297-419,-9 154 301,5-169-1504,-5-4-5878,5-11-543</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -9200,97 +8978,6 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:05:02.806"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">69 25 5859,'0'0'7750,"0"-6"-6710,0-13-718,0 28-181,-7 45 50,-5-7-280,-22 112 1474,25-78-2622,13-2-3411,1-67 846,4-10-1045</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="360.76">7 78 5394,'0'0'6785,"-3"-4"-6198,3 4-592,0 0-1,-1-1 1,1 1 0,0 0 0,0-1 0,-1 1-1,1 0 1,0-1 0,0 1 0,0-1 0,0 1-1,-1 0 1,1-1 0,0 1 0,0-1 0,0 1-1,0 0 1,0-1 0,0 1 0,0-1 0,0 1-1,0-1 1,0 1 0,0 0 0,0-1 0,0 1-1,1-1 1,-1 1 0,0 0 0,0-1 0,0 1-1,1-1 1,-1 1 0,0 0 0,0-1 0,1 1-1,-1 0 1,0 0 0,1-1 0,-1 1 0,0 0-1,1 0 1,-1-1 0,0 1 0,1 0 0,30-4 35,46 15 395,-62-8-369,0 0 0,-1 2-1,1-1 1,-1 2 0,23 12 0,-32-16-52,-1 1 1,0 0-1,0 1 1,0-1-1,0 1 1,-1-1-1,1 1 1,-1 0-1,0 0 1,0 1-1,-1-1 1,1 1-1,-1-1 1,0 1-1,0 0 1,0 0-1,-1 0 1,0 0-1,0 0 1,1 10-1,-1-6 27,-1 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,-1 0 0,0-1 0,0 1 0,-1 0 0,0-1 0,-8 16 0,4-13 15,-1-1-1,0 1 0,-1-1 0,0-1 0,0 0 1,-1 0-1,-17 12 0,-23 11 139,36-24-382,0 1 1,1 0 0,0 0-1,1 1 1,-22 23 0,32-31-449,-2 4-536,4-2-3268</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="932.59">415 295 7075,'0'0'4640,"6"0"-4598,2 1 89,0-1-1,0-1 0,-1 0 1,1 0-1,0 0 0,-1-1 0,1 0 1,-1 0-1,1-1 0,-1 0 0,0 0 1,0-1-1,0 0 0,-1 0 1,1 0-1,-1-1 0,8-8 0,-14 13-135,1 0-1,-1-1 0,0 1 1,0 0-1,1 0 0,-1-1 1,0 1-1,0 0 0,0 0 1,0-1-1,0 1 0,1 0 1,-1-1-1,0 1 0,0 0 1,0-1-1,0 1 0,0 0 0,0-1 1,0 1-1,0 0 0,0-1 1,0 1-1,0 0 0,0-1 1,-1 1-1,1 0 0,0-1 1,0 1-1,0 0 0,0-1 1,0 1-1,-1 0 0,1 0 1,0-1-1,0 1 0,-1 0 1,1 0-1,0-1 0,0 1 0,-1 0 1,1 0-1,0 0 0,0 0 1,-1-1-1,1 1 0,0 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,-1 0 1,1 0-1,0 1 0,-1-1 1,1 0-1,-24 2-136,16-1 136,0 1 0,0 0 0,0 1-1,0 0 1,1 0 0,0 1 0,-1 0 0,1 0-1,0 1 1,1 0 0,-1 0 0,1 0 0,0 1 0,1 0-1,-1 0 1,1 0 0,0 1 0,0 0 0,1 0-1,0 0 1,1 1 0,-1-1 0,1 1 0,1 0-1,-1-1 1,1 1 0,-1 15 0,3-21-7,0-1-1,0 1 1,0-1 0,0 1 0,0-1 0,0 1-1,1-1 1,-1 0 0,1 1 0,-1-1 0,1 1-1,-1-1 1,1 0 0,0 1 0,0-1 0,0 0-1,-1 0 1,1 0 0,0 1 0,1-1-1,-1 0 1,0 0 0,0-1 0,0 1 0,1 0-1,-1 0 1,0 0 0,1-1 0,-1 1 0,0-1-1,1 1 1,2-1 0,3 2-102,1-2 0,0 1 0,0-1 0,0 0 0,10-2 0,-2 0-240,1 0-580,0 0-1,-1-2 1,0 0 0,19-7-1,15-7-2737</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1249.71">858 219 1761,'0'0'8796,"-10"-3"-8004,6 2-743,0-1 21,1 1-1,-1 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,0 1 0,0 0 0,0 0 0,1 0 1,-1 0-1,0 1 0,0-1 0,0 1 0,1 0 1,-1 0-1,0 1 0,1-1 0,-1 1 0,1-1 1,-1 1-1,1 0 0,-6 5 0,5-4-42,0 0-1,1 0 1,-1 0 0,1 0-1,0 1 1,0-1-1,0 1 1,0 0-1,1 0 1,-1 0 0,1 1-1,0-1 1,0 0-1,1 1 1,-1-1-1,1 1 1,0 0 0,0-1-1,1 1 1,-1 0-1,1-1 1,0 1-1,1 7 1,0-10-34,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1-1 0,1 1 0,-1 0 1,1 0-1,-1 0 0,1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,4 0 0,58 14 35,-49-12 44,27 3 224,-42-6-291,0 0 1,0 0 0,0 0-1,-1 1 1,1-1-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0-1,0 1 1,0-1 0,0 0-1,-1 0 1,1 0 0,0 0-1,0 1 1,0-1-1,0 0 1,0 0 0,0 0-1,0 1 1,-1-1-1,1 0 1,0 0 0,0 1-1,0-1 1,0 0 0,0 0-1,0 1 1,0-1-1,0 0 1,0 0 0,0 1-1,0-1 1,0 0 0,0 0-1,1 0 1,-1 1-1,0-1 1,0 0 0,0 0-1,0 0 1,0 1-1,0-1 1,1 0 0,-1 0-1,0 0 1,0 1 0,0-1-1,0 0 1,1 0-1,-1 0 1,0 0 0,0 0-1,0 0 1,1 1-1,-1-1 1,1 0 0,-2 0 9,-39 14 365,-13 7-3839</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1514.32">1157 142 1217,'0'0'10084,"-18"10"-9814,12-6-240,-5 1 77,1 1-1,-1 0 1,2 1 0,-1 0 0,1 0 0,0 1 0,0 0 0,1 1-1,0 0 1,1 0 0,0 1 0,-10 18 0,14-22-74,0-1-1,1 1 1,0 0 0,1 0-1,-1 0 1,1 0 0,0 0 0,0 0-1,1 0 1,0 1 0,0-1-1,0 0 1,3 11 0,-2-14-35,1 0 0,0 0 0,-1 0 0,1 0 1,0-1-1,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 1,0-1-1,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 1,0 1-1,0-1 0,6 0 0,22 1-105,0 0 0,53-8 0,10-9-4441,-81 13-683</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink81.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:05:01.156"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">275 1 5891,'0'0'4877,"-10"9"-4523,-17 23-152,0 1 0,3 1 0,0 1-1,-30 63 1,30-64-95,24-33 79,0-18 14,1-11-104,1-1-1,2 1 0,1-1 0,1 1 0,18-51 0,-24 79-84,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 0-1,1 0 1,-1 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0-1,0 0 1,0-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,13 32-223,-5 7 112,-2 1 0,-2 0 0,-1-1 0,-2 1 0,-4 50 0,2-81-459,1-1-1,-1 1 1,-1-1-1,1 1 1,-1-1-1,-1 1 1,1-1-1,-1 0 1,-6 11-1,-10 9-4546</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="167.02">0 278 6403,'0'0'3137,"142"-48"-3185,-98 43-1184,-1-4-1794</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="492.41">424 66 1008,'0'0'11158,"-14"-2"-10478,-47-1-291,59 3-381,-1 1 0,1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 1 1,0-1-1,1 1 1,-1-1 0,0 1-1,1 0 1,-1-1 0,1 1-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 1 1,0-1 0,0 2-1,-9 52 61,9-53-68,1 1-14,-1-1 0,1 0 0,0 1 0,0-1 1,0 1-1,0-1 0,1 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,5 5 0,-1-3-19,0-1 0,0 0-1,1-1 1,-1 1 0,1-1-1,0 0 1,13 4 0,67 27 393,-86-34-354,0 0 0,1 0 1,-1 1-1,0-1 0,0 0 1,0 1-1,1-1 0,-1 0 0,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 0 0,0 1 0,0-1 1,0 0-1,0 1 0,0-1 1,0 1-1,0-1 0,0 0 0,0 1 1,0-1-1,0 0 0,-1 1 1,1-1-1,0 0 0,0 0 1,0 1-1,-1-1 0,1 0 0,0 1 1,0-1-1,-1 0 0,1 0 1,0 0-1,0 1 0,-1-1 0,1 0 1,0 0-1,-1 0 0,1 0 1,0 1-1,-1-1 0,1 0 1,0 0-1,-1 0 0,1 0 0,-1 0 1,-18 9 194,-5 0-168,-10 3-410,12-6-2814,16-5-749</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="737.01">668 57 1505,'0'0'8684,"-16"16"-8121,-52 54 50,63-65-563,1-1-1,0 0 1,0 1 0,1 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,1 1 1,0 0 0,0-1-1,0 1 1,1 0-1,-1 0 1,1 0-1,1-1 1,-1 1 0,1 0-1,0 0 1,0 0-1,1 0 1,0 0 0,2 8-1,-2-12-45,0-1-1,0 1 0,0 0 1,0 0-1,0-1 1,1 1-1,-1-1 0,0 1 1,1-1-1,-1 1 1,1-1-1,0 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0-1 0,0 0 1,0 1-1,2-1 1,58 1 291,-40-2-185,-15 1-592,1-1 0,-1-1 0,1 1 0,-1-1 1,0 0-1,1-1 0,6-3 0,2-2-3267</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink82.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:05:07.323"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">78 42 896,'0'0'3100,"0"-4"-2542,1 1-1188,-1-18 5105,0 20-4260,0 1 0,0-1-1,0 1 1,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1-1,0-1 1,-1 1 0,1-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0-1,1 0 1,-2-1 0,2 1 420,-3 1 81,3-1-716,0 0 0,0-1 1,0 1-1,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-1 0 1,1 0-1,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,-29 313 403,28-297-419,-9 154 301,5-169-1504,-5-4-5878,5-11-543</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink83.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
       <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:05:08.408"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
@@ -9305,7 +8992,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink81.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9334,7 +9021,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink82.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9363,7 +9050,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink83.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9394,7 +9081,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink84.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9429,7 +9116,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink85.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9457,12 +9144,12 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="255.93">7 191 3906,'0'0'7355,"2"-17"-5984,11-51-589,-12 67-759,0-1 0,-1 1 0,1-1 0,0 1-1,0 0 1,0-1 0,0 1 0,0 0 0,0 0 0,0-1-1,0 1 1,0 0 0,1 0 0,-1 0 0,0 1 0,1-1-1,-1 0 1,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 1-1,1-1 1,37 2 150,-30-1-92,-1 1-66,0 0 1,1 1 0,-1 0 0,0 0 0,0 1-1,0 0 1,0 1 0,-1 0 0,0 0 0,1 1-1,-1 0 1,-1 0 0,1 1 0,-1 0 0,0 1 0,0-1-1,-1 1 1,0 0 0,0 1 0,-1 0 0,0-1-1,0 2 1,-1-1 0,5 13 0,-4-11-4,0 1 1,-1 0 0,0 0-1,-1 0 1,-1 1 0,0-1-1,0 1 1,-1 0 0,0-1-1,-1 1 1,-1 0 0,0 0-1,0-1 1,-1 1 0,0-1-1,-1 1 1,-1-1 0,0 0-1,-7 14 1,-7 0 31,-1 0 0,-2-1 0,0-1 1,-45 37-1,-8 9-4478,66-61 275</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1116.03">299 475 5330,'0'0'6606,"19"-10"-6134,4-1-328,-11 6-57,1-1 0,-1 0 0,0-1 0,0-1 0,-1 0 0,0 0 1,14-14-1,-24 20-37,1 0 0,-1 0-1,0 0 1,0 0 0,1 0 0,-2 0 0,1-1 0,0 1 0,0 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1-1,0-1 1,0 1 0,-1 0 0,1-1 0,-1-1 0,1 3-33,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,0 0 1,1 1-1,-1-1 1,1 0-1,-1 0 1,0 1-1,0-1 1,1 0-1,-1 1 1,0-1-1,0 1 1,0-1 0,0 1-1,0-1 1,1 1-1,-1-1 1,0 1-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 1 1,0-1 0,1 1-1,-3 1 1,-1 1-13,0 0-1,0 0 1,0 1 0,1-1 0,-1 1 0,1 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,1 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1 6 0,-2 10-15,2 0 1,0 39 0,2-56-6,0 0 0,1 0 0,0-1-1,0 1 1,0 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0-1 0,7 2 0,-5-1-38,1-1 0,0 1 0,0-2 0,-1 1 0,1 0 0,0-1 0,0-1 0,0 1 0,0-1 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 0 1,-1-1-1,12-6 0,-10 3-24,0-1 0,0-1 0,0 1 0,-1-1 0,8-10 0,-12 13 235,1 1 0,-1 0 0,0-1 0,-1 0 0,1 0 0,-1 1 0,0-1 0,0-1 0,-1 1 0,2-8 0,-7 170 254,16-157-729,-6-1 288,-1 0 0,1-1 0,0 0-1,-1 0 1,1 0 0,-1-1 0,0 0-1,0 0 1,0 0 0,0-1 0,8-7-1,51-55-417,-43 43 224,-14 14 168,-6 7 52,0 0-1,0 1 0,1-1 0,-1 0 0,1 1 1,0-1-1,-1 1 0,1-1 0,0 1 0,0 0 0,0 0 1,0 0-1,0 0 0,3-1 0,-3 4 6,1 0-1,-1 0 1,-1 0 0,1 1 0,0-1-1,-1 1 1,1-1 0,-1 1-1,0 0 1,1 0 0,-1-1-1,-1 1 1,2 5 0,1 0 96,-2-5-84,0 0 1,1 0-1,-1 1 1,1-1-1,0 0 0,0-1 1,0 1-1,0 0 1,0-1-1,1 1 1,-1-1-1,1 1 0,0-1 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0-1 1,0 0-1,1 0 0,-1 0 1,0 0-1,1-1 1,-1 1-1,1-1 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 1,1-1-1,-1 0 1,0 0-1,1 0 1,-1 0-1,0 0 0,0-1 1,1 1-1,-1-1 1,0 0-1,-1 0 1,1 0-1,0 0 0,-1 0 1,1-1-1,-1 1 1,1-1-1,-1 0 1,0 0-1,0 0 1,-1 0-1,3-4 0,0-3 37,0 1-1,0-1 1,-1 1-1,0-1 1,-1 0-1,0-1 1,-1 1-1,0 0 0,-1 0 1,0-1-1,0 1 1,-1 0-1,0 0 1,-4-13-1,2 34 137,3 9-233,5-6 40,1 0 0,1 0 1,10 15-1,20 42 2,-35-66 4,-1-1 0,1 1 0,-1 0 1,0 0-1,0 0 0,0 0 0,-1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-2 7 0,1-10 4,0 0 0,0 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0 0,-1 0-1,0-1 1,1 1 0,-1-1 0,0 1-1,0-1 1,1 0 0,-1 1 0,-3 0 0,-40 16 119,22-9-102,18-7-126,-31 11-105,10-9-3205,21-5-871,4-4-1105</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1408.72">1123 513 2609,'0'0'3781,"24"-12"-1914,9-4-1361,137-75 2184,-167 90-2628,0-1 45,0 1 0,0-1 0,0 0 0,0 1 0,0-2 0,-1 1 0,1 0 0,0 0-1,-1-1 1,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,1-4 0,-2 8-80,0-1-1,-1 1 1,1-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 0-1,-1 1 1,1-1 0,0 1 0,-1 0 0,1-1 0,-1 1-1,1-1 1,0 1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1-1-1,-1 1 1,1 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,1 0-1,-1 0 1,1 0 0,-2 0 0,-26 0 104,20 0-70,-3 1-42,0 0 0,0 1 0,0 0 1,1 1-1,-1 0 0,1 1 0,0 0 0,0 1 1,0 0-1,0 0 0,1 1 0,0 0 0,0 1 1,1 0-1,-1 0 0,2 1 0,-1 0 0,1 1 1,-9 13-1,5-8-20,2 1 1,0 0 0,1 0-1,1 1 1,0 0-1,1 0 1,1 1-1,0 0 1,1 0 0,1 0-1,-2 32 1,5-46-49,0 1 1,0-1 0,1 0-1,-1 1 1,1-1 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0-1,1 0 1,-1 0 0,1 0-1,0-1 1,0 1 0,0 0-1,0-1 1,0 1 0,1-1-1,-1 0 1,1 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,0-1-1,0 0 1,0 1 0,5 0-1,7 2-927,0-1 1,0-1-1,0 0 0,0-1 0,18-1 0,21 0-4824</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1924.68">1658 299 10069,'0'0'2347,"-7"22"-1474,-73 310 455,77-321-1313,-4 10 128,6-20 12,0-5 53,-2-23-190,0 0 0,2 0 0,1 0 0,1 0 0,1 0 0,1 1 1,2-1-1,1 1 0,9-29 0,-5 26-79,1 0 1,1 1-1,18-30 1,-27 52 65,0 1 0,1-1 0,-1 1-1,1 0 1,1 0 0,-1 0 0,0 0 0,1 1 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,1 1 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,1 1 0,10-2 0,-16 4-9,-1-1-1,0 0 1,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 1-1,0-1 1,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1-1,0 1 1,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,0 0 0,-10 24 105,-2-9-152,-2-1 0,0 0 1,-1-1-1,0-1 0,-27 16 0,-25 22-1522,67-50 1563,0 0-1,0 1 1,0-1 0,1 0-1,-1 1 1,0-1 0,0 1-1,1-1 1,-1 1 0,1-1-1,-1 1 1,1-1-1,0 1 1,0-1 0,-1 1-1,1 0 1,0-1 0,1 1-1,-1-1 1,0 1 0,0 0-1,1-1 1,-1 1 0,0-1-1,1 1 1,0-1 0,-1 1-1,1-1 1,0 0-1,1 2 1,30 39-18,-12-21 35,2-1 0,38 28 0,1-15-1721,-53-29 837,1-1 1,0-1-1,0 1 0,0-1 1,10 1-1,11-3-2434</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1924.67">1658 299 10069,'0'0'2347,"-7"22"-1474,-73 310 455,77-321-1313,-4 10 128,6-20 12,0-5 53,-2-23-190,0 0 0,2 0 0,1 0 0,1 0 0,1 0 0,1 1 1,2-1-1,1 1 0,9-29 0,-5 26-79,1 0 1,1 1-1,18-30 1,-27 52 65,0 1 0,1-1 0,-1 1-1,1 0 1,1 0 0,-1 0 0,0 0 0,1 1 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,1 1 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,1 1 0,10-2 0,-16 4-9,-1-1-1,0 0 1,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 1-1,0-1 1,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1-1,0 1 1,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,0 0 0,-10 24 105,-2-9-152,-2-1 0,0 0 1,-1-1-1,0-1 0,-27 16 0,-25 22-1522,67-50 1563,0 0-1,0 1 1,0-1 0,1 0-1,-1 1 1,0-1 0,0 1-1,1-1 1,-1 1 0,1-1-1,-1 1 1,1-1-1,0 1 1,0-1 0,-1 1-1,1 0 1,0-1 0,1 1-1,-1-1 1,0 1 0,0 0-1,1-1 1,-1 1 0,0-1-1,1 1 1,0-1 0,-1 1-1,1-1 1,0 0-1,1 2 1,30 39-18,-12-21 35,2-1 0,38 28 0,1-15-1721,-53-29 837,1-1 1,0-1-1,0 1 0,0-1 1,10 1-1,11-3-2434</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2985.65">1971 507 2289,'0'0'2108,"3"-18"-113,-1 1-1453,2-8 383,0-1 0,-2 0-1,-1 0 1,-3-31-1,2 55-838,0 1 0,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,0 0 1,0 1 0,1-1-1,-1 0 1,0 0 0,0 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0 1 0,0 0-1,0-1 1,0 1 0,0 0 0,0-1-1,0 1 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 1-1,0-1 1,0 0 0,-2 1-1,-1 1-45,0-1-1,0 1 0,0 0 0,0 0 0,0 0 0,0 0 1,1 1-1,-1-1 0,-4 6 0,1 0-38,-1 0-1,2 1 1,-1 0-1,1 0 1,1 0-1,0 1 0,0 0 1,1 0-1,0 0 1,0 1-1,1-1 1,1 1-1,0 0 1,0 0-1,1 0 1,1 11-1,0-21-14,0 1 0,1 0 0,-1-1 1,1 1-1,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,1 0 1,-1 0-1,0 1 0,0-1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1-1 1,0 1-1,-1-1 0,1 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,2-1 0,4 1-27,-1-1 0,1 1 0,0-1 0,0-1 0,-1 0 0,1 0 0,7-3 0,-4-1 44,0-1 1,0-1-1,-1 0 0,0 0 1,0-1-1,15-17 0,-18 16 1,2 1-1,0 1 1,0 0-1,0 0 1,1 0-1,0 1 0,13-6 1,-22 12-2,-1 1 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,0 0 1,1 0-1,-1 1 0,0-1 1,1 0-1,-1 0 0,0 0 1,1 1-1,-1-1 1,0 0-1,1 0 0,-1 1 1,0-1-1,0 0 0,1 0 1,-1 1-1,0-1 1,0 0-1,0 1 0,1-1 1,-1 1-1,0-1 0,0 0 1,0 1-1,0-1 1,0 1-1,3 17 180,-3-16-146,-1 33 293,1-30-301,-1 0 0,1 0 0,-1-1-1,1 1 1,0 0 0,1 0 0,-1 0-1,1-1 1,0 1 0,1 0-1,-1-1 1,1 1 0,3 8 0,-4-13-30,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 1,-1 1-1,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,1-2 0,22-20 24,-22 20-16,94-114-267,-96 115 253,35 48 77,-32-46-56,0 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 0 0,1 1 0,-1-1 0,6-3 0,-1 1 13,-1 0 0,1-1 0,-1 0 0,0 0 0,0 0 0,7-8 0,-3 1-27,-1 1 0,-1-2-1,0 1 1,-1-2 0,0 1-1,0-1 1,-2 0 0,0 0-1,0-1 1,6-25-1,-4 10 109,-2 0-1,-1-1 1,-2 0-1,0-38 1,-4 75-60,0 0 0,-1 0 0,0 0 0,0 0 0,-1 0-1,0 0 1,0-1 0,-5 9 0,-6 13-15,-53 161 64,37-102 24,38-100-88,2 0 0,-1 1 0,2 0 0,0 1 0,0 0 0,21-16 0,107-80-67,-75 73 3,-161 104-331,37-44 341,47-21-6,1-1 0,0 2 0,0 0 0,0 0 1,-15 11-1,27-16 12,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 1,0 0-1,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 1,0 0-1,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 1,0 0-1,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 1,1 0-1,38 16-300,76 18 1,-35-12 337,192 66 821,-265-87-125,1-1-7268</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink86.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9492,45 +9179,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T16:54:29.136"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">144 1449 5651,'0'0'8862,"-4"-5"-7843,-10-15-194,13 19-757,1 1 1,-1 0-1,1-1 0,-1 1 1,1 0-1,-1 0 1,1 0-1,-1-1 0,0 1 1,1 0-1,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 0,1 1 1,-1-1-1,1 0 1,-1 0-1,1 1 0,-1-1 1,1 0-1,-1 1 1,1-1-1,-1 1 0,1-1 1,0 0-1,-1 1 1,1-1-1,0 1 1,-1-1-1,1 1 0,-1 0 1,-16 22-155,16-21 225,-11 19-45,0 1 0,1 1 0,1 0 0,2 0 0,0 0 0,1 1 0,2 1 0,0-1 0,2 1 0,0-1 0,2 1 0,2 36 0,0-55-100,-1-1-1,1 0 0,0 0 1,0 0-1,0 1 0,1-1 0,0-1 1,0 1-1,0 0 0,1 0 1,0-1-1,-1 1 0,2-1 0,-1 0 1,0 0-1,1 0 0,0 0 1,4 3-1,-2-3-15,0 0 0,0-1 1,1 1-1,0-1 0,-1 0 0,1-1 1,0 0-1,0 0 0,0 0 0,1-1 1,-1 0-1,8 0 0,-6-1 3,-1 0 1,1 0-1,-1-1 0,1 0 1,-1 0-1,0-1 0,1 0 1,-1 0-1,0-1 0,0 0 0,0-1 1,-1 1-1,1-2 0,-1 1 1,0-1-1,0 0 0,-1 0 1,1-1-1,-1 0 0,0 0 0,-1-1 1,9-11-1,-13 17 19,-1 0 0,1-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,0 0 0,1-1 0,-4 1 0,-11-3 30,0 1 1,0 0-1,-1 1 1,-16 1 0,21 0-33,6 1 6,0 0-1,1-1 1,-1 2-1,0-1 1,0 1-1,1 0 1,-1 0-1,1 0 1,-1 1-1,1 0 1,0 0-1,0 0 1,0 1 0,1-1-1,-1 1 1,1 0-1,-6 7 1,6-5-27,-1-1 0,1 1 0,0 0 0,0 1 0,1-1 0,0 1 0,0 0 0,0-1 0,1 1 1,0 0-1,0 1 0,1-1 0,0 0 0,0 8 0,1-14-173,0 0 1,1 0-1,-1 0 0,0 0 0,1-1 1,-1 1-1,1 0 0,-1 0 0,1 0 1,0 0-1,-1-1 0,1 1 1,0 0-1,0-1 0,-1 1 0,1 0 1,0-1-1,0 1 0,0-1 1,0 0-1,0 1 0,0-1 0,0 0 1,0 1-1,-1-1 0,1 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,1 1 1,3 0-1124,18 0-5556</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1306.35">1762 1274 6499,'0'0'9965,"-6"0"-8914,5 0-993,0 0 1,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 0-1,0-1 1,0 1 0,0-1-1,0 1 1,0 0 0,0-1 0,-1 0-1,1 1 1,0-1 0,0 0-1,1 1 1,-1-1 0,0 0 0,0 0-1,0 0 1,0 0 0,1 0 0,-2-1-1,1-3 28,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,2-7 0,-1 4-69,1 0 1,0 0 0,0 1-1,1-1 1,0 0 0,0 1-1,1 0 1,0-1 0,0 1-1,1 0 1,0 0 0,5-7-1,0 2 2,1 1 0,0-1-1,1 2 1,0-1 0,18-12-1,-28 22-30,0 1 0,0-1 0,0 0 0,0 0 0,1 0 1,-1 1-1,0-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,1 0 0,-2 1 11,0-1 0,0 1-1,0 0 1,0 0 0,0-1-1,-1 1 1,1 0 0,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,0 0 1,1 2 0,1 8 46,-1 0 0,0 0 0,-1 0 0,-1 13 1,0-9 3,-9 57 98,7-62-165,1 1 0,0 0 0,1 0 0,0 0-1,1 0 1,0 0 0,2 17 0,-1-27-8,-1 1 0,1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,1 0 0,38 8-263,-32-7 213,10 1 43,-4-1-4,-1 0 1,0 1-1,0 1 1,0 0-1,-1 1 0,1 1 1,23 13-1,-35-18 46,-1 0 0,1 0-1,-1 0 1,0 0-1,0 0 1,1 1 0,-1-1-1,0 0 1,0 1-1,0-1 1,0 1 0,-1-1-1,1 1 1,0 0 0,-1-1-1,1 1 1,-1 0-1,1-1 1,-1 1 0,0 0-1,0-1 1,0 1-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0-1,-1 0 1,1-1 0,-1 1-1,1 0 1,-1-1 0,0 1-1,0-1 1,1 1-1,-1-1 1,0 1 0,0-1-1,-1 0 1,-1 2-1,-2 4 98,-1-1 0,0 0 0,-1-1 0,1 1 0,-1-1-1,-14 7 1,11-6-168,-1 0-1,0 0 0,0-1 1,0-1-1,-1 1 1,0-2-1,0 0 1,0 0-1,0-1 0,-20 0 1,31-2-40,1 0 0,-1 0-1,1-1 1,-1 1 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0-1,1-1 1,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1-1,0 1 1,-1-1 0,1 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 0-1,0 1 1,-1-1 0,1 0 0,0 1 0,0-1 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0-1-1,1-4-1065,-1-27-5213</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1926.31">2042 859 6723,'0'0'10480,"5"8"-10195,49 62 569,-37-51-742,-1 1 1,0 1-1,-2 1 1,-1 0-1,16 35 1,-23-14 132,-33-43 70,24 1-318,1-1-1,-1-1 1,1 1 0,0 0-1,-1-1 1,1 1 0,-1-1-1,1 0 1,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,0-1 0,0 1-1,0-1 1,0 1 0,0-1-1,1 0 1,-1 0 0,0 0-1,1 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 0-1,0-1 1,0 1-1,1 0 1,-1-1 0,1 1-1,-1-1 1,1 1 0,0 0-1,0-1 1,0 1 0,0-5-1,1-5-142,0-1 0,1 1-1,0 0 1,1 0 0,0 1-1,7-19 1,-4 15 268,-2-1 0,0 1 0,0-1 0,-2 0 0,0 0 0,0-28-1,20 73 173,-11-10-207,4 5 24,-2 0-1,14 35 1,-24-59-122,0 0 0,0 0 1,0 0-1,0 0 0,-1-1 0,1 1 1,0-1-1,0 0 0,0 0 0,4-2 1,7 0-40,28-9-2029,-18-3-4105,-15 6 21</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2527.57">3348 905 8292,'0'0'7555,"76"-94"-7251,-41 73-128,10 3-160,-5 0-16,-4 6-64,-5 4-1008,-9 8-1729,-9 0-609</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2698.04">3531 1022 6051,'0'0'8868,"62"-84"-8692,-31 48-176,5-2-64,4 7-752,-13 6-1570,-14 10-1759</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3379.33">3838 276 8052,'0'0'9759,"-4"3"-9394,3-2-341,-1 0-1,1 1 1,-1 0-1,1-1 1,0 1-1,-1 0 1,1-1-1,0 1 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 1 1,0-1-1,-1 0 1,1 0 0,0 0-1,0 0 1,1 0-1,-1 3 1,2 1 16,0 0 0,-1 1 0,2-1 1,-1 0-1,1-1 0,0 1 0,0 0 1,5 6-1,-3-5-25,1 0 0,-1 0 0,1-1 0,0 1 0,0-1 0,1-1 0,-1 1 0,1-1 0,1-1 0,-1 1 0,1-1 0,0 0 0,12 4 0,-16-7-25,0-1 0,-1 1 0,1-1 0,0 0 1,0 0-1,-1 0 0,1-1 0,0 1 0,-1-1 0,1 0 0,0 0 1,-1 0-1,1 0 0,-1-1 0,0 1 0,1-1 0,-1 0 0,0 0 1,0 0-1,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,-1 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1-1 1,-1 1-1,0-1 0,0 1 0,0-5 0,4-16 5,-1 0 0,-1 0 1,-2-1-1,-1-35 0,-1 33 244,1 27-17,0 2-115,2 12-3,0-1 1,1 0-1,1 0 1,0 0-1,0-1 1,10 18-1,7 24 314,109 300 55,-129-351-632,1 1 0,0 0 1,0-1-1,0 0 1,1 1-1,-1-1 1,1 0-1,3 3 0,-5-6 6,-1 1-1,1-1 0,-1 0 1,1 1-1,-1-1 0,1 0 0,-1 1 1,1-1-1,-1 0 0,1 0 1,0 0-1,-1 0 0,1 1 1,0-1-1,-1 0 0,1 0 1,-1 0-1,1 0 0,0 0 1,-1-1-1,1 1 0,0 0 0,-1 0 1,1 0-1,-1 0 0,1-1 1,0 1-1,-1 0 0,1-1 1,-1 1-1,1 0 0,-1-1 1,1 1-1,-1 0 0,1-1 1,-1 1-1,0-1 0,1 1 0,-1-1 1,0 1-1,1-1 0,-1 0 1,0 1-1,1-1 0,-1 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 1 0,0-1 1,0 0-1,0 1 0,0-1 0,0 0 1,5-30-4319,-5-8-1256</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3978.02">4145 16 8180,'0'0'8289,"15"13"-7070,156 144 497,-166-153-1676,-1 0 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0 1,-1 1-1,-1 0 0,5 9 0,-7-13-28,1 0 1,-1-1-1,1 1 1,-1 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,0 0 1,1 0-1,-1-1 0,0 1 1,0 0-1,0 0 1,0-1-1,0 1 0,-1-1 1,1 1-1,0-1 1,-1 1-1,1-1 1,-1 0-1,1 0 0,-1 0 1,0 0-1,-3 2 1,-3 0 5,0 0 1,0 0 0,-1 0 0,1-1-1,-1 0 1,-14 0 0,21-1-17,1-1 0,-1 1-1,0-1 1,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0-1 0,1 1 0,-1-1-1,0 1 1,0-1 0,0 1 0,1-1 0,-1 0 0,0 0-1,1 0 1,-1 0 0,1 0 0,-1-1 0,1 1-1,-1 0 1,1-1 0,0 1 0,0-1 0,-1 1-1,1-1 1,1 0 0,-1 1 0,0-1 0,0 0 0,-1-3-1,2-4-124,0 0-1,0 0 1,1 0-1,0 0 0,0 1 1,1-1-1,0 0 1,1 0-1,0 1 1,0-1-1,1 1 0,0 0 1,6-8-1,8-20-176,-14 23 402,0 0 0,-1 0 0,0 0 0,-1 0 0,0-1 0,-1 1 0,-1-19 0,14 38 453,-5 6-421,0 0-1,-1 1 1,8 19-1,-7-14-8,1 0 0,15 21-1,-22-35-117,0-1 0,0 1 0,1 0 0,-1-1 0,1 1 1,0-1-1,0 0 0,0 0 0,0-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,6 1 0,-8-3-3,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1-1,0-1 1,0 1-1,0-1 1,0 1 0,0-1-1,-1 0 1,1 0-1,0 0 1,0 0-1,-1-1 1,1 1-1,-1 0 1,1-1-1,-1 1 1,0-1-1,1 1 1,1-4-1,30-52 150,-17 26-108,-12 25-289,1 0-1,-1 0 1,1 1 0,0 0 0,0 0 0,1 0 0,10-7 0,-13 10 63,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 1 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,0 1 1,0-1-1,1 1 0,-1-1 0,4 3 0,2 5-4645,-7 2-3074</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6344.99">3669 1299 4706,'0'0'10392,"-1"-3"-8816,-6-9-191,8 26-198,11 29-362,16 25-130,-12-27-434,29 55-1,-41-136-196,-6-46-432,0 36-53,7-88-1,-5 137 424,0-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,1 1 0,4 1 66,-1-1 0,0 1 1,1 0-1,-1 0 0,0 0 0,7 6 0,4 3 96,-1 1 0,0 1 0,-1 0 0,0 1 0,15 19 0,-23-24-420,0 0-1,-1 0 1,0 0 0,5 15 0,-7-15-699,0 0 0,-1-1 0,-1 1 0,1 0 1,-1 17-1,-1 4-4768</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6599.55">3664 1895 7876,'0'0'10292,"129"-145"-10100,-57 86-80,3-2 1,-3 13-113,-10 7 80,-13 8 16,-18 18-96,-17 10-257,-10 5-1599,-4 2 255,0 21-1489,-4 5-3248</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6982.61">3878 1946 9652,'0'0'4776,"3"-16"-3103,-1 2-1312,-1 8-235,-1-1 0,1 0 0,1 1 0,-1-1 0,1 1 0,0-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,1 0 0,0 1 0,-1-1 0,8-7 0,1 3 65,0 0-1,0 1 1,1 1-1,0 0 1,16-8-1,-24 14-165,1-1 0,-1 1 0,1-1 0,0 2 0,-1-1 0,1 1-1,0-1 1,0 2 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0 0 0,6 2-1,-10-1-19,0-1 0,0 1-1,0 0 1,0 0-1,0 0 1,-1 0 0,1 1-1,-1-1 1,1 0 0,-1 1-1,0-1 1,0 1-1,0-1 1,0 1 0,-1 0-1,1-1 1,-1 1-1,1 0 1,-1-1 0,0 1-1,0 0 1,0-1-1,-1 5 1,1-1 2,0 11 18,0-1-1,-2 0 1,0 1 0,0-1-1,-2 0 1,-8 24 0,-44 88 303,20-51 422,35-77-746,1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 1,0 1-1,0-1 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 1 0,0-1 1,0 0-1,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 1 1,0-1-1,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 1,19-8 94,2-7-229,-1-1 1,0-1-1,-1 0 0,22-27 0,9-8-256,-10 15-42,-18 17-714,-1 0 1,32-39-1,-48 47-355</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7705.95">4030 1230 880,'0'0'9698,"-16"-12"-8391,4 2-984,-16-12 935,0 1 1,-50-27-1,62 41-1126,0 0 0,0 1 0,0 1 0,-1 1 0,0 1 0,0 0 0,0 1 0,0 0 0,0 2 0,0 0-1,0 1 1,0 1 0,-20 4 0,17-2-91,1 1 0,-1 1 0,1 1 0,1 1 0,0 1 0,0 0 0,0 1 0,1 1 0,1 0-1,-30 28 1,32-25-37,1 2 0,0 0 0,1 0-1,0 1 1,2 0 0,0 1-1,1 1 1,0-1 0,2 1 0,0 1-1,2-1 1,-5 23 0,3 6-7,2 0 0,2 1 0,7 94 1,0-108 27,1-1 1,2 0-1,2 0 1,1 0-1,1-1 1,2-1-1,1 0 1,2-1 0,1-1-1,1 0 1,2-1-1,0-1 1,48 49-1,-56-65 0,1-1 0,0 0 0,0 0 0,1-1 0,0-1 0,1 0 0,0-1 0,0-1 0,1 0 0,0-2 1,32 9-1,-25-10 20,0-2 1,0 0-1,0-1 1,1-1-1,-1-2 1,0 0 0,44-11-1,-16-1 11,-1-3 0,-2-3 0,1-1 0,-2-2 0,-1-3 0,-1-1 0,42-35 0,-55 38-38,-1-1 1,-2-1-1,-1-2 1,-1-1-1,28-39 1,-43 51-12,0-1 0,-2 0-1,0-1 1,-1 0 0,-1 0-1,-1-1 1,0 0 0,-2-1 0,0 1-1,-2-1 1,2-30 0,-4 28 11,-1 0 1,-1 0-1,-4-26 1,3 40-12,0-1 1,-1 1-1,0 0 1,-1 0 0,0 0-1,0 0 1,-1 1-1,0-1 1,0 1 0,-8-9-1,-11-6 4,-1 0 0,-1 2-1,0 1 1,-2 1 0,0 1-1,-1 1 1,0 2 0,-2 1-1,-57-18 1,45 21-11,-1 1-1,-1 3 1,1 2 0,-1 2-1,0 1 1,0 3 0,-81 11-1,98-8 82,0 1 0,0 1 0,-26 11 0,43-13-419,1 1 0,0 0-1,1 0 1,-13 10-1,16-11-533,0 1-1,1 0 0,0 0 0,0 0 0,0 1 0,1-1 1,-6 11-1,-4 12-8121</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink90.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink87.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9558,7 +9207,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink88.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9587,7 +9236,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink89.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9617,7 +9266,45 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T16:54:29.136"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#F6630D"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">144 1449 5651,'0'0'8862,"-4"-5"-7843,-10-15-194,13 19-757,1 1 1,-1 0-1,1-1 0,-1 1 1,1 0-1,-1 0 1,1 0-1,-1-1 0,0 1 1,1 0-1,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 0,1 1 1,-1-1-1,1 0 1,-1 0-1,1 1 0,-1-1 1,1 0-1,-1 1 1,1-1-1,-1 1 0,1-1 1,0 0-1,-1 1 1,1-1-1,0 1 1,-1-1-1,1 1 0,-1 0 1,-16 22-155,16-21 225,-11 19-45,0 1 0,1 1 0,1 0 0,2 0 0,0 0 0,1 1 0,2 1 0,0-1 0,2 1 0,0-1 0,2 1 0,2 36 0,0-55-100,-1-1-1,1 0 0,0 0 1,0 0-1,0 1 0,1-1 0,0-1 1,0 1-1,0 0 0,1 0 1,0-1-1,-1 1 0,2-1 0,-1 0 1,0 0-1,1 0 0,0 0 1,4 3-1,-2-3-15,0 0 0,0-1 1,1 1-1,0-1 0,-1 0 0,1-1 1,0 0-1,0 0 0,0 0 0,1-1 1,-1 0-1,8 0 0,-6-1 3,-1 0 1,1 0-1,-1-1 0,1 0 1,-1 0-1,0-1 0,1 0 1,-1 0-1,0-1 0,0 0 0,0-1 1,-1 1-1,1-2 0,-1 1 1,0-1-1,0 0 0,-1 0 1,1-1-1,-1 0 0,0 0 0,-1-1 1,9-11-1,-13 17 19,-1 0 0,1-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,0 0 0,1-1 0,-4 1 0,-11-3 30,0 1 1,0 0-1,-1 1 1,-16 1 0,21 0-33,6 1 6,0 0-1,1-1 1,-1 2-1,0-1 1,0 1-1,1 0 1,-1 0-1,1 0 1,-1 1-1,1 0 1,0 0-1,0 0 1,0 1 0,1-1-1,-1 1 1,1 0-1,-6 7 1,6-5-27,-1-1 0,1 1 0,0 0 0,0 1 0,1-1 0,0 1 0,0 0 0,0-1 0,1 1 1,0 0-1,0 1 0,1-1 0,0 0 0,0 8 0,1-14-173,0 0 1,1 0-1,-1 0 0,0 0 0,1-1 1,-1 1-1,1 0 0,-1 0 0,1 0 1,0 0-1,-1-1 0,1 1 1,0 0-1,0-1 0,-1 1 0,1 0 1,0-1-1,0 1 0,0-1 1,0 0-1,0 1 0,0-1 0,0 0 1,0 1-1,-1-1 0,1 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,1 1 1,3 0-1124,18 0-5556</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1306.34">1762 1274 6499,'0'0'9965,"-6"0"-8914,5 0-993,0 0 1,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 0-1,0-1 1,0 1 0,0-1-1,0 1 1,0 0 0,0-1 0,-1 0-1,1 1 1,0-1 0,0 0-1,1 1 1,-1-1 0,0 0 0,0 0-1,0 0 1,0 0 0,1 0 0,-2-1-1,1-3 28,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,2-7 0,-1 4-69,1 0 1,0 0 0,0 1-1,1-1 1,0 0 0,0 1-1,1 0 1,0-1 0,0 1-1,1 0 1,0 0 0,5-7-1,0 2 2,1 1 0,0-1-1,1 2 1,0-1 0,18-12-1,-28 22-30,0 1 0,0-1 0,0 0 0,0 0 0,1 0 1,-1 1-1,0-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,1 0 0,-2 1 11,0-1 0,0 1-1,0 0 1,0 0 0,0-1-1,-1 1 1,1 0 0,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,0 0 1,1 2 0,1 8 46,-1 0 0,0 0 0,-1 0 0,-1 13 1,0-9 3,-9 57 98,7-62-165,1 1 0,0 0 0,1 0 0,0 0-1,1 0 1,0 0 0,2 17 0,-1-27-8,-1 1 0,1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,1 0 0,38 8-263,-32-7 213,10 1 43,-4-1-4,-1 0 1,0 1-1,0 1 1,0 0-1,-1 1 0,1 1 1,23 13-1,-35-18 46,-1 0 0,1 0-1,-1 0 1,0 0-1,0 0 1,1 1 0,-1-1-1,0 0 1,0 1-1,0-1 1,0 1 0,-1-1-1,1 1 1,0 0 0,-1-1-1,1 1 1,-1 0-1,1-1 1,-1 1 0,0 0-1,0-1 1,0 1-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0-1,-1 0 1,1-1 0,-1 1-1,1 0 1,-1-1 0,0 1-1,0-1 1,1 1-1,-1-1 1,0 1 0,0-1-1,-1 0 1,-1 2-1,-2 4 98,-1-1 0,0 0 0,-1-1 0,1 1 0,-1-1-1,-14 7 1,11-6-168,-1 0-1,0 0 0,0-1 1,0-1-1,-1 1 1,0-2-1,0 0 1,0 0-1,0-1 0,-20 0 1,31-2-40,1 0 0,-1 0-1,1-1 1,-1 1 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0-1,1-1 1,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1-1,0 1 1,-1-1 0,1 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 0-1,0 1 1,-1-1 0,1 0 0,0 1 0,0-1 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0-1-1,1-4-1065,-1-27-5213</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1926.31">2042 859 6723,'0'0'10480,"5"8"-10195,49 62 569,-37-51-742,-1 1 1,0 1-1,-2 1 1,-1 0-1,16 35 1,-23-14 132,-33-43 70,24 1-318,1-1-1,-1-1 1,1 1 0,0 0-1,-1-1 1,1 1 0,-1-1-1,1 0 1,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,0-1 0,0 1-1,0-1 1,0 1 0,0-1-1,1 0 1,-1 0 0,0 0-1,1 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 0-1,0-1 1,0 1-1,1 0 1,-1-1 0,1 1-1,-1-1 1,1 1 0,0 0-1,0-1 1,0 1 0,0-5-1,1-5-142,0-1 0,1 1-1,0 0 1,1 0 0,0 1-1,7-19 1,-4 15 268,-2-1 0,0 1 0,0-1 0,-2 0 0,0 0 0,0-28-1,20 73 173,-11-10-207,4 5 24,-2 0-1,14 35 1,-24-59-122,0 0 0,0 0 1,0 0-1,0 0 0,-1-1 0,1 1 1,0-1-1,0 0 0,0 0 0,4-2 1,7 0-40,28-9-2029,-18-3-4105,-15 6 21</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2527.57">3348 905 8292,'0'0'7555,"76"-94"-7251,-41 73-128,10 3-160,-5 0-16,-4 6-64,-5 4-1008,-9 8-1729,-9 0-609</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2698.04">3531 1022 6051,'0'0'8868,"62"-84"-8692,-31 48-176,5-2-64,4 7-752,-13 6-1570,-14 10-1759</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3379.33">3838 276 8052,'0'0'9759,"-4"3"-9394,3-2-341,-1 0-1,1 1 1,-1 0-1,1-1 1,0 1-1,-1 0 1,1-1-1,0 1 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 1 1,0-1-1,-1 0 1,1 0 0,0 0-1,0 0 1,1 0-1,-1 3 1,2 1 16,0 0 0,-1 1 0,2-1 1,-1 0-1,1-1 0,0 1 0,0 0 1,5 6-1,-3-5-25,1 0 0,-1 0 0,1-1 0,0 1 0,0-1 0,1-1 0,-1 1 0,1-1 0,1-1 0,-1 1 0,1-1 0,0 0 0,12 4 0,-16-7-25,0-1 0,-1 1 0,1-1 0,0 0 1,0 0-1,-1 0 0,1-1 0,0 1 0,-1-1 0,1 0 0,0 0 1,-1 0-1,1 0 0,-1-1 0,0 1 0,1-1 0,-1 0 0,0 0 1,0 0-1,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,-1 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1-1 1,-1 1-1,0-1 0,0 1 0,0-5 0,4-16 5,-1 0 0,-1 0 1,-2-1-1,-1-35 0,-1 33 244,1 27-17,0 2-115,2 12-3,0-1 1,1 0-1,1 0 1,0 0-1,0-1 1,10 18-1,7 24 314,109 300 55,-129-351-632,1 1 0,0 0 1,0-1-1,0 0 1,1 1-1,-1-1 1,1 0-1,3 3 0,-5-6 6,-1 1-1,1-1 0,-1 0 1,1 1-1,-1-1 0,1 0 0,-1 1 1,1-1-1,-1 0 0,1 0 1,0 0-1,-1 0 0,1 1 1,0-1-1,-1 0 0,1 0 1,-1 0-1,1 0 0,0 0 1,-1-1-1,1 1 0,0 0 0,-1 0 1,1 0-1,-1 0 0,1-1 1,0 1-1,-1 0 0,1-1 1,-1 1-1,1 0 0,-1-1 1,1 1-1,-1 0 0,1-1 1,-1 1-1,0-1 0,1 1 0,-1-1 1,0 1-1,1-1 0,-1 0 1,0 1-1,1-1 0,-1 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 1 0,0-1 1,0 0-1,0 1 0,0-1 0,0 0 1,5-30-4319,-5-8-1256</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3978.02">4145 16 8180,'0'0'8289,"15"13"-7070,156 144 497,-166-153-1676,-1 0 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0 1,-1 1-1,-1 0 0,5 9 0,-7-13-28,1 0 1,-1-1-1,1 1 1,-1 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,0 0 1,1 0-1,-1-1 0,0 1 1,0 0-1,0 0 1,0-1-1,0 1 0,-1-1 1,1 1-1,0-1 1,-1 1-1,1-1 1,-1 0-1,1 0 0,-1 0 1,0 0-1,-3 2 1,-3 0 5,0 0 1,0 0 0,-1 0 0,1-1-1,-1 0 1,-14 0 0,21-1-17,1-1 0,-1 1-1,0-1 1,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0-1 0,1 1 0,-1-1-1,0 1 1,0-1 0,0 1 0,1-1 0,-1 0 0,0 0-1,1 0 1,-1 0 0,1 0 0,-1-1 0,1 1-1,-1 0 1,1-1 0,0 1 0,0-1 0,-1 1-1,1-1 1,1 0 0,-1 1 0,0-1 0,0 0 0,-1-3-1,2-4-124,0 0-1,0 0 1,1 0-1,0 0 0,0 1 1,1-1-1,0 0 1,1 0-1,0 1 1,0-1-1,1 1 0,0 0 1,6-8-1,8-20-176,-14 23 402,0 0 0,-1 0 0,0 0 0,-1 0 0,0-1 0,-1 1 0,-1-19 0,14 38 453,-5 6-421,0 0-1,-1 1 1,8 19-1,-7-14-8,1 0 0,15 21-1,-22-35-117,0-1 0,0 1 0,1 0 0,-1-1 0,1 1 1,0-1-1,0 0 0,0 0 0,0-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,6 1 0,-8-3-3,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1-1,0-1 1,0 1-1,0-1 1,0 1 0,0-1-1,-1 0 1,1 0-1,0 0 1,0 0-1,-1-1 1,1 1-1,-1 0 1,1-1-1,-1 1 1,0-1-1,1 1 1,1-4-1,30-52 150,-17 26-108,-12 25-289,1 0-1,-1 0 1,1 1 0,0 0 0,0 0 0,1 0 0,10-7 0,-13 10 63,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 1 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,0 1 1,0-1-1,1 1 0,-1-1 0,4 3 0,2 5-4645,-7 2-3074</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6344.99">3669 1299 4706,'0'0'10392,"-1"-3"-8816,-6-9-191,8 26-198,11 29-362,16 25-130,-12-27-434,29 55-1,-41-136-196,-6-46-432,0 36-53,7-88-1,-5 137 424,0-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,1 1 0,4 1 66,-1-1 0,0 1 1,1 0-1,-1 0 0,0 0 0,7 6 0,4 3 96,-1 1 0,0 1 0,-1 0 0,0 1 0,15 19 0,-23-24-420,0 0-1,-1 0 1,0 0 0,5 15 0,-7-15-699,0 0 0,-1-1 0,-1 1 0,1 0 1,-1 17-1,-1 4-4768</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6599.55">3664 1895 7876,'0'0'10292,"129"-145"-10100,-57 86-80,3-2 1,-3 13-113,-10 7 80,-13 8 16,-18 18-96,-17 10-257,-10 5-1599,-4 2 255,0 21-1489,-4 5-3248</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6982.61">3878 1946 9652,'0'0'4776,"3"-16"-3103,-1 2-1312,-1 8-235,-1-1 0,1 0 0,1 1 0,-1-1 0,1 1 0,0-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,1 0 0,0 1 0,-1-1 0,8-7 0,1 3 65,0 0-1,0 1 1,1 1-1,0 0 1,16-8-1,-24 14-165,1-1 0,-1 1 0,1-1 0,0 2 0,-1-1 0,1 1-1,0-1 1,0 2 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0 0 0,6 2-1,-10-1-19,0-1 0,0 1-1,0 0 1,0 0-1,0 0 1,-1 0 0,1 1-1,-1-1 1,1 0 0,-1 1-1,0-1 1,0 1-1,0-1 1,0 1 0,-1 0-1,1-1 1,-1 1-1,1 0 1,-1-1 0,0 1-1,0 0 1,0-1-1,-1 5 1,1-1 2,0 11 18,0-1-1,-2 0 1,0 1 0,0-1-1,-2 0 1,-8 24 0,-44 88 303,20-51 422,35-77-746,1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 1,0 1-1,0-1 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 1 0,0-1 1,0 0-1,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 1 1,0-1-1,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 1,19-8 94,2-7-229,-1-1 1,0-1-1,-1 0 0,22-27 0,9-8-256,-10 15-42,-18 17-714,-1 0 1,32-39-1,-48 47-355</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7705.95">4030 1230 880,'0'0'9698,"-16"-12"-8391,4 2-984,-16-12 935,0 1 1,-50-27-1,62 41-1126,0 0 0,0 1 0,0 1 0,-1 1 0,0 1 0,0 0 0,0 1 0,0 0 0,0 2 0,0 0-1,0 1 1,0 1 0,-20 4 0,17-2-91,1 1 0,-1 1 0,1 1 0,1 1 0,0 1 0,0 0 0,0 1 0,1 1 0,1 0-1,-30 28 1,32-25-37,1 2 0,0 0 0,1 0-1,0 1 1,2 0 0,0 1-1,1 1 1,0-1 0,2 1 0,0 1-1,2-1 1,-5 23 0,3 6-7,2 0 0,2 1 0,7 94 1,0-108 27,1-1 1,2 0-1,2 0 1,1 0-1,1-1 1,2-1-1,1 0 1,2-1 0,1-1-1,1 0 1,2-1-1,0-1 1,48 49-1,-56-65 0,1-1 0,0 0 0,0 0 0,1-1 0,0-1 0,1 0 0,0-1 0,0-1 0,1 0 0,0-2 1,32 9-1,-25-10 20,0-2 1,0 0-1,0-1 1,1-1-1,-1-2 1,0 0 0,44-11-1,-16-1 11,-1-3 0,-2-3 0,1-1 0,-2-2 0,-1-3 0,-1-1 0,42-35 0,-55 38-38,-1-1 1,-2-1-1,-1-2 1,-1-1-1,28-39 1,-43 51-12,0-1 0,-2 0-1,0-1 1,-1 0 0,-1 0-1,-1-1 1,0 0 0,-2-1 0,0 1-1,-2-1 1,2-30 0,-4 28 11,-1 0 1,-1 0-1,-4-26 1,3 40-12,0-1 1,-1 1-1,0 0 1,-1 0 0,0 0-1,0 0 1,-1 1-1,0-1 1,0 1 0,-8-9-1,-11-6 4,-1 0 0,-1 2-1,0 1 1,-2 1 0,0 1-1,-1 1 1,0 2 0,-2 1-1,-57-18 1,45 21-11,-1 1-1,-1 3 1,1 2 0,-1 2-1,0 1 1,0 3 0,-81 11-1,98-8 82,0 1 0,0 1 0,-26 11 0,43-13-419,1 1 0,0 0-1,1 0 1,-13 10-1,16-11-533,0 1-1,1 0 0,0 0 0,0 0 0,0 1 0,1-1 1,-6 11-1,-4 12-8121</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink90.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9845,8 +9532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -9920,18 +9607,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C12">
-        <f>AVERAGE(B3:B9)</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C13">
-        <f>AVERAGE(B3:B8,0)</f>
-        <v>3.8571428571428572</v>
-      </c>
-    </row>
+    <row r="12" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="14" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="15" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -10931,7 +10608,7 @@
   <dimension ref="B1:D1000"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -11005,18 +10682,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C12">
-        <f>MEDIAN(B3:B9)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C13">
-        <f>MEDIAN(B3:B8,0,0,0)</f>
-        <v>4</v>
-      </c>
-    </row>
+    <row r="12" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="14" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="15" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -12016,7 +11683,7 @@
   <dimension ref="B1:D1000"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -13096,3089 +12763,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B1:E1001"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="8.73046875" customWidth="1"/>
-    <col min="2" max="2" width="20.3984375" customWidth="1"/>
-    <col min="3" max="3" width="8.73046875" customWidth="1"/>
-    <col min="4" max="4" width="31.86328125" customWidth="1"/>
-    <col min="5" max="26" width="8.73046875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="10"/>
-    </row>
-    <row r="2" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <f>MAX(B3:B5)</f>
-        <v>7</v>
-      </c>
-      <c r="E3" t="e">
-        <f>AVERAGE(B3:B9)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="2">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <f>MAX(B3:B6)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="2">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <f>MAX(B3:B7)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="2"/>
-      <c r="D6" t="e">
-        <f>MAX(B3:B8)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="2" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="11"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="10"/>
-    </row>
-    <row r="16" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="10"/>
-    </row>
-    <row r="17" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="10"/>
-    </row>
-    <row r="18" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="10"/>
-    </row>
-    <row r="19" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="10"/>
-    </row>
-    <row r="20" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="10"/>
-    </row>
-    <row r="21" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="10"/>
-    </row>
-    <row r="22" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="10"/>
-    </row>
-    <row r="23" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="10"/>
-    </row>
-    <row r="24" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="10"/>
-    </row>
-    <row r="25" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="10"/>
-    </row>
-    <row r="26" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="10"/>
-    </row>
-    <row r="27" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="10"/>
-    </row>
-    <row r="28" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="10"/>
-    </row>
-    <row r="29" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="10"/>
-    </row>
-    <row r="30" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="10"/>
-    </row>
-    <row r="31" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="10"/>
-    </row>
-    <row r="32" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="10"/>
-    </row>
-    <row r="33" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="10"/>
-    </row>
-    <row r="34" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="10"/>
-    </row>
-    <row r="35" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="10"/>
-    </row>
-    <row r="36" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="10"/>
-    </row>
-    <row r="37" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="10"/>
-    </row>
-    <row r="38" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="10"/>
-    </row>
-    <row r="39" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="10"/>
-    </row>
-    <row r="40" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="10"/>
-    </row>
-    <row r="41" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="10"/>
-    </row>
-    <row r="42" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="10"/>
-    </row>
-    <row r="43" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="10"/>
-    </row>
-    <row r="44" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="10"/>
-    </row>
-    <row r="45" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="10"/>
-    </row>
-    <row r="46" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="10"/>
-    </row>
-    <row r="47" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="10"/>
-    </row>
-    <row r="48" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="10"/>
-    </row>
-    <row r="49" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="10"/>
-    </row>
-    <row r="50" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="10"/>
-    </row>
-    <row r="51" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="10"/>
-    </row>
-    <row r="52" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="10"/>
-    </row>
-    <row r="53" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="10"/>
-    </row>
-    <row r="54" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="10"/>
-    </row>
-    <row r="55" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="10"/>
-    </row>
-    <row r="56" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="10"/>
-    </row>
-    <row r="57" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="10"/>
-    </row>
-    <row r="58" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="10"/>
-    </row>
-    <row r="59" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="10"/>
-    </row>
-    <row r="60" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="10"/>
-    </row>
-    <row r="61" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="10"/>
-    </row>
-    <row r="62" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="10"/>
-    </row>
-    <row r="63" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="10"/>
-    </row>
-    <row r="64" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="10"/>
-    </row>
-    <row r="65" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="10"/>
-    </row>
-    <row r="66" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="10"/>
-    </row>
-    <row r="67" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="10"/>
-    </row>
-    <row r="68" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="10"/>
-    </row>
-    <row r="69" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="10"/>
-    </row>
-    <row r="70" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="10"/>
-    </row>
-    <row r="71" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="10"/>
-    </row>
-    <row r="72" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="10"/>
-    </row>
-    <row r="73" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="10"/>
-    </row>
-    <row r="74" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="10"/>
-    </row>
-    <row r="75" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="10"/>
-    </row>
-    <row r="76" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="10"/>
-    </row>
-    <row r="77" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="10"/>
-    </row>
-    <row r="78" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="10"/>
-    </row>
-    <row r="79" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="10"/>
-    </row>
-    <row r="80" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="10"/>
-    </row>
-    <row r="81" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="10"/>
-    </row>
-    <row r="82" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="10"/>
-    </row>
-    <row r="83" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="10"/>
-    </row>
-    <row r="84" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="10"/>
-    </row>
-    <row r="85" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="10"/>
-    </row>
-    <row r="86" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="10"/>
-    </row>
-    <row r="87" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="10"/>
-    </row>
-    <row r="88" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="10"/>
-    </row>
-    <row r="89" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="10"/>
-    </row>
-    <row r="90" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B90" s="10"/>
-    </row>
-    <row r="91" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B91" s="10"/>
-    </row>
-    <row r="92" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B92" s="10"/>
-    </row>
-    <row r="93" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B93" s="10"/>
-    </row>
-    <row r="94" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B94" s="10"/>
-    </row>
-    <row r="95" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B95" s="10"/>
-    </row>
-    <row r="96" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B96" s="10"/>
-    </row>
-    <row r="97" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B97" s="10"/>
-    </row>
-    <row r="98" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B98" s="10"/>
-    </row>
-    <row r="99" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="10"/>
-    </row>
-    <row r="100" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B100" s="10"/>
-    </row>
-    <row r="101" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B101" s="10"/>
-    </row>
-    <row r="102" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B102" s="10"/>
-    </row>
-    <row r="103" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B103" s="10"/>
-    </row>
-    <row r="104" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B104" s="10"/>
-    </row>
-    <row r="105" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B105" s="10"/>
-    </row>
-    <row r="106" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B106" s="10"/>
-    </row>
-    <row r="107" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B107" s="10"/>
-    </row>
-    <row r="108" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B108" s="10"/>
-    </row>
-    <row r="109" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B109" s="10"/>
-    </row>
-    <row r="110" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B110" s="10"/>
-    </row>
-    <row r="111" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B111" s="10"/>
-    </row>
-    <row r="112" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B112" s="10"/>
-    </row>
-    <row r="113" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B113" s="10"/>
-    </row>
-    <row r="114" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B114" s="10"/>
-    </row>
-    <row r="115" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B115" s="10"/>
-    </row>
-    <row r="116" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B116" s="10"/>
-    </row>
-    <row r="117" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B117" s="10"/>
-    </row>
-    <row r="118" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B118" s="10"/>
-    </row>
-    <row r="119" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B119" s="10"/>
-    </row>
-    <row r="120" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B120" s="10"/>
-    </row>
-    <row r="121" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B121" s="10"/>
-    </row>
-    <row r="122" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B122" s="10"/>
-    </row>
-    <row r="123" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B123" s="10"/>
-    </row>
-    <row r="124" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B124" s="10"/>
-    </row>
-    <row r="125" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B125" s="10"/>
-    </row>
-    <row r="126" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B126" s="10"/>
-    </row>
-    <row r="127" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B127" s="10"/>
-    </row>
-    <row r="128" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B128" s="10"/>
-    </row>
-    <row r="129" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B129" s="10"/>
-    </row>
-    <row r="130" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B130" s="10"/>
-    </row>
-    <row r="131" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B131" s="10"/>
-    </row>
-    <row r="132" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B132" s="10"/>
-    </row>
-    <row r="133" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B133" s="10"/>
-    </row>
-    <row r="134" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B134" s="10"/>
-    </row>
-    <row r="135" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B135" s="10"/>
-    </row>
-    <row r="136" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B136" s="10"/>
-    </row>
-    <row r="137" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B137" s="10"/>
-    </row>
-    <row r="138" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B138" s="10"/>
-    </row>
-    <row r="139" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B139" s="10"/>
-    </row>
-    <row r="140" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B140" s="10"/>
-    </row>
-    <row r="141" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B141" s="10"/>
-    </row>
-    <row r="142" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B142" s="10"/>
-    </row>
-    <row r="143" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B143" s="10"/>
-    </row>
-    <row r="144" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B144" s="10"/>
-    </row>
-    <row r="145" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B145" s="10"/>
-    </row>
-    <row r="146" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B146" s="10"/>
-    </row>
-    <row r="147" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B147" s="10"/>
-    </row>
-    <row r="148" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B148" s="10"/>
-    </row>
-    <row r="149" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B149" s="10"/>
-    </row>
-    <row r="150" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B150" s="10"/>
-    </row>
-    <row r="151" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B151" s="10"/>
-    </row>
-    <row r="152" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B152" s="10"/>
-    </row>
-    <row r="153" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B153" s="10"/>
-    </row>
-    <row r="154" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B154" s="10"/>
-    </row>
-    <row r="155" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B155" s="10"/>
-    </row>
-    <row r="156" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B156" s="10"/>
-    </row>
-    <row r="157" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B157" s="10"/>
-    </row>
-    <row r="158" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B158" s="10"/>
-    </row>
-    <row r="159" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B159" s="10"/>
-    </row>
-    <row r="160" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B160" s="10"/>
-    </row>
-    <row r="161" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B161" s="10"/>
-    </row>
-    <row r="162" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B162" s="10"/>
-    </row>
-    <row r="163" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B163" s="10"/>
-    </row>
-    <row r="164" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B164" s="10"/>
-    </row>
-    <row r="165" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B165" s="10"/>
-    </row>
-    <row r="166" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B166" s="10"/>
-    </row>
-    <row r="167" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B167" s="10"/>
-    </row>
-    <row r="168" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B168" s="10"/>
-    </row>
-    <row r="169" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B169" s="10"/>
-    </row>
-    <row r="170" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B170" s="10"/>
-    </row>
-    <row r="171" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B171" s="10"/>
-    </row>
-    <row r="172" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B172" s="10"/>
-    </row>
-    <row r="173" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B173" s="10"/>
-    </row>
-    <row r="174" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B174" s="10"/>
-    </row>
-    <row r="175" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B175" s="10"/>
-    </row>
-    <row r="176" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B176" s="10"/>
-    </row>
-    <row r="177" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B177" s="10"/>
-    </row>
-    <row r="178" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B178" s="10"/>
-    </row>
-    <row r="179" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B179" s="10"/>
-    </row>
-    <row r="180" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B180" s="10"/>
-    </row>
-    <row r="181" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B181" s="10"/>
-    </row>
-    <row r="182" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B182" s="10"/>
-    </row>
-    <row r="183" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B183" s="10"/>
-    </row>
-    <row r="184" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B184" s="10"/>
-    </row>
-    <row r="185" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B185" s="10"/>
-    </row>
-    <row r="186" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B186" s="10"/>
-    </row>
-    <row r="187" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B187" s="10"/>
-    </row>
-    <row r="188" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B188" s="10"/>
-    </row>
-    <row r="189" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B189" s="10"/>
-    </row>
-    <row r="190" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B190" s="10"/>
-    </row>
-    <row r="191" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B191" s="10"/>
-    </row>
-    <row r="192" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B192" s="10"/>
-    </row>
-    <row r="193" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B193" s="10"/>
-    </row>
-    <row r="194" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B194" s="10"/>
-    </row>
-    <row r="195" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B195" s="10"/>
-    </row>
-    <row r="196" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B196" s="10"/>
-    </row>
-    <row r="197" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B197" s="10"/>
-    </row>
-    <row r="198" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B198" s="10"/>
-    </row>
-    <row r="199" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B199" s="10"/>
-    </row>
-    <row r="200" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B200" s="10"/>
-    </row>
-    <row r="201" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B201" s="10"/>
-    </row>
-    <row r="202" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B202" s="10"/>
-    </row>
-    <row r="203" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B203" s="10"/>
-    </row>
-    <row r="204" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B204" s="10"/>
-    </row>
-    <row r="205" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B205" s="10"/>
-    </row>
-    <row r="206" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B206" s="10"/>
-    </row>
-    <row r="207" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B207" s="10"/>
-    </row>
-    <row r="208" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B208" s="10"/>
-    </row>
-    <row r="209" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B209" s="10"/>
-    </row>
-    <row r="210" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B210" s="10"/>
-    </row>
-    <row r="211" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B211" s="10"/>
-    </row>
-    <row r="212" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B212" s="10"/>
-    </row>
-    <row r="213" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B213" s="10"/>
-    </row>
-    <row r="214" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B214" s="10"/>
-    </row>
-    <row r="215" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B215" s="10"/>
-    </row>
-    <row r="216" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B216" s="10"/>
-    </row>
-    <row r="217" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B217" s="10"/>
-    </row>
-    <row r="218" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B218" s="10"/>
-    </row>
-    <row r="219" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B219" s="10"/>
-    </row>
-    <row r="220" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B220" s="10"/>
-    </row>
-    <row r="221" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B221" s="10"/>
-    </row>
-    <row r="222" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B222" s="10"/>
-    </row>
-    <row r="223" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B223" s="10"/>
-    </row>
-    <row r="224" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B224" s="10"/>
-    </row>
-    <row r="225" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B225" s="10"/>
-    </row>
-    <row r="226" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B226" s="10"/>
-    </row>
-    <row r="227" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B227" s="10"/>
-    </row>
-    <row r="228" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B228" s="10"/>
-    </row>
-    <row r="229" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B229" s="10"/>
-    </row>
-    <row r="230" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B230" s="10"/>
-    </row>
-    <row r="231" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B231" s="10"/>
-    </row>
-    <row r="232" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B232" s="10"/>
-    </row>
-    <row r="233" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B233" s="10"/>
-    </row>
-    <row r="234" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B234" s="10"/>
-    </row>
-    <row r="235" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B235" s="10"/>
-    </row>
-    <row r="236" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B236" s="10"/>
-    </row>
-    <row r="237" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B237" s="10"/>
-    </row>
-    <row r="238" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B238" s="10"/>
-    </row>
-    <row r="239" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B239" s="10"/>
-    </row>
-    <row r="240" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B240" s="10"/>
-    </row>
-    <row r="241" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B241" s="10"/>
-    </row>
-    <row r="242" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B242" s="10"/>
-    </row>
-    <row r="243" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B243" s="10"/>
-    </row>
-    <row r="244" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B244" s="10"/>
-    </row>
-    <row r="245" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B245" s="10"/>
-    </row>
-    <row r="246" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B246" s="10"/>
-    </row>
-    <row r="247" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B247" s="10"/>
-    </row>
-    <row r="248" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B248" s="10"/>
-    </row>
-    <row r="249" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B249" s="10"/>
-    </row>
-    <row r="250" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B250" s="10"/>
-    </row>
-    <row r="251" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B251" s="10"/>
-    </row>
-    <row r="252" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B252" s="10"/>
-    </row>
-    <row r="253" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B253" s="10"/>
-    </row>
-    <row r="254" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B254" s="10"/>
-    </row>
-    <row r="255" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B255" s="10"/>
-    </row>
-    <row r="256" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B256" s="10"/>
-    </row>
-    <row r="257" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B257" s="10"/>
-    </row>
-    <row r="258" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B258" s="10"/>
-    </row>
-    <row r="259" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B259" s="10"/>
-    </row>
-    <row r="260" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B260" s="10"/>
-    </row>
-    <row r="261" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B261" s="10"/>
-    </row>
-    <row r="262" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B262" s="10"/>
-    </row>
-    <row r="263" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B263" s="10"/>
-    </row>
-    <row r="264" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B264" s="10"/>
-    </row>
-    <row r="265" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B265" s="10"/>
-    </row>
-    <row r="266" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B266" s="10"/>
-    </row>
-    <row r="267" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B267" s="10"/>
-    </row>
-    <row r="268" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B268" s="10"/>
-    </row>
-    <row r="269" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B269" s="10"/>
-    </row>
-    <row r="270" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B270" s="10"/>
-    </row>
-    <row r="271" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B271" s="10"/>
-    </row>
-    <row r="272" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B272" s="10"/>
-    </row>
-    <row r="273" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B273" s="10"/>
-    </row>
-    <row r="274" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B274" s="10"/>
-    </row>
-    <row r="275" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B275" s="10"/>
-    </row>
-    <row r="276" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B276" s="10"/>
-    </row>
-    <row r="277" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B277" s="10"/>
-    </row>
-    <row r="278" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B278" s="10"/>
-    </row>
-    <row r="279" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B279" s="10"/>
-    </row>
-    <row r="280" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B280" s="10"/>
-    </row>
-    <row r="281" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B281" s="10"/>
-    </row>
-    <row r="282" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B282" s="10"/>
-    </row>
-    <row r="283" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B283" s="10"/>
-    </row>
-    <row r="284" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B284" s="10"/>
-    </row>
-    <row r="285" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B285" s="10"/>
-    </row>
-    <row r="286" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B286" s="10"/>
-    </row>
-    <row r="287" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B287" s="10"/>
-    </row>
-    <row r="288" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B288" s="10"/>
-    </row>
-    <row r="289" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B289" s="10"/>
-    </row>
-    <row r="290" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B290" s="10"/>
-    </row>
-    <row r="291" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B291" s="10"/>
-    </row>
-    <row r="292" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B292" s="10"/>
-    </row>
-    <row r="293" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B293" s="10"/>
-    </row>
-    <row r="294" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B294" s="10"/>
-    </row>
-    <row r="295" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B295" s="10"/>
-    </row>
-    <row r="296" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B296" s="10"/>
-    </row>
-    <row r="297" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B297" s="10"/>
-    </row>
-    <row r="298" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B298" s="10"/>
-    </row>
-    <row r="299" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B299" s="10"/>
-    </row>
-    <row r="300" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B300" s="10"/>
-    </row>
-    <row r="301" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B301" s="10"/>
-    </row>
-    <row r="302" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B302" s="10"/>
-    </row>
-    <row r="303" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B303" s="10"/>
-    </row>
-    <row r="304" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B304" s="10"/>
-    </row>
-    <row r="305" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B305" s="10"/>
-    </row>
-    <row r="306" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B306" s="10"/>
-    </row>
-    <row r="307" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B307" s="10"/>
-    </row>
-    <row r="308" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B308" s="10"/>
-    </row>
-    <row r="309" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B309" s="10"/>
-    </row>
-    <row r="310" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B310" s="10"/>
-    </row>
-    <row r="311" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B311" s="10"/>
-    </row>
-    <row r="312" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B312" s="10"/>
-    </row>
-    <row r="313" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B313" s="10"/>
-    </row>
-    <row r="314" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B314" s="10"/>
-    </row>
-    <row r="315" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B315" s="10"/>
-    </row>
-    <row r="316" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B316" s="10"/>
-    </row>
-    <row r="317" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B317" s="10"/>
-    </row>
-    <row r="318" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B318" s="10"/>
-    </row>
-    <row r="319" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B319" s="10"/>
-    </row>
-    <row r="320" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B320" s="10"/>
-    </row>
-    <row r="321" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B321" s="10"/>
-    </row>
-    <row r="322" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B322" s="10"/>
-    </row>
-    <row r="323" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B323" s="10"/>
-    </row>
-    <row r="324" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B324" s="10"/>
-    </row>
-    <row r="325" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B325" s="10"/>
-    </row>
-    <row r="326" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B326" s="10"/>
-    </row>
-    <row r="327" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B327" s="10"/>
-    </row>
-    <row r="328" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B328" s="10"/>
-    </row>
-    <row r="329" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B329" s="10"/>
-    </row>
-    <row r="330" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B330" s="10"/>
-    </row>
-    <row r="331" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B331" s="10"/>
-    </row>
-    <row r="332" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B332" s="10"/>
-    </row>
-    <row r="333" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B333" s="10"/>
-    </row>
-    <row r="334" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B334" s="10"/>
-    </row>
-    <row r="335" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B335" s="10"/>
-    </row>
-    <row r="336" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B336" s="10"/>
-    </row>
-    <row r="337" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B337" s="10"/>
-    </row>
-    <row r="338" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B338" s="10"/>
-    </row>
-    <row r="339" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B339" s="10"/>
-    </row>
-    <row r="340" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B340" s="10"/>
-    </row>
-    <row r="341" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B341" s="10"/>
-    </row>
-    <row r="342" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B342" s="10"/>
-    </row>
-    <row r="343" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B343" s="10"/>
-    </row>
-    <row r="344" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B344" s="10"/>
-    </row>
-    <row r="345" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B345" s="10"/>
-    </row>
-    <row r="346" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B346" s="10"/>
-    </row>
-    <row r="347" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B347" s="10"/>
-    </row>
-    <row r="348" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B348" s="10"/>
-    </row>
-    <row r="349" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B349" s="10"/>
-    </row>
-    <row r="350" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B350" s="10"/>
-    </row>
-    <row r="351" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B351" s="10"/>
-    </row>
-    <row r="352" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B352" s="10"/>
-    </row>
-    <row r="353" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B353" s="10"/>
-    </row>
-    <row r="354" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B354" s="10"/>
-    </row>
-    <row r="355" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B355" s="10"/>
-    </row>
-    <row r="356" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B356" s="10"/>
-    </row>
-    <row r="357" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B357" s="10"/>
-    </row>
-    <row r="358" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B358" s="10"/>
-    </row>
-    <row r="359" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B359" s="10"/>
-    </row>
-    <row r="360" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B360" s="10"/>
-    </row>
-    <row r="361" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B361" s="10"/>
-    </row>
-    <row r="362" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B362" s="10"/>
-    </row>
-    <row r="363" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B363" s="10"/>
-    </row>
-    <row r="364" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B364" s="10"/>
-    </row>
-    <row r="365" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B365" s="10"/>
-    </row>
-    <row r="366" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B366" s="10"/>
-    </row>
-    <row r="367" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B367" s="10"/>
-    </row>
-    <row r="368" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B368" s="10"/>
-    </row>
-    <row r="369" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B369" s="10"/>
-    </row>
-    <row r="370" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B370" s="10"/>
-    </row>
-    <row r="371" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B371" s="10"/>
-    </row>
-    <row r="372" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B372" s="10"/>
-    </row>
-    <row r="373" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B373" s="10"/>
-    </row>
-    <row r="374" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B374" s="10"/>
-    </row>
-    <row r="375" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B375" s="10"/>
-    </row>
-    <row r="376" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B376" s="10"/>
-    </row>
-    <row r="377" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B377" s="10"/>
-    </row>
-    <row r="378" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B378" s="10"/>
-    </row>
-    <row r="379" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B379" s="10"/>
-    </row>
-    <row r="380" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B380" s="10"/>
-    </row>
-    <row r="381" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B381" s="10"/>
-    </row>
-    <row r="382" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B382" s="10"/>
-    </row>
-    <row r="383" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B383" s="10"/>
-    </row>
-    <row r="384" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B384" s="10"/>
-    </row>
-    <row r="385" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B385" s="10"/>
-    </row>
-    <row r="386" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B386" s="10"/>
-    </row>
-    <row r="387" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B387" s="10"/>
-    </row>
-    <row r="388" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B388" s="10"/>
-    </row>
-    <row r="389" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B389" s="10"/>
-    </row>
-    <row r="390" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B390" s="10"/>
-    </row>
-    <row r="391" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B391" s="10"/>
-    </row>
-    <row r="392" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B392" s="10"/>
-    </row>
-    <row r="393" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B393" s="10"/>
-    </row>
-    <row r="394" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B394" s="10"/>
-    </row>
-    <row r="395" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B395" s="10"/>
-    </row>
-    <row r="396" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B396" s="10"/>
-    </row>
-    <row r="397" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B397" s="10"/>
-    </row>
-    <row r="398" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B398" s="10"/>
-    </row>
-    <row r="399" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B399" s="10"/>
-    </row>
-    <row r="400" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B400" s="10"/>
-    </row>
-    <row r="401" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B401" s="10"/>
-    </row>
-    <row r="402" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B402" s="10"/>
-    </row>
-    <row r="403" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B403" s="10"/>
-    </row>
-    <row r="404" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B404" s="10"/>
-    </row>
-    <row r="405" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B405" s="10"/>
-    </row>
-    <row r="406" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B406" s="10"/>
-    </row>
-    <row r="407" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B407" s="10"/>
-    </row>
-    <row r="408" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B408" s="10"/>
-    </row>
-    <row r="409" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B409" s="10"/>
-    </row>
-    <row r="410" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B410" s="10"/>
-    </row>
-    <row r="411" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B411" s="10"/>
-    </row>
-    <row r="412" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B412" s="10"/>
-    </row>
-    <row r="413" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B413" s="10"/>
-    </row>
-    <row r="414" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B414" s="10"/>
-    </row>
-    <row r="415" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B415" s="10"/>
-    </row>
-    <row r="416" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B416" s="10"/>
-    </row>
-    <row r="417" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B417" s="10"/>
-    </row>
-    <row r="418" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B418" s="10"/>
-    </row>
-    <row r="419" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B419" s="10"/>
-    </row>
-    <row r="420" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B420" s="10"/>
-    </row>
-    <row r="421" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B421" s="10"/>
-    </row>
-    <row r="422" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B422" s="10"/>
-    </row>
-    <row r="423" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B423" s="10"/>
-    </row>
-    <row r="424" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B424" s="10"/>
-    </row>
-    <row r="425" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B425" s="10"/>
-    </row>
-    <row r="426" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B426" s="10"/>
-    </row>
-    <row r="427" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B427" s="10"/>
-    </row>
-    <row r="428" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B428" s="10"/>
-    </row>
-    <row r="429" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B429" s="10"/>
-    </row>
-    <row r="430" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B430" s="10"/>
-    </row>
-    <row r="431" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B431" s="10"/>
-    </row>
-    <row r="432" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B432" s="10"/>
-    </row>
-    <row r="433" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B433" s="10"/>
-    </row>
-    <row r="434" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B434" s="10"/>
-    </row>
-    <row r="435" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B435" s="10"/>
-    </row>
-    <row r="436" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B436" s="10"/>
-    </row>
-    <row r="437" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B437" s="10"/>
-    </row>
-    <row r="438" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B438" s="10"/>
-    </row>
-    <row r="439" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B439" s="10"/>
-    </row>
-    <row r="440" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B440" s="10"/>
-    </row>
-    <row r="441" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B441" s="10"/>
-    </row>
-    <row r="442" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B442" s="10"/>
-    </row>
-    <row r="443" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B443" s="10"/>
-    </row>
-    <row r="444" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B444" s="10"/>
-    </row>
-    <row r="445" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B445" s="10"/>
-    </row>
-    <row r="446" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B446" s="10"/>
-    </row>
-    <row r="447" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B447" s="10"/>
-    </row>
-    <row r="448" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B448" s="10"/>
-    </row>
-    <row r="449" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B449" s="10"/>
-    </row>
-    <row r="450" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B450" s="10"/>
-    </row>
-    <row r="451" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B451" s="10"/>
-    </row>
-    <row r="452" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B452" s="10"/>
-    </row>
-    <row r="453" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B453" s="10"/>
-    </row>
-    <row r="454" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B454" s="10"/>
-    </row>
-    <row r="455" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B455" s="10"/>
-    </row>
-    <row r="456" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B456" s="10"/>
-    </row>
-    <row r="457" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B457" s="10"/>
-    </row>
-    <row r="458" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B458" s="10"/>
-    </row>
-    <row r="459" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B459" s="10"/>
-    </row>
-    <row r="460" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B460" s="10"/>
-    </row>
-    <row r="461" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B461" s="10"/>
-    </row>
-    <row r="462" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B462" s="10"/>
-    </row>
-    <row r="463" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B463" s="10"/>
-    </row>
-    <row r="464" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B464" s="10"/>
-    </row>
-    <row r="465" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B465" s="10"/>
-    </row>
-    <row r="466" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B466" s="10"/>
-    </row>
-    <row r="467" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B467" s="10"/>
-    </row>
-    <row r="468" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B468" s="10"/>
-    </row>
-    <row r="469" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B469" s="10"/>
-    </row>
-    <row r="470" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B470" s="10"/>
-    </row>
-    <row r="471" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B471" s="10"/>
-    </row>
-    <row r="472" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B472" s="10"/>
-    </row>
-    <row r="473" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B473" s="10"/>
-    </row>
-    <row r="474" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B474" s="10"/>
-    </row>
-    <row r="475" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B475" s="10"/>
-    </row>
-    <row r="476" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B476" s="10"/>
-    </row>
-    <row r="477" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B477" s="10"/>
-    </row>
-    <row r="478" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B478" s="10"/>
-    </row>
-    <row r="479" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B479" s="10"/>
-    </row>
-    <row r="480" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B480" s="10"/>
-    </row>
-    <row r="481" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B481" s="10"/>
-    </row>
-    <row r="482" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B482" s="10"/>
-    </row>
-    <row r="483" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B483" s="10"/>
-    </row>
-    <row r="484" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B484" s="10"/>
-    </row>
-    <row r="485" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B485" s="10"/>
-    </row>
-    <row r="486" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B486" s="10"/>
-    </row>
-    <row r="487" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B487" s="10"/>
-    </row>
-    <row r="488" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B488" s="10"/>
-    </row>
-    <row r="489" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B489" s="10"/>
-    </row>
-    <row r="490" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B490" s="10"/>
-    </row>
-    <row r="491" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B491" s="10"/>
-    </row>
-    <row r="492" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B492" s="10"/>
-    </row>
-    <row r="493" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B493" s="10"/>
-    </row>
-    <row r="494" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B494" s="10"/>
-    </row>
-    <row r="495" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B495" s="10"/>
-    </row>
-    <row r="496" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B496" s="10"/>
-    </row>
-    <row r="497" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B497" s="10"/>
-    </row>
-    <row r="498" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B498" s="10"/>
-    </row>
-    <row r="499" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B499" s="10"/>
-    </row>
-    <row r="500" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B500" s="10"/>
-    </row>
-    <row r="501" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B501" s="10"/>
-    </row>
-    <row r="502" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B502" s="10"/>
-    </row>
-    <row r="503" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B503" s="10"/>
-    </row>
-    <row r="504" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B504" s="10"/>
-    </row>
-    <row r="505" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B505" s="10"/>
-    </row>
-    <row r="506" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B506" s="10"/>
-    </row>
-    <row r="507" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B507" s="10"/>
-    </row>
-    <row r="508" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B508" s="10"/>
-    </row>
-    <row r="509" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B509" s="10"/>
-    </row>
-    <row r="510" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B510" s="10"/>
-    </row>
-    <row r="511" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B511" s="10"/>
-    </row>
-    <row r="512" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B512" s="10"/>
-    </row>
-    <row r="513" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B513" s="10"/>
-    </row>
-    <row r="514" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B514" s="10"/>
-    </row>
-    <row r="515" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B515" s="10"/>
-    </row>
-    <row r="516" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B516" s="10"/>
-    </row>
-    <row r="517" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B517" s="10"/>
-    </row>
-    <row r="518" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B518" s="10"/>
-    </row>
-    <row r="519" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B519" s="10"/>
-    </row>
-    <row r="520" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B520" s="10"/>
-    </row>
-    <row r="521" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B521" s="10"/>
-    </row>
-    <row r="522" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B522" s="10"/>
-    </row>
-    <row r="523" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B523" s="10"/>
-    </row>
-    <row r="524" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B524" s="10"/>
-    </row>
-    <row r="525" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B525" s="10"/>
-    </row>
-    <row r="526" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B526" s="10"/>
-    </row>
-    <row r="527" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B527" s="10"/>
-    </row>
-    <row r="528" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B528" s="10"/>
-    </row>
-    <row r="529" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B529" s="10"/>
-    </row>
-    <row r="530" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B530" s="10"/>
-    </row>
-    <row r="531" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B531" s="10"/>
-    </row>
-    <row r="532" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B532" s="10"/>
-    </row>
-    <row r="533" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B533" s="10"/>
-    </row>
-    <row r="534" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B534" s="10"/>
-    </row>
-    <row r="535" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B535" s="10"/>
-    </row>
-    <row r="536" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B536" s="10"/>
-    </row>
-    <row r="537" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B537" s="10"/>
-    </row>
-    <row r="538" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B538" s="10"/>
-    </row>
-    <row r="539" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B539" s="10"/>
-    </row>
-    <row r="540" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B540" s="10"/>
-    </row>
-    <row r="541" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B541" s="10"/>
-    </row>
-    <row r="542" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B542" s="10"/>
-    </row>
-    <row r="543" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B543" s="10"/>
-    </row>
-    <row r="544" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B544" s="10"/>
-    </row>
-    <row r="545" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B545" s="10"/>
-    </row>
-    <row r="546" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B546" s="10"/>
-    </row>
-    <row r="547" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B547" s="10"/>
-    </row>
-    <row r="548" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B548" s="10"/>
-    </row>
-    <row r="549" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B549" s="10"/>
-    </row>
-    <row r="550" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B550" s="10"/>
-    </row>
-    <row r="551" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B551" s="10"/>
-    </row>
-    <row r="552" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B552" s="10"/>
-    </row>
-    <row r="553" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B553" s="10"/>
-    </row>
-    <row r="554" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B554" s="10"/>
-    </row>
-    <row r="555" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B555" s="10"/>
-    </row>
-    <row r="556" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B556" s="10"/>
-    </row>
-    <row r="557" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B557" s="10"/>
-    </row>
-    <row r="558" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B558" s="10"/>
-    </row>
-    <row r="559" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B559" s="10"/>
-    </row>
-    <row r="560" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B560" s="10"/>
-    </row>
-    <row r="561" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B561" s="10"/>
-    </row>
-    <row r="562" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B562" s="10"/>
-    </row>
-    <row r="563" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B563" s="10"/>
-    </row>
-    <row r="564" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B564" s="10"/>
-    </row>
-    <row r="565" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B565" s="10"/>
-    </row>
-    <row r="566" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B566" s="10"/>
-    </row>
-    <row r="567" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B567" s="10"/>
-    </row>
-    <row r="568" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B568" s="10"/>
-    </row>
-    <row r="569" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B569" s="10"/>
-    </row>
-    <row r="570" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B570" s="10"/>
-    </row>
-    <row r="571" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B571" s="10"/>
-    </row>
-    <row r="572" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B572" s="10"/>
-    </row>
-    <row r="573" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B573" s="10"/>
-    </row>
-    <row r="574" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B574" s="10"/>
-    </row>
-    <row r="575" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B575" s="10"/>
-    </row>
-    <row r="576" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B576" s="10"/>
-    </row>
-    <row r="577" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B577" s="10"/>
-    </row>
-    <row r="578" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B578" s="10"/>
-    </row>
-    <row r="579" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B579" s="10"/>
-    </row>
-    <row r="580" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B580" s="10"/>
-    </row>
-    <row r="581" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B581" s="10"/>
-    </row>
-    <row r="582" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B582" s="10"/>
-    </row>
-    <row r="583" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B583" s="10"/>
-    </row>
-    <row r="584" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B584" s="10"/>
-    </row>
-    <row r="585" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B585" s="10"/>
-    </row>
-    <row r="586" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B586" s="10"/>
-    </row>
-    <row r="587" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B587" s="10"/>
-    </row>
-    <row r="588" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B588" s="10"/>
-    </row>
-    <row r="589" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B589" s="10"/>
-    </row>
-    <row r="590" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B590" s="10"/>
-    </row>
-    <row r="591" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B591" s="10"/>
-    </row>
-    <row r="592" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B592" s="10"/>
-    </row>
-    <row r="593" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B593" s="10"/>
-    </row>
-    <row r="594" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B594" s="10"/>
-    </row>
-    <row r="595" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B595" s="10"/>
-    </row>
-    <row r="596" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B596" s="10"/>
-    </row>
-    <row r="597" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B597" s="10"/>
-    </row>
-    <row r="598" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B598" s="10"/>
-    </row>
-    <row r="599" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B599" s="10"/>
-    </row>
-    <row r="600" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B600" s="10"/>
-    </row>
-    <row r="601" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B601" s="10"/>
-    </row>
-    <row r="602" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B602" s="10"/>
-    </row>
-    <row r="603" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B603" s="10"/>
-    </row>
-    <row r="604" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B604" s="10"/>
-    </row>
-    <row r="605" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B605" s="10"/>
-    </row>
-    <row r="606" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B606" s="10"/>
-    </row>
-    <row r="607" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B607" s="10"/>
-    </row>
-    <row r="608" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B608" s="10"/>
-    </row>
-    <row r="609" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B609" s="10"/>
-    </row>
-    <row r="610" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B610" s="10"/>
-    </row>
-    <row r="611" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B611" s="10"/>
-    </row>
-    <row r="612" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B612" s="10"/>
-    </row>
-    <row r="613" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B613" s="10"/>
-    </row>
-    <row r="614" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B614" s="10"/>
-    </row>
-    <row r="615" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B615" s="10"/>
-    </row>
-    <row r="616" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B616" s="10"/>
-    </row>
-    <row r="617" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B617" s="10"/>
-    </row>
-    <row r="618" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B618" s="10"/>
-    </row>
-    <row r="619" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B619" s="10"/>
-    </row>
-    <row r="620" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B620" s="10"/>
-    </row>
-    <row r="621" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B621" s="10"/>
-    </row>
-    <row r="622" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B622" s="10"/>
-    </row>
-    <row r="623" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B623" s="10"/>
-    </row>
-    <row r="624" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B624" s="10"/>
-    </row>
-    <row r="625" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B625" s="10"/>
-    </row>
-    <row r="626" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B626" s="10"/>
-    </row>
-    <row r="627" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B627" s="10"/>
-    </row>
-    <row r="628" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B628" s="10"/>
-    </row>
-    <row r="629" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B629" s="10"/>
-    </row>
-    <row r="630" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B630" s="10"/>
-    </row>
-    <row r="631" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B631" s="10"/>
-    </row>
-    <row r="632" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B632" s="10"/>
-    </row>
-    <row r="633" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B633" s="10"/>
-    </row>
-    <row r="634" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B634" s="10"/>
-    </row>
-    <row r="635" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B635" s="10"/>
-    </row>
-    <row r="636" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B636" s="10"/>
-    </row>
-    <row r="637" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B637" s="10"/>
-    </row>
-    <row r="638" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B638" s="10"/>
-    </row>
-    <row r="639" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B639" s="10"/>
-    </row>
-    <row r="640" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B640" s="10"/>
-    </row>
-    <row r="641" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B641" s="10"/>
-    </row>
-    <row r="642" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B642" s="10"/>
-    </row>
-    <row r="643" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B643" s="10"/>
-    </row>
-    <row r="644" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B644" s="10"/>
-    </row>
-    <row r="645" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B645" s="10"/>
-    </row>
-    <row r="646" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B646" s="10"/>
-    </row>
-    <row r="647" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B647" s="10"/>
-    </row>
-    <row r="648" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B648" s="10"/>
-    </row>
-    <row r="649" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B649" s="10"/>
-    </row>
-    <row r="650" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B650" s="10"/>
-    </row>
-    <row r="651" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B651" s="10"/>
-    </row>
-    <row r="652" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B652" s="10"/>
-    </row>
-    <row r="653" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B653" s="10"/>
-    </row>
-    <row r="654" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B654" s="10"/>
-    </row>
-    <row r="655" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B655" s="10"/>
-    </row>
-    <row r="656" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B656" s="10"/>
-    </row>
-    <row r="657" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B657" s="10"/>
-    </row>
-    <row r="658" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B658" s="10"/>
-    </row>
-    <row r="659" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B659" s="10"/>
-    </row>
-    <row r="660" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B660" s="10"/>
-    </row>
-    <row r="661" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B661" s="10"/>
-    </row>
-    <row r="662" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B662" s="10"/>
-    </row>
-    <row r="663" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B663" s="10"/>
-    </row>
-    <row r="664" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B664" s="10"/>
-    </row>
-    <row r="665" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B665" s="10"/>
-    </row>
-    <row r="666" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B666" s="10"/>
-    </row>
-    <row r="667" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B667" s="10"/>
-    </row>
-    <row r="668" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B668" s="10"/>
-    </row>
-    <row r="669" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B669" s="10"/>
-    </row>
-    <row r="670" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B670" s="10"/>
-    </row>
-    <row r="671" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B671" s="10"/>
-    </row>
-    <row r="672" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B672" s="10"/>
-    </row>
-    <row r="673" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B673" s="10"/>
-    </row>
-    <row r="674" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B674" s="10"/>
-    </row>
-    <row r="675" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B675" s="10"/>
-    </row>
-    <row r="676" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B676" s="10"/>
-    </row>
-    <row r="677" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B677" s="10"/>
-    </row>
-    <row r="678" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B678" s="10"/>
-    </row>
-    <row r="679" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B679" s="10"/>
-    </row>
-    <row r="680" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B680" s="10"/>
-    </row>
-    <row r="681" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B681" s="10"/>
-    </row>
-    <row r="682" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B682" s="10"/>
-    </row>
-    <row r="683" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B683" s="10"/>
-    </row>
-    <row r="684" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B684" s="10"/>
-    </row>
-    <row r="685" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B685" s="10"/>
-    </row>
-    <row r="686" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B686" s="10"/>
-    </row>
-    <row r="687" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B687" s="10"/>
-    </row>
-    <row r="688" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B688" s="10"/>
-    </row>
-    <row r="689" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B689" s="10"/>
-    </row>
-    <row r="690" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B690" s="10"/>
-    </row>
-    <row r="691" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B691" s="10"/>
-    </row>
-    <row r="692" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B692" s="10"/>
-    </row>
-    <row r="693" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B693" s="10"/>
-    </row>
-    <row r="694" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B694" s="10"/>
-    </row>
-    <row r="695" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B695" s="10"/>
-    </row>
-    <row r="696" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B696" s="10"/>
-    </row>
-    <row r="697" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B697" s="10"/>
-    </row>
-    <row r="698" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B698" s="10"/>
-    </row>
-    <row r="699" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B699" s="10"/>
-    </row>
-    <row r="700" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B700" s="10"/>
-    </row>
-    <row r="701" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B701" s="10"/>
-    </row>
-    <row r="702" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B702" s="10"/>
-    </row>
-    <row r="703" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B703" s="10"/>
-    </row>
-    <row r="704" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B704" s="10"/>
-    </row>
-    <row r="705" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B705" s="10"/>
-    </row>
-    <row r="706" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B706" s="10"/>
-    </row>
-    <row r="707" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B707" s="10"/>
-    </row>
-    <row r="708" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B708" s="10"/>
-    </row>
-    <row r="709" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B709" s="10"/>
-    </row>
-    <row r="710" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B710" s="10"/>
-    </row>
-    <row r="711" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B711" s="10"/>
-    </row>
-    <row r="712" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B712" s="10"/>
-    </row>
-    <row r="713" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B713" s="10"/>
-    </row>
-    <row r="714" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B714" s="10"/>
-    </row>
-    <row r="715" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B715" s="10"/>
-    </row>
-    <row r="716" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B716" s="10"/>
-    </row>
-    <row r="717" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B717" s="10"/>
-    </row>
-    <row r="718" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B718" s="10"/>
-    </row>
-    <row r="719" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B719" s="10"/>
-    </row>
-    <row r="720" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B720" s="10"/>
-    </row>
-    <row r="721" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B721" s="10"/>
-    </row>
-    <row r="722" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B722" s="10"/>
-    </row>
-    <row r="723" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B723" s="10"/>
-    </row>
-    <row r="724" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B724" s="10"/>
-    </row>
-    <row r="725" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B725" s="10"/>
-    </row>
-    <row r="726" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B726" s="10"/>
-    </row>
-    <row r="727" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B727" s="10"/>
-    </row>
-    <row r="728" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B728" s="10"/>
-    </row>
-    <row r="729" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B729" s="10"/>
-    </row>
-    <row r="730" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B730" s="10"/>
-    </row>
-    <row r="731" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B731" s="10"/>
-    </row>
-    <row r="732" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B732" s="10"/>
-    </row>
-    <row r="733" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B733" s="10"/>
-    </row>
-    <row r="734" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B734" s="10"/>
-    </row>
-    <row r="735" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B735" s="10"/>
-    </row>
-    <row r="736" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B736" s="10"/>
-    </row>
-    <row r="737" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B737" s="10"/>
-    </row>
-    <row r="738" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B738" s="10"/>
-    </row>
-    <row r="739" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B739" s="10"/>
-    </row>
-    <row r="740" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B740" s="10"/>
-    </row>
-    <row r="741" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B741" s="10"/>
-    </row>
-    <row r="742" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B742" s="10"/>
-    </row>
-    <row r="743" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B743" s="10"/>
-    </row>
-    <row r="744" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B744" s="10"/>
-    </row>
-    <row r="745" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B745" s="10"/>
-    </row>
-    <row r="746" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B746" s="10"/>
-    </row>
-    <row r="747" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B747" s="10"/>
-    </row>
-    <row r="748" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B748" s="10"/>
-    </row>
-    <row r="749" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B749" s="10"/>
-    </row>
-    <row r="750" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B750" s="10"/>
-    </row>
-    <row r="751" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B751" s="10"/>
-    </row>
-    <row r="752" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B752" s="10"/>
-    </row>
-    <row r="753" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B753" s="10"/>
-    </row>
-    <row r="754" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B754" s="10"/>
-    </row>
-    <row r="755" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B755" s="10"/>
-    </row>
-    <row r="756" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B756" s="10"/>
-    </row>
-    <row r="757" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B757" s="10"/>
-    </row>
-    <row r="758" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B758" s="10"/>
-    </row>
-    <row r="759" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B759" s="10"/>
-    </row>
-    <row r="760" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B760" s="10"/>
-    </row>
-    <row r="761" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B761" s="10"/>
-    </row>
-    <row r="762" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B762" s="10"/>
-    </row>
-    <row r="763" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B763" s="10"/>
-    </row>
-    <row r="764" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B764" s="10"/>
-    </row>
-    <row r="765" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B765" s="10"/>
-    </row>
-    <row r="766" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B766" s="10"/>
-    </row>
-    <row r="767" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B767" s="10"/>
-    </row>
-    <row r="768" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B768" s="10"/>
-    </row>
-    <row r="769" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B769" s="10"/>
-    </row>
-    <row r="770" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B770" s="10"/>
-    </row>
-    <row r="771" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B771" s="10"/>
-    </row>
-    <row r="772" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B772" s="10"/>
-    </row>
-    <row r="773" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B773" s="10"/>
-    </row>
-    <row r="774" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B774" s="10"/>
-    </row>
-    <row r="775" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B775" s="10"/>
-    </row>
-    <row r="776" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B776" s="10"/>
-    </row>
-    <row r="777" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B777" s="10"/>
-    </row>
-    <row r="778" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B778" s="10"/>
-    </row>
-    <row r="779" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B779" s="10"/>
-    </row>
-    <row r="780" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B780" s="10"/>
-    </row>
-    <row r="781" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B781" s="10"/>
-    </row>
-    <row r="782" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B782" s="10"/>
-    </row>
-    <row r="783" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B783" s="10"/>
-    </row>
-    <row r="784" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B784" s="10"/>
-    </row>
-    <row r="785" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B785" s="10"/>
-    </row>
-    <row r="786" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B786" s="10"/>
-    </row>
-    <row r="787" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B787" s="10"/>
-    </row>
-    <row r="788" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B788" s="10"/>
-    </row>
-    <row r="789" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B789" s="10"/>
-    </row>
-    <row r="790" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B790" s="10"/>
-    </row>
-    <row r="791" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B791" s="10"/>
-    </row>
-    <row r="792" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B792" s="10"/>
-    </row>
-    <row r="793" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B793" s="10"/>
-    </row>
-    <row r="794" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B794" s="10"/>
-    </row>
-    <row r="795" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B795" s="10"/>
-    </row>
-    <row r="796" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B796" s="10"/>
-    </row>
-    <row r="797" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B797" s="10"/>
-    </row>
-    <row r="798" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B798" s="10"/>
-    </row>
-    <row r="799" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B799" s="10"/>
-    </row>
-    <row r="800" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B800" s="10"/>
-    </row>
-    <row r="801" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B801" s="10"/>
-    </row>
-    <row r="802" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B802" s="10"/>
-    </row>
-    <row r="803" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B803" s="10"/>
-    </row>
-    <row r="804" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B804" s="10"/>
-    </row>
-    <row r="805" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B805" s="10"/>
-    </row>
-    <row r="806" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B806" s="10"/>
-    </row>
-    <row r="807" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B807" s="10"/>
-    </row>
-    <row r="808" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B808" s="10"/>
-    </row>
-    <row r="809" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B809" s="10"/>
-    </row>
-    <row r="810" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B810" s="10"/>
-    </row>
-    <row r="811" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B811" s="10"/>
-    </row>
-    <row r="812" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B812" s="10"/>
-    </row>
-    <row r="813" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B813" s="10"/>
-    </row>
-    <row r="814" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B814" s="10"/>
-    </row>
-    <row r="815" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B815" s="10"/>
-    </row>
-    <row r="816" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B816" s="10"/>
-    </row>
-    <row r="817" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B817" s="10"/>
-    </row>
-    <row r="818" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B818" s="10"/>
-    </row>
-    <row r="819" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B819" s="10"/>
-    </row>
-    <row r="820" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B820" s="10"/>
-    </row>
-    <row r="821" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B821" s="10"/>
-    </row>
-    <row r="822" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B822" s="10"/>
-    </row>
-    <row r="823" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B823" s="10"/>
-    </row>
-    <row r="824" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B824" s="10"/>
-    </row>
-    <row r="825" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B825" s="10"/>
-    </row>
-    <row r="826" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B826" s="10"/>
-    </row>
-    <row r="827" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B827" s="10"/>
-    </row>
-    <row r="828" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B828" s="10"/>
-    </row>
-    <row r="829" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B829" s="10"/>
-    </row>
-    <row r="830" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B830" s="10"/>
-    </row>
-    <row r="831" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B831" s="10"/>
-    </row>
-    <row r="832" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B832" s="10"/>
-    </row>
-    <row r="833" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B833" s="10"/>
-    </row>
-    <row r="834" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B834" s="10"/>
-    </row>
-    <row r="835" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B835" s="10"/>
-    </row>
-    <row r="836" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B836" s="10"/>
-    </row>
-    <row r="837" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B837" s="10"/>
-    </row>
-    <row r="838" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B838" s="10"/>
-    </row>
-    <row r="839" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B839" s="10"/>
-    </row>
-    <row r="840" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B840" s="10"/>
-    </row>
-    <row r="841" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B841" s="10"/>
-    </row>
-    <row r="842" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B842" s="10"/>
-    </row>
-    <row r="843" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B843" s="10"/>
-    </row>
-    <row r="844" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B844" s="10"/>
-    </row>
-    <row r="845" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B845" s="10"/>
-    </row>
-    <row r="846" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B846" s="10"/>
-    </row>
-    <row r="847" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B847" s="10"/>
-    </row>
-    <row r="848" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B848" s="10"/>
-    </row>
-    <row r="849" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B849" s="10"/>
-    </row>
-    <row r="850" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B850" s="10"/>
-    </row>
-    <row r="851" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B851" s="10"/>
-    </row>
-    <row r="852" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B852" s="10"/>
-    </row>
-    <row r="853" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B853" s="10"/>
-    </row>
-    <row r="854" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B854" s="10"/>
-    </row>
-    <row r="855" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B855" s="10"/>
-    </row>
-    <row r="856" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B856" s="10"/>
-    </row>
-    <row r="857" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B857" s="10"/>
-    </row>
-    <row r="858" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B858" s="10"/>
-    </row>
-    <row r="859" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B859" s="10"/>
-    </row>
-    <row r="860" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B860" s="10"/>
-    </row>
-    <row r="861" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B861" s="10"/>
-    </row>
-    <row r="862" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B862" s="10"/>
-    </row>
-    <row r="863" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B863" s="10"/>
-    </row>
-    <row r="864" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B864" s="10"/>
-    </row>
-    <row r="865" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B865" s="10"/>
-    </row>
-    <row r="866" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B866" s="10"/>
-    </row>
-    <row r="867" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B867" s="10"/>
-    </row>
-    <row r="868" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B868" s="10"/>
-    </row>
-    <row r="869" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B869" s="10"/>
-    </row>
-    <row r="870" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B870" s="10"/>
-    </row>
-    <row r="871" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B871" s="10"/>
-    </row>
-    <row r="872" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B872" s="10"/>
-    </row>
-    <row r="873" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B873" s="10"/>
-    </row>
-    <row r="874" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B874" s="10"/>
-    </row>
-    <row r="875" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B875" s="10"/>
-    </row>
-    <row r="876" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B876" s="10"/>
-    </row>
-    <row r="877" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B877" s="10"/>
-    </row>
-    <row r="878" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B878" s="10"/>
-    </row>
-    <row r="879" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B879" s="10"/>
-    </row>
-    <row r="880" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B880" s="10"/>
-    </row>
-    <row r="881" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B881" s="10"/>
-    </row>
-    <row r="882" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B882" s="10"/>
-    </row>
-    <row r="883" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B883" s="10"/>
-    </row>
-    <row r="884" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B884" s="10"/>
-    </row>
-    <row r="885" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B885" s="10"/>
-    </row>
-    <row r="886" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B886" s="10"/>
-    </row>
-    <row r="887" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B887" s="10"/>
-    </row>
-    <row r="888" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B888" s="10"/>
-    </row>
-    <row r="889" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B889" s="10"/>
-    </row>
-    <row r="890" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B890" s="10"/>
-    </row>
-    <row r="891" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B891" s="10"/>
-    </row>
-    <row r="892" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B892" s="10"/>
-    </row>
-    <row r="893" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B893" s="10"/>
-    </row>
-    <row r="894" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B894" s="10"/>
-    </row>
-    <row r="895" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B895" s="10"/>
-    </row>
-    <row r="896" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B896" s="10"/>
-    </row>
-    <row r="897" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B897" s="10"/>
-    </row>
-    <row r="898" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B898" s="10"/>
-    </row>
-    <row r="899" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B899" s="10"/>
-    </row>
-    <row r="900" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B900" s="10"/>
-    </row>
-    <row r="901" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B901" s="10"/>
-    </row>
-    <row r="902" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B902" s="10"/>
-    </row>
-    <row r="903" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B903" s="10"/>
-    </row>
-    <row r="904" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B904" s="10"/>
-    </row>
-    <row r="905" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B905" s="10"/>
-    </row>
-    <row r="906" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B906" s="10"/>
-    </row>
-    <row r="907" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B907" s="10"/>
-    </row>
-    <row r="908" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B908" s="10"/>
-    </row>
-    <row r="909" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B909" s="10"/>
-    </row>
-    <row r="910" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B910" s="10"/>
-    </row>
-    <row r="911" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B911" s="10"/>
-    </row>
-    <row r="912" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B912" s="10"/>
-    </row>
-    <row r="913" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B913" s="10"/>
-    </row>
-    <row r="914" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B914" s="10"/>
-    </row>
-    <row r="915" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B915" s="10"/>
-    </row>
-    <row r="916" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B916" s="10"/>
-    </row>
-    <row r="917" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B917" s="10"/>
-    </row>
-    <row r="918" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B918" s="10"/>
-    </row>
-    <row r="919" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B919" s="10"/>
-    </row>
-    <row r="920" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B920" s="10"/>
-    </row>
-    <row r="921" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B921" s="10"/>
-    </row>
-    <row r="922" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B922" s="10"/>
-    </row>
-    <row r="923" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B923" s="10"/>
-    </row>
-    <row r="924" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B924" s="10"/>
-    </row>
-    <row r="925" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B925" s="10"/>
-    </row>
-    <row r="926" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B926" s="10"/>
-    </row>
-    <row r="927" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B927" s="10"/>
-    </row>
-    <row r="928" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B928" s="10"/>
-    </row>
-    <row r="929" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B929" s="10"/>
-    </row>
-    <row r="930" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B930" s="10"/>
-    </row>
-    <row r="931" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B931" s="10"/>
-    </row>
-    <row r="932" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B932" s="10"/>
-    </row>
-    <row r="933" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B933" s="10"/>
-    </row>
-    <row r="934" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B934" s="10"/>
-    </row>
-    <row r="935" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B935" s="10"/>
-    </row>
-    <row r="936" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B936" s="10"/>
-    </row>
-    <row r="937" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B937" s="10"/>
-    </row>
-    <row r="938" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B938" s="10"/>
-    </row>
-    <row r="939" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B939" s="10"/>
-    </row>
-    <row r="940" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B940" s="10"/>
-    </row>
-    <row r="941" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B941" s="10"/>
-    </row>
-    <row r="942" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B942" s="10"/>
-    </row>
-    <row r="943" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B943" s="10"/>
-    </row>
-    <row r="944" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B944" s="10"/>
-    </row>
-    <row r="945" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B945" s="10"/>
-    </row>
-    <row r="946" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B946" s="10"/>
-    </row>
-    <row r="947" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B947" s="10"/>
-    </row>
-    <row r="948" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B948" s="10"/>
-    </row>
-    <row r="949" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B949" s="10"/>
-    </row>
-    <row r="950" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B950" s="10"/>
-    </row>
-    <row r="951" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B951" s="10"/>
-    </row>
-    <row r="952" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B952" s="10"/>
-    </row>
-    <row r="953" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B953" s="10"/>
-    </row>
-    <row r="954" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B954" s="10"/>
-    </row>
-    <row r="955" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B955" s="10"/>
-    </row>
-    <row r="956" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B956" s="10"/>
-    </row>
-    <row r="957" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B957" s="10"/>
-    </row>
-    <row r="958" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B958" s="10"/>
-    </row>
-    <row r="959" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B959" s="10"/>
-    </row>
-    <row r="960" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B960" s="10"/>
-    </row>
-    <row r="961" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B961" s="10"/>
-    </row>
-    <row r="962" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B962" s="10"/>
-    </row>
-    <row r="963" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B963" s="10"/>
-    </row>
-    <row r="964" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B964" s="10"/>
-    </row>
-    <row r="965" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B965" s="10"/>
-    </row>
-    <row r="966" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B966" s="10"/>
-    </row>
-    <row r="967" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B967" s="10"/>
-    </row>
-    <row r="968" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B968" s="10"/>
-    </row>
-    <row r="969" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B969" s="10"/>
-    </row>
-    <row r="970" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B970" s="10"/>
-    </row>
-    <row r="971" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B971" s="10"/>
-    </row>
-    <row r="972" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B972" s="10"/>
-    </row>
-    <row r="973" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B973" s="10"/>
-    </row>
-    <row r="974" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B974" s="10"/>
-    </row>
-    <row r="975" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B975" s="10"/>
-    </row>
-    <row r="976" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B976" s="10"/>
-    </row>
-    <row r="977" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B977" s="10"/>
-    </row>
-    <row r="978" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B978" s="10"/>
-    </row>
-    <row r="979" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B979" s="10"/>
-    </row>
-    <row r="980" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B980" s="10"/>
-    </row>
-    <row r="981" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B981" s="10"/>
-    </row>
-    <row r="982" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B982" s="10"/>
-    </row>
-    <row r="983" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B983" s="10"/>
-    </row>
-    <row r="984" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B984" s="10"/>
-    </row>
-    <row r="985" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B985" s="10"/>
-    </row>
-    <row r="986" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B986" s="10"/>
-    </row>
-    <row r="987" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B987" s="10"/>
-    </row>
-    <row r="988" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B988" s="10"/>
-    </row>
-    <row r="989" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B989" s="10"/>
-    </row>
-    <row r="990" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B990" s="10"/>
-    </row>
-    <row r="991" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B991" s="10"/>
-    </row>
-    <row r="992" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B992" s="10"/>
-    </row>
-    <row r="993" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B993" s="10"/>
-    </row>
-    <row r="994" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B994" s="10"/>
-    </row>
-    <row r="995" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B995" s="10"/>
-    </row>
-    <row r="996" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B996" s="10"/>
-    </row>
-    <row r="997" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B997" s="10"/>
-    </row>
-    <row r="998" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B998" s="10"/>
-    </row>
-    <row r="999" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B999" s="10"/>
-    </row>
-    <row r="1000" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1000" s="10"/>
-    </row>
-    <row r="1001" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1001" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:D1000"/>
   <sheetViews>
@@ -17257,6 +13841,3089 @@
     <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="B1:E1001"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.73046875" customWidth="1"/>
+    <col min="2" max="2" width="20.3984375" customWidth="1"/>
+    <col min="3" max="3" width="8.73046875" customWidth="1"/>
+    <col min="4" max="4" width="31.86328125" customWidth="1"/>
+    <col min="5" max="26" width="8.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>MAX(B3:B5)</f>
+        <v>7</v>
+      </c>
+      <c r="E3" t="e">
+        <f>AVERAGE(B3:B9)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <f>MAX(B3:B6)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="2">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <f>MAX(B3:B7)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="2"/>
+      <c r="D6" t="e">
+        <f>MAX(B3:B8)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="11"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="10"/>
+    </row>
+    <row r="34" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="10"/>
+    </row>
+    <row r="36" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="10"/>
+    </row>
+    <row r="37" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="10"/>
+    </row>
+    <row r="38" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="10"/>
+    </row>
+    <row r="39" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="10"/>
+    </row>
+    <row r="40" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="10"/>
+    </row>
+    <row r="41" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="10"/>
+    </row>
+    <row r="42" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="10"/>
+    </row>
+    <row r="43" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="10"/>
+    </row>
+    <row r="44" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="10"/>
+    </row>
+    <row r="45" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="10"/>
+    </row>
+    <row r="46" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="10"/>
+    </row>
+    <row r="47" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="10"/>
+    </row>
+    <row r="48" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="10"/>
+    </row>
+    <row r="49" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="10"/>
+    </row>
+    <row r="50" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="10"/>
+    </row>
+    <row r="51" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="10"/>
+    </row>
+    <row r="52" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="10"/>
+    </row>
+    <row r="53" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="10"/>
+    </row>
+    <row r="54" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="10"/>
+    </row>
+    <row r="55" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="10"/>
+    </row>
+    <row r="56" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="10"/>
+    </row>
+    <row r="57" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="10"/>
+    </row>
+    <row r="58" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="10"/>
+    </row>
+    <row r="59" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="10"/>
+    </row>
+    <row r="60" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="10"/>
+    </row>
+    <row r="61" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="10"/>
+    </row>
+    <row r="62" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="10"/>
+    </row>
+    <row r="63" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="10"/>
+    </row>
+    <row r="64" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="10"/>
+    </row>
+    <row r="65" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="10"/>
+    </row>
+    <row r="66" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="10"/>
+    </row>
+    <row r="67" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="10"/>
+    </row>
+    <row r="68" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="10"/>
+    </row>
+    <row r="69" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="10"/>
+    </row>
+    <row r="70" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="10"/>
+    </row>
+    <row r="71" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="10"/>
+    </row>
+    <row r="72" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="10"/>
+    </row>
+    <row r="73" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="10"/>
+    </row>
+    <row r="74" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="10"/>
+    </row>
+    <row r="75" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="10"/>
+    </row>
+    <row r="76" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="10"/>
+    </row>
+    <row r="77" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="10"/>
+    </row>
+    <row r="78" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="10"/>
+    </row>
+    <row r="79" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="10"/>
+    </row>
+    <row r="80" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="10"/>
+    </row>
+    <row r="81" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="10"/>
+    </row>
+    <row r="82" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="10"/>
+    </row>
+    <row r="83" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="10"/>
+    </row>
+    <row r="84" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="10"/>
+    </row>
+    <row r="85" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="10"/>
+    </row>
+    <row r="86" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="10"/>
+    </row>
+    <row r="87" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="10"/>
+    </row>
+    <row r="88" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="10"/>
+    </row>
+    <row r="89" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="10"/>
+    </row>
+    <row r="90" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B90" s="10"/>
+    </row>
+    <row r="91" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B91" s="10"/>
+    </row>
+    <row r="92" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B92" s="10"/>
+    </row>
+    <row r="93" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B93" s="10"/>
+    </row>
+    <row r="94" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B94" s="10"/>
+    </row>
+    <row r="95" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B95" s="10"/>
+    </row>
+    <row r="96" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B96" s="10"/>
+    </row>
+    <row r="97" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B97" s="10"/>
+    </row>
+    <row r="98" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B98" s="10"/>
+    </row>
+    <row r="99" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="10"/>
+    </row>
+    <row r="100" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B100" s="10"/>
+    </row>
+    <row r="101" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B101" s="10"/>
+    </row>
+    <row r="102" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B102" s="10"/>
+    </row>
+    <row r="103" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B103" s="10"/>
+    </row>
+    <row r="104" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B104" s="10"/>
+    </row>
+    <row r="105" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B105" s="10"/>
+    </row>
+    <row r="106" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B106" s="10"/>
+    </row>
+    <row r="107" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B107" s="10"/>
+    </row>
+    <row r="108" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B108" s="10"/>
+    </row>
+    <row r="109" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B109" s="10"/>
+    </row>
+    <row r="110" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B110" s="10"/>
+    </row>
+    <row r="111" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B111" s="10"/>
+    </row>
+    <row r="112" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B112" s="10"/>
+    </row>
+    <row r="113" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B113" s="10"/>
+    </row>
+    <row r="114" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B114" s="10"/>
+    </row>
+    <row r="115" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B115" s="10"/>
+    </row>
+    <row r="116" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B116" s="10"/>
+    </row>
+    <row r="117" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B117" s="10"/>
+    </row>
+    <row r="118" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B118" s="10"/>
+    </row>
+    <row r="119" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B119" s="10"/>
+    </row>
+    <row r="120" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B120" s="10"/>
+    </row>
+    <row r="121" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B121" s="10"/>
+    </row>
+    <row r="122" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B122" s="10"/>
+    </row>
+    <row r="123" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B123" s="10"/>
+    </row>
+    <row r="124" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B124" s="10"/>
+    </row>
+    <row r="125" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B125" s="10"/>
+    </row>
+    <row r="126" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B126" s="10"/>
+    </row>
+    <row r="127" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B127" s="10"/>
+    </row>
+    <row r="128" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B128" s="10"/>
+    </row>
+    <row r="129" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B129" s="10"/>
+    </row>
+    <row r="130" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B130" s="10"/>
+    </row>
+    <row r="131" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B131" s="10"/>
+    </row>
+    <row r="132" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B132" s="10"/>
+    </row>
+    <row r="133" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B133" s="10"/>
+    </row>
+    <row r="134" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B134" s="10"/>
+    </row>
+    <row r="135" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B135" s="10"/>
+    </row>
+    <row r="136" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B136" s="10"/>
+    </row>
+    <row r="137" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B137" s="10"/>
+    </row>
+    <row r="138" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B138" s="10"/>
+    </row>
+    <row r="139" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B139" s="10"/>
+    </row>
+    <row r="140" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B140" s="10"/>
+    </row>
+    <row r="141" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B141" s="10"/>
+    </row>
+    <row r="142" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B142" s="10"/>
+    </row>
+    <row r="143" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B143" s="10"/>
+    </row>
+    <row r="144" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B144" s="10"/>
+    </row>
+    <row r="145" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B145" s="10"/>
+    </row>
+    <row r="146" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B146" s="10"/>
+    </row>
+    <row r="147" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B147" s="10"/>
+    </row>
+    <row r="148" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B148" s="10"/>
+    </row>
+    <row r="149" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B149" s="10"/>
+    </row>
+    <row r="150" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B150" s="10"/>
+    </row>
+    <row r="151" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B151" s="10"/>
+    </row>
+    <row r="152" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B152" s="10"/>
+    </row>
+    <row r="153" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B153" s="10"/>
+    </row>
+    <row r="154" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B154" s="10"/>
+    </row>
+    <row r="155" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B155" s="10"/>
+    </row>
+    <row r="156" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B156" s="10"/>
+    </row>
+    <row r="157" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B157" s="10"/>
+    </row>
+    <row r="158" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B158" s="10"/>
+    </row>
+    <row r="159" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B159" s="10"/>
+    </row>
+    <row r="160" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B160" s="10"/>
+    </row>
+    <row r="161" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B161" s="10"/>
+    </row>
+    <row r="162" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B162" s="10"/>
+    </row>
+    <row r="163" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B163" s="10"/>
+    </row>
+    <row r="164" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B164" s="10"/>
+    </row>
+    <row r="165" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B165" s="10"/>
+    </row>
+    <row r="166" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B166" s="10"/>
+    </row>
+    <row r="167" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B167" s="10"/>
+    </row>
+    <row r="168" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B168" s="10"/>
+    </row>
+    <row r="169" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B169" s="10"/>
+    </row>
+    <row r="170" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B170" s="10"/>
+    </row>
+    <row r="171" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B171" s="10"/>
+    </row>
+    <row r="172" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B172" s="10"/>
+    </row>
+    <row r="173" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B173" s="10"/>
+    </row>
+    <row r="174" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B174" s="10"/>
+    </row>
+    <row r="175" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B175" s="10"/>
+    </row>
+    <row r="176" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B176" s="10"/>
+    </row>
+    <row r="177" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B177" s="10"/>
+    </row>
+    <row r="178" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B178" s="10"/>
+    </row>
+    <row r="179" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B179" s="10"/>
+    </row>
+    <row r="180" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B180" s="10"/>
+    </row>
+    <row r="181" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B181" s="10"/>
+    </row>
+    <row r="182" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B182" s="10"/>
+    </row>
+    <row r="183" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B183" s="10"/>
+    </row>
+    <row r="184" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B184" s="10"/>
+    </row>
+    <row r="185" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B185" s="10"/>
+    </row>
+    <row r="186" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B186" s="10"/>
+    </row>
+    <row r="187" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B187" s="10"/>
+    </row>
+    <row r="188" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B188" s="10"/>
+    </row>
+    <row r="189" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B189" s="10"/>
+    </row>
+    <row r="190" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B190" s="10"/>
+    </row>
+    <row r="191" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B191" s="10"/>
+    </row>
+    <row r="192" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B192" s="10"/>
+    </row>
+    <row r="193" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B193" s="10"/>
+    </row>
+    <row r="194" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B194" s="10"/>
+    </row>
+    <row r="195" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B195" s="10"/>
+    </row>
+    <row r="196" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B196" s="10"/>
+    </row>
+    <row r="197" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B197" s="10"/>
+    </row>
+    <row r="198" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B198" s="10"/>
+    </row>
+    <row r="199" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B199" s="10"/>
+    </row>
+    <row r="200" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B200" s="10"/>
+    </row>
+    <row r="201" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B201" s="10"/>
+    </row>
+    <row r="202" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B202" s="10"/>
+    </row>
+    <row r="203" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B203" s="10"/>
+    </row>
+    <row r="204" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B204" s="10"/>
+    </row>
+    <row r="205" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B205" s="10"/>
+    </row>
+    <row r="206" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B206" s="10"/>
+    </row>
+    <row r="207" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B207" s="10"/>
+    </row>
+    <row r="208" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B208" s="10"/>
+    </row>
+    <row r="209" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B209" s="10"/>
+    </row>
+    <row r="210" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B210" s="10"/>
+    </row>
+    <row r="211" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B211" s="10"/>
+    </row>
+    <row r="212" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B212" s="10"/>
+    </row>
+    <row r="213" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B213" s="10"/>
+    </row>
+    <row r="214" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B214" s="10"/>
+    </row>
+    <row r="215" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B215" s="10"/>
+    </row>
+    <row r="216" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B216" s="10"/>
+    </row>
+    <row r="217" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B217" s="10"/>
+    </row>
+    <row r="218" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B218" s="10"/>
+    </row>
+    <row r="219" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B219" s="10"/>
+    </row>
+    <row r="220" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B220" s="10"/>
+    </row>
+    <row r="221" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B221" s="10"/>
+    </row>
+    <row r="222" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B222" s="10"/>
+    </row>
+    <row r="223" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B223" s="10"/>
+    </row>
+    <row r="224" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B224" s="10"/>
+    </row>
+    <row r="225" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B225" s="10"/>
+    </row>
+    <row r="226" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B226" s="10"/>
+    </row>
+    <row r="227" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B227" s="10"/>
+    </row>
+    <row r="228" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B228" s="10"/>
+    </row>
+    <row r="229" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B229" s="10"/>
+    </row>
+    <row r="230" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B230" s="10"/>
+    </row>
+    <row r="231" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B231" s="10"/>
+    </row>
+    <row r="232" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B232" s="10"/>
+    </row>
+    <row r="233" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B233" s="10"/>
+    </row>
+    <row r="234" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B234" s="10"/>
+    </row>
+    <row r="235" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B235" s="10"/>
+    </row>
+    <row r="236" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B236" s="10"/>
+    </row>
+    <row r="237" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B237" s="10"/>
+    </row>
+    <row r="238" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B238" s="10"/>
+    </row>
+    <row r="239" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B239" s="10"/>
+    </row>
+    <row r="240" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B240" s="10"/>
+    </row>
+    <row r="241" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B241" s="10"/>
+    </row>
+    <row r="242" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B242" s="10"/>
+    </row>
+    <row r="243" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B243" s="10"/>
+    </row>
+    <row r="244" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B244" s="10"/>
+    </row>
+    <row r="245" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B245" s="10"/>
+    </row>
+    <row r="246" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B246" s="10"/>
+    </row>
+    <row r="247" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B247" s="10"/>
+    </row>
+    <row r="248" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B248" s="10"/>
+    </row>
+    <row r="249" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B249" s="10"/>
+    </row>
+    <row r="250" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B250" s="10"/>
+    </row>
+    <row r="251" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B251" s="10"/>
+    </row>
+    <row r="252" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B252" s="10"/>
+    </row>
+    <row r="253" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B253" s="10"/>
+    </row>
+    <row r="254" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B254" s="10"/>
+    </row>
+    <row r="255" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B255" s="10"/>
+    </row>
+    <row r="256" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B256" s="10"/>
+    </row>
+    <row r="257" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B257" s="10"/>
+    </row>
+    <row r="258" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B258" s="10"/>
+    </row>
+    <row r="259" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B259" s="10"/>
+    </row>
+    <row r="260" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B260" s="10"/>
+    </row>
+    <row r="261" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B261" s="10"/>
+    </row>
+    <row r="262" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B262" s="10"/>
+    </row>
+    <row r="263" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B263" s="10"/>
+    </row>
+    <row r="264" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B264" s="10"/>
+    </row>
+    <row r="265" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B265" s="10"/>
+    </row>
+    <row r="266" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B266" s="10"/>
+    </row>
+    <row r="267" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B267" s="10"/>
+    </row>
+    <row r="268" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B268" s="10"/>
+    </row>
+    <row r="269" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B269" s="10"/>
+    </row>
+    <row r="270" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B270" s="10"/>
+    </row>
+    <row r="271" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B271" s="10"/>
+    </row>
+    <row r="272" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B272" s="10"/>
+    </row>
+    <row r="273" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B273" s="10"/>
+    </row>
+    <row r="274" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B274" s="10"/>
+    </row>
+    <row r="275" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B275" s="10"/>
+    </row>
+    <row r="276" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B276" s="10"/>
+    </row>
+    <row r="277" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B277" s="10"/>
+    </row>
+    <row r="278" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B278" s="10"/>
+    </row>
+    <row r="279" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B279" s="10"/>
+    </row>
+    <row r="280" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B280" s="10"/>
+    </row>
+    <row r="281" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B281" s="10"/>
+    </row>
+    <row r="282" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B282" s="10"/>
+    </row>
+    <row r="283" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B283" s="10"/>
+    </row>
+    <row r="284" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B284" s="10"/>
+    </row>
+    <row r="285" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B285" s="10"/>
+    </row>
+    <row r="286" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B286" s="10"/>
+    </row>
+    <row r="287" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B287" s="10"/>
+    </row>
+    <row r="288" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B288" s="10"/>
+    </row>
+    <row r="289" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B289" s="10"/>
+    </row>
+    <row r="290" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B290" s="10"/>
+    </row>
+    <row r="291" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B291" s="10"/>
+    </row>
+    <row r="292" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B292" s="10"/>
+    </row>
+    <row r="293" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B293" s="10"/>
+    </row>
+    <row r="294" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B294" s="10"/>
+    </row>
+    <row r="295" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B295" s="10"/>
+    </row>
+    <row r="296" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B296" s="10"/>
+    </row>
+    <row r="297" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B297" s="10"/>
+    </row>
+    <row r="298" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B298" s="10"/>
+    </row>
+    <row r="299" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B299" s="10"/>
+    </row>
+    <row r="300" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B300" s="10"/>
+    </row>
+    <row r="301" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B301" s="10"/>
+    </row>
+    <row r="302" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B302" s="10"/>
+    </row>
+    <row r="303" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B303" s="10"/>
+    </row>
+    <row r="304" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B304" s="10"/>
+    </row>
+    <row r="305" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B305" s="10"/>
+    </row>
+    <row r="306" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B306" s="10"/>
+    </row>
+    <row r="307" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B307" s="10"/>
+    </row>
+    <row r="308" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B308" s="10"/>
+    </row>
+    <row r="309" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B309" s="10"/>
+    </row>
+    <row r="310" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B310" s="10"/>
+    </row>
+    <row r="311" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B311" s="10"/>
+    </row>
+    <row r="312" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B312" s="10"/>
+    </row>
+    <row r="313" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B313" s="10"/>
+    </row>
+    <row r="314" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B314" s="10"/>
+    </row>
+    <row r="315" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B315" s="10"/>
+    </row>
+    <row r="316" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B316" s="10"/>
+    </row>
+    <row r="317" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B317" s="10"/>
+    </row>
+    <row r="318" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B318" s="10"/>
+    </row>
+    <row r="319" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B319" s="10"/>
+    </row>
+    <row r="320" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B320" s="10"/>
+    </row>
+    <row r="321" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B321" s="10"/>
+    </row>
+    <row r="322" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B322" s="10"/>
+    </row>
+    <row r="323" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B323" s="10"/>
+    </row>
+    <row r="324" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B324" s="10"/>
+    </row>
+    <row r="325" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B325" s="10"/>
+    </row>
+    <row r="326" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B326" s="10"/>
+    </row>
+    <row r="327" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B327" s="10"/>
+    </row>
+    <row r="328" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B328" s="10"/>
+    </row>
+    <row r="329" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B329" s="10"/>
+    </row>
+    <row r="330" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B330" s="10"/>
+    </row>
+    <row r="331" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B331" s="10"/>
+    </row>
+    <row r="332" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B332" s="10"/>
+    </row>
+    <row r="333" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B333" s="10"/>
+    </row>
+    <row r="334" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B334" s="10"/>
+    </row>
+    <row r="335" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B335" s="10"/>
+    </row>
+    <row r="336" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B336" s="10"/>
+    </row>
+    <row r="337" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B337" s="10"/>
+    </row>
+    <row r="338" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B338" s="10"/>
+    </row>
+    <row r="339" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B339" s="10"/>
+    </row>
+    <row r="340" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B340" s="10"/>
+    </row>
+    <row r="341" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B341" s="10"/>
+    </row>
+    <row r="342" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B342" s="10"/>
+    </row>
+    <row r="343" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B343" s="10"/>
+    </row>
+    <row r="344" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B344" s="10"/>
+    </row>
+    <row r="345" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B345" s="10"/>
+    </row>
+    <row r="346" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B346" s="10"/>
+    </row>
+    <row r="347" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B347" s="10"/>
+    </row>
+    <row r="348" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B348" s="10"/>
+    </row>
+    <row r="349" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B349" s="10"/>
+    </row>
+    <row r="350" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B350" s="10"/>
+    </row>
+    <row r="351" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B351" s="10"/>
+    </row>
+    <row r="352" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B352" s="10"/>
+    </row>
+    <row r="353" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B353" s="10"/>
+    </row>
+    <row r="354" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B354" s="10"/>
+    </row>
+    <row r="355" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B355" s="10"/>
+    </row>
+    <row r="356" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B356" s="10"/>
+    </row>
+    <row r="357" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B357" s="10"/>
+    </row>
+    <row r="358" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B358" s="10"/>
+    </row>
+    <row r="359" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B359" s="10"/>
+    </row>
+    <row r="360" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B360" s="10"/>
+    </row>
+    <row r="361" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B361" s="10"/>
+    </row>
+    <row r="362" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B362" s="10"/>
+    </row>
+    <row r="363" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B363" s="10"/>
+    </row>
+    <row r="364" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B364" s="10"/>
+    </row>
+    <row r="365" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B365" s="10"/>
+    </row>
+    <row r="366" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B366" s="10"/>
+    </row>
+    <row r="367" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B367" s="10"/>
+    </row>
+    <row r="368" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B368" s="10"/>
+    </row>
+    <row r="369" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B369" s="10"/>
+    </row>
+    <row r="370" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B370" s="10"/>
+    </row>
+    <row r="371" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B371" s="10"/>
+    </row>
+    <row r="372" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B372" s="10"/>
+    </row>
+    <row r="373" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B373" s="10"/>
+    </row>
+    <row r="374" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B374" s="10"/>
+    </row>
+    <row r="375" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B375" s="10"/>
+    </row>
+    <row r="376" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B376" s="10"/>
+    </row>
+    <row r="377" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B377" s="10"/>
+    </row>
+    <row r="378" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B378" s="10"/>
+    </row>
+    <row r="379" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B379" s="10"/>
+    </row>
+    <row r="380" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B380" s="10"/>
+    </row>
+    <row r="381" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B381" s="10"/>
+    </row>
+    <row r="382" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B382" s="10"/>
+    </row>
+    <row r="383" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B383" s="10"/>
+    </row>
+    <row r="384" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B384" s="10"/>
+    </row>
+    <row r="385" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B385" s="10"/>
+    </row>
+    <row r="386" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B386" s="10"/>
+    </row>
+    <row r="387" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B387" s="10"/>
+    </row>
+    <row r="388" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B388" s="10"/>
+    </row>
+    <row r="389" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B389" s="10"/>
+    </row>
+    <row r="390" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B390" s="10"/>
+    </row>
+    <row r="391" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B391" s="10"/>
+    </row>
+    <row r="392" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B392" s="10"/>
+    </row>
+    <row r="393" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B393" s="10"/>
+    </row>
+    <row r="394" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B394" s="10"/>
+    </row>
+    <row r="395" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B395" s="10"/>
+    </row>
+    <row r="396" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B396" s="10"/>
+    </row>
+    <row r="397" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B397" s="10"/>
+    </row>
+    <row r="398" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B398" s="10"/>
+    </row>
+    <row r="399" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B399" s="10"/>
+    </row>
+    <row r="400" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B400" s="10"/>
+    </row>
+    <row r="401" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B401" s="10"/>
+    </row>
+    <row r="402" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B402" s="10"/>
+    </row>
+    <row r="403" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B403" s="10"/>
+    </row>
+    <row r="404" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B404" s="10"/>
+    </row>
+    <row r="405" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B405" s="10"/>
+    </row>
+    <row r="406" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B406" s="10"/>
+    </row>
+    <row r="407" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B407" s="10"/>
+    </row>
+    <row r="408" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B408" s="10"/>
+    </row>
+    <row r="409" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B409" s="10"/>
+    </row>
+    <row r="410" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B410" s="10"/>
+    </row>
+    <row r="411" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B411" s="10"/>
+    </row>
+    <row r="412" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B412" s="10"/>
+    </row>
+    <row r="413" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B413" s="10"/>
+    </row>
+    <row r="414" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B414" s="10"/>
+    </row>
+    <row r="415" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B415" s="10"/>
+    </row>
+    <row r="416" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B416" s="10"/>
+    </row>
+    <row r="417" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B417" s="10"/>
+    </row>
+    <row r="418" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B418" s="10"/>
+    </row>
+    <row r="419" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B419" s="10"/>
+    </row>
+    <row r="420" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B420" s="10"/>
+    </row>
+    <row r="421" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B421" s="10"/>
+    </row>
+    <row r="422" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B422" s="10"/>
+    </row>
+    <row r="423" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B423" s="10"/>
+    </row>
+    <row r="424" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B424" s="10"/>
+    </row>
+    <row r="425" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B425" s="10"/>
+    </row>
+    <row r="426" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B426" s="10"/>
+    </row>
+    <row r="427" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B427" s="10"/>
+    </row>
+    <row r="428" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B428" s="10"/>
+    </row>
+    <row r="429" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B429" s="10"/>
+    </row>
+    <row r="430" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B430" s="10"/>
+    </row>
+    <row r="431" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B431" s="10"/>
+    </row>
+    <row r="432" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B432" s="10"/>
+    </row>
+    <row r="433" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B433" s="10"/>
+    </row>
+    <row r="434" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B434" s="10"/>
+    </row>
+    <row r="435" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B435" s="10"/>
+    </row>
+    <row r="436" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B436" s="10"/>
+    </row>
+    <row r="437" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B437" s="10"/>
+    </row>
+    <row r="438" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B438" s="10"/>
+    </row>
+    <row r="439" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B439" s="10"/>
+    </row>
+    <row r="440" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B440" s="10"/>
+    </row>
+    <row r="441" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B441" s="10"/>
+    </row>
+    <row r="442" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B442" s="10"/>
+    </row>
+    <row r="443" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B443" s="10"/>
+    </row>
+    <row r="444" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B444" s="10"/>
+    </row>
+    <row r="445" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B445" s="10"/>
+    </row>
+    <row r="446" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B446" s="10"/>
+    </row>
+    <row r="447" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B447" s="10"/>
+    </row>
+    <row r="448" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B448" s="10"/>
+    </row>
+    <row r="449" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B449" s="10"/>
+    </row>
+    <row r="450" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B450" s="10"/>
+    </row>
+    <row r="451" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B451" s="10"/>
+    </row>
+    <row r="452" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B452" s="10"/>
+    </row>
+    <row r="453" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B453" s="10"/>
+    </row>
+    <row r="454" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B454" s="10"/>
+    </row>
+    <row r="455" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B455" s="10"/>
+    </row>
+    <row r="456" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B456" s="10"/>
+    </row>
+    <row r="457" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B457" s="10"/>
+    </row>
+    <row r="458" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B458" s="10"/>
+    </row>
+    <row r="459" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B459" s="10"/>
+    </row>
+    <row r="460" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B460" s="10"/>
+    </row>
+    <row r="461" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B461" s="10"/>
+    </row>
+    <row r="462" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B462" s="10"/>
+    </row>
+    <row r="463" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B463" s="10"/>
+    </row>
+    <row r="464" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B464" s="10"/>
+    </row>
+    <row r="465" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B465" s="10"/>
+    </row>
+    <row r="466" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B466" s="10"/>
+    </row>
+    <row r="467" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B467" s="10"/>
+    </row>
+    <row r="468" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B468" s="10"/>
+    </row>
+    <row r="469" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B469" s="10"/>
+    </row>
+    <row r="470" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B470" s="10"/>
+    </row>
+    <row r="471" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B471" s="10"/>
+    </row>
+    <row r="472" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B472" s="10"/>
+    </row>
+    <row r="473" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B473" s="10"/>
+    </row>
+    <row r="474" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B474" s="10"/>
+    </row>
+    <row r="475" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B475" s="10"/>
+    </row>
+    <row r="476" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B476" s="10"/>
+    </row>
+    <row r="477" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B477" s="10"/>
+    </row>
+    <row r="478" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B478" s="10"/>
+    </row>
+    <row r="479" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B479" s="10"/>
+    </row>
+    <row r="480" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B480" s="10"/>
+    </row>
+    <row r="481" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B481" s="10"/>
+    </row>
+    <row r="482" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B482" s="10"/>
+    </row>
+    <row r="483" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B483" s="10"/>
+    </row>
+    <row r="484" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B484" s="10"/>
+    </row>
+    <row r="485" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B485" s="10"/>
+    </row>
+    <row r="486" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B486" s="10"/>
+    </row>
+    <row r="487" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B487" s="10"/>
+    </row>
+    <row r="488" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B488" s="10"/>
+    </row>
+    <row r="489" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B489" s="10"/>
+    </row>
+    <row r="490" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B490" s="10"/>
+    </row>
+    <row r="491" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B491" s="10"/>
+    </row>
+    <row r="492" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B492" s="10"/>
+    </row>
+    <row r="493" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B493" s="10"/>
+    </row>
+    <row r="494" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B494" s="10"/>
+    </row>
+    <row r="495" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B495" s="10"/>
+    </row>
+    <row r="496" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B496" s="10"/>
+    </row>
+    <row r="497" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B497" s="10"/>
+    </row>
+    <row r="498" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B498" s="10"/>
+    </row>
+    <row r="499" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B499" s="10"/>
+    </row>
+    <row r="500" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B500" s="10"/>
+    </row>
+    <row r="501" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B501" s="10"/>
+    </row>
+    <row r="502" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B502" s="10"/>
+    </row>
+    <row r="503" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B503" s="10"/>
+    </row>
+    <row r="504" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B504" s="10"/>
+    </row>
+    <row r="505" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B505" s="10"/>
+    </row>
+    <row r="506" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B506" s="10"/>
+    </row>
+    <row r="507" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B507" s="10"/>
+    </row>
+    <row r="508" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B508" s="10"/>
+    </row>
+    <row r="509" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B509" s="10"/>
+    </row>
+    <row r="510" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B510" s="10"/>
+    </row>
+    <row r="511" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B511" s="10"/>
+    </row>
+    <row r="512" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B512" s="10"/>
+    </row>
+    <row r="513" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B513" s="10"/>
+    </row>
+    <row r="514" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B514" s="10"/>
+    </row>
+    <row r="515" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B515" s="10"/>
+    </row>
+    <row r="516" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B516" s="10"/>
+    </row>
+    <row r="517" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B517" s="10"/>
+    </row>
+    <row r="518" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B518" s="10"/>
+    </row>
+    <row r="519" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B519" s="10"/>
+    </row>
+    <row r="520" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B520" s="10"/>
+    </row>
+    <row r="521" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B521" s="10"/>
+    </row>
+    <row r="522" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B522" s="10"/>
+    </row>
+    <row r="523" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B523" s="10"/>
+    </row>
+    <row r="524" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B524" s="10"/>
+    </row>
+    <row r="525" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B525" s="10"/>
+    </row>
+    <row r="526" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B526" s="10"/>
+    </row>
+    <row r="527" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B527" s="10"/>
+    </row>
+    <row r="528" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B528" s="10"/>
+    </row>
+    <row r="529" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B529" s="10"/>
+    </row>
+    <row r="530" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B530" s="10"/>
+    </row>
+    <row r="531" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B531" s="10"/>
+    </row>
+    <row r="532" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B532" s="10"/>
+    </row>
+    <row r="533" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B533" s="10"/>
+    </row>
+    <row r="534" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B534" s="10"/>
+    </row>
+    <row r="535" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B535" s="10"/>
+    </row>
+    <row r="536" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B536" s="10"/>
+    </row>
+    <row r="537" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B537" s="10"/>
+    </row>
+    <row r="538" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B538" s="10"/>
+    </row>
+    <row r="539" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B539" s="10"/>
+    </row>
+    <row r="540" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B540" s="10"/>
+    </row>
+    <row r="541" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B541" s="10"/>
+    </row>
+    <row r="542" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B542" s="10"/>
+    </row>
+    <row r="543" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B543" s="10"/>
+    </row>
+    <row r="544" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B544" s="10"/>
+    </row>
+    <row r="545" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B545" s="10"/>
+    </row>
+    <row r="546" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B546" s="10"/>
+    </row>
+    <row r="547" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B547" s="10"/>
+    </row>
+    <row r="548" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B548" s="10"/>
+    </row>
+    <row r="549" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B549" s="10"/>
+    </row>
+    <row r="550" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B550" s="10"/>
+    </row>
+    <row r="551" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B551" s="10"/>
+    </row>
+    <row r="552" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B552" s="10"/>
+    </row>
+    <row r="553" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B553" s="10"/>
+    </row>
+    <row r="554" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B554" s="10"/>
+    </row>
+    <row r="555" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B555" s="10"/>
+    </row>
+    <row r="556" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B556" s="10"/>
+    </row>
+    <row r="557" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B557" s="10"/>
+    </row>
+    <row r="558" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B558" s="10"/>
+    </row>
+    <row r="559" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B559" s="10"/>
+    </row>
+    <row r="560" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B560" s="10"/>
+    </row>
+    <row r="561" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B561" s="10"/>
+    </row>
+    <row r="562" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B562" s="10"/>
+    </row>
+    <row r="563" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B563" s="10"/>
+    </row>
+    <row r="564" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B564" s="10"/>
+    </row>
+    <row r="565" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B565" s="10"/>
+    </row>
+    <row r="566" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B566" s="10"/>
+    </row>
+    <row r="567" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B567" s="10"/>
+    </row>
+    <row r="568" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B568" s="10"/>
+    </row>
+    <row r="569" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B569" s="10"/>
+    </row>
+    <row r="570" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B570" s="10"/>
+    </row>
+    <row r="571" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B571" s="10"/>
+    </row>
+    <row r="572" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B572" s="10"/>
+    </row>
+    <row r="573" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B573" s="10"/>
+    </row>
+    <row r="574" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B574" s="10"/>
+    </row>
+    <row r="575" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B575" s="10"/>
+    </row>
+    <row r="576" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B576" s="10"/>
+    </row>
+    <row r="577" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B577" s="10"/>
+    </row>
+    <row r="578" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B578" s="10"/>
+    </row>
+    <row r="579" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B579" s="10"/>
+    </row>
+    <row r="580" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B580" s="10"/>
+    </row>
+    <row r="581" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B581" s="10"/>
+    </row>
+    <row r="582" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B582" s="10"/>
+    </row>
+    <row r="583" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B583" s="10"/>
+    </row>
+    <row r="584" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B584" s="10"/>
+    </row>
+    <row r="585" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B585" s="10"/>
+    </row>
+    <row r="586" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B586" s="10"/>
+    </row>
+    <row r="587" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B587" s="10"/>
+    </row>
+    <row r="588" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B588" s="10"/>
+    </row>
+    <row r="589" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B589" s="10"/>
+    </row>
+    <row r="590" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B590" s="10"/>
+    </row>
+    <row r="591" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B591" s="10"/>
+    </row>
+    <row r="592" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B592" s="10"/>
+    </row>
+    <row r="593" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B593" s="10"/>
+    </row>
+    <row r="594" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B594" s="10"/>
+    </row>
+    <row r="595" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B595" s="10"/>
+    </row>
+    <row r="596" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B596" s="10"/>
+    </row>
+    <row r="597" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B597" s="10"/>
+    </row>
+    <row r="598" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B598" s="10"/>
+    </row>
+    <row r="599" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B599" s="10"/>
+    </row>
+    <row r="600" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B600" s="10"/>
+    </row>
+    <row r="601" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B601" s="10"/>
+    </row>
+    <row r="602" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B602" s="10"/>
+    </row>
+    <row r="603" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B603" s="10"/>
+    </row>
+    <row r="604" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B604" s="10"/>
+    </row>
+    <row r="605" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B605" s="10"/>
+    </row>
+    <row r="606" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B606" s="10"/>
+    </row>
+    <row r="607" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B607" s="10"/>
+    </row>
+    <row r="608" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B608" s="10"/>
+    </row>
+    <row r="609" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B609" s="10"/>
+    </row>
+    <row r="610" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B610" s="10"/>
+    </row>
+    <row r="611" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B611" s="10"/>
+    </row>
+    <row r="612" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B612" s="10"/>
+    </row>
+    <row r="613" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B613" s="10"/>
+    </row>
+    <row r="614" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B614" s="10"/>
+    </row>
+    <row r="615" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B615" s="10"/>
+    </row>
+    <row r="616" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B616" s="10"/>
+    </row>
+    <row r="617" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B617" s="10"/>
+    </row>
+    <row r="618" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B618" s="10"/>
+    </row>
+    <row r="619" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B619" s="10"/>
+    </row>
+    <row r="620" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B620" s="10"/>
+    </row>
+    <row r="621" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B621" s="10"/>
+    </row>
+    <row r="622" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B622" s="10"/>
+    </row>
+    <row r="623" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B623" s="10"/>
+    </row>
+    <row r="624" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B624" s="10"/>
+    </row>
+    <row r="625" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B625" s="10"/>
+    </row>
+    <row r="626" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B626" s="10"/>
+    </row>
+    <row r="627" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B627" s="10"/>
+    </row>
+    <row r="628" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B628" s="10"/>
+    </row>
+    <row r="629" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B629" s="10"/>
+    </row>
+    <row r="630" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B630" s="10"/>
+    </row>
+    <row r="631" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B631" s="10"/>
+    </row>
+    <row r="632" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B632" s="10"/>
+    </row>
+    <row r="633" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B633" s="10"/>
+    </row>
+    <row r="634" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B634" s="10"/>
+    </row>
+    <row r="635" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B635" s="10"/>
+    </row>
+    <row r="636" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B636" s="10"/>
+    </row>
+    <row r="637" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B637" s="10"/>
+    </row>
+    <row r="638" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B638" s="10"/>
+    </row>
+    <row r="639" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B639" s="10"/>
+    </row>
+    <row r="640" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B640" s="10"/>
+    </row>
+    <row r="641" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B641" s="10"/>
+    </row>
+    <row r="642" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B642" s="10"/>
+    </row>
+    <row r="643" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B643" s="10"/>
+    </row>
+    <row r="644" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B644" s="10"/>
+    </row>
+    <row r="645" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B645" s="10"/>
+    </row>
+    <row r="646" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B646" s="10"/>
+    </row>
+    <row r="647" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B647" s="10"/>
+    </row>
+    <row r="648" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B648" s="10"/>
+    </row>
+    <row r="649" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B649" s="10"/>
+    </row>
+    <row r="650" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B650" s="10"/>
+    </row>
+    <row r="651" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B651" s="10"/>
+    </row>
+    <row r="652" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B652" s="10"/>
+    </row>
+    <row r="653" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B653" s="10"/>
+    </row>
+    <row r="654" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B654" s="10"/>
+    </row>
+    <row r="655" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B655" s="10"/>
+    </row>
+    <row r="656" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B656" s="10"/>
+    </row>
+    <row r="657" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B657" s="10"/>
+    </row>
+    <row r="658" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B658" s="10"/>
+    </row>
+    <row r="659" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B659" s="10"/>
+    </row>
+    <row r="660" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B660" s="10"/>
+    </row>
+    <row r="661" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B661" s="10"/>
+    </row>
+    <row r="662" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B662" s="10"/>
+    </row>
+    <row r="663" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B663" s="10"/>
+    </row>
+    <row r="664" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B664" s="10"/>
+    </row>
+    <row r="665" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B665" s="10"/>
+    </row>
+    <row r="666" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B666" s="10"/>
+    </row>
+    <row r="667" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B667" s="10"/>
+    </row>
+    <row r="668" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B668" s="10"/>
+    </row>
+    <row r="669" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B669" s="10"/>
+    </row>
+    <row r="670" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B670" s="10"/>
+    </row>
+    <row r="671" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B671" s="10"/>
+    </row>
+    <row r="672" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B672" s="10"/>
+    </row>
+    <row r="673" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B673" s="10"/>
+    </row>
+    <row r="674" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B674" s="10"/>
+    </row>
+    <row r="675" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B675" s="10"/>
+    </row>
+    <row r="676" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B676" s="10"/>
+    </row>
+    <row r="677" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B677" s="10"/>
+    </row>
+    <row r="678" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B678" s="10"/>
+    </row>
+    <row r="679" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B679" s="10"/>
+    </row>
+    <row r="680" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B680" s="10"/>
+    </row>
+    <row r="681" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B681" s="10"/>
+    </row>
+    <row r="682" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B682" s="10"/>
+    </row>
+    <row r="683" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B683" s="10"/>
+    </row>
+    <row r="684" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B684" s="10"/>
+    </row>
+    <row r="685" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B685" s="10"/>
+    </row>
+    <row r="686" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B686" s="10"/>
+    </row>
+    <row r="687" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B687" s="10"/>
+    </row>
+    <row r="688" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B688" s="10"/>
+    </row>
+    <row r="689" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B689" s="10"/>
+    </row>
+    <row r="690" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B690" s="10"/>
+    </row>
+    <row r="691" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B691" s="10"/>
+    </row>
+    <row r="692" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B692" s="10"/>
+    </row>
+    <row r="693" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B693" s="10"/>
+    </row>
+    <row r="694" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B694" s="10"/>
+    </row>
+    <row r="695" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B695" s="10"/>
+    </row>
+    <row r="696" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B696" s="10"/>
+    </row>
+    <row r="697" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B697" s="10"/>
+    </row>
+    <row r="698" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B698" s="10"/>
+    </row>
+    <row r="699" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B699" s="10"/>
+    </row>
+    <row r="700" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B700" s="10"/>
+    </row>
+    <row r="701" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B701" s="10"/>
+    </row>
+    <row r="702" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B702" s="10"/>
+    </row>
+    <row r="703" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B703" s="10"/>
+    </row>
+    <row r="704" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B704" s="10"/>
+    </row>
+    <row r="705" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B705" s="10"/>
+    </row>
+    <row r="706" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B706" s="10"/>
+    </row>
+    <row r="707" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B707" s="10"/>
+    </row>
+    <row r="708" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B708" s="10"/>
+    </row>
+    <row r="709" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B709" s="10"/>
+    </row>
+    <row r="710" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B710" s="10"/>
+    </row>
+    <row r="711" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B711" s="10"/>
+    </row>
+    <row r="712" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B712" s="10"/>
+    </row>
+    <row r="713" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B713" s="10"/>
+    </row>
+    <row r="714" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B714" s="10"/>
+    </row>
+    <row r="715" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B715" s="10"/>
+    </row>
+    <row r="716" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B716" s="10"/>
+    </row>
+    <row r="717" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B717" s="10"/>
+    </row>
+    <row r="718" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B718" s="10"/>
+    </row>
+    <row r="719" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B719" s="10"/>
+    </row>
+    <row r="720" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B720" s="10"/>
+    </row>
+    <row r="721" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B721" s="10"/>
+    </row>
+    <row r="722" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B722" s="10"/>
+    </row>
+    <row r="723" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B723" s="10"/>
+    </row>
+    <row r="724" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B724" s="10"/>
+    </row>
+    <row r="725" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B725" s="10"/>
+    </row>
+    <row r="726" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B726" s="10"/>
+    </row>
+    <row r="727" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B727" s="10"/>
+    </row>
+    <row r="728" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B728" s="10"/>
+    </row>
+    <row r="729" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B729" s="10"/>
+    </row>
+    <row r="730" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B730" s="10"/>
+    </row>
+    <row r="731" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B731" s="10"/>
+    </row>
+    <row r="732" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B732" s="10"/>
+    </row>
+    <row r="733" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B733" s="10"/>
+    </row>
+    <row r="734" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B734" s="10"/>
+    </row>
+    <row r="735" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B735" s="10"/>
+    </row>
+    <row r="736" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B736" s="10"/>
+    </row>
+    <row r="737" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B737" s="10"/>
+    </row>
+    <row r="738" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B738" s="10"/>
+    </row>
+    <row r="739" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B739" s="10"/>
+    </row>
+    <row r="740" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B740" s="10"/>
+    </row>
+    <row r="741" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B741" s="10"/>
+    </row>
+    <row r="742" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B742" s="10"/>
+    </row>
+    <row r="743" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B743" s="10"/>
+    </row>
+    <row r="744" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B744" s="10"/>
+    </row>
+    <row r="745" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B745" s="10"/>
+    </row>
+    <row r="746" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B746" s="10"/>
+    </row>
+    <row r="747" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B747" s="10"/>
+    </row>
+    <row r="748" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B748" s="10"/>
+    </row>
+    <row r="749" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B749" s="10"/>
+    </row>
+    <row r="750" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B750" s="10"/>
+    </row>
+    <row r="751" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B751" s="10"/>
+    </row>
+    <row r="752" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B752" s="10"/>
+    </row>
+    <row r="753" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B753" s="10"/>
+    </row>
+    <row r="754" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B754" s="10"/>
+    </row>
+    <row r="755" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B755" s="10"/>
+    </row>
+    <row r="756" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B756" s="10"/>
+    </row>
+    <row r="757" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B757" s="10"/>
+    </row>
+    <row r="758" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B758" s="10"/>
+    </row>
+    <row r="759" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B759" s="10"/>
+    </row>
+    <row r="760" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B760" s="10"/>
+    </row>
+    <row r="761" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B761" s="10"/>
+    </row>
+    <row r="762" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B762" s="10"/>
+    </row>
+    <row r="763" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B763" s="10"/>
+    </row>
+    <row r="764" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B764" s="10"/>
+    </row>
+    <row r="765" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B765" s="10"/>
+    </row>
+    <row r="766" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B766" s="10"/>
+    </row>
+    <row r="767" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B767" s="10"/>
+    </row>
+    <row r="768" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B768" s="10"/>
+    </row>
+    <row r="769" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B769" s="10"/>
+    </row>
+    <row r="770" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B770" s="10"/>
+    </row>
+    <row r="771" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B771" s="10"/>
+    </row>
+    <row r="772" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B772" s="10"/>
+    </row>
+    <row r="773" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B773" s="10"/>
+    </row>
+    <row r="774" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B774" s="10"/>
+    </row>
+    <row r="775" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B775" s="10"/>
+    </row>
+    <row r="776" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B776" s="10"/>
+    </row>
+    <row r="777" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B777" s="10"/>
+    </row>
+    <row r="778" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B778" s="10"/>
+    </row>
+    <row r="779" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B779" s="10"/>
+    </row>
+    <row r="780" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B780" s="10"/>
+    </row>
+    <row r="781" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B781" s="10"/>
+    </row>
+    <row r="782" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B782" s="10"/>
+    </row>
+    <row r="783" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B783" s="10"/>
+    </row>
+    <row r="784" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B784" s="10"/>
+    </row>
+    <row r="785" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B785" s="10"/>
+    </row>
+    <row r="786" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B786" s="10"/>
+    </row>
+    <row r="787" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B787" s="10"/>
+    </row>
+    <row r="788" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B788" s="10"/>
+    </row>
+    <row r="789" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B789" s="10"/>
+    </row>
+    <row r="790" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B790" s="10"/>
+    </row>
+    <row r="791" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B791" s="10"/>
+    </row>
+    <row r="792" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B792" s="10"/>
+    </row>
+    <row r="793" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B793" s="10"/>
+    </row>
+    <row r="794" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B794" s="10"/>
+    </row>
+    <row r="795" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B795" s="10"/>
+    </row>
+    <row r="796" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B796" s="10"/>
+    </row>
+    <row r="797" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B797" s="10"/>
+    </row>
+    <row r="798" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B798" s="10"/>
+    </row>
+    <row r="799" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B799" s="10"/>
+    </row>
+    <row r="800" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B800" s="10"/>
+    </row>
+    <row r="801" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B801" s="10"/>
+    </row>
+    <row r="802" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B802" s="10"/>
+    </row>
+    <row r="803" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B803" s="10"/>
+    </row>
+    <row r="804" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B804" s="10"/>
+    </row>
+    <row r="805" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B805" s="10"/>
+    </row>
+    <row r="806" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B806" s="10"/>
+    </row>
+    <row r="807" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B807" s="10"/>
+    </row>
+    <row r="808" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B808" s="10"/>
+    </row>
+    <row r="809" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B809" s="10"/>
+    </row>
+    <row r="810" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B810" s="10"/>
+    </row>
+    <row r="811" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B811" s="10"/>
+    </row>
+    <row r="812" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B812" s="10"/>
+    </row>
+    <row r="813" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B813" s="10"/>
+    </row>
+    <row r="814" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B814" s="10"/>
+    </row>
+    <row r="815" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B815" s="10"/>
+    </row>
+    <row r="816" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B816" s="10"/>
+    </row>
+    <row r="817" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B817" s="10"/>
+    </row>
+    <row r="818" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B818" s="10"/>
+    </row>
+    <row r="819" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B819" s="10"/>
+    </row>
+    <row r="820" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B820" s="10"/>
+    </row>
+    <row r="821" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B821" s="10"/>
+    </row>
+    <row r="822" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B822" s="10"/>
+    </row>
+    <row r="823" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B823" s="10"/>
+    </row>
+    <row r="824" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B824" s="10"/>
+    </row>
+    <row r="825" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B825" s="10"/>
+    </row>
+    <row r="826" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B826" s="10"/>
+    </row>
+    <row r="827" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B827" s="10"/>
+    </row>
+    <row r="828" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B828" s="10"/>
+    </row>
+    <row r="829" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B829" s="10"/>
+    </row>
+    <row r="830" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B830" s="10"/>
+    </row>
+    <row r="831" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B831" s="10"/>
+    </row>
+    <row r="832" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B832" s="10"/>
+    </row>
+    <row r="833" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B833" s="10"/>
+    </row>
+    <row r="834" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B834" s="10"/>
+    </row>
+    <row r="835" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B835" s="10"/>
+    </row>
+    <row r="836" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B836" s="10"/>
+    </row>
+    <row r="837" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B837" s="10"/>
+    </row>
+    <row r="838" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B838" s="10"/>
+    </row>
+    <row r="839" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B839" s="10"/>
+    </row>
+    <row r="840" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B840" s="10"/>
+    </row>
+    <row r="841" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B841" s="10"/>
+    </row>
+    <row r="842" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B842" s="10"/>
+    </row>
+    <row r="843" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B843" s="10"/>
+    </row>
+    <row r="844" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B844" s="10"/>
+    </row>
+    <row r="845" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B845" s="10"/>
+    </row>
+    <row r="846" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B846" s="10"/>
+    </row>
+    <row r="847" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B847" s="10"/>
+    </row>
+    <row r="848" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B848" s="10"/>
+    </row>
+    <row r="849" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B849" s="10"/>
+    </row>
+    <row r="850" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B850" s="10"/>
+    </row>
+    <row r="851" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B851" s="10"/>
+    </row>
+    <row r="852" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B852" s="10"/>
+    </row>
+    <row r="853" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B853" s="10"/>
+    </row>
+    <row r="854" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B854" s="10"/>
+    </row>
+    <row r="855" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B855" s="10"/>
+    </row>
+    <row r="856" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B856" s="10"/>
+    </row>
+    <row r="857" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B857" s="10"/>
+    </row>
+    <row r="858" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B858" s="10"/>
+    </row>
+    <row r="859" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B859" s="10"/>
+    </row>
+    <row r="860" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B860" s="10"/>
+    </row>
+    <row r="861" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B861" s="10"/>
+    </row>
+    <row r="862" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B862" s="10"/>
+    </row>
+    <row r="863" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B863" s="10"/>
+    </row>
+    <row r="864" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B864" s="10"/>
+    </row>
+    <row r="865" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B865" s="10"/>
+    </row>
+    <row r="866" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B866" s="10"/>
+    </row>
+    <row r="867" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B867" s="10"/>
+    </row>
+    <row r="868" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B868" s="10"/>
+    </row>
+    <row r="869" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B869" s="10"/>
+    </row>
+    <row r="870" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B870" s="10"/>
+    </row>
+    <row r="871" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B871" s="10"/>
+    </row>
+    <row r="872" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B872" s="10"/>
+    </row>
+    <row r="873" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B873" s="10"/>
+    </row>
+    <row r="874" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B874" s="10"/>
+    </row>
+    <row r="875" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B875" s="10"/>
+    </row>
+    <row r="876" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B876" s="10"/>
+    </row>
+    <row r="877" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B877" s="10"/>
+    </row>
+    <row r="878" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B878" s="10"/>
+    </row>
+    <row r="879" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B879" s="10"/>
+    </row>
+    <row r="880" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B880" s="10"/>
+    </row>
+    <row r="881" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B881" s="10"/>
+    </row>
+    <row r="882" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B882" s="10"/>
+    </row>
+    <row r="883" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B883" s="10"/>
+    </row>
+    <row r="884" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B884" s="10"/>
+    </row>
+    <row r="885" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B885" s="10"/>
+    </row>
+    <row r="886" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B886" s="10"/>
+    </row>
+    <row r="887" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B887" s="10"/>
+    </row>
+    <row r="888" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B888" s="10"/>
+    </row>
+    <row r="889" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B889" s="10"/>
+    </row>
+    <row r="890" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B890" s="10"/>
+    </row>
+    <row r="891" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B891" s="10"/>
+    </row>
+    <row r="892" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B892" s="10"/>
+    </row>
+    <row r="893" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B893" s="10"/>
+    </row>
+    <row r="894" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B894" s="10"/>
+    </row>
+    <row r="895" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B895" s="10"/>
+    </row>
+    <row r="896" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B896" s="10"/>
+    </row>
+    <row r="897" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B897" s="10"/>
+    </row>
+    <row r="898" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B898" s="10"/>
+    </row>
+    <row r="899" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B899" s="10"/>
+    </row>
+    <row r="900" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B900" s="10"/>
+    </row>
+    <row r="901" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B901" s="10"/>
+    </row>
+    <row r="902" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B902" s="10"/>
+    </row>
+    <row r="903" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B903" s="10"/>
+    </row>
+    <row r="904" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B904" s="10"/>
+    </row>
+    <row r="905" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B905" s="10"/>
+    </row>
+    <row r="906" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B906" s="10"/>
+    </row>
+    <row r="907" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B907" s="10"/>
+    </row>
+    <row r="908" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B908" s="10"/>
+    </row>
+    <row r="909" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B909" s="10"/>
+    </row>
+    <row r="910" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B910" s="10"/>
+    </row>
+    <row r="911" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B911" s="10"/>
+    </row>
+    <row r="912" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B912" s="10"/>
+    </row>
+    <row r="913" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B913" s="10"/>
+    </row>
+    <row r="914" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B914" s="10"/>
+    </row>
+    <row r="915" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B915" s="10"/>
+    </row>
+    <row r="916" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B916" s="10"/>
+    </row>
+    <row r="917" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B917" s="10"/>
+    </row>
+    <row r="918" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B918" s="10"/>
+    </row>
+    <row r="919" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B919" s="10"/>
+    </row>
+    <row r="920" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B920" s="10"/>
+    </row>
+    <row r="921" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B921" s="10"/>
+    </row>
+    <row r="922" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B922" s="10"/>
+    </row>
+    <row r="923" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B923" s="10"/>
+    </row>
+    <row r="924" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B924" s="10"/>
+    </row>
+    <row r="925" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B925" s="10"/>
+    </row>
+    <row r="926" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B926" s="10"/>
+    </row>
+    <row r="927" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B927" s="10"/>
+    </row>
+    <row r="928" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B928" s="10"/>
+    </row>
+    <row r="929" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B929" s="10"/>
+    </row>
+    <row r="930" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B930" s="10"/>
+    </row>
+    <row r="931" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B931" s="10"/>
+    </row>
+    <row r="932" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B932" s="10"/>
+    </row>
+    <row r="933" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B933" s="10"/>
+    </row>
+    <row r="934" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B934" s="10"/>
+    </row>
+    <row r="935" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B935" s="10"/>
+    </row>
+    <row r="936" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B936" s="10"/>
+    </row>
+    <row r="937" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B937" s="10"/>
+    </row>
+    <row r="938" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B938" s="10"/>
+    </row>
+    <row r="939" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B939" s="10"/>
+    </row>
+    <row r="940" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B940" s="10"/>
+    </row>
+    <row r="941" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B941" s="10"/>
+    </row>
+    <row r="942" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B942" s="10"/>
+    </row>
+    <row r="943" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B943" s="10"/>
+    </row>
+    <row r="944" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B944" s="10"/>
+    </row>
+    <row r="945" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B945" s="10"/>
+    </row>
+    <row r="946" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B946" s="10"/>
+    </row>
+    <row r="947" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B947" s="10"/>
+    </row>
+    <row r="948" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B948" s="10"/>
+    </row>
+    <row r="949" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B949" s="10"/>
+    </row>
+    <row r="950" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B950" s="10"/>
+    </row>
+    <row r="951" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B951" s="10"/>
+    </row>
+    <row r="952" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B952" s="10"/>
+    </row>
+    <row r="953" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B953" s="10"/>
+    </row>
+    <row r="954" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B954" s="10"/>
+    </row>
+    <row r="955" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B955" s="10"/>
+    </row>
+    <row r="956" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B956" s="10"/>
+    </row>
+    <row r="957" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B957" s="10"/>
+    </row>
+    <row r="958" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B958" s="10"/>
+    </row>
+    <row r="959" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B959" s="10"/>
+    </row>
+    <row r="960" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B960" s="10"/>
+    </row>
+    <row r="961" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B961" s="10"/>
+    </row>
+    <row r="962" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B962" s="10"/>
+    </row>
+    <row r="963" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B963" s="10"/>
+    </row>
+    <row r="964" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B964" s="10"/>
+    </row>
+    <row r="965" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B965" s="10"/>
+    </row>
+    <row r="966" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B966" s="10"/>
+    </row>
+    <row r="967" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B967" s="10"/>
+    </row>
+    <row r="968" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B968" s="10"/>
+    </row>
+    <row r="969" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B969" s="10"/>
+    </row>
+    <row r="970" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B970" s="10"/>
+    </row>
+    <row r="971" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B971" s="10"/>
+    </row>
+    <row r="972" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B972" s="10"/>
+    </row>
+    <row r="973" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B973" s="10"/>
+    </row>
+    <row r="974" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B974" s="10"/>
+    </row>
+    <row r="975" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B975" s="10"/>
+    </row>
+    <row r="976" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B976" s="10"/>
+    </row>
+    <row r="977" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B977" s="10"/>
+    </row>
+    <row r="978" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B978" s="10"/>
+    </row>
+    <row r="979" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B979" s="10"/>
+    </row>
+    <row r="980" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B980" s="10"/>
+    </row>
+    <row r="981" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B981" s="10"/>
+    </row>
+    <row r="982" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B982" s="10"/>
+    </row>
+    <row r="983" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B983" s="10"/>
+    </row>
+    <row r="984" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B984" s="10"/>
+    </row>
+    <row r="985" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B985" s="10"/>
+    </row>
+    <row r="986" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B986" s="10"/>
+    </row>
+    <row r="987" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B987" s="10"/>
+    </row>
+    <row r="988" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B988" s="10"/>
+    </row>
+    <row r="989" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B989" s="10"/>
+    </row>
+    <row r="990" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B990" s="10"/>
+    </row>
+    <row r="991" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B991" s="10"/>
+    </row>
+    <row r="992" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B992" s="10"/>
+    </row>
+    <row r="993" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B993" s="10"/>
+    </row>
+    <row r="994" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B994" s="10"/>
+    </row>
+    <row r="995" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B995" s="10"/>
+    </row>
+    <row r="996" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B996" s="10"/>
+    </row>
+    <row r="997" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B997" s="10"/>
+    </row>
+    <row r="998" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B998" s="10"/>
+    </row>
+    <row r="999" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B999" s="10"/>
+    </row>
+    <row r="1000" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1000" s="10"/>
+    </row>
+    <row r="1001" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1001" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -21422,7 +21089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:D1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -22488,7 +22155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:D1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
